--- a/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_FIXA_P1.xlsx
+++ b/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_FIXA_P1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="915" yWindow="225" windowWidth="14700" windowHeight="5475" activeTab="2"/>
@@ -13,7 +13,7 @@
     <sheet name="Mapeamento" sheetId="8" r:id="rId4"/>
     <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1098,8 +1098,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1888,6 +1888,27 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1900,15 +1921,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1948,20 +1960,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1978,12 +1990,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1996,9 +2002,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2026,41 +2029,38 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2084,7 +2084,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2114,7 +2114,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2181,7 +2181,7 @@
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2229,7 +2229,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2252,14 +2252,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2302,7 +2302,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2325,14 +2325,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2346,6 +2346,52 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15362" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s15362"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2435,6 +2481,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2469,6 +2516,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2644,7 +2692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2652,7 +2700,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="16" customWidth="1"/>
@@ -2661,13 +2709,13 @@
     <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" customHeight="1">
-      <c r="C2" s="91" t="s">
+    <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="91"/>
-    </row>
-    <row r="3" spans="2:10" ht="15">
+      <c r="D2" s="98"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="17" t="s">
         <v>143</v>
       </c>
@@ -2675,22 +2723,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C4" s="17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C5" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1">
+    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
@@ -2701,135 +2749,143 @@
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
     </row>
-    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
-    <row r="9" spans="2:10">
-      <c r="B9" s="98" t="s">
+    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="100"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="101"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="103"/>
-    </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1">
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="104"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="105"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="44" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="104" t="s">
+      <c r="D11" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104" t="s">
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="105"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="109"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="30" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="29">
         <v>41236</v>
       </c>
-      <c r="D12" s="106" t="s">
+      <c r="D12" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="107"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="110"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="E12" s="111"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="114"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="101"/>
       <c r="G13" s="95"/>
       <c r="H13" s="96"/>
       <c r="I13" s="96"/>
       <c r="J13" s="97"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="95"/>
       <c r="H14" s="96"/>
       <c r="I14" s="96"/>
       <c r="J14" s="97"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
       <c r="G15" s="95"/>
       <c r="H15" s="96"/>
       <c r="I15" s="96"/>
       <c r="J15" s="97"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
       <c r="G16" s="95"/>
       <c r="H16" s="96"/>
       <c r="I16" s="96"/>
       <c r="J16" s="97"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="113"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="94"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="113"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -2840,14 +2896,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -2857,7 +2905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2865,7 +2913,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="16" customWidth="1"/>
@@ -2874,7 +2922,7 @@
     <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18">
+    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="17" t="s">
         <v>146</v>
       </c>
@@ -2883,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15">
+    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="17" t="s">
         <v>147</v>
       </c>
@@ -2892,7 +2940,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13.5" thickBot="1">
+    <row r="4" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -2903,38 +2951,38 @@
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
     </row>
-    <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
-    <row r="6" spans="2:10">
-      <c r="B6" s="114" t="s">
+    <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="51" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="114" t="s">
+      <c r="D7" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="83" t="s">
         <v>112</v>
       </c>
@@ -2947,7 +2995,7 @@
       <c r="I8" s="115"/>
       <c r="J8" s="115"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="83" t="s">
         <v>118</v>
       </c>
@@ -2960,7 +3008,7 @@
       <c r="I9" s="115"/>
       <c r="J9" s="115"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="83" t="s">
         <v>113</v>
       </c>
@@ -2973,7 +3021,7 @@
       <c r="I10" s="115"/>
       <c r="J10" s="115"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="83" t="s">
         <v>114</v>
       </c>
@@ -2986,7 +3034,7 @@
       <c r="I11" s="115"/>
       <c r="J11" s="115"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="83" t="s">
         <v>116</v>
       </c>
@@ -2999,20 +3047,20 @@
       <c r="I12" s="115"/>
       <c r="J12" s="115"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="83" t="s">
         <v>115</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-    </row>
-    <row r="14" spans="2:10" ht="13.5" thickBot="1">
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+    </row>
+    <row r="14" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -3023,20 +3071,20 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="121" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-    </row>
-    <row r="16" spans="2:10" ht="23.25" customHeight="1">
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+    </row>
+    <row r="16" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="47" t="s">
         <v>61</v>
       </c>
@@ -3046,18 +3094,18 @@
       <c r="D16" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="123" t="s">
+      <c r="E16" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="125"/>
-      <c r="G16" s="123" t="s">
+      <c r="F16" s="127"/>
+      <c r="G16" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="125"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>138</v>
       </c>
@@ -3065,27 +3113,27 @@
       <c r="D17" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="117" t="s">
+      <c r="E17" s="121" t="s">
         <v>140</v>
       </c>
-      <c r="F17" s="118"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="126"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="F17" s="122"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="9"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="126"/>
-    </row>
-    <row r="19" spans="2:10" ht="13.5" thickBot="1">
+      <c r="E18" s="121"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+    </row>
+    <row r="19" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3096,14 +3144,14 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B20" s="121" t="s">
+    <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="46" t="s">
         <v>62</v>
       </c>
@@ -3114,7 +3162,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="25.5">
+    <row r="22" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="81" t="s">
         <v>137</v>
       </c>
@@ -3123,12 +3171,12 @@
       </c>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3139,20 +3187,20 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B25" s="114" t="s">
+    <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="114"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="51" t="s">
         <v>67</v>
       </c>
@@ -3162,61 +3210,52 @@
       <c r="D26" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="116" t="s">
+      <c r="E26" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116" t="s">
+      <c r="F26" s="120"/>
+      <c r="G26" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="12"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="127"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="127"/>
-      <c r="J27" s="127"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="116"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="127"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="127"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D7:J7"/>
@@ -3233,6 +3272,15 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3243,26 +3291,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
-    <oleObject progId="Visio.Drawing.11" shapeId="15362" r:id="rId2"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="15362" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="15362" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3275,7 +3351,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -3308,52 +3384,52 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
       <c r="D1" s="79"/>
       <c r="Q1" s="55"/>
       <c r="R1" s="55"/>
       <c r="S1" s="55"/>
       <c r="T1" s="55"/>
     </row>
-    <row r="2" spans="2:29" ht="25.5" customHeight="1">
-      <c r="B2" s="141" t="s">
+    <row r="2" spans="2:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="143" t="s">
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="143"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="139" t="s">
+      <c r="O2" s="142"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="140"/>
-      <c r="AB2" s="140"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
+      <c r="AB2" s="139"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="23.25">
+    <row r="3" spans="2:29" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -3437,7 +3513,7 @@
       </c>
       <c r="AC3" s="41"/>
     </row>
-    <row r="4" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="4" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B4" s="68" t="s">
         <v>120</v>
       </c>
@@ -3497,7 +3573,7 @@
       <c r="AB4" s="68"/>
       <c r="AC4" s="68"/>
     </row>
-    <row r="5" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="5" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B5" s="68" t="s">
         <v>120</v>
       </c>
@@ -3557,7 +3633,7 @@
       <c r="AB5" s="68"/>
       <c r="AC5" s="68"/>
     </row>
-    <row r="6" spans="2:29" s="10" customFormat="1" ht="12">
+    <row r="6" spans="2:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="68" t="s">
         <v>120</v>
       </c>
@@ -3617,7 +3693,7 @@
       <c r="AB6" s="68"/>
       <c r="AC6" s="68"/>
     </row>
-    <row r="7" spans="2:29" s="15" customFormat="1" ht="11.25" customHeight="1">
+    <row r="7" spans="2:29" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="68" t="s">
         <v>120</v>
       </c>
@@ -3673,7 +3749,7 @@
       <c r="AB7" s="68"/>
       <c r="AC7" s="68"/>
     </row>
-    <row r="8" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="8" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B8" s="68" t="s">
         <v>120</v>
       </c>
@@ -3729,7 +3805,7 @@
       <c r="AB8" s="68"/>
       <c r="AC8" s="68"/>
     </row>
-    <row r="9" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="9" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B9" s="68" t="s">
         <v>120</v>
       </c>
@@ -3789,7 +3865,7 @@
       <c r="AB9" s="70"/>
       <c r="AC9" s="70"/>
     </row>
-    <row r="10" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="10" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B10" s="68" t="s">
         <v>120</v>
       </c>
@@ -3849,7 +3925,7 @@
       <c r="AB10" s="70"/>
       <c r="AC10" s="70"/>
     </row>
-    <row r="11" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="11" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B11" s="68" t="s">
         <v>120</v>
       </c>
@@ -3909,7 +3985,7 @@
       <c r="AB11" s="70"/>
       <c r="AC11" s="70"/>
     </row>
-    <row r="12" spans="2:29" s="10" customFormat="1" ht="12">
+    <row r="12" spans="2:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="84"/>
       <c r="C12" s="84"/>
       <c r="D12" s="85"/>
@@ -3959,7 +4035,7 @@
       <c r="AB12" s="70"/>
       <c r="AC12" s="70"/>
     </row>
-    <row r="13" spans="2:29" s="15" customFormat="1" ht="12">
+    <row r="13" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="68" t="s">
         <v>120</v>
       </c>
@@ -4023,7 +4099,7 @@
       <c r="AB13" s="70"/>
       <c r="AC13" s="70"/>
     </row>
-    <row r="14" spans="2:29" s="15" customFormat="1" ht="12">
+    <row r="14" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B14" s="84"/>
       <c r="C14" s="84"/>
       <c r="D14" s="85"/>
@@ -4077,7 +4153,7 @@
       <c r="AB14" s="70"/>
       <c r="AC14" s="70"/>
     </row>
-    <row r="15" spans="2:29" s="15" customFormat="1" ht="12">
+    <row r="15" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="84"/>
       <c r="C15" s="84"/>
       <c r="D15" s="85"/>
@@ -4119,7 +4195,7 @@
       <c r="AB15" s="70"/>
       <c r="AC15" s="70"/>
     </row>
-    <row r="16" spans="2:29" s="3" customFormat="1" ht="12.75" customHeight="1">
+    <row r="16" spans="2:29" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="68" t="s">
         <v>120</v>
       </c>
@@ -4179,7 +4255,7 @@
       <c r="AB16" s="68"/>
       <c r="AC16" s="68"/>
     </row>
-    <row r="17" spans="2:29" s="3" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="2:29" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="68" t="s">
         <v>120</v>
       </c>
@@ -4239,7 +4315,7 @@
       <c r="AB17" s="68"/>
       <c r="AC17" s="68"/>
     </row>
-    <row r="18" spans="2:29" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="18" spans="2:29" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="68" t="s">
         <v>120</v>
       </c>
@@ -4299,7 +4375,7 @@
       <c r="AB18" s="68"/>
       <c r="AC18" s="68"/>
     </row>
-    <row r="19" spans="2:29" s="3" customFormat="1" ht="11.25" customHeight="1">
+    <row r="19" spans="2:29" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="68" t="s">
         <v>120</v>
       </c>
@@ -4355,7 +4431,7 @@
       <c r="AB19" s="68"/>
       <c r="AC19" s="68"/>
     </row>
-    <row r="20" spans="2:29">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B20" s="68" t="s">
         <v>120</v>
       </c>
@@ -4415,7 +4491,7 @@
       <c r="AB20" s="68"/>
       <c r="AC20" s="68"/>
     </row>
-    <row r="21" spans="2:29">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B21" s="68" t="s">
         <v>120</v>
       </c>
@@ -4475,7 +4551,7 @@
       <c r="AB21" s="68"/>
       <c r="AC21" s="68"/>
     </row>
-    <row r="22" spans="2:29">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B22" s="68" t="s">
         <v>120</v>
       </c>
@@ -4535,7 +4611,7 @@
       <c r="AB22" s="68"/>
       <c r="AC22" s="68"/>
     </row>
-    <row r="23" spans="2:29">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B23" s="68" t="s">
         <v>120</v>
       </c>
@@ -4595,7 +4671,7 @@
       <c r="AB23" s="68"/>
       <c r="AC23" s="68"/>
     </row>
-    <row r="24" spans="2:29">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B24" s="68" t="s">
         <v>120</v>
       </c>
@@ -4655,7 +4731,7 @@
       <c r="AB24" s="68"/>
       <c r="AC24" s="68"/>
     </row>
-    <row r="25" spans="2:29">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B25" s="68" t="s">
         <v>120</v>
       </c>
@@ -4715,7 +4791,7 @@
       <c r="AB25" s="68"/>
       <c r="AC25" s="68"/>
     </row>
-    <row r="26" spans="2:29" ht="12" customHeight="1">
+    <row r="26" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="68" t="s">
         <v>120</v>
       </c>
@@ -4775,7 +4851,7 @@
       <c r="AB26" s="68"/>
       <c r="AC26" s="68"/>
     </row>
-    <row r="27" spans="2:29">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B27" s="68" t="s">
         <v>120</v>
       </c>
@@ -4835,7 +4911,7 @@
       <c r="AB27" s="68"/>
       <c r="AC27" s="68"/>
     </row>
-    <row r="28" spans="2:29">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B28" s="68" t="s">
         <v>120</v>
       </c>
@@ -4895,7 +4971,7 @@
       <c r="AB28" s="68"/>
       <c r="AC28" s="68"/>
     </row>
-    <row r="29" spans="2:29">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B29" s="68" t="s">
         <v>120</v>
       </c>
@@ -4955,7 +5031,7 @@
       <c r="AB29" s="68"/>
       <c r="AC29" s="68"/>
     </row>
-    <row r="30" spans="2:29">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B30" s="68" t="s">
         <v>120</v>
       </c>
@@ -5015,7 +5091,7 @@
       <c r="AB30" s="68"/>
       <c r="AC30" s="68"/>
     </row>
-    <row r="31" spans="2:29">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B31" s="68" t="s">
         <v>120</v>
       </c>
@@ -5079,7 +5155,7 @@
       <c r="AB31" s="68"/>
       <c r="AC31" s="68"/>
     </row>
-    <row r="32" spans="2:29">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B32" s="68" t="s">
         <v>120</v>
       </c>
@@ -5139,7 +5215,7 @@
       <c r="AB32" s="68"/>
       <c r="AC32" s="68"/>
     </row>
-    <row r="33" spans="2:29">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B33" s="68" t="s">
         <v>120</v>
       </c>
@@ -5199,7 +5275,7 @@
       <c r="AB33" s="68"/>
       <c r="AC33" s="68"/>
     </row>
-    <row r="34" spans="2:29">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B34" s="68" t="s">
         <v>120</v>
       </c>
@@ -5259,7 +5335,7 @@
       <c r="AB34" s="68"/>
       <c r="AC34" s="68"/>
     </row>
-    <row r="35" spans="2:29">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B35" s="68" t="s">
         <v>120</v>
       </c>
@@ -5319,7 +5395,7 @@
       <c r="AB35" s="68"/>
       <c r="AC35" s="68"/>
     </row>
-    <row r="36" spans="2:29">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B36" s="68" t="s">
         <v>120</v>
       </c>
@@ -5379,7 +5455,7 @@
       <c r="AB36" s="68"/>
       <c r="AC36" s="68"/>
     </row>
-    <row r="37" spans="2:29">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="87"/>
       <c r="C37" s="87"/>
       <c r="D37" s="85"/>
@@ -5429,7 +5505,7 @@
       <c r="AB37" s="68"/>
       <c r="AC37" s="68"/>
     </row>
-    <row r="38" spans="2:29" ht="42" customHeight="1">
+    <row r="38" spans="2:29" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="68" t="s">
         <v>120</v>
       </c>
@@ -5460,26 +5536,26 @@
         <v>2</v>
       </c>
       <c r="M38" s="68"/>
-      <c r="N38" s="131" t="s">
+      <c r="N38" s="132" t="s">
         <v>132</v>
       </c>
-      <c r="O38" s="134"/>
-      <c r="P38" s="134"/>
-      <c r="Q38" s="128" t="s">
-        <v>121</v>
-      </c>
-      <c r="R38" s="128" t="s">
-        <v>122</v>
-      </c>
-      <c r="S38" s="128" t="s">
-        <v>122</v>
-      </c>
-      <c r="T38" s="128" t="s">
+      <c r="O38" s="135"/>
+      <c r="P38" s="135"/>
+      <c r="Q38" s="129" t="s">
+        <v>121</v>
+      </c>
+      <c r="R38" s="129" t="s">
+        <v>122</v>
+      </c>
+      <c r="S38" s="129" t="s">
+        <v>122</v>
+      </c>
+      <c r="T38" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="U38" s="145"/>
-      <c r="V38" s="145"/>
-      <c r="W38" s="145"/>
+      <c r="U38" s="144"/>
+      <c r="V38" s="144"/>
+      <c r="W38" s="144"/>
       <c r="X38" s="68"/>
       <c r="Y38" s="68"/>
       <c r="Z38" s="68"/>
@@ -5487,7 +5563,7 @@
       <c r="AB38" s="68"/>
       <c r="AC38" s="68"/>
     </row>
-    <row r="39" spans="2:29" ht="44.25" customHeight="1">
+    <row r="39" spans="2:29" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="68" t="s">
         <v>120</v>
       </c>
@@ -5514,16 +5590,16 @@
       <c r="K39" s="68"/>
       <c r="L39" s="68"/>
       <c r="M39" s="68"/>
-      <c r="N39" s="132"/>
-      <c r="O39" s="135"/>
-      <c r="P39" s="135"/>
-      <c r="Q39" s="129"/>
-      <c r="R39" s="129"/>
-      <c r="S39" s="129"/>
-      <c r="T39" s="129"/>
-      <c r="U39" s="146"/>
-      <c r="V39" s="146"/>
-      <c r="W39" s="146"/>
+      <c r="N39" s="133"/>
+      <c r="O39" s="136"/>
+      <c r="P39" s="136"/>
+      <c r="Q39" s="130"/>
+      <c r="R39" s="130"/>
+      <c r="S39" s="130"/>
+      <c r="T39" s="130"/>
+      <c r="U39" s="145"/>
+      <c r="V39" s="145"/>
+      <c r="W39" s="145"/>
       <c r="X39" s="68"/>
       <c r="Y39" s="68"/>
       <c r="Z39" s="68"/>
@@ -5531,7 +5607,7 @@
       <c r="AB39" s="68"/>
       <c r="AC39" s="68"/>
     </row>
-    <row r="40" spans="2:29" ht="58.5" customHeight="1">
+    <row r="40" spans="2:29" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="68" t="s">
         <v>120</v>
       </c>
@@ -5558,16 +5634,16 @@
       <c r="K40" s="68"/>
       <c r="L40" s="68"/>
       <c r="M40" s="68"/>
-      <c r="N40" s="133"/>
-      <c r="O40" s="136"/>
-      <c r="P40" s="136"/>
-      <c r="Q40" s="130"/>
-      <c r="R40" s="130"/>
-      <c r="S40" s="130"/>
-      <c r="T40" s="130"/>
-      <c r="U40" s="147"/>
-      <c r="V40" s="147"/>
-      <c r="W40" s="147"/>
+      <c r="N40" s="134"/>
+      <c r="O40" s="137"/>
+      <c r="P40" s="137"/>
+      <c r="Q40" s="131"/>
+      <c r="R40" s="131"/>
+      <c r="S40" s="131"/>
+      <c r="T40" s="131"/>
+      <c r="U40" s="146"/>
+      <c r="V40" s="146"/>
+      <c r="W40" s="146"/>
       <c r="X40" s="68"/>
       <c r="Y40" s="68"/>
       <c r="Z40" s="68"/>
@@ -5575,7 +5651,7 @@
       <c r="AB40" s="68"/>
       <c r="AC40" s="68"/>
     </row>
-    <row r="41" spans="2:29" ht="46.5" customHeight="1">
+    <row r="41" spans="2:29" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="68" t="s">
         <v>120</v>
       </c>
@@ -5606,21 +5682,21 @@
         <v>2</v>
       </c>
       <c r="M41" s="68"/>
-      <c r="N41" s="131" t="s">
+      <c r="N41" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="O41" s="134"/>
-      <c r="P41" s="134"/>
-      <c r="Q41" s="128" t="s">
-        <v>121</v>
-      </c>
-      <c r="R41" s="128" t="s">
-        <v>122</v>
-      </c>
-      <c r="S41" s="128" t="s">
-        <v>122</v>
-      </c>
-      <c r="T41" s="128" t="s">
+      <c r="O41" s="135"/>
+      <c r="P41" s="135"/>
+      <c r="Q41" s="129" t="s">
+        <v>121</v>
+      </c>
+      <c r="R41" s="129" t="s">
+        <v>122</v>
+      </c>
+      <c r="S41" s="129" t="s">
+        <v>122</v>
+      </c>
+      <c r="T41" s="129" t="s">
         <v>109</v>
       </c>
       <c r="U41" s="68"/>
@@ -5633,7 +5709,7 @@
       <c r="AB41" s="68"/>
       <c r="AC41" s="68"/>
     </row>
-    <row r="42" spans="2:29" ht="36.75" customHeight="1">
+    <row r="42" spans="2:29" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="68" t="s">
         <v>120</v>
       </c>
@@ -5660,13 +5736,13 @@
       <c r="K42" s="68"/>
       <c r="L42" s="68"/>
       <c r="M42" s="68"/>
-      <c r="N42" s="137"/>
-      <c r="O42" s="135"/>
-      <c r="P42" s="135"/>
-      <c r="Q42" s="129"/>
-      <c r="R42" s="129"/>
-      <c r="S42" s="129"/>
-      <c r="T42" s="129"/>
+      <c r="N42" s="147"/>
+      <c r="O42" s="136"/>
+      <c r="P42" s="136"/>
+      <c r="Q42" s="130"/>
+      <c r="R42" s="130"/>
+      <c r="S42" s="130"/>
+      <c r="T42" s="130"/>
       <c r="U42" s="68"/>
       <c r="V42" s="68"/>
       <c r="W42" s="68"/>
@@ -5677,7 +5753,7 @@
       <c r="AB42" s="68"/>
       <c r="AC42" s="68"/>
     </row>
-    <row r="43" spans="2:29" ht="42.75" customHeight="1">
+    <row r="43" spans="2:29" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="68" t="s">
         <v>120</v>
       </c>
@@ -5704,13 +5780,13 @@
       <c r="K43" s="68"/>
       <c r="L43" s="68"/>
       <c r="M43" s="68"/>
-      <c r="N43" s="138"/>
-      <c r="O43" s="136"/>
-      <c r="P43" s="136"/>
-      <c r="Q43" s="130"/>
-      <c r="R43" s="130"/>
-      <c r="S43" s="130"/>
-      <c r="T43" s="130"/>
+      <c r="N43" s="148"/>
+      <c r="O43" s="137"/>
+      <c r="P43" s="137"/>
+      <c r="Q43" s="131"/>
+      <c r="R43" s="131"/>
+      <c r="S43" s="131"/>
+      <c r="T43" s="131"/>
       <c r="U43" s="68"/>
       <c r="V43" s="68"/>
       <c r="W43" s="68"/>
@@ -5721,7 +5797,7 @@
       <c r="AB43" s="68"/>
       <c r="AC43" s="68"/>
     </row>
-    <row r="44" spans="2:29">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B44" s="84"/>
       <c r="C44" s="84"/>
       <c r="D44" s="89"/>
@@ -5763,7 +5839,7 @@
       <c r="AB44" s="68"/>
       <c r="AC44" s="68"/>
     </row>
-    <row r="45" spans="2:29" ht="12.75" customHeight="1">
+    <row r="45" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="68" t="s">
         <v>120</v>
       </c>
@@ -5792,21 +5868,21 @@
       </c>
       <c r="L45" s="68"/>
       <c r="M45" s="68"/>
-      <c r="N45" s="131" t="s">
+      <c r="N45" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="O45" s="134"/>
-      <c r="P45" s="134"/>
-      <c r="Q45" s="128" t="s">
-        <v>121</v>
-      </c>
-      <c r="R45" s="128" t="s">
-        <v>122</v>
-      </c>
-      <c r="S45" s="128" t="s">
-        <v>122</v>
-      </c>
-      <c r="T45" s="128" t="s">
+      <c r="O45" s="135"/>
+      <c r="P45" s="135"/>
+      <c r="Q45" s="129" t="s">
+        <v>121</v>
+      </c>
+      <c r="R45" s="129" t="s">
+        <v>122</v>
+      </c>
+      <c r="S45" s="129" t="s">
+        <v>122</v>
+      </c>
+      <c r="T45" s="129" t="s">
         <v>110</v>
       </c>
       <c r="U45" s="68"/>
@@ -5819,7 +5895,7 @@
       <c r="AB45" s="68"/>
       <c r="AC45" s="68"/>
     </row>
-    <row r="46" spans="2:29">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B46" s="84"/>
       <c r="C46" s="84"/>
       <c r="D46" s="84"/>
@@ -5834,13 +5910,13 @@
       <c r="K46" s="68"/>
       <c r="L46" s="68"/>
       <c r="M46" s="68"/>
-      <c r="N46" s="132"/>
-      <c r="O46" s="135"/>
-      <c r="P46" s="135"/>
-      <c r="Q46" s="129"/>
-      <c r="R46" s="129"/>
-      <c r="S46" s="129"/>
-      <c r="T46" s="129"/>
+      <c r="N46" s="133"/>
+      <c r="O46" s="136"/>
+      <c r="P46" s="136"/>
+      <c r="Q46" s="130"/>
+      <c r="R46" s="130"/>
+      <c r="S46" s="130"/>
+      <c r="T46" s="130"/>
       <c r="U46" s="68"/>
       <c r="V46" s="68"/>
       <c r="W46" s="68"/>
@@ -5851,7 +5927,7 @@
       <c r="AB46" s="68"/>
       <c r="AC46" s="68"/>
     </row>
-    <row r="47" spans="2:29">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B47" s="84"/>
       <c r="C47" s="84"/>
       <c r="D47" s="84"/>
@@ -5866,13 +5942,13 @@
       <c r="K47" s="68"/>
       <c r="L47" s="68"/>
       <c r="M47" s="68"/>
-      <c r="N47" s="132"/>
-      <c r="O47" s="135"/>
-      <c r="P47" s="135"/>
-      <c r="Q47" s="129"/>
-      <c r="R47" s="129"/>
-      <c r="S47" s="129"/>
-      <c r="T47" s="129"/>
+      <c r="N47" s="133"/>
+      <c r="O47" s="136"/>
+      <c r="P47" s="136"/>
+      <c r="Q47" s="130"/>
+      <c r="R47" s="130"/>
+      <c r="S47" s="130"/>
+      <c r="T47" s="130"/>
       <c r="U47" s="68"/>
       <c r="V47" s="68"/>
       <c r="W47" s="68"/>
@@ -5883,7 +5959,7 @@
       <c r="AB47" s="68"/>
       <c r="AC47" s="68"/>
     </row>
-    <row r="48" spans="2:29">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B48" s="68" t="s">
         <v>120</v>
       </c>
@@ -5912,13 +5988,13 @@
       </c>
       <c r="L48" s="68"/>
       <c r="M48" s="68"/>
-      <c r="N48" s="132"/>
-      <c r="O48" s="135"/>
-      <c r="P48" s="135"/>
-      <c r="Q48" s="129"/>
-      <c r="R48" s="129"/>
-      <c r="S48" s="129"/>
-      <c r="T48" s="129"/>
+      <c r="N48" s="133"/>
+      <c r="O48" s="136"/>
+      <c r="P48" s="136"/>
+      <c r="Q48" s="130"/>
+      <c r="R48" s="130"/>
+      <c r="S48" s="130"/>
+      <c r="T48" s="130"/>
       <c r="U48" s="68"/>
       <c r="V48" s="68"/>
       <c r="W48" s="68"/>
@@ -5929,7 +6005,7 @@
       <c r="AB48" s="68"/>
       <c r="AC48" s="68"/>
     </row>
-    <row r="49" spans="2:29">
+    <row r="49" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B49" s="68" t="s">
         <v>120</v>
       </c>
@@ -5958,13 +6034,13 @@
       </c>
       <c r="L49" s="68"/>
       <c r="M49" s="68"/>
-      <c r="N49" s="132"/>
-      <c r="O49" s="135"/>
-      <c r="P49" s="135"/>
-      <c r="Q49" s="129"/>
-      <c r="R49" s="129"/>
-      <c r="S49" s="129"/>
-      <c r="T49" s="129"/>
+      <c r="N49" s="133"/>
+      <c r="O49" s="136"/>
+      <c r="P49" s="136"/>
+      <c r="Q49" s="130"/>
+      <c r="R49" s="130"/>
+      <c r="S49" s="130"/>
+      <c r="T49" s="130"/>
       <c r="U49" s="68"/>
       <c r="V49" s="68"/>
       <c r="W49" s="68"/>
@@ -5975,7 +6051,7 @@
       <c r="AB49" s="68"/>
       <c r="AC49" s="68"/>
     </row>
-    <row r="50" spans="2:29">
+    <row r="50" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B50" s="84"/>
       <c r="C50" s="84"/>
       <c r="D50" s="84"/>
@@ -5996,13 +6072,13 @@
       </c>
       <c r="L50" s="68"/>
       <c r="M50" s="68"/>
-      <c r="N50" s="132"/>
-      <c r="O50" s="135"/>
-      <c r="P50" s="135"/>
-      <c r="Q50" s="129"/>
-      <c r="R50" s="129"/>
-      <c r="S50" s="129"/>
-      <c r="T50" s="129"/>
+      <c r="N50" s="133"/>
+      <c r="O50" s="136"/>
+      <c r="P50" s="136"/>
+      <c r="Q50" s="130"/>
+      <c r="R50" s="130"/>
+      <c r="S50" s="130"/>
+      <c r="T50" s="130"/>
       <c r="U50" s="68"/>
       <c r="V50" s="68"/>
       <c r="W50" s="68"/>
@@ -6013,7 +6089,7 @@
       <c r="AB50" s="68"/>
       <c r="AC50" s="68"/>
     </row>
-    <row r="51" spans="2:29">
+    <row r="51" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B51" s="68" t="s">
         <v>120</v>
       </c>
@@ -6042,13 +6118,13 @@
       </c>
       <c r="L51" s="68"/>
       <c r="M51" s="68"/>
-      <c r="N51" s="132"/>
-      <c r="O51" s="135"/>
-      <c r="P51" s="135"/>
-      <c r="Q51" s="129"/>
-      <c r="R51" s="129"/>
-      <c r="S51" s="129"/>
-      <c r="T51" s="129"/>
+      <c r="N51" s="133"/>
+      <c r="O51" s="136"/>
+      <c r="P51" s="136"/>
+      <c r="Q51" s="130"/>
+      <c r="R51" s="130"/>
+      <c r="S51" s="130"/>
+      <c r="T51" s="130"/>
       <c r="U51" s="68"/>
       <c r="V51" s="68"/>
       <c r="W51" s="68"/>
@@ -6059,7 +6135,7 @@
       <c r="AB51" s="68"/>
       <c r="AC51" s="68"/>
     </row>
-    <row r="52" spans="2:29">
+    <row r="52" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B52" s="68" t="s">
         <v>120</v>
       </c>
@@ -6088,13 +6164,13 @@
       </c>
       <c r="L52" s="68"/>
       <c r="M52" s="68"/>
-      <c r="N52" s="132"/>
-      <c r="O52" s="135"/>
-      <c r="P52" s="135"/>
-      <c r="Q52" s="129"/>
-      <c r="R52" s="129"/>
-      <c r="S52" s="129"/>
-      <c r="T52" s="129"/>
+      <c r="N52" s="133"/>
+      <c r="O52" s="136"/>
+      <c r="P52" s="136"/>
+      <c r="Q52" s="130"/>
+      <c r="R52" s="130"/>
+      <c r="S52" s="130"/>
+      <c r="T52" s="130"/>
       <c r="U52" s="68"/>
       <c r="V52" s="68"/>
       <c r="W52" s="68"/>
@@ -6105,7 +6181,7 @@
       <c r="AB52" s="68"/>
       <c r="AC52" s="68"/>
     </row>
-    <row r="53" spans="2:29">
+    <row r="53" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B53" s="68" t="s">
         <v>120</v>
       </c>
@@ -6134,13 +6210,13 @@
       </c>
       <c r="L53" s="68"/>
       <c r="M53" s="68"/>
-      <c r="N53" s="132"/>
-      <c r="O53" s="135"/>
-      <c r="P53" s="135"/>
-      <c r="Q53" s="129"/>
-      <c r="R53" s="129"/>
-      <c r="S53" s="129"/>
-      <c r="T53" s="129"/>
+      <c r="N53" s="133"/>
+      <c r="O53" s="136"/>
+      <c r="P53" s="136"/>
+      <c r="Q53" s="130"/>
+      <c r="R53" s="130"/>
+      <c r="S53" s="130"/>
+      <c r="T53" s="130"/>
       <c r="U53" s="68"/>
       <c r="V53" s="68"/>
       <c r="W53" s="68"/>
@@ -6151,7 +6227,7 @@
       <c r="AB53" s="68"/>
       <c r="AC53" s="68"/>
     </row>
-    <row r="54" spans="2:29">
+    <row r="54" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B54" s="68" t="s">
         <v>120</v>
       </c>
@@ -6180,13 +6256,13 @@
       </c>
       <c r="L54" s="68"/>
       <c r="M54" s="68"/>
-      <c r="N54" s="132"/>
-      <c r="O54" s="135"/>
-      <c r="P54" s="135"/>
-      <c r="Q54" s="129"/>
-      <c r="R54" s="129"/>
-      <c r="S54" s="129"/>
-      <c r="T54" s="129"/>
+      <c r="N54" s="133"/>
+      <c r="O54" s="136"/>
+      <c r="P54" s="136"/>
+      <c r="Q54" s="130"/>
+      <c r="R54" s="130"/>
+      <c r="S54" s="130"/>
+      <c r="T54" s="130"/>
       <c r="U54" s="68"/>
       <c r="V54" s="68"/>
       <c r="W54" s="68"/>
@@ -6197,7 +6273,7 @@
       <c r="AB54" s="68"/>
       <c r="AC54" s="68"/>
     </row>
-    <row r="55" spans="2:29" ht="17.25" customHeight="1">
+    <row r="55" spans="2:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="68" t="s">
         <v>120</v>
       </c>
@@ -6226,13 +6302,13 @@
       </c>
       <c r="L55" s="68"/>
       <c r="M55" s="68"/>
-      <c r="N55" s="133"/>
-      <c r="O55" s="136"/>
-      <c r="P55" s="136"/>
-      <c r="Q55" s="130"/>
-      <c r="R55" s="130"/>
-      <c r="S55" s="130"/>
-      <c r="T55" s="130"/>
+      <c r="N55" s="134"/>
+      <c r="O55" s="137"/>
+      <c r="P55" s="137"/>
+      <c r="Q55" s="131"/>
+      <c r="R55" s="131"/>
+      <c r="S55" s="131"/>
+      <c r="T55" s="131"/>
       <c r="U55" s="68"/>
       <c r="V55" s="68"/>
       <c r="W55" s="68"/>
@@ -6243,7 +6319,7 @@
       <c r="AB55" s="68"/>
       <c r="AC55" s="68"/>
     </row>
-    <row r="56" spans="2:29">
+    <row r="56" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B56" s="68" t="s">
         <v>120</v>
       </c>
@@ -6272,21 +6348,21 @@
       </c>
       <c r="L56" s="68"/>
       <c r="M56" s="68"/>
-      <c r="N56" s="131" t="s">
+      <c r="N56" s="132" t="s">
         <v>130</v>
       </c>
-      <c r="O56" s="134"/>
-      <c r="P56" s="134"/>
-      <c r="Q56" s="128" t="s">
-        <v>121</v>
-      </c>
-      <c r="R56" s="128" t="s">
-        <v>122</v>
-      </c>
-      <c r="S56" s="128" t="s">
-        <v>122</v>
-      </c>
-      <c r="T56" s="128" t="s">
+      <c r="O56" s="135"/>
+      <c r="P56" s="135"/>
+      <c r="Q56" s="129" t="s">
+        <v>121</v>
+      </c>
+      <c r="R56" s="129" t="s">
+        <v>122</v>
+      </c>
+      <c r="S56" s="129" t="s">
+        <v>122</v>
+      </c>
+      <c r="T56" s="129" t="s">
         <v>111</v>
       </c>
       <c r="U56" s="68"/>
@@ -6299,7 +6375,7 @@
       <c r="AB56" s="68"/>
       <c r="AC56" s="68"/>
     </row>
-    <row r="57" spans="2:29">
+    <row r="57" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B57" s="68" t="s">
         <v>120</v>
       </c>
@@ -6328,13 +6404,13 @@
       </c>
       <c r="L57" s="68"/>
       <c r="M57" s="68"/>
-      <c r="N57" s="132"/>
-      <c r="O57" s="135"/>
-      <c r="P57" s="135"/>
-      <c r="Q57" s="129"/>
-      <c r="R57" s="129"/>
-      <c r="S57" s="129"/>
-      <c r="T57" s="129"/>
+      <c r="N57" s="133"/>
+      <c r="O57" s="136"/>
+      <c r="P57" s="136"/>
+      <c r="Q57" s="130"/>
+      <c r="R57" s="130"/>
+      <c r="S57" s="130"/>
+      <c r="T57" s="130"/>
       <c r="U57" s="68"/>
       <c r="V57" s="68"/>
       <c r="W57" s="68"/>
@@ -6345,7 +6421,7 @@
       <c r="AB57" s="68"/>
       <c r="AC57" s="68"/>
     </row>
-    <row r="58" spans="2:29">
+    <row r="58" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B58" s="68" t="s">
         <v>120</v>
       </c>
@@ -6374,13 +6450,13 @@
       </c>
       <c r="L58" s="68"/>
       <c r="M58" s="68"/>
-      <c r="N58" s="132"/>
-      <c r="O58" s="135"/>
-      <c r="P58" s="135"/>
-      <c r="Q58" s="129"/>
-      <c r="R58" s="129"/>
-      <c r="S58" s="129"/>
-      <c r="T58" s="129"/>
+      <c r="N58" s="133"/>
+      <c r="O58" s="136"/>
+      <c r="P58" s="136"/>
+      <c r="Q58" s="130"/>
+      <c r="R58" s="130"/>
+      <c r="S58" s="130"/>
+      <c r="T58" s="130"/>
       <c r="U58" s="68"/>
       <c r="V58" s="68"/>
       <c r="W58" s="68"/>
@@ -6391,7 +6467,7 @@
       <c r="AB58" s="68"/>
       <c r="AC58" s="68"/>
     </row>
-    <row r="59" spans="2:29">
+    <row r="59" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B59" s="84"/>
       <c r="C59" s="84"/>
       <c r="D59" s="84"/>
@@ -6412,13 +6488,13 @@
       </c>
       <c r="L59" s="68"/>
       <c r="M59" s="68"/>
-      <c r="N59" s="132"/>
-      <c r="O59" s="135"/>
-      <c r="P59" s="135"/>
-      <c r="Q59" s="129"/>
-      <c r="R59" s="129"/>
-      <c r="S59" s="129"/>
-      <c r="T59" s="129"/>
+      <c r="N59" s="133"/>
+      <c r="O59" s="136"/>
+      <c r="P59" s="136"/>
+      <c r="Q59" s="130"/>
+      <c r="R59" s="130"/>
+      <c r="S59" s="130"/>
+      <c r="T59" s="130"/>
       <c r="U59" s="68"/>
       <c r="V59" s="68"/>
       <c r="W59" s="68"/>
@@ -6429,7 +6505,7 @@
       <c r="AB59" s="68"/>
       <c r="AC59" s="68"/>
     </row>
-    <row r="60" spans="2:29" ht="15" customHeight="1">
+    <row r="60" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="68" t="s">
         <v>120</v>
       </c>
@@ -6458,13 +6534,13 @@
       </c>
       <c r="L60" s="68"/>
       <c r="M60" s="68"/>
-      <c r="N60" s="132"/>
-      <c r="O60" s="135"/>
-      <c r="P60" s="135"/>
-      <c r="Q60" s="129"/>
-      <c r="R60" s="129"/>
-      <c r="S60" s="129"/>
-      <c r="T60" s="129"/>
+      <c r="N60" s="133"/>
+      <c r="O60" s="136"/>
+      <c r="P60" s="136"/>
+      <c r="Q60" s="130"/>
+      <c r="R60" s="130"/>
+      <c r="S60" s="130"/>
+      <c r="T60" s="130"/>
       <c r="U60" s="68"/>
       <c r="V60" s="68"/>
       <c r="W60" s="68"/>
@@ -6475,7 +6551,7 @@
       <c r="AB60" s="68"/>
       <c r="AC60" s="68"/>
     </row>
-    <row r="61" spans="2:29">
+    <row r="61" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B61" s="84"/>
       <c r="C61" s="84"/>
       <c r="D61" s="84"/>
@@ -6496,13 +6572,13 @@
       </c>
       <c r="L61" s="68"/>
       <c r="M61" s="68"/>
-      <c r="N61" s="132"/>
-      <c r="O61" s="135"/>
-      <c r="P61" s="135"/>
-      <c r="Q61" s="129"/>
-      <c r="R61" s="129"/>
-      <c r="S61" s="129"/>
-      <c r="T61" s="129"/>
+      <c r="N61" s="133"/>
+      <c r="O61" s="136"/>
+      <c r="P61" s="136"/>
+      <c r="Q61" s="130"/>
+      <c r="R61" s="130"/>
+      <c r="S61" s="130"/>
+      <c r="T61" s="130"/>
       <c r="U61" s="68"/>
       <c r="V61" s="68"/>
       <c r="W61" s="68"/>
@@ -6513,7 +6589,7 @@
       <c r="AB61" s="68"/>
       <c r="AC61" s="68"/>
     </row>
-    <row r="62" spans="2:29">
+    <row r="62" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B62" s="68" t="s">
         <v>120</v>
       </c>
@@ -6542,13 +6618,13 @@
       </c>
       <c r="L62" s="68"/>
       <c r="M62" s="68"/>
-      <c r="N62" s="132"/>
-      <c r="O62" s="135"/>
-      <c r="P62" s="135"/>
-      <c r="Q62" s="129"/>
-      <c r="R62" s="129"/>
-      <c r="S62" s="129"/>
-      <c r="T62" s="129"/>
+      <c r="N62" s="133"/>
+      <c r="O62" s="136"/>
+      <c r="P62" s="136"/>
+      <c r="Q62" s="130"/>
+      <c r="R62" s="130"/>
+      <c r="S62" s="130"/>
+      <c r="T62" s="130"/>
       <c r="U62" s="68"/>
       <c r="V62" s="68"/>
       <c r="W62" s="68"/>
@@ -6559,7 +6635,7 @@
       <c r="AB62" s="68"/>
       <c r="AC62" s="68"/>
     </row>
-    <row r="63" spans="2:29" ht="15" customHeight="1">
+    <row r="63" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="68" t="s">
         <v>120</v>
       </c>
@@ -6588,13 +6664,13 @@
       </c>
       <c r="L63" s="68"/>
       <c r="M63" s="68"/>
-      <c r="N63" s="133"/>
-      <c r="O63" s="136"/>
-      <c r="P63" s="136"/>
-      <c r="Q63" s="130"/>
-      <c r="R63" s="130"/>
-      <c r="S63" s="130"/>
-      <c r="T63" s="130"/>
+      <c r="N63" s="134"/>
+      <c r="O63" s="137"/>
+      <c r="P63" s="137"/>
+      <c r="Q63" s="131"/>
+      <c r="R63" s="131"/>
+      <c r="S63" s="131"/>
+      <c r="T63" s="131"/>
       <c r="U63" s="68"/>
       <c r="V63" s="68"/>
       <c r="W63" s="68"/>
@@ -6605,7 +6681,7 @@
       <c r="AB63" s="68"/>
       <c r="AC63" s="68"/>
     </row>
-    <row r="64" spans="2:29">
+    <row r="64" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B64" s="84"/>
       <c r="C64" s="84"/>
       <c r="D64" s="84"/>
@@ -6621,8 +6697,8 @@
       <c r="N64" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="O64" s="148"/>
-      <c r="P64" s="148"/>
+      <c r="O64" s="91"/>
+      <c r="P64" s="91"/>
       <c r="Q64" s="68" t="s">
         <v>121</v>
       </c>
@@ -6655,7 +6731,7 @@
       <c r="AB64" s="68"/>
       <c r="AC64" s="68"/>
     </row>
-    <row r="65" spans="2:29">
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B65" s="84"/>
       <c r="C65" s="84"/>
       <c r="D65" s="84"/>
@@ -6671,8 +6747,8 @@
       <c r="N65" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="O65" s="148"/>
-      <c r="P65" s="148"/>
+      <c r="O65" s="91"/>
+      <c r="P65" s="91"/>
       <c r="Q65" s="68" t="s">
         <v>121</v>
       </c>
@@ -6705,7 +6781,7 @@
       <c r="AB65" s="68"/>
       <c r="AC65" s="68"/>
     </row>
-    <row r="66" spans="2:29">
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B66" s="59"/>
       <c r="C66" s="59"/>
       <c r="D66" s="60"/>
@@ -6729,7 +6805,7 @@
       <c r="V66" s="59"/>
       <c r="W66" s="59"/>
     </row>
-    <row r="67" spans="2:29">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B67" s="59"/>
       <c r="C67" s="59"/>
       <c r="D67" s="60"/>
@@ -6753,7 +6829,7 @@
       <c r="V67" s="59"/>
       <c r="W67" s="59"/>
     </row>
-    <row r="68" spans="2:29">
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
       <c r="D68" s="60"/>
@@ -6777,7 +6853,7 @@
       <c r="V68" s="59"/>
       <c r="W68" s="59"/>
     </row>
-    <row r="69" spans="2:29">
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
       <c r="D69" s="60"/>
@@ -6801,7 +6877,7 @@
       <c r="V69" s="59"/>
       <c r="W69" s="59"/>
     </row>
-    <row r="70" spans="2:29">
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
       <c r="D70" s="60"/>
@@ -6825,7 +6901,7 @@
       <c r="V70" s="59"/>
       <c r="W70" s="59"/>
     </row>
-    <row r="71" spans="2:29">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
       <c r="D71" s="60"/>
@@ -6849,7 +6925,7 @@
       <c r="V71" s="59"/>
       <c r="W71" s="59"/>
     </row>
-    <row r="72" spans="2:29">
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
       <c r="D72" s="60"/>
@@ -6873,7 +6949,7 @@
       <c r="V72" s="59"/>
       <c r="W72" s="59"/>
     </row>
-    <row r="73" spans="2:29">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
       <c r="D73" s="60"/>
@@ -6897,7 +6973,7 @@
       <c r="V73" s="59"/>
       <c r="W73" s="59"/>
     </row>
-    <row r="74" spans="2:29">
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
       <c r="D74" s="60"/>
@@ -6921,7 +6997,7 @@
       <c r="V74" s="59"/>
       <c r="W74" s="59"/>
     </row>
-    <row r="75" spans="2:29">
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
       <c r="D75" s="60"/>
@@ -6945,7 +7021,7 @@
       <c r="V75" s="59"/>
       <c r="W75" s="59"/>
     </row>
-    <row r="76" spans="2:29">
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B76" s="59"/>
       <c r="C76" s="59"/>
       <c r="D76" s="60"/>
@@ -6969,7 +7045,7 @@
       <c r="V76" s="59"/>
       <c r="W76" s="59"/>
     </row>
-    <row r="77" spans="2:29">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
       <c r="D77" s="60"/>
@@ -6993,7 +7069,7 @@
       <c r="V77" s="59"/>
       <c r="W77" s="59"/>
     </row>
-    <row r="78" spans="2:29">
+    <row r="78" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
       <c r="D78" s="60"/>
@@ -7017,7 +7093,7 @@
       <c r="V78" s="59"/>
       <c r="W78" s="59"/>
     </row>
-    <row r="79" spans="2:29">
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
       <c r="D79" s="60"/>
@@ -7041,7 +7117,7 @@
       <c r="V79" s="59"/>
       <c r="W79" s="59"/>
     </row>
-    <row r="80" spans="2:29">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
       <c r="D80" s="60"/>
@@ -7065,7 +7141,7 @@
       <c r="V80" s="59"/>
       <c r="W80" s="59"/>
     </row>
-    <row r="81" spans="2:23">
+    <row r="81" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
       <c r="D81" s="60"/>
@@ -7089,7 +7165,7 @@
       <c r="V81" s="59"/>
       <c r="W81" s="59"/>
     </row>
-    <row r="82" spans="2:23">
+    <row r="82" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B82" s="59"/>
       <c r="C82" s="59"/>
       <c r="D82" s="60"/>
@@ -7113,7 +7189,7 @@
       <c r="V82" s="59"/>
       <c r="W82" s="59"/>
     </row>
-    <row r="83" spans="2:23">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B83" s="59"/>
       <c r="C83" s="59"/>
       <c r="D83" s="60"/>
@@ -7137,7 +7213,7 @@
       <c r="V83" s="59"/>
       <c r="W83" s="59"/>
     </row>
-    <row r="84" spans="2:23">
+    <row r="84" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B84" s="59"/>
       <c r="C84" s="59"/>
       <c r="D84" s="60"/>
@@ -7161,7 +7237,7 @@
       <c r="V84" s="59"/>
       <c r="W84" s="59"/>
     </row>
-    <row r="85" spans="2:23">
+    <row r="85" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
       <c r="D85" s="60"/>
@@ -7185,7 +7261,7 @@
       <c r="V85" s="59"/>
       <c r="W85" s="59"/>
     </row>
-    <row r="86" spans="2:23">
+    <row r="86" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B86" s="59"/>
       <c r="C86" s="59"/>
       <c r="D86" s="60"/>
@@ -7209,7 +7285,7 @@
       <c r="V86" s="59"/>
       <c r="W86" s="59"/>
     </row>
-    <row r="87" spans="2:23">
+    <row r="87" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B87" s="59"/>
       <c r="C87" s="59"/>
       <c r="D87" s="60"/>
@@ -7233,7 +7309,7 @@
       <c r="V87" s="59"/>
       <c r="W87" s="59"/>
     </row>
-    <row r="88" spans="2:23">
+    <row r="88" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B88" s="59"/>
       <c r="C88" s="59"/>
       <c r="D88" s="60"/>
@@ -7257,7 +7333,7 @@
       <c r="V88" s="59"/>
       <c r="W88" s="59"/>
     </row>
-    <row r="89" spans="2:23">
+    <row r="89" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B89" s="59"/>
       <c r="C89" s="59"/>
       <c r="D89" s="60"/>
@@ -7281,7 +7357,7 @@
       <c r="V89" s="59"/>
       <c r="W89" s="59"/>
     </row>
-    <row r="90" spans="2:23">
+    <row r="90" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B90" s="59"/>
       <c r="C90" s="59"/>
       <c r="D90" s="60"/>
@@ -7305,7 +7381,7 @@
       <c r="V90" s="59"/>
       <c r="W90" s="59"/>
     </row>
-    <row r="91" spans="2:23">
+    <row r="91" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B91" s="59"/>
       <c r="C91" s="59"/>
       <c r="D91" s="60"/>
@@ -7329,7 +7405,7 @@
       <c r="V91" s="59"/>
       <c r="W91" s="59"/>
     </row>
-    <row r="92" spans="2:23">
+    <row r="92" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B92" s="59"/>
       <c r="C92" s="59"/>
       <c r="D92" s="60"/>
@@ -7353,7 +7429,7 @@
       <c r="V92" s="59"/>
       <c r="W92" s="59"/>
     </row>
-    <row r="93" spans="2:23">
+    <row r="93" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B93" s="59"/>
       <c r="C93" s="59"/>
       <c r="D93" s="60"/>
@@ -7377,7 +7453,7 @@
       <c r="V93" s="59"/>
       <c r="W93" s="59"/>
     </row>
-    <row r="94" spans="2:23">
+    <row r="94" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B94" s="59"/>
       <c r="C94" s="59"/>
       <c r="D94" s="60"/>
@@ -7401,7 +7477,7 @@
       <c r="V94" s="59"/>
       <c r="W94" s="59"/>
     </row>
-    <row r="95" spans="2:23">
+    <row r="95" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B95" s="59"/>
       <c r="C95" s="59"/>
       <c r="D95" s="60"/>
@@ -7425,7 +7501,7 @@
       <c r="V95" s="59"/>
       <c r="W95" s="59"/>
     </row>
-    <row r="96" spans="2:23">
+    <row r="96" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B96" s="59"/>
       <c r="C96" s="59"/>
       <c r="D96" s="60"/>
@@ -7449,7 +7525,7 @@
       <c r="V96" s="59"/>
       <c r="W96" s="59"/>
     </row>
-    <row r="97" spans="2:23">
+    <row r="97" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B97" s="59"/>
       <c r="C97" s="59"/>
       <c r="D97" s="60"/>
@@ -7473,7 +7549,7 @@
       <c r="V97" s="59"/>
       <c r="W97" s="59"/>
     </row>
-    <row r="98" spans="2:23">
+    <row r="98" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B98" s="59"/>
       <c r="C98" s="59"/>
       <c r="D98" s="60"/>
@@ -7497,7 +7573,7 @@
       <c r="V98" s="59"/>
       <c r="W98" s="59"/>
     </row>
-    <row r="99" spans="2:23">
+    <row r="99" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B99" s="59"/>
       <c r="C99" s="59"/>
       <c r="D99" s="60"/>
@@ -7523,6 +7599,26 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="Q41:Q43"/>
+    <mergeCell ref="T41:T43"/>
+    <mergeCell ref="S41:S43"/>
+    <mergeCell ref="N38:N40"/>
+    <mergeCell ref="O38:O40"/>
+    <mergeCell ref="P38:P40"/>
+    <mergeCell ref="R38:R40"/>
+    <mergeCell ref="Q38:Q40"/>
+    <mergeCell ref="N41:N43"/>
+    <mergeCell ref="P41:P43"/>
+    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="R41:R43"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="T38:T40"/>
+    <mergeCell ref="S38:S40"/>
+    <mergeCell ref="U38:U40"/>
+    <mergeCell ref="V38:V40"/>
+    <mergeCell ref="W38:W40"/>
     <mergeCell ref="Q56:Q63"/>
     <mergeCell ref="S56:S63"/>
     <mergeCell ref="T56:T63"/>
@@ -7537,26 +7633,6 @@
     <mergeCell ref="P56:P63"/>
     <mergeCell ref="O56:O63"/>
     <mergeCell ref="N56:N63"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="T38:T40"/>
-    <mergeCell ref="S38:S40"/>
-    <mergeCell ref="U38:U40"/>
-    <mergeCell ref="V38:V40"/>
-    <mergeCell ref="W38:W40"/>
-    <mergeCell ref="Q41:Q43"/>
-    <mergeCell ref="T41:T43"/>
-    <mergeCell ref="S41:S43"/>
-    <mergeCell ref="N38:N40"/>
-    <mergeCell ref="O38:O40"/>
-    <mergeCell ref="P38:P40"/>
-    <mergeCell ref="R38:R40"/>
-    <mergeCell ref="Q38:Q40"/>
-    <mergeCell ref="N41:N43"/>
-    <mergeCell ref="P41:P43"/>
-    <mergeCell ref="O41:O43"/>
-    <mergeCell ref="R41:R43"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7566,7 +7642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7574,7 +7650,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="16" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="16" customWidth="1"/>
@@ -7582,7 +7658,7 @@
     <col min="4" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="23"/>
@@ -7602,7 +7678,7 @@
       <c r="X1" s="18"/>
       <c r="Y1" s="18"/>
     </row>
-    <row r="2" spans="2:25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="22"/>
@@ -7622,7 +7698,7 @@
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
     </row>
-    <row r="3" spans="2:25" ht="18">
+    <row r="3" spans="2:25" ht="18" x14ac:dyDescent="0.25">
       <c r="C3" s="20" t="s">
         <v>50</v>
       </c>
@@ -7647,7 +7723,7 @@
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
     </row>
-    <row r="4" spans="2:25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="E4" s="18"/>
@@ -7669,7 +7745,7 @@
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
     </row>
-    <row r="6" spans="2:25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
         <v>51</v>
       </c>
@@ -7677,7 +7753,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="25.5">
+    <row r="7" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
         <v>48</v>
       </c>
@@ -7685,7 +7761,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="25.5">
+    <row r="8" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
         <v>46</v>
       </c>
@@ -7693,7 +7769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="25.5">
+    <row r="9" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="32" t="s">
         <v>44</v>
       </c>
@@ -7701,7 +7777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="25.5">
+    <row r="10" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="32" t="s">
         <v>42</v>
       </c>
@@ -7709,7 +7785,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="25.5">
+    <row r="11" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>40</v>
       </c>
@@ -7717,7 +7793,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="25.5">
+    <row r="12" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B12" s="32" t="s">
         <v>38</v>
       </c>
@@ -7725,7 +7801,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="25.5">
+    <row r="13" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="32" t="s">
         <v>36</v>
       </c>
@@ -7733,7 +7809,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="25.5">
+    <row r="14" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B14" s="32" t="s">
         <v>34</v>
       </c>
@@ -7741,7 +7817,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="25.5">
+    <row r="15" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="32" t="s">
         <v>32</v>
       </c>
@@ -7749,7 +7825,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="25.5">
+    <row r="16" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
         <v>30</v>
       </c>
@@ -7757,7 +7833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="25.5">
+    <row r="17" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B17" s="32" t="s">
         <v>28</v>
       </c>
@@ -7765,7 +7841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="25.5">
+    <row r="18" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B18" s="32" t="s">
         <v>26</v>
       </c>
@@ -7773,7 +7849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="25.5">
+    <row r="19" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
         <v>24</v>
       </c>
@@ -7781,7 +7857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="25.5">
+    <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B20" s="32" t="s">
         <v>22</v>
       </c>
@@ -7789,7 +7865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="25.5">
+    <row r="21" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B21" s="32" t="s">
         <v>20</v>
       </c>
@@ -7797,7 +7873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="25.5">
+    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="32" t="s">
         <v>18</v>
       </c>
@@ -7805,7 +7881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="25.5">
+    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B23" s="35" t="s">
         <v>16</v>
       </c>
@@ -7824,15 +7900,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -7881,25 +7958,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7914,25 +8005,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_FIXA_P1.xlsx
+++ b/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_FIXA_P1.xlsx
@@ -1891,6 +1891,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1900,108 +1960,48 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2029,6 +2029,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2055,12 +2061,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2355,16 +2355,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>32</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:col>30</xdr:col>
+          <xdr:colOff>276225</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2710,10 +2710,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="98"/>
+      <c r="D2" s="92"/>
     </row>
     <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="17" t="s">
@@ -2751,28 +2751,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="104"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="101"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="105"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="107"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="104"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="44" t="s">
@@ -2781,17 +2781,17 @@
       <c r="C11" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108" t="s">
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="109"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="106"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="30" t="s">
@@ -2800,92 +2800,84 @@
       <c r="C12" s="29">
         <v>41236</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="114"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="111"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="97"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="98"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="97"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="98"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="97"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="98"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="97"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="98"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="94"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="114"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="94"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -2896,6 +2888,14 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -2953,17 +2953,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="51" t="s">
@@ -2972,93 +2972,93 @@
       <c r="C7" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="117" t="s">
+      <c r="D7" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="83" t="s">
         <v>112</v>
       </c>
       <c r="C8" s="52"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="83" t="s">
         <v>118</v>
       </c>
       <c r="C9" s="52"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="83" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="52"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="83" t="s">
         <v>114</v>
       </c>
       <c r="C11" s="52"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="83" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="52"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="83" t="s">
         <v>115</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
@@ -3072,17 +3072,17 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="118" t="s">
+      <c r="B15" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
     </row>
     <row r="16" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="47" t="s">
@@ -3094,16 +3094,16 @@
       <c r="D16" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="125" t="s">
+      <c r="E16" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="127"/>
-      <c r="G16" s="125" t="s">
+      <c r="F16" s="126"/>
+      <c r="G16" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="127"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="126"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
@@ -3113,25 +3113,25 @@
       <c r="D17" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="121" t="s">
+      <c r="E17" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="F17" s="122"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="9"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
@@ -3145,11 +3145,11 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="118" t="s">
+      <c r="B20" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="46" t="s">
@@ -3188,17 +3188,17 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="51" t="s">
@@ -3210,52 +3210,61 @@
       <c r="D26" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="120" t="s">
+      <c r="E26" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120" t="s">
+      <c r="F26" s="117"/>
+      <c r="G26" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="120"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="117"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="12"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="128"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="128"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="116"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D7:J7"/>
@@ -3272,15 +3281,6 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3294,8 +3294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3314,16 +3314,16 @@
           <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>32</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>30</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3392,39 +3392,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="2:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="142" t="s">
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="142"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="138" t="s">
+      <c r="O2" s="144"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="139"/>
-      <c r="AB2" s="139"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="141"/>
+      <c r="AA2" s="141"/>
+      <c r="AB2" s="141"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -5553,9 +5553,9 @@
       <c r="T38" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="U38" s="144"/>
-      <c r="V38" s="144"/>
-      <c r="W38" s="144"/>
+      <c r="U38" s="146"/>
+      <c r="V38" s="146"/>
+      <c r="W38" s="146"/>
       <c r="X38" s="68"/>
       <c r="Y38" s="68"/>
       <c r="Z38" s="68"/>
@@ -5597,9 +5597,9 @@
       <c r="R39" s="130"/>
       <c r="S39" s="130"/>
       <c r="T39" s="130"/>
-      <c r="U39" s="145"/>
-      <c r="V39" s="145"/>
-      <c r="W39" s="145"/>
+      <c r="U39" s="147"/>
+      <c r="V39" s="147"/>
+      <c r="W39" s="147"/>
       <c r="X39" s="68"/>
       <c r="Y39" s="68"/>
       <c r="Z39" s="68"/>
@@ -5641,9 +5641,9 @@
       <c r="R40" s="131"/>
       <c r="S40" s="131"/>
       <c r="T40" s="131"/>
-      <c r="U40" s="146"/>
-      <c r="V40" s="146"/>
-      <c r="W40" s="146"/>
+      <c r="U40" s="148"/>
+      <c r="V40" s="148"/>
+      <c r="W40" s="148"/>
       <c r="X40" s="68"/>
       <c r="Y40" s="68"/>
       <c r="Z40" s="68"/>
@@ -5736,7 +5736,7 @@
       <c r="K42" s="68"/>
       <c r="L42" s="68"/>
       <c r="M42" s="68"/>
-      <c r="N42" s="147"/>
+      <c r="N42" s="138"/>
       <c r="O42" s="136"/>
       <c r="P42" s="136"/>
       <c r="Q42" s="130"/>
@@ -5780,7 +5780,7 @@
       <c r="K43" s="68"/>
       <c r="L43" s="68"/>
       <c r="M43" s="68"/>
-      <c r="N43" s="148"/>
+      <c r="N43" s="139"/>
       <c r="O43" s="137"/>
       <c r="P43" s="137"/>
       <c r="Q43" s="131"/>
@@ -7599,26 +7599,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="Q41:Q43"/>
-    <mergeCell ref="T41:T43"/>
-    <mergeCell ref="S41:S43"/>
-    <mergeCell ref="N38:N40"/>
-    <mergeCell ref="O38:O40"/>
-    <mergeCell ref="P38:P40"/>
-    <mergeCell ref="R38:R40"/>
-    <mergeCell ref="Q38:Q40"/>
-    <mergeCell ref="N41:N43"/>
-    <mergeCell ref="P41:P43"/>
-    <mergeCell ref="O41:O43"/>
-    <mergeCell ref="R41:R43"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="T38:T40"/>
-    <mergeCell ref="S38:S40"/>
-    <mergeCell ref="U38:U40"/>
-    <mergeCell ref="V38:V40"/>
-    <mergeCell ref="W38:W40"/>
     <mergeCell ref="Q56:Q63"/>
     <mergeCell ref="S56:S63"/>
     <mergeCell ref="T56:T63"/>
@@ -7633,6 +7613,26 @@
     <mergeCell ref="P56:P63"/>
     <mergeCell ref="O56:O63"/>
     <mergeCell ref="N56:N63"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="T38:T40"/>
+    <mergeCell ref="S38:S40"/>
+    <mergeCell ref="U38:U40"/>
+    <mergeCell ref="V38:V40"/>
+    <mergeCell ref="W38:W40"/>
+    <mergeCell ref="Q41:Q43"/>
+    <mergeCell ref="T41:T43"/>
+    <mergeCell ref="S41:S43"/>
+    <mergeCell ref="N38:N40"/>
+    <mergeCell ref="O38:O40"/>
+    <mergeCell ref="P38:P40"/>
+    <mergeCell ref="R38:R40"/>
+    <mergeCell ref="Q38:Q40"/>
+    <mergeCell ref="N41:N43"/>
+    <mergeCell ref="P41:P43"/>
+    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="R41:R43"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7900,16 +7900,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -7958,39 +7957,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8005,10 +7990,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_FIXA_P1.xlsx
+++ b/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_FIXA_P1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="225" windowWidth="14700" windowHeight="5475" activeTab="2"/>
+    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="156">
   <si>
     <t>Schema</t>
   </si>
@@ -1083,9 +1083,6 @@
     <t>Preencher com o valor fixo 'N'</t>
   </si>
   <si>
-    <t>Preencher com o valor fixo '0'</t>
-  </si>
-  <si>
     <t>FLAG_RETROATIVO</t>
   </si>
   <si>
@@ -1093,6 +1090,18 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Verificar com Sylvio o valor correto a ser preenchido</t>
+  </si>
+  <si>
+    <t>Carregar com Null</t>
+  </si>
+  <si>
+    <t>DATA_ALOCACAO</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -1642,7 +1651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1891,6 +1900,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1903,15 +1942,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1951,20 +1981,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1981,12 +2011,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1999,9 +2023,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2029,38 +2050,38 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2362,7 +2383,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>30</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -2710,10 +2731,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="92"/>
+      <c r="D2" s="102"/>
     </row>
     <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="17" t="s">
@@ -2751,28 +2772,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="101"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="108"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="102"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="104"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="111"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="44" t="s">
@@ -2781,17 +2802,17 @@
       <c r="C11" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105" t="s">
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="106"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="113"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="30" t="s">
@@ -2800,84 +2821,92 @@
       <c r="C12" s="29">
         <v>41236</v>
       </c>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="108"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="111"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="98"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="98"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="101"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="98"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="101"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="98"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="101"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="114"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="98"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="114"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -2888,14 +2917,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -2953,17 +2974,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="51" t="s">
@@ -2972,93 +2993,93 @@
       <c r="C7" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="115" t="s">
+      <c r="D7" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="83" t="s">
         <v>112</v>
       </c>
       <c r="C8" s="52"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="83" t="s">
         <v>118</v>
       </c>
       <c r="C9" s="52"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="83" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="52"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="83" t="s">
         <v>114</v>
       </c>
       <c r="C11" s="52"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="83" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="52"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="83" t="s">
         <v>115</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
     </row>
     <row r="14" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
@@ -3094,16 +3115,16 @@
       <c r="D16" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="124" t="s">
+      <c r="E16" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="126"/>
-      <c r="G16" s="124" t="s">
+      <c r="F16" s="131"/>
+      <c r="G16" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="126"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="131"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
@@ -3113,25 +3134,25 @@
       <c r="D17" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="118" t="s">
+      <c r="E17" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="F17" s="119"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="132"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="9"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="127"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
@@ -3188,17 +3209,17 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="121"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="51" t="s">
@@ -3210,61 +3231,52 @@
       <c r="D26" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="117" t="s">
+      <c r="E26" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117" t="s">
+      <c r="F26" s="124"/>
+      <c r="G26" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="117"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="12"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="128"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="128"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="120"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="128"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D7:J7"/>
@@ -3281,6 +3293,15 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3294,7 +3315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="O7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
@@ -3342,13 +3363,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AF99"/>
+  <dimension ref="B1:AF97"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3391,40 +3412,40 @@
       <c r="S1" s="55"/>
       <c r="T1" s="55"/>
     </row>
-    <row r="2" spans="2:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="142" t="s">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B2" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="144" t="s">
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="144"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="140" t="s">
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="143"/>
+      <c r="AB2" s="143"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -3693,7 +3714,7 @@
       <c r="AB6" s="68"/>
       <c r="AC6" s="68"/>
     </row>
-    <row r="7" spans="2:29" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B7" s="68" t="s">
         <v>120</v>
       </c>
@@ -4195,7 +4216,7 @@
       <c r="AB15" s="70"/>
       <c r="AC15" s="70"/>
     </row>
-    <row r="16" spans="2:29" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="68" t="s">
         <v>120</v>
       </c>
@@ -4220,7 +4241,7 @@
         <v>135</v>
       </c>
       <c r="K16" s="68">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L16" s="68"/>
       <c r="M16" s="68"/>
@@ -4255,7 +4276,7 @@
       <c r="AB16" s="68"/>
       <c r="AC16" s="68"/>
     </row>
-    <row r="17" spans="2:29" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="68" t="s">
         <v>120</v>
       </c>
@@ -4315,7 +4336,7 @@
       <c r="AB17" s="68"/>
       <c r="AC17" s="68"/>
     </row>
-    <row r="18" spans="2:29" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="68" t="s">
         <v>120</v>
       </c>
@@ -4340,7 +4361,7 @@
         <v>135</v>
       </c>
       <c r="K18" s="68">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L18" s="68"/>
       <c r="M18" s="68"/>
@@ -4375,7 +4396,7 @@
       <c r="AB18" s="68"/>
       <c r="AC18" s="68"/>
     </row>
-    <row r="19" spans="2:29" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="68" t="s">
         <v>120</v>
       </c>
@@ -4399,8 +4420,12 @@
       <c r="J19" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
+      <c r="K19" s="68">
+        <v>8</v>
+      </c>
+      <c r="L19" s="68">
+        <v>2</v>
+      </c>
       <c r="M19" s="68"/>
       <c r="N19" s="68" t="s">
         <v>123</v>
@@ -4791,7 +4816,7 @@
       <c r="AB25" s="68"/>
       <c r="AC25" s="68"/>
     </row>
-    <row r="26" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B26" s="68" t="s">
         <v>120</v>
       </c>
@@ -5470,7 +5495,7 @@
         <v>135</v>
       </c>
       <c r="K37" s="3">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L37" s="68"/>
       <c r="M37" s="68"/>
@@ -5505,7 +5530,7 @@
       <c r="AB37" s="68"/>
       <c r="AC37" s="68"/>
     </row>
-    <row r="38" spans="2:29" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" ht="24" x14ac:dyDescent="0.2">
       <c r="B38" s="68" t="s">
         <v>120</v>
       </c>
@@ -5536,95 +5561,115 @@
         <v>2</v>
       </c>
       <c r="M38" s="68"/>
-      <c r="N38" s="132" t="s">
+      <c r="N38" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="O38" s="135"/>
-      <c r="P38" s="135"/>
-      <c r="Q38" s="129" t="s">
-        <v>121</v>
-      </c>
-      <c r="R38" s="129" t="s">
-        <v>122</v>
-      </c>
-      <c r="S38" s="129" t="s">
-        <v>122</v>
-      </c>
-      <c r="T38" s="129" t="s">
+      <c r="O38" s="94"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="R38" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="S38" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="T38" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="U38" s="146"/>
-      <c r="V38" s="146"/>
-      <c r="W38" s="146"/>
-      <c r="X38" s="68"/>
-      <c r="Y38" s="68"/>
-      <c r="Z38" s="68"/>
-      <c r="AA38" s="68"/>
-      <c r="AB38" s="68"/>
+      <c r="U38" s="95"/>
+      <c r="V38" s="95"/>
+      <c r="W38" s="95"/>
+      <c r="X38" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y38" s="68">
+        <v>6</v>
+      </c>
+      <c r="Z38" s="68">
+        <v>2</v>
+      </c>
+      <c r="AA38" s="95"/>
+      <c r="AB38" s="95"/>
       <c r="AC38" s="68"/>
     </row>
-    <row r="39" spans="2:29" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B39" s="68" t="s">
         <v>120</v>
       </c>
       <c r="C39" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="69" t="s">
+      <c r="D39" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="E39" s="69" t="s">
+      <c r="E39" s="72" t="s">
         <v>112</v>
       </c>
       <c r="F39" s="73" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G39" s="73" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H39" s="68"/>
       <c r="I39" s="68"/>
       <c r="J39" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
+        <v>134</v>
+      </c>
+      <c r="K39" s="70">
+        <v>12</v>
+      </c>
+      <c r="L39" s="70">
+        <v>2</v>
+      </c>
       <c r="M39" s="68"/>
-      <c r="N39" s="133"/>
-      <c r="O39" s="136"/>
-      <c r="P39" s="136"/>
-      <c r="Q39" s="130"/>
-      <c r="R39" s="130"/>
-      <c r="S39" s="130"/>
-      <c r="T39" s="130"/>
-      <c r="U39" s="147"/>
-      <c r="V39" s="147"/>
-      <c r="W39" s="147"/>
+      <c r="N39" s="136" t="s">
+        <v>126</v>
+      </c>
+      <c r="O39" s="139"/>
+      <c r="P39" s="139"/>
+      <c r="Q39" s="133" t="s">
+        <v>121</v>
+      </c>
+      <c r="R39" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="S39" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="T39" s="133" t="s">
+        <v>109</v>
+      </c>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="68"/>
       <c r="X39" s="68"/>
-      <c r="Y39" s="68"/>
-      <c r="Z39" s="68"/>
+      <c r="Y39" s="70"/>
+      <c r="Z39" s="70"/>
       <c r="AA39" s="68"/>
       <c r="AB39" s="68"/>
       <c r="AC39" s="68"/>
     </row>
-    <row r="40" spans="2:29" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B40" s="68" t="s">
         <v>120</v>
       </c>
       <c r="C40" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="69" t="s">
+      <c r="D40" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="69" t="s">
+      <c r="E40" s="72" t="s">
         <v>112</v>
       </c>
       <c r="F40" s="73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G40" s="73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H40" s="68"/>
       <c r="I40" s="68"/>
@@ -5634,16 +5679,16 @@
       <c r="K40" s="68"/>
       <c r="L40" s="68"/>
       <c r="M40" s="68"/>
-      <c r="N40" s="134"/>
-      <c r="O40" s="137"/>
-      <c r="P40" s="137"/>
-      <c r="Q40" s="131"/>
-      <c r="R40" s="131"/>
-      <c r="S40" s="131"/>
-      <c r="T40" s="131"/>
-      <c r="U40" s="148"/>
-      <c r="V40" s="148"/>
-      <c r="W40" s="148"/>
+      <c r="N40" s="151"/>
+      <c r="O40" s="140"/>
+      <c r="P40" s="140"/>
+      <c r="Q40" s="134"/>
+      <c r="R40" s="134"/>
+      <c r="S40" s="134"/>
+      <c r="T40" s="134"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
       <c r="X40" s="68"/>
       <c r="Y40" s="68"/>
       <c r="Z40" s="68"/>
@@ -5651,7 +5696,7 @@
       <c r="AB40" s="68"/>
       <c r="AC40" s="68"/>
     </row>
-    <row r="41" spans="2:29" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:29" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="68" t="s">
         <v>120</v>
       </c>
@@ -5665,84 +5710,68 @@
         <v>112</v>
       </c>
       <c r="F41" s="73" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G41" s="73" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H41" s="68"/>
       <c r="I41" s="68"/>
       <c r="J41" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="K41" s="70">
-        <v>12</v>
-      </c>
-      <c r="L41" s="70">
-        <v>2</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
       <c r="M41" s="68"/>
-      <c r="N41" s="132" t="s">
-        <v>126</v>
-      </c>
-      <c r="O41" s="135"/>
-      <c r="P41" s="135"/>
-      <c r="Q41" s="129" t="s">
-        <v>121</v>
-      </c>
-      <c r="R41" s="129" t="s">
-        <v>122</v>
-      </c>
-      <c r="S41" s="129" t="s">
-        <v>122</v>
-      </c>
-      <c r="T41" s="129" t="s">
-        <v>109</v>
-      </c>
+      <c r="N41" s="152"/>
+      <c r="O41" s="141"/>
+      <c r="P41" s="141"/>
+      <c r="Q41" s="135"/>
+      <c r="R41" s="135"/>
+      <c r="S41" s="135"/>
+      <c r="T41" s="135"/>
       <c r="U41" s="68"/>
       <c r="V41" s="68"/>
       <c r="W41" s="68"/>
       <c r="X41" s="68"/>
-      <c r="Y41" s="70"/>
-      <c r="Z41" s="70"/>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="68"/>
       <c r="AA41" s="68"/>
       <c r="AB41" s="68"/>
       <c r="AC41" s="68"/>
     </row>
-    <row r="42" spans="2:29" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="E42" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42" s="73" t="s">
-        <v>78</v>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B42" s="84"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="72" t="s">
+        <v>119</v>
       </c>
       <c r="H42" s="68"/>
       <c r="I42" s="68"/>
-      <c r="J42" s="68" t="s">
-        <v>136</v>
-      </c>
+      <c r="J42" s="68"/>
       <c r="K42" s="68"/>
       <c r="L42" s="68"/>
       <c r="M42" s="68"/>
-      <c r="N42" s="138"/>
-      <c r="O42" s="136"/>
-      <c r="P42" s="136"/>
-      <c r="Q42" s="130"/>
-      <c r="R42" s="130"/>
-      <c r="S42" s="130"/>
-      <c r="T42" s="130"/>
+      <c r="N42" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="O42" s="64"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R42" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S42" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T42" s="72" t="s">
+        <v>119</v>
+      </c>
       <c r="U42" s="68"/>
       <c r="V42" s="68"/>
       <c r="W42" s="68"/>
@@ -5753,40 +5782,52 @@
       <c r="AB42" s="68"/>
       <c r="AC42" s="68"/>
     </row>
-    <row r="43" spans="2:29" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B43" s="68" t="s">
         <v>120</v>
       </c>
       <c r="C43" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="F43" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="G43" s="73" t="s">
-        <v>79</v>
+      <c r="D43" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="71" t="s">
+        <v>89</v>
       </c>
       <c r="H43" s="68"/>
       <c r="I43" s="68"/>
       <c r="J43" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="K43" s="68"/>
+        <v>135</v>
+      </c>
+      <c r="K43" s="68">
+        <v>1</v>
+      </c>
       <c r="L43" s="68"/>
       <c r="M43" s="68"/>
-      <c r="N43" s="139"/>
-      <c r="O43" s="137"/>
-      <c r="P43" s="137"/>
-      <c r="Q43" s="131"/>
-      <c r="R43" s="131"/>
-      <c r="S43" s="131"/>
-      <c r="T43" s="131"/>
+      <c r="N43" s="136" t="s">
+        <v>127</v>
+      </c>
+      <c r="O43" s="139"/>
+      <c r="P43" s="139"/>
+      <c r="Q43" s="133" t="s">
+        <v>121</v>
+      </c>
+      <c r="R43" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="S43" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="T43" s="133" t="s">
+        <v>110</v>
+      </c>
       <c r="U43" s="68"/>
       <c r="V43" s="68"/>
       <c r="W43" s="68"/>
@@ -5800,11 +5841,11 @@
     <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B44" s="84"/>
       <c r="C44" s="84"/>
-      <c r="D44" s="89"/>
+      <c r="D44" s="84"/>
       <c r="E44" s="88"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="72" t="s">
-        <v>119</v>
+      <c r="F44" s="88"/>
+      <c r="G44" s="80" t="s">
+        <v>128</v>
       </c>
       <c r="H44" s="68"/>
       <c r="I44" s="68"/>
@@ -5812,23 +5853,13 @@
       <c r="K44" s="68"/>
       <c r="L44" s="68"/>
       <c r="M44" s="68"/>
-      <c r="N44" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="O44" s="64"/>
-      <c r="P44" s="65"/>
-      <c r="Q44" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="R44" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="S44" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="T44" s="72" t="s">
-        <v>119</v>
-      </c>
+      <c r="N44" s="137"/>
+      <c r="O44" s="140"/>
+      <c r="P44" s="140"/>
+      <c r="Q44" s="134"/>
+      <c r="R44" s="134"/>
+      <c r="S44" s="134"/>
+      <c r="T44" s="134"/>
       <c r="U44" s="68"/>
       <c r="V44" s="68"/>
       <c r="W44" s="68"/>
@@ -5839,52 +5870,28 @@
       <c r="AB44" s="68"/>
       <c r="AC44" s="68"/>
     </row>
-    <row r="45" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="E45" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="F45" s="71" t="s">
-        <v>89</v>
-      </c>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B45" s="84"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
       <c r="G45" s="71" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="H45" s="68"/>
       <c r="I45" s="68"/>
-      <c r="J45" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="K45" s="68">
-        <v>1</v>
-      </c>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
       <c r="L45" s="68"/>
       <c r="M45" s="68"/>
-      <c r="N45" s="132" t="s">
-        <v>127</v>
-      </c>
-      <c r="O45" s="135"/>
-      <c r="P45" s="135"/>
-      <c r="Q45" s="129" t="s">
-        <v>121</v>
-      </c>
-      <c r="R45" s="129" t="s">
-        <v>122</v>
-      </c>
-      <c r="S45" s="129" t="s">
-        <v>122</v>
-      </c>
-      <c r="T45" s="129" t="s">
-        <v>110</v>
-      </c>
+      <c r="N45" s="137"/>
+      <c r="O45" s="140"/>
+      <c r="P45" s="140"/>
+      <c r="Q45" s="134"/>
+      <c r="R45" s="134"/>
+      <c r="S45" s="134"/>
+      <c r="T45" s="134"/>
       <c r="U45" s="68"/>
       <c r="V45" s="68"/>
       <c r="W45" s="68"/>
@@ -5896,31 +5903,45 @@
       <c r="AC45" s="68"/>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="80" t="s">
-        <v>128</v>
+      <c r="B46" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" s="71" t="s">
+        <v>77</v>
       </c>
       <c r="H46" s="68"/>
       <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
+      <c r="J46" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="K46" s="68">
+        <v>2</v>
+      </c>
       <c r="L46" s="68"/>
       <c r="M46" s="68"/>
-      <c r="N46" s="133"/>
-      <c r="O46" s="136"/>
-      <c r="P46" s="136"/>
-      <c r="Q46" s="130"/>
-      <c r="R46" s="130"/>
-      <c r="S46" s="130"/>
-      <c r="T46" s="130"/>
+      <c r="N46" s="137"/>
+      <c r="O46" s="140"/>
+      <c r="P46" s="140"/>
+      <c r="Q46" s="134"/>
+      <c r="R46" s="134"/>
+      <c r="S46" s="134"/>
+      <c r="T46" s="134"/>
       <c r="U46" s="68"/>
       <c r="V46" s="68"/>
       <c r="W46" s="68"/>
-      <c r="X46" s="68"/>
+      <c r="X46" s="67"/>
       <c r="Y46" s="68"/>
       <c r="Z46" s="68"/>
       <c r="AA46" s="68"/>
@@ -5928,27 +5949,41 @@
       <c r="AC46" s="68"/>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
+      <c r="B47" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="71" t="s">
+        <v>82</v>
+      </c>
       <c r="G47" s="71" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="H47" s="68"/>
       <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
+      <c r="J47" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="K47" s="68">
+        <v>4</v>
+      </c>
       <c r="L47" s="68"/>
       <c r="M47" s="68"/>
-      <c r="N47" s="133"/>
-      <c r="O47" s="136"/>
-      <c r="P47" s="136"/>
-      <c r="Q47" s="130"/>
-      <c r="R47" s="130"/>
-      <c r="S47" s="130"/>
-      <c r="T47" s="130"/>
+      <c r="N47" s="137"/>
+      <c r="O47" s="140"/>
+      <c r="P47" s="140"/>
+      <c r="Q47" s="134"/>
+      <c r="R47" s="134"/>
+      <c r="S47" s="134"/>
+      <c r="T47" s="134"/>
       <c r="U47" s="68"/>
       <c r="V47" s="68"/>
       <c r="W47" s="68"/>
@@ -5960,45 +5995,37 @@
       <c r="AC47" s="68"/>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B48" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="E48" s="69" t="s">
-        <v>112</v>
-      </c>
+      <c r="B48" s="84"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="88"/>
       <c r="F48" s="71" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G48" s="71" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H48" s="68"/>
       <c r="I48" s="68"/>
-      <c r="J48" s="67" t="s">
+      <c r="J48" s="68" t="s">
         <v>134</v>
       </c>
       <c r="K48" s="68">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L48" s="68"/>
       <c r="M48" s="68"/>
-      <c r="N48" s="133"/>
-      <c r="O48" s="136"/>
-      <c r="P48" s="136"/>
-      <c r="Q48" s="130"/>
-      <c r="R48" s="130"/>
-      <c r="S48" s="130"/>
-      <c r="T48" s="130"/>
+      <c r="N48" s="137"/>
+      <c r="O48" s="140"/>
+      <c r="P48" s="140"/>
+      <c r="Q48" s="134"/>
+      <c r="R48" s="134"/>
+      <c r="S48" s="134"/>
+      <c r="T48" s="134"/>
       <c r="U48" s="68"/>
       <c r="V48" s="68"/>
       <c r="W48" s="68"/>
-      <c r="X48" s="67"/>
+      <c r="X48" s="68"/>
       <c r="Y48" s="68"/>
       <c r="Z48" s="68"/>
       <c r="AA48" s="68"/>
@@ -6019,10 +6046,10 @@
         <v>112</v>
       </c>
       <c r="F49" s="71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G49" s="71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H49" s="68"/>
       <c r="I49" s="68"/>
@@ -6034,13 +6061,13 @@
       </c>
       <c r="L49" s="68"/>
       <c r="M49" s="68"/>
-      <c r="N49" s="133"/>
-      <c r="O49" s="136"/>
-      <c r="P49" s="136"/>
-      <c r="Q49" s="130"/>
-      <c r="R49" s="130"/>
-      <c r="S49" s="130"/>
-      <c r="T49" s="130"/>
+      <c r="N49" s="137"/>
+      <c r="O49" s="140"/>
+      <c r="P49" s="140"/>
+      <c r="Q49" s="134"/>
+      <c r="R49" s="134"/>
+      <c r="S49" s="134"/>
+      <c r="T49" s="134"/>
       <c r="U49" s="68"/>
       <c r="V49" s="68"/>
       <c r="W49" s="68"/>
@@ -6052,33 +6079,41 @@
       <c r="AC49" s="68"/>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B50" s="84"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="88"/>
+      <c r="B50" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="69" t="s">
+        <v>115</v>
+      </c>
       <c r="F50" s="71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G50" s="71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H50" s="68"/>
       <c r="I50" s="68"/>
       <c r="J50" s="68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K50" s="68">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L50" s="68"/>
       <c r="M50" s="68"/>
-      <c r="N50" s="133"/>
-      <c r="O50" s="136"/>
-      <c r="P50" s="136"/>
-      <c r="Q50" s="130"/>
-      <c r="R50" s="130"/>
-      <c r="S50" s="130"/>
-      <c r="T50" s="130"/>
+      <c r="N50" s="137"/>
+      <c r="O50" s="140"/>
+      <c r="P50" s="140"/>
+      <c r="Q50" s="134"/>
+      <c r="R50" s="134"/>
+      <c r="S50" s="134"/>
+      <c r="T50" s="134"/>
       <c r="U50" s="68"/>
       <c r="V50" s="68"/>
       <c r="W50" s="68"/>
@@ -6097,16 +6132,16 @@
         <v>121</v>
       </c>
       <c r="D51" s="69" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E51" s="69" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F51" s="71" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="G51" s="71" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="H51" s="68"/>
       <c r="I51" s="68"/>
@@ -6114,17 +6149,17 @@
         <v>134</v>
       </c>
       <c r="K51" s="68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L51" s="68"/>
       <c r="M51" s="68"/>
-      <c r="N51" s="133"/>
-      <c r="O51" s="136"/>
-      <c r="P51" s="136"/>
-      <c r="Q51" s="130"/>
-      <c r="R51" s="130"/>
-      <c r="S51" s="130"/>
-      <c r="T51" s="130"/>
+      <c r="N51" s="137"/>
+      <c r="O51" s="140"/>
+      <c r="P51" s="140"/>
+      <c r="Q51" s="134"/>
+      <c r="R51" s="134"/>
+      <c r="S51" s="134"/>
+      <c r="T51" s="134"/>
       <c r="U51" s="68"/>
       <c r="V51" s="68"/>
       <c r="W51" s="68"/>
@@ -6143,34 +6178,34 @@
         <v>121</v>
       </c>
       <c r="D52" s="69" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E52" s="69" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F52" s="71" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="G52" s="71" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="H52" s="68"/>
       <c r="I52" s="68"/>
       <c r="J52" s="68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K52" s="68">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L52" s="68"/>
       <c r="M52" s="68"/>
-      <c r="N52" s="133"/>
-      <c r="O52" s="136"/>
-      <c r="P52" s="136"/>
-      <c r="Q52" s="130"/>
-      <c r="R52" s="130"/>
-      <c r="S52" s="130"/>
-      <c r="T52" s="130"/>
+      <c r="N52" s="137"/>
+      <c r="O52" s="140"/>
+      <c r="P52" s="140"/>
+      <c r="Q52" s="134"/>
+      <c r="R52" s="134"/>
+      <c r="S52" s="134"/>
+      <c r="T52" s="134"/>
       <c r="U52" s="68"/>
       <c r="V52" s="68"/>
       <c r="W52" s="68"/>
@@ -6189,34 +6224,34 @@
         <v>121</v>
       </c>
       <c r="D53" s="69" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E53" s="69" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F53" s="71" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G53" s="71" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H53" s="68"/>
       <c r="I53" s="68"/>
       <c r="J53" s="68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K53" s="68">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L53" s="68"/>
       <c r="M53" s="68"/>
-      <c r="N53" s="133"/>
-      <c r="O53" s="136"/>
-      <c r="P53" s="136"/>
-      <c r="Q53" s="130"/>
-      <c r="R53" s="130"/>
-      <c r="S53" s="130"/>
-      <c r="T53" s="130"/>
+      <c r="N53" s="138"/>
+      <c r="O53" s="141"/>
+      <c r="P53" s="141"/>
+      <c r="Q53" s="135"/>
+      <c r="R53" s="135"/>
+      <c r="S53" s="135"/>
+      <c r="T53" s="135"/>
       <c r="U53" s="68"/>
       <c r="V53" s="68"/>
       <c r="W53" s="68"/>
@@ -6241,10 +6276,10 @@
         <v>112</v>
       </c>
       <c r="F54" s="71" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="G54" s="71" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="H54" s="68"/>
       <c r="I54" s="68"/>
@@ -6252,28 +6287,38 @@
         <v>134</v>
       </c>
       <c r="K54" s="68">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L54" s="68"/>
       <c r="M54" s="68"/>
-      <c r="N54" s="133"/>
-      <c r="O54" s="136"/>
-      <c r="P54" s="136"/>
-      <c r="Q54" s="130"/>
-      <c r="R54" s="130"/>
-      <c r="S54" s="130"/>
-      <c r="T54" s="130"/>
-      <c r="U54" s="68"/>
-      <c r="V54" s="68"/>
-      <c r="W54" s="68"/>
-      <c r="X54" s="68"/>
-      <c r="Y54" s="68"/>
-      <c r="Z54" s="68"/>
+      <c r="N54" s="136" t="s">
+        <v>130</v>
+      </c>
+      <c r="O54" s="139"/>
+      <c r="P54" s="139"/>
+      <c r="Q54" s="133" t="s">
+        <v>121</v>
+      </c>
+      <c r="R54" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="S54" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="T54" s="133" t="s">
+        <v>111</v>
+      </c>
+      <c r="U54" s="148"/>
+      <c r="V54" s="148"/>
+      <c r="W54" s="148"/>
+      <c r="X54" s="148"/>
+      <c r="Y54" s="148"/>
+      <c r="Z54" s="148"/>
       <c r="AA54" s="68"/>
       <c r="AB54" s="68"/>
       <c r="AC54" s="68"/>
     </row>
-    <row r="55" spans="2:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B55" s="68" t="s">
         <v>120</v>
       </c>
@@ -6287,34 +6332,34 @@
         <v>112</v>
       </c>
       <c r="F55" s="71" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G55" s="71" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="H55" s="68"/>
       <c r="I55" s="68"/>
       <c r="J55" s="68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K55" s="68">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L55" s="68"/>
       <c r="M55" s="68"/>
-      <c r="N55" s="134"/>
-      <c r="O55" s="137"/>
-      <c r="P55" s="137"/>
-      <c r="Q55" s="131"/>
-      <c r="R55" s="131"/>
-      <c r="S55" s="131"/>
-      <c r="T55" s="131"/>
-      <c r="U55" s="68"/>
-      <c r="V55" s="68"/>
-      <c r="W55" s="68"/>
-      <c r="X55" s="68"/>
-      <c r="Y55" s="68"/>
-      <c r="Z55" s="68"/>
+      <c r="N55" s="137"/>
+      <c r="O55" s="140"/>
+      <c r="P55" s="140"/>
+      <c r="Q55" s="134"/>
+      <c r="R55" s="134"/>
+      <c r="S55" s="134"/>
+      <c r="T55" s="134"/>
+      <c r="U55" s="149"/>
+      <c r="V55" s="149"/>
+      <c r="W55" s="149"/>
+      <c r="X55" s="149"/>
+      <c r="Y55" s="149"/>
+      <c r="Z55" s="149"/>
       <c r="AA55" s="68"/>
       <c r="AB55" s="68"/>
       <c r="AC55" s="68"/>
@@ -6333,10 +6378,10 @@
         <v>112</v>
       </c>
       <c r="F56" s="71" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G56" s="71" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H56" s="68"/>
       <c r="I56" s="68"/>
@@ -6344,55 +6389,37 @@
         <v>134</v>
       </c>
       <c r="K56" s="68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L56" s="68"/>
       <c r="M56" s="68"/>
-      <c r="N56" s="132" t="s">
-        <v>130</v>
-      </c>
-      <c r="O56" s="135"/>
-      <c r="P56" s="135"/>
-      <c r="Q56" s="129" t="s">
-        <v>121</v>
-      </c>
-      <c r="R56" s="129" t="s">
-        <v>122</v>
-      </c>
-      <c r="S56" s="129" t="s">
-        <v>122</v>
-      </c>
-      <c r="T56" s="129" t="s">
-        <v>111</v>
-      </c>
-      <c r="U56" s="68"/>
-      <c r="V56" s="68"/>
-      <c r="W56" s="68"/>
-      <c r="X56" s="68"/>
-      <c r="Y56" s="68"/>
-      <c r="Z56" s="68"/>
+      <c r="N56" s="137"/>
+      <c r="O56" s="140"/>
+      <c r="P56" s="140"/>
+      <c r="Q56" s="134"/>
+      <c r="R56" s="134"/>
+      <c r="S56" s="134"/>
+      <c r="T56" s="134"/>
+      <c r="U56" s="149"/>
+      <c r="V56" s="149"/>
+      <c r="W56" s="149"/>
+      <c r="X56" s="149"/>
+      <c r="Y56" s="149"/>
+      <c r="Z56" s="149"/>
       <c r="AA56" s="68"/>
       <c r="AB56" s="68"/>
       <c r="AC56" s="68"/>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B57" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="E57" s="69" t="s">
-        <v>112</v>
-      </c>
+      <c r="B57" s="84"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="88"/>
       <c r="F57" s="71" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G57" s="71" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H57" s="68"/>
       <c r="I57" s="68"/>
@@ -6400,23 +6427,23 @@
         <v>134</v>
       </c>
       <c r="K57" s="68">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L57" s="68"/>
       <c r="M57" s="68"/>
-      <c r="N57" s="133"/>
-      <c r="O57" s="136"/>
-      <c r="P57" s="136"/>
-      <c r="Q57" s="130"/>
-      <c r="R57" s="130"/>
-      <c r="S57" s="130"/>
-      <c r="T57" s="130"/>
-      <c r="U57" s="68"/>
-      <c r="V57" s="68"/>
-      <c r="W57" s="68"/>
-      <c r="X57" s="68"/>
-      <c r="Y57" s="68"/>
-      <c r="Z57" s="68"/>
+      <c r="N57" s="137"/>
+      <c r="O57" s="140"/>
+      <c r="P57" s="140"/>
+      <c r="Q57" s="134"/>
+      <c r="R57" s="134"/>
+      <c r="S57" s="134"/>
+      <c r="T57" s="134"/>
+      <c r="U57" s="149"/>
+      <c r="V57" s="149"/>
+      <c r="W57" s="149"/>
+      <c r="X57" s="149"/>
+      <c r="Y57" s="149"/>
+      <c r="Z57" s="149"/>
       <c r="AA57" s="68"/>
       <c r="AB57" s="68"/>
       <c r="AC57" s="68"/>
@@ -6429,40 +6456,40 @@
         <v>121</v>
       </c>
       <c r="D58" s="69" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E58" s="69" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F58" s="71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G58" s="71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H58" s="68"/>
       <c r="I58" s="68"/>
       <c r="J58" s="68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K58" s="68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L58" s="68"/>
       <c r="M58" s="68"/>
-      <c r="N58" s="133"/>
-      <c r="O58" s="136"/>
-      <c r="P58" s="136"/>
-      <c r="Q58" s="130"/>
-      <c r="R58" s="130"/>
-      <c r="S58" s="130"/>
-      <c r="T58" s="130"/>
-      <c r="U58" s="68"/>
-      <c r="V58" s="68"/>
-      <c r="W58" s="68"/>
-      <c r="X58" s="68"/>
-      <c r="Y58" s="68"/>
-      <c r="Z58" s="68"/>
+      <c r="N58" s="137"/>
+      <c r="O58" s="140"/>
+      <c r="P58" s="140"/>
+      <c r="Q58" s="134"/>
+      <c r="R58" s="134"/>
+      <c r="S58" s="134"/>
+      <c r="T58" s="134"/>
+      <c r="U58" s="149"/>
+      <c r="V58" s="149"/>
+      <c r="W58" s="149"/>
+      <c r="X58" s="149"/>
+      <c r="Y58" s="149"/>
+      <c r="Z58" s="149"/>
       <c r="AA58" s="68"/>
       <c r="AB58" s="68"/>
       <c r="AC58" s="68"/>
@@ -6473,39 +6500,39 @@
       <c r="D59" s="84"/>
       <c r="E59" s="88"/>
       <c r="F59" s="71" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="G59" s="71" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="H59" s="68"/>
       <c r="I59" s="68"/>
       <c r="J59" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="K59" s="68">
-        <v>8</v>
+        <v>135</v>
+      </c>
+      <c r="K59" s="3">
+        <v>60</v>
       </c>
       <c r="L59" s="68"/>
       <c r="M59" s="68"/>
-      <c r="N59" s="133"/>
-      <c r="O59" s="136"/>
-      <c r="P59" s="136"/>
-      <c r="Q59" s="130"/>
-      <c r="R59" s="130"/>
-      <c r="S59" s="130"/>
-      <c r="T59" s="130"/>
-      <c r="U59" s="68"/>
-      <c r="V59" s="68"/>
-      <c r="W59" s="68"/>
-      <c r="X59" s="68"/>
-      <c r="Y59" s="68"/>
-      <c r="Z59" s="68"/>
+      <c r="N59" s="137"/>
+      <c r="O59" s="140"/>
+      <c r="P59" s="140"/>
+      <c r="Q59" s="134"/>
+      <c r="R59" s="134"/>
+      <c r="S59" s="134"/>
+      <c r="T59" s="134"/>
+      <c r="U59" s="149"/>
+      <c r="V59" s="149"/>
+      <c r="W59" s="149"/>
+      <c r="X59" s="149"/>
+      <c r="Y59" s="149"/>
+      <c r="Z59" s="149"/>
       <c r="AA59" s="68"/>
       <c r="AB59" s="68"/>
       <c r="AC59" s="68"/>
     </row>
-    <row r="60" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B60" s="68" t="s">
         <v>120</v>
       </c>
@@ -6513,169 +6540,185 @@
         <v>121</v>
       </c>
       <c r="D60" s="69" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E60" s="69" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F60" s="71" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="G60" s="71" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="H60" s="68"/>
       <c r="I60" s="68"/>
       <c r="J60" s="68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K60" s="68">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L60" s="68"/>
       <c r="M60" s="68"/>
-      <c r="N60" s="133"/>
-      <c r="O60" s="136"/>
-      <c r="P60" s="136"/>
-      <c r="Q60" s="130"/>
-      <c r="R60" s="130"/>
-      <c r="S60" s="130"/>
-      <c r="T60" s="130"/>
-      <c r="U60" s="68"/>
-      <c r="V60" s="68"/>
-      <c r="W60" s="68"/>
-      <c r="X60" s="68"/>
-      <c r="Y60" s="68"/>
-      <c r="Z60" s="68"/>
+      <c r="N60" s="137"/>
+      <c r="O60" s="140"/>
+      <c r="P60" s="140"/>
+      <c r="Q60" s="134"/>
+      <c r="R60" s="134"/>
+      <c r="S60" s="134"/>
+      <c r="T60" s="134"/>
+      <c r="U60" s="149"/>
+      <c r="V60" s="149"/>
+      <c r="W60" s="149"/>
+      <c r="X60" s="149"/>
+      <c r="Y60" s="149"/>
+      <c r="Z60" s="149"/>
       <c r="AA60" s="68"/>
       <c r="AB60" s="68"/>
       <c r="AC60" s="68"/>
     </row>
     <row r="61" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="84"/>
-      <c r="E61" s="88"/>
+      <c r="B61" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61" s="69" t="s">
+        <v>112</v>
+      </c>
       <c r="F61" s="71" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G61" s="71" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H61" s="68"/>
       <c r="I61" s="68"/>
       <c r="J61" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="K61" s="3">
-        <v>60</v>
+      <c r="K61" s="68">
+        <v>10</v>
       </c>
       <c r="L61" s="68"/>
       <c r="M61" s="68"/>
-      <c r="N61" s="133"/>
-      <c r="O61" s="136"/>
-      <c r="P61" s="136"/>
-      <c r="Q61" s="130"/>
-      <c r="R61" s="130"/>
-      <c r="S61" s="130"/>
-      <c r="T61" s="130"/>
-      <c r="U61" s="68"/>
-      <c r="V61" s="68"/>
-      <c r="W61" s="68"/>
-      <c r="X61" s="68"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="68"/>
+      <c r="N61" s="138"/>
+      <c r="O61" s="141"/>
+      <c r="P61" s="141"/>
+      <c r="Q61" s="135"/>
+      <c r="R61" s="135"/>
+      <c r="S61" s="135"/>
+      <c r="T61" s="135"/>
+      <c r="U61" s="150"/>
+      <c r="V61" s="150"/>
+      <c r="W61" s="150"/>
+      <c r="X61" s="150"/>
+      <c r="Y61" s="150"/>
+      <c r="Z61" s="150"/>
       <c r="AA61" s="68"/>
       <c r="AB61" s="68"/>
       <c r="AC61" s="68"/>
     </row>
     <row r="62" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B62" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D62" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="E62" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="F62" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="G62" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="K62" s="68">
-        <v>6</v>
-      </c>
-      <c r="L62" s="68"/>
-      <c r="M62" s="68"/>
-      <c r="N62" s="133"/>
-      <c r="O62" s="136"/>
-      <c r="P62" s="136"/>
-      <c r="Q62" s="130"/>
-      <c r="R62" s="130"/>
-      <c r="S62" s="130"/>
-      <c r="T62" s="130"/>
-      <c r="U62" s="68"/>
-      <c r="V62" s="68"/>
-      <c r="W62" s="68"/>
-      <c r="X62" s="68"/>
-      <c r="Y62" s="68"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="84"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="84"/>
+      <c r="H62" s="84"/>
+      <c r="I62" s="84"/>
+      <c r="J62" s="84"/>
+      <c r="K62" s="84"/>
+      <c r="L62" s="84"/>
+      <c r="M62" s="84"/>
+      <c r="N62" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="O62" s="91"/>
+      <c r="P62" s="91"/>
+      <c r="Q62" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R62" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S62" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T62" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="U62" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="V62" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="W62" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="X62" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y62" s="68">
+        <v>1</v>
+      </c>
       <c r="Z62" s="68"/>
       <c r="AA62" s="68"/>
       <c r="AB62" s="68"/>
       <c r="AC62" s="68"/>
     </row>
-    <row r="63" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C63" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D63" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="E63" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="F63" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="G63" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68" t="s">
+    <row r="63" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B63" s="84"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="84"/>
+      <c r="J63" s="84"/>
+      <c r="K63" s="84"/>
+      <c r="L63" s="84"/>
+      <c r="M63" s="84"/>
+      <c r="N63" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="O63" s="91"/>
+      <c r="P63" s="91"/>
+      <c r="Q63" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R63" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S63" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T63" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="U63" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="V63" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="W63" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="X63" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="K63" s="68">
-        <v>10</v>
-      </c>
-      <c r="L63" s="68"/>
-      <c r="M63" s="68"/>
-      <c r="N63" s="134"/>
-      <c r="O63" s="137"/>
-      <c r="P63" s="137"/>
-      <c r="Q63" s="131"/>
-      <c r="R63" s="131"/>
-      <c r="S63" s="131"/>
-      <c r="T63" s="131"/>
-      <c r="U63" s="68"/>
-      <c r="V63" s="68"/>
-      <c r="W63" s="68"/>
-      <c r="X63" s="68"/>
-      <c r="Y63" s="68"/>
+      <c r="Y63" s="68">
+        <v>1</v>
+      </c>
       <c r="Z63" s="68"/>
       <c r="AA63" s="68"/>
       <c r="AB63" s="68"/>
@@ -6695,10 +6738,10 @@
       <c r="L64" s="84"/>
       <c r="M64" s="84"/>
       <c r="N64" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="O64" s="91"/>
-      <c r="P64" s="91"/>
+        <v>153</v>
+      </c>
+      <c r="O64" s="68"/>
+      <c r="P64" s="68"/>
       <c r="Q64" s="68" t="s">
         <v>121</v>
       </c>
@@ -6708,80 +6751,47 @@
       <c r="S64" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="T64" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="U64" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="V64" s="68" t="s">
-        <v>152</v>
+      <c r="T64" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="U64" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="V64" s="83" t="s">
+        <v>151</v>
       </c>
       <c r="W64" s="68" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="X64" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y64" s="68">
-        <v>1</v>
-      </c>
-      <c r="Z64" s="68"/>
-      <c r="AA64" s="68"/>
-      <c r="AB64" s="68"/>
-      <c r="AC64" s="68"/>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B65" s="84"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="84"/>
-      <c r="J65" s="84"/>
-      <c r="K65" s="84"/>
-      <c r="L65" s="84"/>
-      <c r="M65" s="84"/>
-      <c r="N65" s="68" t="s">
-        <v>149</v>
-      </c>
-      <c r="O65" s="91"/>
-      <c r="P65" s="91"/>
-      <c r="Q65" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="R65" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="S65" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="T65" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="U65" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="V65" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="W65" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="X65" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y65" s="68">
-        <v>1</v>
-      </c>
-      <c r="Z65" s="68"/>
-      <c r="AA65" s="68"/>
-      <c r="AB65" s="68"/>
-      <c r="AC65" s="68"/>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="62"/>
+      <c r="L65" s="62"/>
+      <c r="M65" s="59"/>
+      <c r="N65" s="63"/>
+      <c r="O65" s="63"/>
+      <c r="P65" s="63"/>
+      <c r="Q65" s="63"/>
+      <c r="R65" s="63"/>
+      <c r="S65" s="63"/>
+      <c r="T65" s="63"/>
+      <c r="U65" s="59"/>
+      <c r="V65" s="59"/>
+      <c r="W65" s="59"/>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B66" s="59"/>
       <c r="C66" s="59"/>
       <c r="D66" s="60"/>
@@ -6805,7 +6815,7 @@
       <c r="V66" s="59"/>
       <c r="W66" s="59"/>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B67" s="59"/>
       <c r="C67" s="59"/>
       <c r="D67" s="60"/>
@@ -6829,7 +6839,7 @@
       <c r="V67" s="59"/>
       <c r="W67" s="59"/>
     </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
       <c r="D68" s="60"/>
@@ -6853,7 +6863,7 @@
       <c r="V68" s="59"/>
       <c r="W68" s="59"/>
     </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
       <c r="D69" s="60"/>
@@ -6877,7 +6887,7 @@
       <c r="V69" s="59"/>
       <c r="W69" s="59"/>
     </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
       <c r="D70" s="60"/>
@@ -6901,7 +6911,7 @@
       <c r="V70" s="59"/>
       <c r="W70" s="59"/>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
       <c r="D71" s="60"/>
@@ -6925,7 +6935,7 @@
       <c r="V71" s="59"/>
       <c r="W71" s="59"/>
     </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
       <c r="D72" s="60"/>
@@ -6949,7 +6959,7 @@
       <c r="V72" s="59"/>
       <c r="W72" s="59"/>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
       <c r="D73" s="60"/>
@@ -6973,7 +6983,7 @@
       <c r="V73" s="59"/>
       <c r="W73" s="59"/>
     </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
       <c r="D74" s="60"/>
@@ -6997,7 +7007,7 @@
       <c r="V74" s="59"/>
       <c r="W74" s="59"/>
     </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
       <c r="D75" s="60"/>
@@ -7021,7 +7031,7 @@
       <c r="V75" s="59"/>
       <c r="W75" s="59"/>
     </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B76" s="59"/>
       <c r="C76" s="59"/>
       <c r="D76" s="60"/>
@@ -7045,7 +7055,7 @@
       <c r="V76" s="59"/>
       <c r="W76" s="59"/>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
       <c r="D77" s="60"/>
@@ -7069,7 +7079,7 @@
       <c r="V77" s="59"/>
       <c r="W77" s="59"/>
     </row>
-    <row r="78" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
       <c r="D78" s="60"/>
@@ -7093,7 +7103,7 @@
       <c r="V78" s="59"/>
       <c r="W78" s="59"/>
     </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
       <c r="D79" s="60"/>
@@ -7117,7 +7127,7 @@
       <c r="V79" s="59"/>
       <c r="W79" s="59"/>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
       <c r="D80" s="60"/>
@@ -7530,7 +7540,7 @@
       <c r="C97" s="59"/>
       <c r="D97" s="60"/>
       <c r="E97" s="60"/>
-      <c r="F97" s="61"/>
+      <c r="F97" s="60"/>
       <c r="G97" s="59"/>
       <c r="H97" s="59"/>
       <c r="I97" s="59"/>
@@ -7549,90 +7559,38 @@
       <c r="V97" s="59"/>
       <c r="W97" s="59"/>
     </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B98" s="59"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="60"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="61"/>
-      <c r="G98" s="59"/>
-      <c r="H98" s="59"/>
-      <c r="I98" s="59"/>
-      <c r="J98" s="62"/>
-      <c r="K98" s="62"/>
-      <c r="L98" s="62"/>
-      <c r="M98" s="59"/>
-      <c r="N98" s="63"/>
-      <c r="O98" s="63"/>
-      <c r="P98" s="63"/>
-      <c r="Q98" s="63"/>
-      <c r="R98" s="63"/>
-      <c r="S98" s="63"/>
-      <c r="T98" s="63"/>
-      <c r="U98" s="59"/>
-      <c r="V98" s="59"/>
-      <c r="W98" s="59"/>
-    </row>
-    <row r="99" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B99" s="59"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="60"/>
-      <c r="E99" s="60"/>
-      <c r="F99" s="60"/>
-      <c r="G99" s="59"/>
-      <c r="H99" s="59"/>
-      <c r="I99" s="59"/>
-      <c r="J99" s="62"/>
-      <c r="K99" s="62"/>
-      <c r="L99" s="62"/>
-      <c r="M99" s="59"/>
-      <c r="N99" s="63"/>
-      <c r="O99" s="63"/>
-      <c r="P99" s="63"/>
-      <c r="Q99" s="63"/>
-      <c r="R99" s="63"/>
-      <c r="S99" s="63"/>
-      <c r="T99" s="63"/>
-      <c r="U99" s="59"/>
-      <c r="V99" s="59"/>
-      <c r="W99" s="59"/>
-    </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="Q56:Q63"/>
-    <mergeCell ref="S56:S63"/>
-    <mergeCell ref="T56:T63"/>
-    <mergeCell ref="N45:N55"/>
-    <mergeCell ref="O45:O55"/>
-    <mergeCell ref="P45:P55"/>
-    <mergeCell ref="Q45:Q55"/>
-    <mergeCell ref="S45:S55"/>
-    <mergeCell ref="T45:T55"/>
-    <mergeCell ref="R45:R55"/>
-    <mergeCell ref="R56:R63"/>
-    <mergeCell ref="P56:P63"/>
-    <mergeCell ref="O56:O63"/>
-    <mergeCell ref="N56:N63"/>
+  <mergeCells count="30">
+    <mergeCell ref="Z54:Z61"/>
+    <mergeCell ref="U54:U61"/>
+    <mergeCell ref="V54:V61"/>
+    <mergeCell ref="W54:W61"/>
+    <mergeCell ref="X54:X61"/>
+    <mergeCell ref="Y54:Y61"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="T39:T41"/>
+    <mergeCell ref="S39:S41"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="R39:R41"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="T38:T40"/>
-    <mergeCell ref="S38:S40"/>
-    <mergeCell ref="U38:U40"/>
-    <mergeCell ref="V38:V40"/>
-    <mergeCell ref="W38:W40"/>
-    <mergeCell ref="Q41:Q43"/>
-    <mergeCell ref="T41:T43"/>
-    <mergeCell ref="S41:S43"/>
-    <mergeCell ref="N38:N40"/>
-    <mergeCell ref="O38:O40"/>
-    <mergeCell ref="P38:P40"/>
-    <mergeCell ref="R38:R40"/>
-    <mergeCell ref="Q38:Q40"/>
-    <mergeCell ref="N41:N43"/>
-    <mergeCell ref="P41:P43"/>
-    <mergeCell ref="O41:O43"/>
-    <mergeCell ref="R41:R43"/>
+    <mergeCell ref="Q54:Q61"/>
+    <mergeCell ref="S54:S61"/>
+    <mergeCell ref="T54:T61"/>
+    <mergeCell ref="N43:N53"/>
+    <mergeCell ref="O43:O53"/>
+    <mergeCell ref="P43:P53"/>
+    <mergeCell ref="Q43:Q53"/>
+    <mergeCell ref="S43:S53"/>
+    <mergeCell ref="T43:T53"/>
+    <mergeCell ref="R43:R53"/>
+    <mergeCell ref="R54:R61"/>
+    <mergeCell ref="P54:P61"/>
+    <mergeCell ref="O54:O61"/>
+    <mergeCell ref="N54:N61"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7900,15 +7858,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -7957,25 +7916,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7990,25 +7963,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_FIXA_P1.xlsx
+++ b/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_FIXA_P1.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" activeTab="3"/>
+    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="807" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
     <sheet name="Origens Destinos e Definições" sheetId="10" r:id="rId2"/>
-    <sheet name="Desenho do Mapa" sheetId="16" r:id="rId3"/>
-    <sheet name="Mapeamento" sheetId="8" r:id="rId4"/>
-    <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId5"/>
+    <sheet name="Desenho do Mapa P1" sheetId="16" r:id="rId3"/>
+    <sheet name="Mapeamento P1 " sheetId="8" r:id="rId4"/>
+    <sheet name="Desenho do Mapa P2" sheetId="19" r:id="rId5"/>
+    <sheet name="Mapeamento P2" sheetId="18" r:id="rId6"/>
+    <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -102,8 +104,46 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>bajpaia</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="173">
   <si>
     <t>Schema</t>
   </si>
@@ -1103,12 +1143,70 @@
   <si>
     <t>S</t>
   </si>
+  <si>
+    <t>Preencher com o valor fixo '1'</t>
+  </si>
+  <si>
+    <t>IND_SITUACAO_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>IND_DESTINO</t>
+  </si>
+  <si>
+    <t>IF R_AP.IND_TIPO_CONTRATO IN ('F', 'S')
+THEN
+V_DESTINO         := 1;
+ELSIF R_AP.IND_TIPO_CONTRATO = 'P'
+THEN
+V_DESTINO          := 2;
+END IF;</t>
+  </si>
+  <si>
+    <t>IF DATA
+ELSIF IND_FIXO_VARIAVEL = 'F' ELSIF IND_AUTORIZACAO = 2 and VALOR_FIXO &gt; 0 and IND_TIPO_SALARIO in ('H','M') Então IND_APTO_PAGAMENTO = 2</t>
+  </si>
+  <si>
+    <t>SYSDATE</t>
+  </si>
+  <si>
+    <t>DT_GERACAO</t>
+  </si>
+  <si>
+    <t>DT_LIBERACAO</t>
+  </si>
+  <si>
+    <t>DT_PROCESSAMENTO</t>
+  </si>
+  <si>
+    <t>NUM_SEQ_SOLICITACAO</t>
+  </si>
+  <si>
+    <t>NUM_SEQ_ALOCACAO</t>
+  </si>
+  <si>
+    <t>MES_ANO_ATUACAO</t>
+  </si>
+  <si>
+    <t>NUM_SEQ_FALTA</t>
+  </si>
+  <si>
+    <t>NUM_SEQ_TURMA</t>
+  </si>
+  <si>
+    <t>COD_TURMA_EXTENSAO</t>
+  </si>
+  <si>
+    <t>QTD_HORAS_TEORICO</t>
+  </si>
+  <si>
+    <t>Preencher com nulo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1651,7 +1749,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1912,6 +2010,102 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1921,108 +2115,48 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2036,39 +2170,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2077,11 +2217,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2105,7 +2266,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2135,7 +2296,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2202,7 +2363,7 @@
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2250,7 +2411,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2273,14 +2434,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2323,7 +2484,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2346,14 +2507,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2367,52 +2528,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>30</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15362" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s15362"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2502,7 +2617,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2537,7 +2651,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2713,7 +2826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2721,7 +2834,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="16" customWidth="1"/>
@@ -2730,13 +2843,13 @@
     <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="102" t="s">
+    <row r="2" spans="2:10" ht="18" customHeight="1">
+      <c r="C2" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="102"/>
-    </row>
-    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D2" s="108"/>
+    </row>
+    <row r="3" spans="2:10" ht="15">
       <c r="C3" s="17" t="s">
         <v>143</v>
       </c>
@@ -2744,22 +2857,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="C4" s="17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="C5" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="C6" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="13.5" thickBot="1">
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
@@ -2770,143 +2883,135 @@
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
     </row>
-    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="106" t="s">
+    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
+    <row r="9" spans="2:10">
+      <c r="B9" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="108"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="111"/>
-    </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="117"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="118"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="44" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="112" t="s">
+      <c r="D11" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112" t="s">
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="122"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="30" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="29">
         <v>41236</v>
       </c>
-      <c r="D12" s="114" t="s">
+      <c r="D12" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="115"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E12" s="124"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="127"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="101"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D13" s="109"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="114"/>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="101"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="114"/>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="101"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="114"/>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="101"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="114"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="98"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="130"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="98"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -2917,6 +3022,14 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -2926,7 +3039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2934,7 +3047,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="16" customWidth="1"/>
@@ -2943,7 +3056,7 @@
     <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="18">
       <c r="C2" s="17" t="s">
         <v>146</v>
       </c>
@@ -2952,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="15">
       <c r="C3" s="17" t="s">
         <v>147</v>
       </c>
@@ -2961,7 +3074,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="13.5" thickBot="1">
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -2972,116 +3085,116 @@
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
     </row>
-    <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="121" t="s">
+    <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
+    <row r="6" spans="2:10">
+      <c r="B6" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="51" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="83" t="s">
         <v>112</v>
       </c>
       <c r="C8" s="52"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="83" t="s">
         <v>118</v>
       </c>
       <c r="C9" s="52"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="83" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="52"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="83" t="s">
         <v>114</v>
       </c>
       <c r="C11" s="52"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="83" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="52"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="83" t="s">
         <v>115</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-    </row>
-    <row r="14" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="136"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+    </row>
+    <row r="14" spans="2:10" ht="13.5" thickBot="1">
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -3092,20 +3205,20 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="122" t="s">
+    <row r="15" spans="2:10">
+      <c r="B15" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-    </row>
-    <row r="16" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+    </row>
+    <row r="16" spans="2:10" ht="23.25" customHeight="1">
       <c r="B16" s="47" t="s">
         <v>61</v>
       </c>
@@ -3115,18 +3228,18 @@
       <c r="D16" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="129" t="s">
+      <c r="E16" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="131"/>
-      <c r="G16" s="129" t="s">
+      <c r="F16" s="142"/>
+      <c r="G16" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="131"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="142"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="1" t="s">
         <v>138</v>
       </c>
@@ -3134,27 +3247,27 @@
       <c r="D17" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="125" t="s">
+      <c r="E17" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="F17" s="126"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="132"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F17" s="135"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="1"/>
       <c r="C18" s="9"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="132"/>
-    </row>
-    <row r="19" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="134"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+    </row>
+    <row r="19" spans="2:10" ht="13.5" thickBot="1">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3165,14 +3278,14 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="122" t="s">
+    <row r="20" spans="2:10" ht="25.5" customHeight="1">
+      <c r="B20" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="46" t="s">
         <v>62</v>
       </c>
@@ -3183,7 +3296,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" ht="25.5">
       <c r="B22" s="81" t="s">
         <v>137</v>
       </c>
@@ -3192,12 +3305,12 @@
       </c>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10">
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3208,20 +3321,20 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="121" t="s">
+    <row r="25" spans="2:10" ht="12.75" customHeight="1">
+      <c r="B25" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="121"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="131"/>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="51" t="s">
         <v>67</v>
       </c>
@@ -3231,52 +3344,61 @@
       <c r="D26" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="124" t="s">
+      <c r="E26" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124" t="s">
+      <c r="F26" s="133"/>
+      <c r="G26" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="124"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="124"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="133"/>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="12"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="120"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="12"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="120"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="120"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D7:J7"/>
@@ -3293,15 +3415,6 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3312,67 +3425,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="O7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="3.7109375" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="15362" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>400050</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>30</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="15362" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Visio.Drawing.11" shapeId="15362" r:id="rId3"/>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AF97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="N46" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T27" sqref="T27"/>
+      <selection pane="bottomRight" activeCell="U64" sqref="U64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -3386,7 +3478,7 @@
     <col min="11" max="12" width="11.42578125" style="6" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" style="2" customWidth="1"/>
     <col min="14" max="14" width="57.28515625" style="54" customWidth="1"/>
-    <col min="15" max="16" width="29.85546875" style="54" customWidth="1"/>
+    <col min="15" max="16" width="29.85546875" style="54" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="54" customWidth="1"/>
     <col min="18" max="18" width="18.42578125" style="54" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.28515625" style="54" customWidth="1"/>
@@ -3405,52 +3497,52 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:29">
       <c r="D1" s="79"/>
       <c r="Q1" s="55"/>
       <c r="R1" s="55"/>
       <c r="S1" s="55"/>
       <c r="T1" s="55"/>
     </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="144" t="s">
+    <row r="2" spans="2:29">
+      <c r="B2" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="146" t="s">
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="142" t="s">
+      <c r="O2" s="158"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="143"/>
-      <c r="AB2" s="143"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="155"/>
+      <c r="U2" s="155"/>
+      <c r="V2" s="155"/>
+      <c r="W2" s="155"/>
+      <c r="X2" s="155"/>
+      <c r="Y2" s="155"/>
+      <c r="Z2" s="155"/>
+      <c r="AA2" s="155"/>
+      <c r="AB2" s="155"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:29" ht="23.25">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -3534,7 +3626,7 @@
       </c>
       <c r="AC3" s="41"/>
     </row>
-    <row r="4" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B4" s="68" t="s">
         <v>120</v>
       </c>
@@ -3594,7 +3686,7 @@
       <c r="AB4" s="68"/>
       <c r="AC4" s="68"/>
     </row>
-    <row r="5" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B5" s="68" t="s">
         <v>120</v>
       </c>
@@ -3654,7 +3746,7 @@
       <c r="AB5" s="68"/>
       <c r="AC5" s="68"/>
     </row>
-    <row r="6" spans="2:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:29" s="10" customFormat="1" ht="12">
       <c r="B6" s="68" t="s">
         <v>120</v>
       </c>
@@ -3714,7 +3806,7 @@
       <c r="AB6" s="68"/>
       <c r="AC6" s="68"/>
     </row>
-    <row r="7" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:29" s="15" customFormat="1" ht="12">
       <c r="B7" s="68" t="s">
         <v>120</v>
       </c>
@@ -3770,7 +3862,7 @@
       <c r="AB7" s="68"/>
       <c r="AC7" s="68"/>
     </row>
-    <row r="8" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B8" s="68" t="s">
         <v>120</v>
       </c>
@@ -3826,7 +3918,7 @@
       <c r="AB8" s="68"/>
       <c r="AC8" s="68"/>
     </row>
-    <row r="9" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B9" s="68" t="s">
         <v>120</v>
       </c>
@@ -3886,7 +3978,7 @@
       <c r="AB9" s="70"/>
       <c r="AC9" s="70"/>
     </row>
-    <row r="10" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B10" s="68" t="s">
         <v>120</v>
       </c>
@@ -3946,7 +4038,7 @@
       <c r="AB10" s="70"/>
       <c r="AC10" s="70"/>
     </row>
-    <row r="11" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B11" s="68" t="s">
         <v>120</v>
       </c>
@@ -4006,7 +4098,7 @@
       <c r="AB11" s="70"/>
       <c r="AC11" s="70"/>
     </row>
-    <row r="12" spans="2:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:29" s="10" customFormat="1" ht="12">
       <c r="B12" s="84"/>
       <c r="C12" s="84"/>
       <c r="D12" s="85"/>
@@ -4056,7 +4148,7 @@
       <c r="AB12" s="70"/>
       <c r="AC12" s="70"/>
     </row>
-    <row r="13" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:29" s="15" customFormat="1" ht="12">
       <c r="B13" s="68" t="s">
         <v>120</v>
       </c>
@@ -4120,7 +4212,7 @@
       <c r="AB13" s="70"/>
       <c r="AC13" s="70"/>
     </row>
-    <row r="14" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:29" s="15" customFormat="1" ht="12">
       <c r="B14" s="84"/>
       <c r="C14" s="84"/>
       <c r="D14" s="85"/>
@@ -4174,7 +4266,7 @@
       <c r="AB14" s="70"/>
       <c r="AC14" s="70"/>
     </row>
-    <row r="15" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:29" s="15" customFormat="1" ht="12">
       <c r="B15" s="84"/>
       <c r="C15" s="84"/>
       <c r="D15" s="85"/>
@@ -4216,7 +4308,7 @@
       <c r="AB15" s="70"/>
       <c r="AC15" s="70"/>
     </row>
-    <row r="16" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:29" s="3" customFormat="1">
       <c r="B16" s="68" t="s">
         <v>120</v>
       </c>
@@ -4276,7 +4368,7 @@
       <c r="AB16" s="68"/>
       <c r="AC16" s="68"/>
     </row>
-    <row r="17" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:29" s="3" customFormat="1">
       <c r="B17" s="68" t="s">
         <v>120</v>
       </c>
@@ -4336,7 +4428,7 @@
       <c r="AB17" s="68"/>
       <c r="AC17" s="68"/>
     </row>
-    <row r="18" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:29" s="3" customFormat="1">
       <c r="B18" s="68" t="s">
         <v>120</v>
       </c>
@@ -4396,7 +4488,7 @@
       <c r="AB18" s="68"/>
       <c r="AC18" s="68"/>
     </row>
-    <row r="19" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:29" s="3" customFormat="1">
       <c r="B19" s="68" t="s">
         <v>120</v>
       </c>
@@ -4456,7 +4548,7 @@
       <c r="AB19" s="68"/>
       <c r="AC19" s="68"/>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:29">
       <c r="B20" s="68" t="s">
         <v>120</v>
       </c>
@@ -4516,7 +4608,7 @@
       <c r="AB20" s="68"/>
       <c r="AC20" s="68"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:29">
       <c r="B21" s="68" t="s">
         <v>120</v>
       </c>
@@ -4576,7 +4668,7 @@
       <c r="AB21" s="68"/>
       <c r="AC21" s="68"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:29">
       <c r="B22" s="68" t="s">
         <v>120</v>
       </c>
@@ -4636,7 +4728,7 @@
       <c r="AB22" s="68"/>
       <c r="AC22" s="68"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:29">
       <c r="B23" s="68" t="s">
         <v>120</v>
       </c>
@@ -4696,7 +4788,7 @@
       <c r="AB23" s="68"/>
       <c r="AC23" s="68"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:29">
       <c r="B24" s="68" t="s">
         <v>120</v>
       </c>
@@ -4756,7 +4848,7 @@
       <c r="AB24" s="68"/>
       <c r="AC24" s="68"/>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:29">
       <c r="B25" s="68" t="s">
         <v>120</v>
       </c>
@@ -4816,7 +4908,7 @@
       <c r="AB25" s="68"/>
       <c r="AC25" s="68"/>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:29">
       <c r="B26" s="68" t="s">
         <v>120</v>
       </c>
@@ -4876,7 +4968,7 @@
       <c r="AB26" s="68"/>
       <c r="AC26" s="68"/>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:29">
       <c r="B27" s="68" t="s">
         <v>120</v>
       </c>
@@ -4936,7 +5028,7 @@
       <c r="AB27" s="68"/>
       <c r="AC27" s="68"/>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:29">
       <c r="B28" s="68" t="s">
         <v>120</v>
       </c>
@@ -4996,7 +5088,7 @@
       <c r="AB28" s="68"/>
       <c r="AC28" s="68"/>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:29">
       <c r="B29" s="68" t="s">
         <v>120</v>
       </c>
@@ -5056,7 +5148,7 @@
       <c r="AB29" s="68"/>
       <c r="AC29" s="68"/>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:29">
       <c r="B30" s="68" t="s">
         <v>120</v>
       </c>
@@ -5116,7 +5208,7 @@
       <c r="AB30" s="68"/>
       <c r="AC30" s="68"/>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:29">
       <c r="B31" s="68" t="s">
         <v>120</v>
       </c>
@@ -5180,7 +5272,7 @@
       <c r="AB31" s="68"/>
       <c r="AC31" s="68"/>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:29">
       <c r="B32" s="68" t="s">
         <v>120</v>
       </c>
@@ -5240,7 +5332,7 @@
       <c r="AB32" s="68"/>
       <c r="AC32" s="68"/>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29">
       <c r="B33" s="68" t="s">
         <v>120</v>
       </c>
@@ -5300,7 +5392,7 @@
       <c r="AB33" s="68"/>
       <c r="AC33" s="68"/>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29">
       <c r="B34" s="68" t="s">
         <v>120</v>
       </c>
@@ -5360,7 +5452,7 @@
       <c r="AB34" s="68"/>
       <c r="AC34" s="68"/>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:29">
       <c r="B35" s="68" t="s">
         <v>120</v>
       </c>
@@ -5420,7 +5512,7 @@
       <c r="AB35" s="68"/>
       <c r="AC35" s="68"/>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:29">
       <c r="B36" s="68" t="s">
         <v>120</v>
       </c>
@@ -5480,7 +5572,7 @@
       <c r="AB36" s="68"/>
       <c r="AC36" s="68"/>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29">
       <c r="B37" s="87"/>
       <c r="C37" s="87"/>
       <c r="D37" s="85"/>
@@ -5530,7 +5622,7 @@
       <c r="AB37" s="68"/>
       <c r="AC37" s="68"/>
     </row>
-    <row r="38" spans="2:29" ht="24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" ht="24">
       <c r="B38" s="68" t="s">
         <v>120</v>
       </c>
@@ -5594,7 +5686,7 @@
       <c r="AB38" s="95"/>
       <c r="AC38" s="68"/>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29">
       <c r="B39" s="68" t="s">
         <v>120</v>
       </c>
@@ -5625,25 +5717,25 @@
         <v>2</v>
       </c>
       <c r="M39" s="68"/>
-      <c r="N39" s="136" t="s">
+      <c r="N39" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="O39" s="139"/>
-      <c r="P39" s="139"/>
-      <c r="Q39" s="133" t="s">
-        <v>121</v>
-      </c>
-      <c r="R39" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="S39" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="T39" s="133" t="s">
+      <c r="O39" s="151"/>
+      <c r="P39" s="151"/>
+      <c r="Q39" s="145" t="s">
+        <v>121</v>
+      </c>
+      <c r="R39" s="145" t="s">
+        <v>122</v>
+      </c>
+      <c r="S39" s="145" t="s">
+        <v>122</v>
+      </c>
+      <c r="T39" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="U39" s="68"/>
-      <c r="V39" s="68"/>
+      <c r="U39" s="145"/>
+      <c r="V39" s="145"/>
       <c r="W39" s="68"/>
       <c r="X39" s="68"/>
       <c r="Y39" s="70"/>
@@ -5652,7 +5744,7 @@
       <c r="AB39" s="68"/>
       <c r="AC39" s="68"/>
     </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:29">
       <c r="B40" s="68" t="s">
         <v>120</v>
       </c>
@@ -5679,15 +5771,15 @@
       <c r="K40" s="68"/>
       <c r="L40" s="68"/>
       <c r="M40" s="68"/>
-      <c r="N40" s="151"/>
-      <c r="O40" s="140"/>
-      <c r="P40" s="140"/>
-      <c r="Q40" s="134"/>
-      <c r="R40" s="134"/>
-      <c r="S40" s="134"/>
-      <c r="T40" s="134"/>
-      <c r="U40" s="68"/>
-      <c r="V40" s="68"/>
+      <c r="N40" s="149"/>
+      <c r="O40" s="152"/>
+      <c r="P40" s="152"/>
+      <c r="Q40" s="146"/>
+      <c r="R40" s="146"/>
+      <c r="S40" s="146"/>
+      <c r="T40" s="146"/>
+      <c r="U40" s="146"/>
+      <c r="V40" s="146"/>
       <c r="W40" s="68"/>
       <c r="X40" s="68"/>
       <c r="Y40" s="68"/>
@@ -5696,7 +5788,7 @@
       <c r="AB40" s="68"/>
       <c r="AC40" s="68"/>
     </row>
-    <row r="41" spans="2:29" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:29" ht="33.75" customHeight="1">
       <c r="B41" s="68" t="s">
         <v>120</v>
       </c>
@@ -5723,15 +5815,15 @@
       <c r="K41" s="68"/>
       <c r="L41" s="68"/>
       <c r="M41" s="68"/>
-      <c r="N41" s="152"/>
-      <c r="O41" s="141"/>
-      <c r="P41" s="141"/>
-      <c r="Q41" s="135"/>
-      <c r="R41" s="135"/>
-      <c r="S41" s="135"/>
-      <c r="T41" s="135"/>
-      <c r="U41" s="68"/>
-      <c r="V41" s="68"/>
+      <c r="N41" s="150"/>
+      <c r="O41" s="153"/>
+      <c r="P41" s="153"/>
+      <c r="Q41" s="147"/>
+      <c r="R41" s="147"/>
+      <c r="S41" s="147"/>
+      <c r="T41" s="147"/>
+      <c r="U41" s="147"/>
+      <c r="V41" s="147"/>
       <c r="W41" s="68"/>
       <c r="X41" s="68"/>
       <c r="Y41" s="68"/>
@@ -5740,7 +5832,7 @@
       <c r="AB41" s="68"/>
       <c r="AC41" s="68"/>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29">
       <c r="B42" s="84"/>
       <c r="C42" s="84"/>
       <c r="D42" s="89"/>
@@ -5782,7 +5874,7 @@
       <c r="AB42" s="68"/>
       <c r="AC42" s="68"/>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29">
       <c r="B43" s="68" t="s">
         <v>120</v>
       </c>
@@ -5811,34 +5903,34 @@
       </c>
       <c r="L43" s="68"/>
       <c r="M43" s="68"/>
-      <c r="N43" s="136" t="s">
+      <c r="N43" s="148" t="s">
         <v>127</v>
       </c>
-      <c r="O43" s="139"/>
-      <c r="P43" s="139"/>
-      <c r="Q43" s="133" t="s">
-        <v>121</v>
-      </c>
-      <c r="R43" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="S43" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="T43" s="133" t="s">
+      <c r="O43" s="151"/>
+      <c r="P43" s="151"/>
+      <c r="Q43" s="145" t="s">
+        <v>121</v>
+      </c>
+      <c r="R43" s="145" t="s">
+        <v>122</v>
+      </c>
+      <c r="S43" s="145" t="s">
+        <v>122</v>
+      </c>
+      <c r="T43" s="145" t="s">
         <v>110</v>
       </c>
-      <c r="U43" s="68"/>
-      <c r="V43" s="68"/>
-      <c r="W43" s="68"/>
-      <c r="X43" s="68"/>
-      <c r="Y43" s="68"/>
-      <c r="Z43" s="68"/>
-      <c r="AA43" s="68"/>
-      <c r="AB43" s="68"/>
-      <c r="AC43" s="68"/>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="U43" s="145"/>
+      <c r="V43" s="145"/>
+      <c r="W43" s="145"/>
+      <c r="X43" s="145"/>
+      <c r="Y43" s="145"/>
+      <c r="Z43" s="145"/>
+      <c r="AA43" s="145"/>
+      <c r="AB43" s="145"/>
+      <c r="AC43" s="145"/>
+    </row>
+    <row r="44" spans="2:29">
       <c r="B44" s="84"/>
       <c r="C44" s="84"/>
       <c r="D44" s="84"/>
@@ -5853,24 +5945,24 @@
       <c r="K44" s="68"/>
       <c r="L44" s="68"/>
       <c r="M44" s="68"/>
-      <c r="N44" s="137"/>
-      <c r="O44" s="140"/>
-      <c r="P44" s="140"/>
-      <c r="Q44" s="134"/>
-      <c r="R44" s="134"/>
-      <c r="S44" s="134"/>
-      <c r="T44" s="134"/>
-      <c r="U44" s="68"/>
-      <c r="V44" s="68"/>
-      <c r="W44" s="68"/>
-      <c r="X44" s="68"/>
-      <c r="Y44" s="68"/>
-      <c r="Z44" s="68"/>
-      <c r="AA44" s="68"/>
-      <c r="AB44" s="68"/>
-      <c r="AC44" s="68"/>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N44" s="160"/>
+      <c r="O44" s="152"/>
+      <c r="P44" s="152"/>
+      <c r="Q44" s="146"/>
+      <c r="R44" s="146"/>
+      <c r="S44" s="146"/>
+      <c r="T44" s="146"/>
+      <c r="U44" s="146"/>
+      <c r="V44" s="146"/>
+      <c r="W44" s="146"/>
+      <c r="X44" s="146"/>
+      <c r="Y44" s="146"/>
+      <c r="Z44" s="146"/>
+      <c r="AA44" s="146"/>
+      <c r="AB44" s="146"/>
+      <c r="AC44" s="146"/>
+    </row>
+    <row r="45" spans="2:29">
       <c r="B45" s="84"/>
       <c r="C45" s="84"/>
       <c r="D45" s="84"/>
@@ -5885,24 +5977,24 @@
       <c r="K45" s="68"/>
       <c r="L45" s="68"/>
       <c r="M45" s="68"/>
-      <c r="N45" s="137"/>
-      <c r="O45" s="140"/>
-      <c r="P45" s="140"/>
-      <c r="Q45" s="134"/>
-      <c r="R45" s="134"/>
-      <c r="S45" s="134"/>
-      <c r="T45" s="134"/>
-      <c r="U45" s="68"/>
-      <c r="V45" s="68"/>
-      <c r="W45" s="68"/>
-      <c r="X45" s="68"/>
-      <c r="Y45" s="68"/>
-      <c r="Z45" s="68"/>
-      <c r="AA45" s="68"/>
-      <c r="AB45" s="68"/>
-      <c r="AC45" s="68"/>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N45" s="160"/>
+      <c r="O45" s="152"/>
+      <c r="P45" s="152"/>
+      <c r="Q45" s="146"/>
+      <c r="R45" s="146"/>
+      <c r="S45" s="146"/>
+      <c r="T45" s="146"/>
+      <c r="U45" s="146"/>
+      <c r="V45" s="146"/>
+      <c r="W45" s="146"/>
+      <c r="X45" s="146"/>
+      <c r="Y45" s="146"/>
+      <c r="Z45" s="146"/>
+      <c r="AA45" s="146"/>
+      <c r="AB45" s="146"/>
+      <c r="AC45" s="146"/>
+    </row>
+    <row r="46" spans="2:29">
       <c r="B46" s="68" t="s">
         <v>120</v>
       </c>
@@ -5931,24 +6023,24 @@
       </c>
       <c r="L46" s="68"/>
       <c r="M46" s="68"/>
-      <c r="N46" s="137"/>
-      <c r="O46" s="140"/>
-      <c r="P46" s="140"/>
-      <c r="Q46" s="134"/>
-      <c r="R46" s="134"/>
-      <c r="S46" s="134"/>
-      <c r="T46" s="134"/>
-      <c r="U46" s="68"/>
-      <c r="V46" s="68"/>
-      <c r="W46" s="68"/>
-      <c r="X46" s="67"/>
-      <c r="Y46" s="68"/>
-      <c r="Z46" s="68"/>
-      <c r="AA46" s="68"/>
-      <c r="AB46" s="68"/>
-      <c r="AC46" s="68"/>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N46" s="160"/>
+      <c r="O46" s="152"/>
+      <c r="P46" s="152"/>
+      <c r="Q46" s="146"/>
+      <c r="R46" s="146"/>
+      <c r="S46" s="146"/>
+      <c r="T46" s="146"/>
+      <c r="U46" s="146"/>
+      <c r="V46" s="146"/>
+      <c r="W46" s="146"/>
+      <c r="X46" s="146"/>
+      <c r="Y46" s="146"/>
+      <c r="Z46" s="146"/>
+      <c r="AA46" s="146"/>
+      <c r="AB46" s="146"/>
+      <c r="AC46" s="146"/>
+    </row>
+    <row r="47" spans="2:29">
       <c r="B47" s="68" t="s">
         <v>120</v>
       </c>
@@ -5977,24 +6069,24 @@
       </c>
       <c r="L47" s="68"/>
       <c r="M47" s="68"/>
-      <c r="N47" s="137"/>
-      <c r="O47" s="140"/>
-      <c r="P47" s="140"/>
-      <c r="Q47" s="134"/>
-      <c r="R47" s="134"/>
-      <c r="S47" s="134"/>
-      <c r="T47" s="134"/>
-      <c r="U47" s="68"/>
-      <c r="V47" s="68"/>
-      <c r="W47" s="68"/>
-      <c r="X47" s="68"/>
-      <c r="Y47" s="68"/>
-      <c r="Z47" s="68"/>
-      <c r="AA47" s="68"/>
-      <c r="AB47" s="68"/>
-      <c r="AC47" s="68"/>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N47" s="160"/>
+      <c r="O47" s="152"/>
+      <c r="P47" s="152"/>
+      <c r="Q47" s="146"/>
+      <c r="R47" s="146"/>
+      <c r="S47" s="146"/>
+      <c r="T47" s="146"/>
+      <c r="U47" s="146"/>
+      <c r="V47" s="146"/>
+      <c r="W47" s="146"/>
+      <c r="X47" s="146"/>
+      <c r="Y47" s="146"/>
+      <c r="Z47" s="146"/>
+      <c r="AA47" s="146"/>
+      <c r="AB47" s="146"/>
+      <c r="AC47" s="146"/>
+    </row>
+    <row r="48" spans="2:29">
       <c r="B48" s="84"/>
       <c r="C48" s="84"/>
       <c r="D48" s="84"/>
@@ -6015,24 +6107,24 @@
       </c>
       <c r="L48" s="68"/>
       <c r="M48" s="68"/>
-      <c r="N48" s="137"/>
-      <c r="O48" s="140"/>
-      <c r="P48" s="140"/>
-      <c r="Q48" s="134"/>
-      <c r="R48" s="134"/>
-      <c r="S48" s="134"/>
-      <c r="T48" s="134"/>
-      <c r="U48" s="68"/>
-      <c r="V48" s="68"/>
-      <c r="W48" s="68"/>
-      <c r="X48" s="68"/>
-      <c r="Y48" s="68"/>
-      <c r="Z48" s="68"/>
-      <c r="AA48" s="68"/>
-      <c r="AB48" s="68"/>
-      <c r="AC48" s="68"/>
-    </row>
-    <row r="49" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N48" s="160"/>
+      <c r="O48" s="152"/>
+      <c r="P48" s="152"/>
+      <c r="Q48" s="146"/>
+      <c r="R48" s="146"/>
+      <c r="S48" s="146"/>
+      <c r="T48" s="146"/>
+      <c r="U48" s="146"/>
+      <c r="V48" s="146"/>
+      <c r="W48" s="146"/>
+      <c r="X48" s="146"/>
+      <c r="Y48" s="146"/>
+      <c r="Z48" s="146"/>
+      <c r="AA48" s="146"/>
+      <c r="AB48" s="146"/>
+      <c r="AC48" s="146"/>
+    </row>
+    <row r="49" spans="2:29">
       <c r="B49" s="68" t="s">
         <v>120</v>
       </c>
@@ -6061,24 +6153,24 @@
       </c>
       <c r="L49" s="68"/>
       <c r="M49" s="68"/>
-      <c r="N49" s="137"/>
-      <c r="O49" s="140"/>
-      <c r="P49" s="140"/>
-      <c r="Q49" s="134"/>
-      <c r="R49" s="134"/>
-      <c r="S49" s="134"/>
-      <c r="T49" s="134"/>
-      <c r="U49" s="68"/>
-      <c r="V49" s="68"/>
-      <c r="W49" s="68"/>
-      <c r="X49" s="68"/>
-      <c r="Y49" s="68"/>
-      <c r="Z49" s="68"/>
-      <c r="AA49" s="68"/>
-      <c r="AB49" s="68"/>
-      <c r="AC49" s="68"/>
-    </row>
-    <row r="50" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N49" s="160"/>
+      <c r="O49" s="152"/>
+      <c r="P49" s="152"/>
+      <c r="Q49" s="146"/>
+      <c r="R49" s="146"/>
+      <c r="S49" s="146"/>
+      <c r="T49" s="146"/>
+      <c r="U49" s="146"/>
+      <c r="V49" s="146"/>
+      <c r="W49" s="146"/>
+      <c r="X49" s="146"/>
+      <c r="Y49" s="146"/>
+      <c r="Z49" s="146"/>
+      <c r="AA49" s="146"/>
+      <c r="AB49" s="146"/>
+      <c r="AC49" s="146"/>
+    </row>
+    <row r="50" spans="2:29">
       <c r="B50" s="68" t="s">
         <v>120</v>
       </c>
@@ -6107,24 +6199,24 @@
       </c>
       <c r="L50" s="68"/>
       <c r="M50" s="68"/>
-      <c r="N50" s="137"/>
-      <c r="O50" s="140"/>
-      <c r="P50" s="140"/>
-      <c r="Q50" s="134"/>
-      <c r="R50" s="134"/>
-      <c r="S50" s="134"/>
-      <c r="T50" s="134"/>
-      <c r="U50" s="68"/>
-      <c r="V50" s="68"/>
-      <c r="W50" s="68"/>
-      <c r="X50" s="68"/>
-      <c r="Y50" s="68"/>
-      <c r="Z50" s="68"/>
-      <c r="AA50" s="68"/>
-      <c r="AB50" s="68"/>
-      <c r="AC50" s="68"/>
-    </row>
-    <row r="51" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N50" s="160"/>
+      <c r="O50" s="152"/>
+      <c r="P50" s="152"/>
+      <c r="Q50" s="146"/>
+      <c r="R50" s="146"/>
+      <c r="S50" s="146"/>
+      <c r="T50" s="146"/>
+      <c r="U50" s="146"/>
+      <c r="V50" s="146"/>
+      <c r="W50" s="146"/>
+      <c r="X50" s="146"/>
+      <c r="Y50" s="146"/>
+      <c r="Z50" s="146"/>
+      <c r="AA50" s="146"/>
+      <c r="AB50" s="146"/>
+      <c r="AC50" s="146"/>
+    </row>
+    <row r="51" spans="2:29">
       <c r="B51" s="68" t="s">
         <v>120</v>
       </c>
@@ -6153,24 +6245,24 @@
       </c>
       <c r="L51" s="68"/>
       <c r="M51" s="68"/>
-      <c r="N51" s="137"/>
-      <c r="O51" s="140"/>
-      <c r="P51" s="140"/>
-      <c r="Q51" s="134"/>
-      <c r="R51" s="134"/>
-      <c r="S51" s="134"/>
-      <c r="T51" s="134"/>
-      <c r="U51" s="68"/>
-      <c r="V51" s="68"/>
-      <c r="W51" s="68"/>
-      <c r="X51" s="68"/>
-      <c r="Y51" s="68"/>
-      <c r="Z51" s="68"/>
-      <c r="AA51" s="68"/>
-      <c r="AB51" s="68"/>
-      <c r="AC51" s="68"/>
-    </row>
-    <row r="52" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N51" s="160"/>
+      <c r="O51" s="152"/>
+      <c r="P51" s="152"/>
+      <c r="Q51" s="146"/>
+      <c r="R51" s="146"/>
+      <c r="S51" s="146"/>
+      <c r="T51" s="146"/>
+      <c r="U51" s="146"/>
+      <c r="V51" s="146"/>
+      <c r="W51" s="146"/>
+      <c r="X51" s="146"/>
+      <c r="Y51" s="146"/>
+      <c r="Z51" s="146"/>
+      <c r="AA51" s="146"/>
+      <c r="AB51" s="146"/>
+      <c r="AC51" s="146"/>
+    </row>
+    <row r="52" spans="2:29">
       <c r="B52" s="68" t="s">
         <v>120</v>
       </c>
@@ -6199,24 +6291,24 @@
       </c>
       <c r="L52" s="68"/>
       <c r="M52" s="68"/>
-      <c r="N52" s="137"/>
-      <c r="O52" s="140"/>
-      <c r="P52" s="140"/>
-      <c r="Q52" s="134"/>
-      <c r="R52" s="134"/>
-      <c r="S52" s="134"/>
-      <c r="T52" s="134"/>
-      <c r="U52" s="68"/>
-      <c r="V52" s="68"/>
-      <c r="W52" s="68"/>
-      <c r="X52" s="68"/>
-      <c r="Y52" s="68"/>
-      <c r="Z52" s="68"/>
-      <c r="AA52" s="68"/>
-      <c r="AB52" s="68"/>
-      <c r="AC52" s="68"/>
-    </row>
-    <row r="53" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N52" s="160"/>
+      <c r="O52" s="152"/>
+      <c r="P52" s="152"/>
+      <c r="Q52" s="146"/>
+      <c r="R52" s="146"/>
+      <c r="S52" s="146"/>
+      <c r="T52" s="146"/>
+      <c r="U52" s="146"/>
+      <c r="V52" s="146"/>
+      <c r="W52" s="146"/>
+      <c r="X52" s="146"/>
+      <c r="Y52" s="146"/>
+      <c r="Z52" s="146"/>
+      <c r="AA52" s="146"/>
+      <c r="AB52" s="146"/>
+      <c r="AC52" s="146"/>
+    </row>
+    <row r="53" spans="2:29">
       <c r="B53" s="68" t="s">
         <v>120</v>
       </c>
@@ -6245,24 +6337,24 @@
       </c>
       <c r="L53" s="68"/>
       <c r="M53" s="68"/>
-      <c r="N53" s="138"/>
-      <c r="O53" s="141"/>
-      <c r="P53" s="141"/>
-      <c r="Q53" s="135"/>
-      <c r="R53" s="135"/>
-      <c r="S53" s="135"/>
-      <c r="T53" s="135"/>
-      <c r="U53" s="68"/>
-      <c r="V53" s="68"/>
-      <c r="W53" s="68"/>
-      <c r="X53" s="68"/>
-      <c r="Y53" s="68"/>
-      <c r="Z53" s="68"/>
-      <c r="AA53" s="68"/>
-      <c r="AB53" s="68"/>
-      <c r="AC53" s="68"/>
-    </row>
-    <row r="54" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N53" s="161"/>
+      <c r="O53" s="153"/>
+      <c r="P53" s="153"/>
+      <c r="Q53" s="147"/>
+      <c r="R53" s="147"/>
+      <c r="S53" s="147"/>
+      <c r="T53" s="147"/>
+      <c r="U53" s="147"/>
+      <c r="V53" s="147"/>
+      <c r="W53" s="147"/>
+      <c r="X53" s="147"/>
+      <c r="Y53" s="147"/>
+      <c r="Z53" s="147"/>
+      <c r="AA53" s="147"/>
+      <c r="AB53" s="147"/>
+      <c r="AC53" s="147"/>
+    </row>
+    <row r="54" spans="2:29">
       <c r="B54" s="68" t="s">
         <v>120</v>
       </c>
@@ -6291,34 +6383,34 @@
       </c>
       <c r="L54" s="68"/>
       <c r="M54" s="68"/>
-      <c r="N54" s="136" t="s">
+      <c r="N54" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="O54" s="139"/>
-      <c r="P54" s="139"/>
-      <c r="Q54" s="133" t="s">
-        <v>121</v>
-      </c>
-      <c r="R54" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="S54" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="T54" s="133" t="s">
+      <c r="O54" s="151"/>
+      <c r="P54" s="151"/>
+      <c r="Q54" s="145" t="s">
+        <v>121</v>
+      </c>
+      <c r="R54" s="145" t="s">
+        <v>122</v>
+      </c>
+      <c r="S54" s="145" t="s">
+        <v>122</v>
+      </c>
+      <c r="T54" s="145" t="s">
         <v>111</v>
       </c>
-      <c r="U54" s="148"/>
-      <c r="V54" s="148"/>
-      <c r="W54" s="148"/>
-      <c r="X54" s="148"/>
-      <c r="Y54" s="148"/>
-      <c r="Z54" s="148"/>
-      <c r="AA54" s="68"/>
-      <c r="AB54" s="68"/>
-      <c r="AC54" s="68"/>
-    </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="U54" s="162"/>
+      <c r="V54" s="162"/>
+      <c r="W54" s="162"/>
+      <c r="X54" s="162"/>
+      <c r="Y54" s="162"/>
+      <c r="Z54" s="162"/>
+      <c r="AA54" s="162"/>
+      <c r="AB54" s="162"/>
+      <c r="AC54" s="162"/>
+    </row>
+    <row r="55" spans="2:29">
       <c r="B55" s="68" t="s">
         <v>120</v>
       </c>
@@ -6347,24 +6439,24 @@
       </c>
       <c r="L55" s="68"/>
       <c r="M55" s="68"/>
-      <c r="N55" s="137"/>
-      <c r="O55" s="140"/>
-      <c r="P55" s="140"/>
-      <c r="Q55" s="134"/>
-      <c r="R55" s="134"/>
-      <c r="S55" s="134"/>
-      <c r="T55" s="134"/>
-      <c r="U55" s="149"/>
-      <c r="V55" s="149"/>
-      <c r="W55" s="149"/>
-      <c r="X55" s="149"/>
-      <c r="Y55" s="149"/>
-      <c r="Z55" s="149"/>
-      <c r="AA55" s="68"/>
-      <c r="AB55" s="68"/>
-      <c r="AC55" s="68"/>
-    </row>
-    <row r="56" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N55" s="160"/>
+      <c r="O55" s="152"/>
+      <c r="P55" s="152"/>
+      <c r="Q55" s="146"/>
+      <c r="R55" s="146"/>
+      <c r="S55" s="146"/>
+      <c r="T55" s="146"/>
+      <c r="U55" s="163"/>
+      <c r="V55" s="163"/>
+      <c r="W55" s="163"/>
+      <c r="X55" s="163"/>
+      <c r="Y55" s="163"/>
+      <c r="Z55" s="163"/>
+      <c r="AA55" s="163"/>
+      <c r="AB55" s="163"/>
+      <c r="AC55" s="163"/>
+    </row>
+    <row r="56" spans="2:29">
       <c r="B56" s="68" t="s">
         <v>120</v>
       </c>
@@ -6393,24 +6485,24 @@
       </c>
       <c r="L56" s="68"/>
       <c r="M56" s="68"/>
-      <c r="N56" s="137"/>
-      <c r="O56" s="140"/>
-      <c r="P56" s="140"/>
-      <c r="Q56" s="134"/>
-      <c r="R56" s="134"/>
-      <c r="S56" s="134"/>
-      <c r="T56" s="134"/>
-      <c r="U56" s="149"/>
-      <c r="V56" s="149"/>
-      <c r="W56" s="149"/>
-      <c r="X56" s="149"/>
-      <c r="Y56" s="149"/>
-      <c r="Z56" s="149"/>
-      <c r="AA56" s="68"/>
-      <c r="AB56" s="68"/>
-      <c r="AC56" s="68"/>
-    </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N56" s="160"/>
+      <c r="O56" s="152"/>
+      <c r="P56" s="152"/>
+      <c r="Q56" s="146"/>
+      <c r="R56" s="146"/>
+      <c r="S56" s="146"/>
+      <c r="T56" s="146"/>
+      <c r="U56" s="163"/>
+      <c r="V56" s="163"/>
+      <c r="W56" s="163"/>
+      <c r="X56" s="163"/>
+      <c r="Y56" s="163"/>
+      <c r="Z56" s="163"/>
+      <c r="AA56" s="163"/>
+      <c r="AB56" s="163"/>
+      <c r="AC56" s="163"/>
+    </row>
+    <row r="57" spans="2:29">
       <c r="B57" s="84"/>
       <c r="C57" s="84"/>
       <c r="D57" s="84"/>
@@ -6431,24 +6523,24 @@
       </c>
       <c r="L57" s="68"/>
       <c r="M57" s="68"/>
-      <c r="N57" s="137"/>
-      <c r="O57" s="140"/>
-      <c r="P57" s="140"/>
-      <c r="Q57" s="134"/>
-      <c r="R57" s="134"/>
-      <c r="S57" s="134"/>
-      <c r="T57" s="134"/>
-      <c r="U57" s="149"/>
-      <c r="V57" s="149"/>
-      <c r="W57" s="149"/>
-      <c r="X57" s="149"/>
-      <c r="Y57" s="149"/>
-      <c r="Z57" s="149"/>
-      <c r="AA57" s="68"/>
-      <c r="AB57" s="68"/>
-      <c r="AC57" s="68"/>
-    </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N57" s="160"/>
+      <c r="O57" s="152"/>
+      <c r="P57" s="152"/>
+      <c r="Q57" s="146"/>
+      <c r="R57" s="146"/>
+      <c r="S57" s="146"/>
+      <c r="T57" s="146"/>
+      <c r="U57" s="163"/>
+      <c r="V57" s="163"/>
+      <c r="W57" s="163"/>
+      <c r="X57" s="163"/>
+      <c r="Y57" s="163"/>
+      <c r="Z57" s="163"/>
+      <c r="AA57" s="163"/>
+      <c r="AB57" s="163"/>
+      <c r="AC57" s="163"/>
+    </row>
+    <row r="58" spans="2:29">
       <c r="B58" s="68" t="s">
         <v>120</v>
       </c>
@@ -6477,24 +6569,24 @@
       </c>
       <c r="L58" s="68"/>
       <c r="M58" s="68"/>
-      <c r="N58" s="137"/>
-      <c r="O58" s="140"/>
-      <c r="P58" s="140"/>
-      <c r="Q58" s="134"/>
-      <c r="R58" s="134"/>
-      <c r="S58" s="134"/>
-      <c r="T58" s="134"/>
-      <c r="U58" s="149"/>
-      <c r="V58" s="149"/>
-      <c r="W58" s="149"/>
-      <c r="X58" s="149"/>
-      <c r="Y58" s="149"/>
-      <c r="Z58" s="149"/>
-      <c r="AA58" s="68"/>
-      <c r="AB58" s="68"/>
-      <c r="AC58" s="68"/>
-    </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N58" s="160"/>
+      <c r="O58" s="152"/>
+      <c r="P58" s="152"/>
+      <c r="Q58" s="146"/>
+      <c r="R58" s="146"/>
+      <c r="S58" s="146"/>
+      <c r="T58" s="146"/>
+      <c r="U58" s="163"/>
+      <c r="V58" s="163"/>
+      <c r="W58" s="163"/>
+      <c r="X58" s="163"/>
+      <c r="Y58" s="163"/>
+      <c r="Z58" s="163"/>
+      <c r="AA58" s="163"/>
+      <c r="AB58" s="163"/>
+      <c r="AC58" s="163"/>
+    </row>
+    <row r="59" spans="2:29">
       <c r="B59" s="84"/>
       <c r="C59" s="84"/>
       <c r="D59" s="84"/>
@@ -6515,24 +6607,24 @@
       </c>
       <c r="L59" s="68"/>
       <c r="M59" s="68"/>
-      <c r="N59" s="137"/>
-      <c r="O59" s="140"/>
-      <c r="P59" s="140"/>
-      <c r="Q59" s="134"/>
-      <c r="R59" s="134"/>
-      <c r="S59" s="134"/>
-      <c r="T59" s="134"/>
-      <c r="U59" s="149"/>
-      <c r="V59" s="149"/>
-      <c r="W59" s="149"/>
-      <c r="X59" s="149"/>
-      <c r="Y59" s="149"/>
-      <c r="Z59" s="149"/>
-      <c r="AA59" s="68"/>
-      <c r="AB59" s="68"/>
-      <c r="AC59" s="68"/>
-    </row>
-    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N59" s="160"/>
+      <c r="O59" s="152"/>
+      <c r="P59" s="152"/>
+      <c r="Q59" s="146"/>
+      <c r="R59" s="146"/>
+      <c r="S59" s="146"/>
+      <c r="T59" s="146"/>
+      <c r="U59" s="163"/>
+      <c r="V59" s="163"/>
+      <c r="W59" s="163"/>
+      <c r="X59" s="163"/>
+      <c r="Y59" s="163"/>
+      <c r="Z59" s="163"/>
+      <c r="AA59" s="163"/>
+      <c r="AB59" s="163"/>
+      <c r="AC59" s="163"/>
+    </row>
+    <row r="60" spans="2:29">
       <c r="B60" s="68" t="s">
         <v>120</v>
       </c>
@@ -6561,24 +6653,24 @@
       </c>
       <c r="L60" s="68"/>
       <c r="M60" s="68"/>
-      <c r="N60" s="137"/>
-      <c r="O60" s="140"/>
-      <c r="P60" s="140"/>
-      <c r="Q60" s="134"/>
-      <c r="R60" s="134"/>
-      <c r="S60" s="134"/>
-      <c r="T60" s="134"/>
-      <c r="U60" s="149"/>
-      <c r="V60" s="149"/>
-      <c r="W60" s="149"/>
-      <c r="X60" s="149"/>
-      <c r="Y60" s="149"/>
-      <c r="Z60" s="149"/>
-      <c r="AA60" s="68"/>
-      <c r="AB60" s="68"/>
-      <c r="AC60" s="68"/>
-    </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N60" s="160"/>
+      <c r="O60" s="152"/>
+      <c r="P60" s="152"/>
+      <c r="Q60" s="146"/>
+      <c r="R60" s="146"/>
+      <c r="S60" s="146"/>
+      <c r="T60" s="146"/>
+      <c r="U60" s="163"/>
+      <c r="V60" s="163"/>
+      <c r="W60" s="163"/>
+      <c r="X60" s="163"/>
+      <c r="Y60" s="163"/>
+      <c r="Z60" s="163"/>
+      <c r="AA60" s="163"/>
+      <c r="AB60" s="163"/>
+      <c r="AC60" s="163"/>
+    </row>
+    <row r="61" spans="2:29">
       <c r="B61" s="68" t="s">
         <v>120</v>
       </c>
@@ -6607,24 +6699,24 @@
       </c>
       <c r="L61" s="68"/>
       <c r="M61" s="68"/>
-      <c r="N61" s="138"/>
-      <c r="O61" s="141"/>
-      <c r="P61" s="141"/>
-      <c r="Q61" s="135"/>
-      <c r="R61" s="135"/>
-      <c r="S61" s="135"/>
-      <c r="T61" s="135"/>
-      <c r="U61" s="150"/>
-      <c r="V61" s="150"/>
-      <c r="W61" s="150"/>
-      <c r="X61" s="150"/>
-      <c r="Y61" s="150"/>
-      <c r="Z61" s="150"/>
-      <c r="AA61" s="68"/>
-      <c r="AB61" s="68"/>
-      <c r="AC61" s="68"/>
-    </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N61" s="161"/>
+      <c r="O61" s="153"/>
+      <c r="P61" s="153"/>
+      <c r="Q61" s="147"/>
+      <c r="R61" s="147"/>
+      <c r="S61" s="147"/>
+      <c r="T61" s="147"/>
+      <c r="U61" s="164"/>
+      <c r="V61" s="164"/>
+      <c r="W61" s="164"/>
+      <c r="X61" s="164"/>
+      <c r="Y61" s="164"/>
+      <c r="Z61" s="164"/>
+      <c r="AA61" s="164"/>
+      <c r="AB61" s="164"/>
+      <c r="AC61" s="164"/>
+    </row>
+    <row r="62" spans="2:29">
       <c r="B62" s="84"/>
       <c r="C62" s="84"/>
       <c r="D62" s="84"/>
@@ -6674,7 +6766,7 @@
       <c r="AB62" s="68"/>
       <c r="AC62" s="68"/>
     </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:29">
       <c r="B63" s="84"/>
       <c r="C63" s="84"/>
       <c r="D63" s="84"/>
@@ -6724,7 +6816,7 @@
       <c r="AB63" s="68"/>
       <c r="AC63" s="68"/>
     </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:29">
       <c r="B64" s="84"/>
       <c r="C64" s="84"/>
       <c r="D64" s="84"/>
@@ -6767,7 +6859,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:23">
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
       <c r="D65" s="60"/>
@@ -6791,7 +6883,7 @@
       <c r="V65" s="59"/>
       <c r="W65" s="59"/>
     </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:23">
       <c r="B66" s="59"/>
       <c r="C66" s="59"/>
       <c r="D66" s="60"/>
@@ -6815,7 +6907,7 @@
       <c r="V66" s="59"/>
       <c r="W66" s="59"/>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23">
       <c r="B67" s="59"/>
       <c r="C67" s="59"/>
       <c r="D67" s="60"/>
@@ -6839,7 +6931,7 @@
       <c r="V67" s="59"/>
       <c r="W67" s="59"/>
     </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:23">
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
       <c r="D68" s="60"/>
@@ -6863,7 +6955,7 @@
       <c r="V68" s="59"/>
       <c r="W68" s="59"/>
     </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:23">
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
       <c r="D69" s="60"/>
@@ -6887,7 +6979,7 @@
       <c r="V69" s="59"/>
       <c r="W69" s="59"/>
     </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:23">
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
       <c r="D70" s="60"/>
@@ -6911,7 +7003,7 @@
       <c r="V70" s="59"/>
       <c r="W70" s="59"/>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:23">
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
       <c r="D71" s="60"/>
@@ -6935,7 +7027,7 @@
       <c r="V71" s="59"/>
       <c r="W71" s="59"/>
     </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:23">
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
       <c r="D72" s="60"/>
@@ -6959,7 +7051,7 @@
       <c r="V72" s="59"/>
       <c r="W72" s="59"/>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23">
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
       <c r="D73" s="60"/>
@@ -6983,7 +7075,7 @@
       <c r="V73" s="59"/>
       <c r="W73" s="59"/>
     </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:23">
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
       <c r="D74" s="60"/>
@@ -7007,7 +7099,7 @@
       <c r="V74" s="59"/>
       <c r="W74" s="59"/>
     </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:23">
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
       <c r="D75" s="60"/>
@@ -7031,7 +7123,7 @@
       <c r="V75" s="59"/>
       <c r="W75" s="59"/>
     </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:23">
       <c r="B76" s="59"/>
       <c r="C76" s="59"/>
       <c r="D76" s="60"/>
@@ -7055,7 +7147,7 @@
       <c r="V76" s="59"/>
       <c r="W76" s="59"/>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23">
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
       <c r="D77" s="60"/>
@@ -7079,7 +7171,7 @@
       <c r="V77" s="59"/>
       <c r="W77" s="59"/>
     </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:23">
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
       <c r="D78" s="60"/>
@@ -7103,7 +7195,7 @@
       <c r="V78" s="59"/>
       <c r="W78" s="59"/>
     </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:23">
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
       <c r="D79" s="60"/>
@@ -7127,7 +7219,7 @@
       <c r="V79" s="59"/>
       <c r="W79" s="59"/>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23">
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
       <c r="D80" s="60"/>
@@ -7151,7 +7243,7 @@
       <c r="V80" s="59"/>
       <c r="W80" s="59"/>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:23">
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
       <c r="D81" s="60"/>
@@ -7175,7 +7267,7 @@
       <c r="V81" s="59"/>
       <c r="W81" s="59"/>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:23">
       <c r="B82" s="59"/>
       <c r="C82" s="59"/>
       <c r="D82" s="60"/>
@@ -7199,7 +7291,7 @@
       <c r="V82" s="59"/>
       <c r="W82" s="59"/>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:23">
       <c r="B83" s="59"/>
       <c r="C83" s="59"/>
       <c r="D83" s="60"/>
@@ -7223,7 +7315,7 @@
       <c r="V83" s="59"/>
       <c r="W83" s="59"/>
     </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:23">
       <c r="B84" s="59"/>
       <c r="C84" s="59"/>
       <c r="D84" s="60"/>
@@ -7247,7 +7339,7 @@
       <c r="V84" s="59"/>
       <c r="W84" s="59"/>
     </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:23">
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
       <c r="D85" s="60"/>
@@ -7271,7 +7363,7 @@
       <c r="V85" s="59"/>
       <c r="W85" s="59"/>
     </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:23">
       <c r="B86" s="59"/>
       <c r="C86" s="59"/>
       <c r="D86" s="60"/>
@@ -7295,7 +7387,7 @@
       <c r="V86" s="59"/>
       <c r="W86" s="59"/>
     </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:23">
       <c r="B87" s="59"/>
       <c r="C87" s="59"/>
       <c r="D87" s="60"/>
@@ -7319,7 +7411,7 @@
       <c r="V87" s="59"/>
       <c r="W87" s="59"/>
     </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:23">
       <c r="B88" s="59"/>
       <c r="C88" s="59"/>
       <c r="D88" s="60"/>
@@ -7343,7 +7435,7 @@
       <c r="V88" s="59"/>
       <c r="W88" s="59"/>
     </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:23">
       <c r="B89" s="59"/>
       <c r="C89" s="59"/>
       <c r="D89" s="60"/>
@@ -7367,7 +7459,7 @@
       <c r="V89" s="59"/>
       <c r="W89" s="59"/>
     </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:23">
       <c r="B90" s="59"/>
       <c r="C90" s="59"/>
       <c r="D90" s="60"/>
@@ -7391,7 +7483,7 @@
       <c r="V90" s="59"/>
       <c r="W90" s="59"/>
     </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:23">
       <c r="B91" s="59"/>
       <c r="C91" s="59"/>
       <c r="D91" s="60"/>
@@ -7415,7 +7507,7 @@
       <c r="V91" s="59"/>
       <c r="W91" s="59"/>
     </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:23">
       <c r="B92" s="59"/>
       <c r="C92" s="59"/>
       <c r="D92" s="60"/>
@@ -7439,7 +7531,7 @@
       <c r="V92" s="59"/>
       <c r="W92" s="59"/>
     </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:23">
       <c r="B93" s="59"/>
       <c r="C93" s="59"/>
       <c r="D93" s="60"/>
@@ -7463,7 +7555,7 @@
       <c r="V93" s="59"/>
       <c r="W93" s="59"/>
     </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:23">
       <c r="B94" s="59"/>
       <c r="C94" s="59"/>
       <c r="D94" s="60"/>
@@ -7487,7 +7579,7 @@
       <c r="V94" s="59"/>
       <c r="W94" s="59"/>
     </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:23">
       <c r="B95" s="59"/>
       <c r="C95" s="59"/>
       <c r="D95" s="60"/>
@@ -7511,7 +7603,7 @@
       <c r="V95" s="59"/>
       <c r="W95" s="59"/>
     </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:23">
       <c r="B96" s="59"/>
       <c r="C96" s="59"/>
       <c r="D96" s="60"/>
@@ -7535,7 +7627,7 @@
       <c r="V96" s="59"/>
       <c r="W96" s="59"/>
     </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:23">
       <c r="B97" s="59"/>
       <c r="C97" s="59"/>
       <c r="D97" s="60"/>
@@ -7560,21 +7652,25 @@
       <c r="W97" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="44">
+    <mergeCell ref="AA54:AA61"/>
+    <mergeCell ref="AB54:AB61"/>
+    <mergeCell ref="AC54:AC61"/>
+    <mergeCell ref="Y43:Y53"/>
+    <mergeCell ref="Z43:Z53"/>
+    <mergeCell ref="AA43:AA53"/>
+    <mergeCell ref="AB43:AB53"/>
+    <mergeCell ref="AC43:AC53"/>
     <mergeCell ref="Z54:Z61"/>
+    <mergeCell ref="Y54:Y61"/>
+    <mergeCell ref="U43:U53"/>
+    <mergeCell ref="V43:V53"/>
+    <mergeCell ref="W43:W53"/>
+    <mergeCell ref="X43:X53"/>
     <mergeCell ref="U54:U61"/>
     <mergeCell ref="V54:V61"/>
     <mergeCell ref="W54:W61"/>
     <mergeCell ref="X54:X61"/>
-    <mergeCell ref="Y54:Y61"/>
-    <mergeCell ref="Q39:Q41"/>
-    <mergeCell ref="T39:T41"/>
-    <mergeCell ref="S39:S41"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="P39:P41"/>
-    <mergeCell ref="O39:O41"/>
-    <mergeCell ref="R39:R41"/>
-    <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q54:Q61"/>
@@ -7591,6 +7687,16 @@
     <mergeCell ref="P54:P61"/>
     <mergeCell ref="O54:O61"/>
     <mergeCell ref="N54:N61"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="V39:V41"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="T39:T41"/>
+    <mergeCell ref="S39:S41"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7600,7 +7706,2781 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="2" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AG59"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="K45" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N48" sqref="N48:N57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="53" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="33.5703125" style="54" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="54" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" style="54" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.85546875" style="2" customWidth="1"/>
+    <col min="26" max="27" width="13.5703125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="39.7109375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="28.5703125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="8.28515625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="38.85546875" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="30.5703125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:29">
+      <c r="D1" s="79"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+    </row>
+    <row r="2" spans="2:29">
+      <c r="B2" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="158" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="158"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="154" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="155"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="155"/>
+      <c r="U2" s="155"/>
+      <c r="V2" s="155"/>
+      <c r="W2" s="155"/>
+      <c r="X2" s="155"/>
+      <c r="Y2" s="155"/>
+      <c r="Z2" s="155"/>
+      <c r="AA2" s="155"/>
+      <c r="AB2" s="155"/>
+      <c r="AC2" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29" ht="23.25">
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB3" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="41"/>
+    </row>
+    <row r="4" spans="2:29" s="11" customFormat="1" ht="12">
+      <c r="B4" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="K4" s="68">
+        <v>10</v>
+      </c>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R4" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T4" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y4" s="68">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+    </row>
+    <row r="5" spans="2:29" s="11" customFormat="1" ht="12">
+      <c r="B5" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="67"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="68">
+        <v>10</v>
+      </c>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R5" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S5" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T5" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y5" s="68">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+    </row>
+    <row r="6" spans="2:29" s="10" customFormat="1" ht="12">
+      <c r="B6" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="68">
+        <v>2</v>
+      </c>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R6" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S6" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T6" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y6" s="68">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+    </row>
+    <row r="7" spans="2:29" s="15" customFormat="1" ht="12">
+      <c r="B7" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R7" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S7" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T7" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+    </row>
+    <row r="8" spans="2:29" s="11" customFormat="1" ht="12">
+      <c r="B8" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R8" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S8" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T8" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+    </row>
+    <row r="9" spans="2:29" s="11" customFormat="1" ht="12">
+      <c r="B9" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="68">
+        <v>4</v>
+      </c>
+      <c r="L9" s="70"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R9" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S9" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T9" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y9" s="68">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+    </row>
+    <row r="10" spans="2:29" s="11" customFormat="1" ht="12">
+      <c r="B10" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="K10" s="68">
+        <v>1</v>
+      </c>
+      <c r="L10" s="70"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R10" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S10" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T10" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y10" s="68">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
+    </row>
+    <row r="11" spans="2:29" s="11" customFormat="1" ht="12">
+      <c r="B11" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="68">
+        <v>4</v>
+      </c>
+      <c r="L11" s="70"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R11" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S11" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T11" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" s="68">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+    </row>
+    <row r="12" spans="2:29" s="10" customFormat="1" ht="12">
+      <c r="B12" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="71"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" s="68">
+        <v>8</v>
+      </c>
+      <c r="L12" s="70"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R12" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S12" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T12" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y12" s="68">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+    </row>
+    <row r="13" spans="2:29" s="15" customFormat="1" ht="12">
+      <c r="B13" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="70">
+        <v>12</v>
+      </c>
+      <c r="L13" s="70">
+        <v>2</v>
+      </c>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R13" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S13" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T13" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y13" s="70">
+        <v>12</v>
+      </c>
+      <c r="Z13" s="70">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+    </row>
+    <row r="14" spans="2:29" s="15" customFormat="1" ht="12">
+      <c r="B14" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="71"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" s="68">
+        <v>6</v>
+      </c>
+      <c r="L14" s="68">
+        <v>2</v>
+      </c>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R14" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S14" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T14" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y14" s="68">
+        <v>6</v>
+      </c>
+      <c r="Z14" s="68">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
+    </row>
+    <row r="15" spans="2:29" s="15" customFormat="1" ht="12">
+      <c r="B15" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="71"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" s="70">
+        <v>6</v>
+      </c>
+      <c r="L15" s="70">
+        <v>2</v>
+      </c>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R15" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S15" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T15" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y15" s="70">
+        <v>6</v>
+      </c>
+      <c r="Z15" s="70">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="70"/>
+    </row>
+    <row r="16" spans="2:29" s="3" customFormat="1">
+      <c r="B16" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" s="68">
+        <v>1</v>
+      </c>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R16" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S16" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T16" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y16" s="68">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="68"/>
+    </row>
+    <row r="17" spans="2:29" s="3" customFormat="1">
+      <c r="B17" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" s="3">
+        <v>60</v>
+      </c>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R17" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S17" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T17" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>60</v>
+      </c>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="68"/>
+      <c r="AB17" s="68"/>
+      <c r="AC17" s="68"/>
+    </row>
+    <row r="18" spans="2:29" s="3" customFormat="1">
+      <c r="B18" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="K18" s="68">
+        <v>11</v>
+      </c>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R18" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S18" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T18" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y18" s="68">
+        <v>11</v>
+      </c>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="68"/>
+    </row>
+    <row r="19" spans="2:29" s="3" customFormat="1">
+      <c r="B19" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R19" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S19" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T19" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y19" s="68"/>
+      <c r="Z19" s="68"/>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="68"/>
+      <c r="AC19" s="68"/>
+    </row>
+    <row r="20" spans="2:29">
+      <c r="B20" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="68">
+        <v>5</v>
+      </c>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R20" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S20" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T20" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y20" s="68">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68"/>
+    </row>
+    <row r="21" spans="2:29">
+      <c r="B21" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" s="68">
+        <v>10</v>
+      </c>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R21" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S21" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T21" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y21" s="68">
+        <v>10</v>
+      </c>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="68"/>
+    </row>
+    <row r="22" spans="2:29">
+      <c r="B22" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="K22" s="68">
+        <v>2</v>
+      </c>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R22" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S22" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T22" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="U22" s="68"/>
+      <c r="V22" s="68"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y22" s="68">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="68"/>
+      <c r="AC22" s="68"/>
+    </row>
+    <row r="23" spans="2:29">
+      <c r="B23" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="68">
+        <v>15</v>
+      </c>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R23" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S23" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T23" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="U23" s="68"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y23" s="68">
+        <v>15</v>
+      </c>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="68"/>
+      <c r="AC23" s="68"/>
+    </row>
+    <row r="24" spans="2:29">
+      <c r="B24" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="K24" s="68">
+        <v>2</v>
+      </c>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R24" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S24" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T24" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="U24" s="68"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y24" s="68">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="68"/>
+      <c r="AC24" s="68"/>
+    </row>
+    <row r="25" spans="2:29">
+      <c r="B25" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25" s="68">
+        <v>5</v>
+      </c>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R25" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S25" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T25" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="U25" s="68"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y25" s="68">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="68"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="68"/>
+      <c r="AC25" s="68"/>
+    </row>
+    <row r="26" spans="2:29">
+      <c r="B26" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26" s="68">
+        <v>11</v>
+      </c>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R26" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S26" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T26" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y26" s="68">
+        <v>11</v>
+      </c>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="68"/>
+      <c r="AC26" s="68"/>
+    </row>
+    <row r="27" spans="2:29">
+      <c r="B27" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="K27" s="68">
+        <v>3</v>
+      </c>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R27" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S27" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T27" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="U27" s="68"/>
+      <c r="V27" s="68"/>
+      <c r="W27" s="68"/>
+      <c r="X27" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y27" s="68">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="68"/>
+      <c r="AA27" s="68"/>
+      <c r="AB27" s="68"/>
+      <c r="AC27" s="68"/>
+    </row>
+    <row r="28" spans="2:29">
+      <c r="B28" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="K28" s="68">
+        <v>5</v>
+      </c>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R28" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S28" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T28" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="U28" s="68"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y28" s="68">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="68"/>
+      <c r="AA28" s="68"/>
+      <c r="AB28" s="68"/>
+      <c r="AC28" s="68"/>
+    </row>
+    <row r="29" spans="2:29">
+      <c r="B29" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="K29" s="68">
+        <v>1</v>
+      </c>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R29" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S29" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T29" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="U29" s="68"/>
+      <c r="V29" s="68"/>
+      <c r="W29" s="68"/>
+      <c r="X29" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y29" s="68">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="68"/>
+      <c r="AA29" s="68"/>
+      <c r="AB29" s="68"/>
+      <c r="AC29" s="68"/>
+    </row>
+    <row r="30" spans="2:29">
+      <c r="B30" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="K30" s="68">
+        <v>3</v>
+      </c>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R30" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S30" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T30" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="U30" s="68"/>
+      <c r="V30" s="68"/>
+      <c r="W30" s="68"/>
+      <c r="X30" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y30" s="68">
+        <v>3</v>
+      </c>
+      <c r="Z30" s="68"/>
+      <c r="AA30" s="68"/>
+      <c r="AB30" s="68"/>
+      <c r="AC30" s="68"/>
+    </row>
+    <row r="31" spans="2:29">
+      <c r="B31" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="71"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="K31" s="68">
+        <v>6</v>
+      </c>
+      <c r="L31" s="68">
+        <v>2</v>
+      </c>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R31" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S31" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T31" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="U31" s="68"/>
+      <c r="V31" s="68"/>
+      <c r="W31" s="68"/>
+      <c r="X31" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y31" s="68">
+        <v>6</v>
+      </c>
+      <c r="Z31" s="68">
+        <v>2</v>
+      </c>
+      <c r="AA31" s="68"/>
+      <c r="AB31" s="68"/>
+      <c r="AC31" s="68"/>
+    </row>
+    <row r="32" spans="2:29">
+      <c r="B32" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="71"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="K32" s="68">
+        <v>6</v>
+      </c>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R32" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S32" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T32" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="U32" s="68"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y32" s="68">
+        <v>6</v>
+      </c>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="68"/>
+      <c r="AB32" s="68"/>
+      <c r="AC32" s="68"/>
+    </row>
+    <row r="33" spans="1:33">
+      <c r="B33" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="K33" s="68">
+        <v>1</v>
+      </c>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R33" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S33" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T33" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y33" s="68">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="68"/>
+      <c r="AB33" s="68"/>
+      <c r="AC33" s="68"/>
+    </row>
+    <row r="34" spans="1:33">
+      <c r="B34" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="K34" s="68">
+        <v>1</v>
+      </c>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R34" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S34" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T34" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="U34" s="68"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y34" s="68">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="68"/>
+      <c r="AC34" s="68"/>
+    </row>
+    <row r="35" spans="1:33">
+      <c r="B35" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="K35" s="68">
+        <v>1</v>
+      </c>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R35" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S35" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T35" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="68"/>
+      <c r="X35" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y35" s="68">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="68"/>
+      <c r="AB35" s="68"/>
+      <c r="AC35" s="68"/>
+    </row>
+    <row r="36" spans="1:33">
+      <c r="B36" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="K36" s="68">
+        <v>1</v>
+      </c>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R36" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S36" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T36" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="68"/>
+      <c r="X36" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y36" s="68">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="68"/>
+      <c r="AC36" s="68"/>
+    </row>
+    <row r="37" spans="1:33">
+      <c r="B37" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="71"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="K37" s="3">
+        <v>60</v>
+      </c>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R37" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S37" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T37" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="U37" s="68"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>60</v>
+      </c>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="68"/>
+      <c r="AC37" s="68"/>
+    </row>
+    <row r="38" spans="1:33">
+      <c r="B38" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="71"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="K38" s="68">
+        <v>6</v>
+      </c>
+      <c r="L38" s="68">
+        <v>2</v>
+      </c>
+      <c r="M38" s="68"/>
+      <c r="N38" s="97"/>
+      <c r="O38" s="98"/>
+      <c r="P38" s="98"/>
+      <c r="Q38" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="R38" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="S38" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="T38" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="U38" s="99"/>
+      <c r="V38" s="99"/>
+      <c r="W38" s="99"/>
+      <c r="X38" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y38" s="68">
+        <v>6</v>
+      </c>
+      <c r="Z38" s="68">
+        <v>2</v>
+      </c>
+      <c r="AA38" s="99"/>
+      <c r="AB38" s="99"/>
+      <c r="AC38" s="68"/>
+    </row>
+    <row r="39" spans="1:33" ht="12.75" customHeight="1">
+      <c r="B39" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="73"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="K39" s="70">
+        <v>12</v>
+      </c>
+      <c r="L39" s="70">
+        <v>2</v>
+      </c>
+      <c r="M39" s="68"/>
+      <c r="N39" s="97"/>
+      <c r="O39" s="98"/>
+      <c r="P39" s="98"/>
+      <c r="Q39" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="R39" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="S39" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="T39" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="68"/>
+      <c r="X39" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y39" s="70">
+        <v>12</v>
+      </c>
+      <c r="Z39" s="70">
+        <v>2</v>
+      </c>
+      <c r="AA39" s="68"/>
+      <c r="AB39" s="68"/>
+      <c r="AC39" s="68"/>
+    </row>
+    <row r="40" spans="1:33" s="3" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="71"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="K40" s="68">
+        <v>6</v>
+      </c>
+      <c r="L40" s="68">
+        <v>2</v>
+      </c>
+      <c r="M40" s="68"/>
+      <c r="N40" s="101"/>
+      <c r="O40" s="102"/>
+      <c r="P40" s="102"/>
+      <c r="Q40" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="R40" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="S40" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="T40" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="U40" s="104"/>
+      <c r="V40" s="104"/>
+      <c r="W40" s="104"/>
+      <c r="X40" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y40" s="68">
+        <v>6</v>
+      </c>
+      <c r="Z40" s="68">
+        <v>2</v>
+      </c>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="68"/>
+      <c r="AC40" s="68"/>
+      <c r="AG40" s="2"/>
+    </row>
+    <row r="41" spans="1:33" s="3" customFormat="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="K41" s="72">
+        <v>30</v>
+      </c>
+      <c r="L41" s="72"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="91"/>
+      <c r="P41" s="91"/>
+      <c r="Q41" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R41" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="S41" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="T41" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y41" s="72">
+        <v>30</v>
+      </c>
+      <c r="Z41" s="72"/>
+      <c r="AA41" s="68"/>
+      <c r="AB41" s="68"/>
+      <c r="AC41" s="68"/>
+      <c r="AG41" s="2"/>
+    </row>
+    <row r="42" spans="1:33">
+      <c r="B42" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="K42" s="72">
+        <v>15</v>
+      </c>
+      <c r="L42" s="104"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="91"/>
+      <c r="O42" s="91"/>
+      <c r="P42" s="91"/>
+      <c r="Q42" s="91"/>
+      <c r="R42" s="91"/>
+      <c r="S42" s="91"/>
+      <c r="T42" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="U42" s="105"/>
+      <c r="V42" s="105"/>
+      <c r="W42" s="105"/>
+      <c r="X42" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y42" s="72">
+        <v>15</v>
+      </c>
+      <c r="Z42" s="104"/>
+      <c r="AA42" s="107"/>
+      <c r="AB42" s="107"/>
+      <c r="AC42" s="107"/>
+    </row>
+    <row r="43" spans="1:33">
+      <c r="B43" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="K43" s="68">
+        <v>1</v>
+      </c>
+      <c r="L43" s="68"/>
+      <c r="M43" s="105"/>
+      <c r="N43" s="91"/>
+      <c r="O43" s="91"/>
+      <c r="P43" s="91"/>
+      <c r="Q43" s="91"/>
+      <c r="R43" s="91"/>
+      <c r="S43" s="91"/>
+      <c r="T43" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="U43" s="105"/>
+      <c r="V43" s="105"/>
+      <c r="W43" s="105"/>
+      <c r="X43" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y43" s="68">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="68"/>
+      <c r="AA43" s="107"/>
+      <c r="AB43" s="107"/>
+      <c r="AC43" s="107"/>
+    </row>
+    <row r="44" spans="1:33" ht="72">
+      <c r="B44" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="K44" s="68">
+        <v>1</v>
+      </c>
+      <c r="L44" s="68"/>
+      <c r="M44" s="105"/>
+      <c r="N44" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="O44" s="91"/>
+      <c r="P44" s="91"/>
+      <c r="Q44" s="91"/>
+      <c r="R44" s="91"/>
+      <c r="S44" s="91"/>
+      <c r="T44" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="U44" s="105"/>
+      <c r="V44" s="105"/>
+      <c r="W44" s="105"/>
+      <c r="X44" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y44" s="68">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="68"/>
+      <c r="AA44" s="107"/>
+      <c r="AB44" s="107"/>
+      <c r="AC44" s="107"/>
+    </row>
+    <row r="45" spans="1:33">
+      <c r="B45" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="K45" s="107"/>
+      <c r="L45" s="107"/>
+      <c r="M45" s="105"/>
+      <c r="N45" s="91"/>
+      <c r="O45" s="91"/>
+      <c r="P45" s="91"/>
+      <c r="Q45" s="91"/>
+      <c r="R45" s="91"/>
+      <c r="S45" s="91"/>
+      <c r="T45" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="U45" s="105"/>
+      <c r="V45" s="105"/>
+      <c r="W45" s="105"/>
+      <c r="X45" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y45" s="107"/>
+      <c r="Z45" s="107"/>
+      <c r="AA45" s="107"/>
+      <c r="AB45" s="107"/>
+      <c r="AC45" s="107"/>
+    </row>
+    <row r="46" spans="1:33">
+      <c r="B46" s="165"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="166"/>
+      <c r="E46" s="166"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="165"/>
+      <c r="H46" s="165"/>
+      <c r="I46" s="165"/>
+      <c r="J46" s="168"/>
+      <c r="K46" s="168"/>
+      <c r="L46" s="168"/>
+      <c r="M46" s="165"/>
+      <c r="N46" s="172" t="s">
+        <v>156</v>
+      </c>
+      <c r="O46" s="91"/>
+      <c r="P46" s="91"/>
+      <c r="Q46" s="91"/>
+      <c r="R46" s="91"/>
+      <c r="S46" s="91"/>
+      <c r="T46" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="U46" s="59"/>
+      <c r="V46" s="59"/>
+      <c r="W46" s="59"/>
+    </row>
+    <row r="47" spans="1:33" ht="96">
+      <c r="B47" s="169"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="169"/>
+      <c r="E47" s="169"/>
+      <c r="F47" s="170" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47" s="169"/>
+      <c r="H47" s="169"/>
+      <c r="I47" s="169"/>
+      <c r="J47" s="171"/>
+      <c r="K47" s="171"/>
+      <c r="L47" s="171"/>
+      <c r="M47" s="169"/>
+      <c r="N47" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="O47" s="91"/>
+      <c r="P47" s="91"/>
+      <c r="Q47" s="91"/>
+      <c r="R47" s="91"/>
+      <c r="S47" s="91"/>
+      <c r="T47" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="U47" s="59"/>
+      <c r="V47" s="59"/>
+      <c r="W47" s="59"/>
+    </row>
+    <row r="48" spans="1:33">
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="59"/>
+      <c r="N48" s="173" t="s">
+        <v>161</v>
+      </c>
+      <c r="O48" s="63"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="63"/>
+      <c r="R48" s="63"/>
+      <c r="S48" s="63"/>
+      <c r="T48" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="U48" s="59"/>
+      <c r="V48" s="59"/>
+      <c r="W48" s="59"/>
+    </row>
+    <row r="49" spans="2:23">
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="173" t="s">
+        <v>172</v>
+      </c>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="63"/>
+      <c r="T49" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="U49" s="59"/>
+      <c r="V49" s="59"/>
+      <c r="W49" s="59"/>
+    </row>
+    <row r="50" spans="2:23">
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="173" t="s">
+        <v>172</v>
+      </c>
+      <c r="O50" s="63"/>
+      <c r="P50" s="63"/>
+      <c r="Q50" s="63"/>
+      <c r="R50" s="63"/>
+      <c r="S50" s="63"/>
+      <c r="T50" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="U50" s="59"/>
+      <c r="V50" s="59"/>
+      <c r="W50" s="59"/>
+    </row>
+    <row r="51" spans="2:23">
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="173" t="s">
+        <v>172</v>
+      </c>
+      <c r="O51" s="63"/>
+      <c r="P51" s="63"/>
+      <c r="Q51" s="63"/>
+      <c r="R51" s="63"/>
+      <c r="S51" s="63"/>
+      <c r="T51" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="U51" s="59"/>
+      <c r="V51" s="59"/>
+      <c r="W51" s="59"/>
+    </row>
+    <row r="52" spans="2:23">
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="173" t="s">
+        <v>172</v>
+      </c>
+      <c r="O52" s="63"/>
+      <c r="P52" s="63"/>
+      <c r="Q52" s="63"/>
+      <c r="R52" s="63"/>
+      <c r="S52" s="63"/>
+      <c r="T52" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="U52" s="59"/>
+      <c r="V52" s="59"/>
+      <c r="W52" s="59"/>
+    </row>
+    <row r="53" spans="2:23">
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="173" t="s">
+        <v>172</v>
+      </c>
+      <c r="O53" s="63"/>
+      <c r="P53" s="63"/>
+      <c r="Q53" s="63"/>
+      <c r="R53" s="63"/>
+      <c r="S53" s="63"/>
+      <c r="T53" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="U53" s="59"/>
+      <c r="V53" s="59"/>
+      <c r="W53" s="59"/>
+    </row>
+    <row r="54" spans="2:23">
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="173" t="s">
+        <v>172</v>
+      </c>
+      <c r="O54" s="63"/>
+      <c r="P54" s="63"/>
+      <c r="Q54" s="63"/>
+      <c r="R54" s="63"/>
+      <c r="S54" s="63"/>
+      <c r="T54" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="U54" s="59"/>
+      <c r="V54" s="59"/>
+      <c r="W54" s="59"/>
+    </row>
+    <row r="55" spans="2:23">
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="173" t="s">
+        <v>172</v>
+      </c>
+      <c r="O55" s="63"/>
+      <c r="P55" s="63"/>
+      <c r="Q55" s="63"/>
+      <c r="R55" s="63"/>
+      <c r="S55" s="63"/>
+      <c r="T55" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="U55" s="59"/>
+      <c r="V55" s="59"/>
+      <c r="W55" s="59"/>
+    </row>
+    <row r="56" spans="2:23">
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="173" t="s">
+        <v>172</v>
+      </c>
+      <c r="O56" s="63"/>
+      <c r="P56" s="63"/>
+      <c r="Q56" s="63"/>
+      <c r="R56" s="63"/>
+      <c r="S56" s="63"/>
+      <c r="T56" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="U56" s="59"/>
+      <c r="V56" s="59"/>
+      <c r="W56" s="59"/>
+    </row>
+    <row r="57" spans="2:23">
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="173" t="s">
+        <v>172</v>
+      </c>
+      <c r="O57" s="63"/>
+      <c r="P57" s="63"/>
+      <c r="Q57" s="63"/>
+      <c r="R57" s="63"/>
+      <c r="S57" s="63"/>
+      <c r="T57" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="U57" s="59"/>
+      <c r="V57" s="59"/>
+      <c r="W57" s="59"/>
+    </row>
+    <row r="58" spans="2:23">
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="62"/>
+      <c r="L58" s="62"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="63"/>
+      <c r="O58" s="63"/>
+      <c r="P58" s="63"/>
+      <c r="Q58" s="63"/>
+      <c r="R58" s="63"/>
+      <c r="S58" s="63"/>
+      <c r="T58" s="63"/>
+      <c r="U58" s="59"/>
+      <c r="V58" s="59"/>
+      <c r="W58" s="59"/>
+    </row>
+    <row r="59" spans="2:23">
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="62"/>
+      <c r="K59" s="62"/>
+      <c r="L59" s="62"/>
+      <c r="M59" s="59"/>
+      <c r="N59" s="63"/>
+      <c r="O59" s="63"/>
+      <c r="P59" s="63"/>
+      <c r="Q59" s="63"/>
+      <c r="R59" s="63"/>
+      <c r="S59" s="63"/>
+      <c r="T59" s="63"/>
+      <c r="U59" s="59"/>
+      <c r="V59" s="59"/>
+      <c r="W59" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7608,7 +10488,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="16" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="16" customWidth="1"/>
@@ -7616,7 +10496,7 @@
     <col min="4" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25">
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="23"/>
@@ -7636,7 +10516,7 @@
       <c r="X1" s="18"/>
       <c r="Y1" s="18"/>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:25">
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="22"/>
@@ -7656,7 +10536,7 @@
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
     </row>
-    <row r="3" spans="2:25" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" ht="18">
       <c r="C3" s="20" t="s">
         <v>50</v>
       </c>
@@ -7681,7 +10561,7 @@
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25">
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="E4" s="18"/>
@@ -7703,7 +10583,7 @@
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25">
       <c r="B6" s="37" t="s">
         <v>51</v>
       </c>
@@ -7711,7 +10591,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" ht="25.5">
       <c r="B7" s="32" t="s">
         <v>48</v>
       </c>
@@ -7719,7 +10599,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" ht="25.5">
       <c r="B8" s="32" t="s">
         <v>46</v>
       </c>
@@ -7727,7 +10607,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" ht="25.5">
       <c r="B9" s="32" t="s">
         <v>44</v>
       </c>
@@ -7735,7 +10615,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" ht="25.5">
       <c r="B10" s="32" t="s">
         <v>42</v>
       </c>
@@ -7743,7 +10623,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" ht="25.5">
       <c r="B11" s="32" t="s">
         <v>40</v>
       </c>
@@ -7751,7 +10631,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" ht="25.5">
       <c r="B12" s="32" t="s">
         <v>38</v>
       </c>
@@ -7759,7 +10639,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" ht="25.5">
       <c r="B13" s="32" t="s">
         <v>36</v>
       </c>
@@ -7767,7 +10647,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" ht="25.5">
       <c r="B14" s="32" t="s">
         <v>34</v>
       </c>
@@ -7775,7 +10655,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" ht="25.5">
       <c r="B15" s="32" t="s">
         <v>32</v>
       </c>
@@ -7783,7 +10663,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" ht="25.5">
       <c r="B16" s="32" t="s">
         <v>30</v>
       </c>
@@ -7791,7 +10671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" ht="25.5">
       <c r="B17" s="32" t="s">
         <v>28</v>
       </c>
@@ -7799,7 +10679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" ht="25.5">
       <c r="B18" s="32" t="s">
         <v>26</v>
       </c>
@@ -7807,7 +10687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" ht="25.5">
       <c r="B19" s="33" t="s">
         <v>24</v>
       </c>
@@ -7815,7 +10695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" ht="25.5">
       <c r="B20" s="32" t="s">
         <v>22</v>
       </c>
@@ -7823,7 +10703,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" ht="25.5">
       <c r="B21" s="32" t="s">
         <v>20</v>
       </c>
@@ -7831,7 +10711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" ht="25.5">
       <c r="B22" s="32" t="s">
         <v>18</v>
       </c>
@@ -7839,7 +10719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" ht="25.5">
       <c r="B23" s="35" t="s">
         <v>16</v>
       </c>
@@ -7858,16 +10738,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -7916,39 +10795,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7963,10 +10828,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_FIXA_P1.xlsx
+++ b/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_FIXA_P1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="807" activeTab="5"/>
+    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="807" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="173">
   <si>
     <t>Schema</t>
   </si>
@@ -1030,9 +1030,6 @@
     <t>ADMINISTRATIVO_RH</t>
   </si>
   <si>
-    <t>xxxxx</t>
-  </si>
-  <si>
     <t>Restast Task</t>
   </si>
   <si>
@@ -1082,32 +1079,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Arquiteto/Designer Responsável: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Vanessa Felix</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Projeto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Custo de Pessoal</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Mapa: </t>
     </r>
     <r>
@@ -1200,6 +1171,35 @@
   </si>
   <si>
     <t>Preencher com nulo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Arquiteto/Designer Responsável: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Felipe Cabral</t>
+    </r>
+  </si>
+  <si>
+    <t>CONSOLIDACAO_HORISTA</t>
+  </si>
+  <si>
+    <r>
+      <t>Projeto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Interface Custo de Pessoal</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1749,7 +1749,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2002,6 +2002,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2011,173 +2020,203 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2190,59 +2229,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2411,7 +2402,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2434,14 +2425,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2484,7 +2475,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2507,14 +2498,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2524,6 +2515,110 @@
             </a14:hiddenLine>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15363" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="495300" y="161925"/>
+          <a:ext cx="17325975" cy="6524625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18433" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="361950" y="161925"/>
+          <a:ext cx="6810375" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2844,14 +2939,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" customHeight="1">
-      <c r="C2" s="108" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="108"/>
+      <c r="C2" s="123" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="123"/>
     </row>
     <row r="3" spans="2:10" ht="15">
       <c r="C3" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>1</v>
@@ -2859,12 +2954,12 @@
     </row>
     <row r="4" spans="2:10">
       <c r="C4" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="C5" s="17" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -2885,28 +2980,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="9" spans="2:10">
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="117"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="129"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="118"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="132"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="44" t="s">
@@ -2915,17 +3010,17 @@
       <c r="C11" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121" t="s">
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="122"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="134"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="30" t="s">
@@ -2934,84 +3029,92 @@
       <c r="C12" s="29">
         <v>41236</v>
       </c>
-      <c r="D12" s="123" t="s">
+      <c r="D12" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="124"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="127"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="139"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="114"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="122"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="114"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="122"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="114"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="122"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="114"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="122"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="130"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="119"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="130"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3022,14 +3125,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3045,7 +3140,9 @@
   </sheetPr>
   <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3058,7 +3155,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="18">
       <c r="C2" s="17" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="D2" s="24">
         <f>Identificação!D2</f>
@@ -3067,7 +3164,7 @@
     </row>
     <row r="3" spans="2:10" ht="15">
       <c r="C3" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D3" s="42" t="str">
         <f>Identificação!D3</f>
@@ -3087,17 +3184,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="51" t="s">
@@ -3106,93 +3203,93 @@
       <c r="C7" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="131" t="s">
+      <c r="D7" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="83" t="s">
         <v>112</v>
       </c>
       <c r="C8" s="52"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="132"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="140"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="83" t="s">
         <v>118</v>
       </c>
       <c r="C9" s="52"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="83" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="52"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="132"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="83" t="s">
         <v>114</v>
       </c>
       <c r="C11" s="52"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="83" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="52"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="83" t="s">
         <v>115</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
     </row>
     <row r="14" spans="2:10" ht="13.5" thickBot="1">
       <c r="B14" s="5"/>
@@ -3206,17 +3303,17 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="138" t="s">
+      <c r="B15" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="144"/>
     </row>
     <row r="16" spans="2:10" ht="23.25" customHeight="1">
       <c r="B16" s="47" t="s">
@@ -3228,44 +3325,44 @@
       <c r="D16" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="140" t="s">
+      <c r="E16" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="142"/>
-      <c r="G16" s="140" t="s">
+      <c r="F16" s="152"/>
+      <c r="G16" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="142"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="152"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="1" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="146" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="134" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" s="135"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="1"/>
       <c r="C18" s="9"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" thickBot="1">
       <c r="B19" s="2"/>
@@ -3279,11 +3376,11 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B20" s="138" t="s">
+      <c r="B20" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="46" t="s">
@@ -3301,12 +3398,14 @@
         <v>137</v>
       </c>
       <c r="C22" s="82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" s="13"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="13"/>
+      <c r="B23" s="81" t="s">
+        <v>171</v>
+      </c>
       <c r="C23" s="14"/>
       <c r="D23" s="13"/>
     </row>
@@ -3322,17 +3421,17 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B25" s="131" t="s">
+      <c r="B25" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="131"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="142"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="51" t="s">
@@ -3344,61 +3443,52 @@
       <c r="D26" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="133" t="s">
+      <c r="E26" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="133"/>
-      <c r="G26" s="133" t="s">
+      <c r="F26" s="145"/>
+      <c r="G26" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="133"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="145"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="12"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="144"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="141"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="12"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="144"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="144"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D7:J7"/>
@@ -3415,6 +3505,15 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3443,10 +3542,7 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <oleObject progId="Visio.Drawing.11" shapeId="15362" r:id="rId3"/>
-  </oleObjects>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3458,10 +3554,10 @@
   <dimension ref="B1:AF97"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="N46" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D34" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U64" sqref="U64"/>
+      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
@@ -3505,39 +3601,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="158" t="s">
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="158"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="154" t="s">
+      <c r="O2" s="162"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
-      <c r="V2" s="155"/>
-      <c r="W2" s="155"/>
-      <c r="X2" s="155"/>
-      <c r="Y2" s="155"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="155"/>
-      <c r="AB2" s="155"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="168"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -5653,11 +5749,11 @@
         <v>2</v>
       </c>
       <c r="M38" s="68"/>
-      <c r="N38" s="93" t="s">
+      <c r="N38" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="O38" s="94"/>
-      <c r="P38" s="94"/>
+      <c r="O38" s="93"/>
+      <c r="P38" s="93"/>
       <c r="Q38" s="92" t="s">
         <v>121</v>
       </c>
@@ -5670,9 +5766,9 @@
       <c r="T38" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="U38" s="95"/>
-      <c r="V38" s="95"/>
-      <c r="W38" s="95"/>
+      <c r="U38" s="94"/>
+      <c r="V38" s="94"/>
+      <c r="W38" s="94"/>
       <c r="X38" s="68" t="s">
         <v>134</v>
       </c>
@@ -5682,8 +5778,8 @@
       <c r="Z38" s="68">
         <v>2</v>
       </c>
-      <c r="AA38" s="95"/>
-      <c r="AB38" s="95"/>
+      <c r="AA38" s="94"/>
+      <c r="AB38" s="94"/>
       <c r="AC38" s="68"/>
     </row>
     <row r="39" spans="2:29">
@@ -5717,32 +5813,32 @@
         <v>2</v>
       </c>
       <c r="M39" s="68"/>
-      <c r="N39" s="148" t="s">
+      <c r="N39" s="157" t="s">
         <v>126</v>
       </c>
-      <c r="O39" s="151"/>
-      <c r="P39" s="151"/>
-      <c r="Q39" s="145" t="s">
-        <v>121</v>
-      </c>
-      <c r="R39" s="145" t="s">
-        <v>122</v>
-      </c>
-      <c r="S39" s="145" t="s">
-        <v>122</v>
-      </c>
-      <c r="T39" s="145" t="s">
+      <c r="O39" s="164"/>
+      <c r="P39" s="164"/>
+      <c r="Q39" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="R39" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="S39" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="T39" s="157" t="s">
         <v>109</v>
       </c>
-      <c r="U39" s="145"/>
-      <c r="V39" s="145"/>
-      <c r="W39" s="68"/>
-      <c r="X39" s="68"/>
-      <c r="Y39" s="70"/>
-      <c r="Z39" s="70"/>
-      <c r="AA39" s="68"/>
-      <c r="AB39" s="68"/>
-      <c r="AC39" s="68"/>
+      <c r="U39" s="157"/>
+      <c r="V39" s="157"/>
+      <c r="W39" s="157"/>
+      <c r="X39" s="157"/>
+      <c r="Y39" s="157"/>
+      <c r="Z39" s="157"/>
+      <c r="AA39" s="157"/>
+      <c r="AB39" s="157"/>
+      <c r="AC39" s="157"/>
     </row>
     <row r="40" spans="2:29">
       <c r="B40" s="68" t="s">
@@ -5771,22 +5867,22 @@
       <c r="K40" s="68"/>
       <c r="L40" s="68"/>
       <c r="M40" s="68"/>
-      <c r="N40" s="149"/>
-      <c r="O40" s="152"/>
-      <c r="P40" s="152"/>
-      <c r="Q40" s="146"/>
-      <c r="R40" s="146"/>
-      <c r="S40" s="146"/>
-      <c r="T40" s="146"/>
-      <c r="U40" s="146"/>
-      <c r="V40" s="146"/>
-      <c r="W40" s="68"/>
-      <c r="X40" s="68"/>
-      <c r="Y40" s="68"/>
-      <c r="Z40" s="68"/>
-      <c r="AA40" s="68"/>
-      <c r="AB40" s="68"/>
-      <c r="AC40" s="68"/>
+      <c r="N40" s="169"/>
+      <c r="O40" s="165"/>
+      <c r="P40" s="165"/>
+      <c r="Q40" s="158"/>
+      <c r="R40" s="158"/>
+      <c r="S40" s="158"/>
+      <c r="T40" s="158"/>
+      <c r="U40" s="158"/>
+      <c r="V40" s="158"/>
+      <c r="W40" s="158"/>
+      <c r="X40" s="158"/>
+      <c r="Y40" s="158"/>
+      <c r="Z40" s="158"/>
+      <c r="AA40" s="158"/>
+      <c r="AB40" s="158"/>
+      <c r="AC40" s="158"/>
     </row>
     <row r="41" spans="2:29" ht="33.75" customHeight="1">
       <c r="B41" s="68" t="s">
@@ -5815,22 +5911,22 @@
       <c r="K41" s="68"/>
       <c r="L41" s="68"/>
       <c r="M41" s="68"/>
-      <c r="N41" s="150"/>
-      <c r="O41" s="153"/>
-      <c r="P41" s="153"/>
-      <c r="Q41" s="147"/>
-      <c r="R41" s="147"/>
-      <c r="S41" s="147"/>
-      <c r="T41" s="147"/>
-      <c r="U41" s="147"/>
-      <c r="V41" s="147"/>
-      <c r="W41" s="68"/>
-      <c r="X41" s="68"/>
-      <c r="Y41" s="68"/>
-      <c r="Z41" s="68"/>
-      <c r="AA41" s="68"/>
-      <c r="AB41" s="68"/>
-      <c r="AC41" s="68"/>
+      <c r="N41" s="170"/>
+      <c r="O41" s="166"/>
+      <c r="P41" s="166"/>
+      <c r="Q41" s="159"/>
+      <c r="R41" s="159"/>
+      <c r="S41" s="159"/>
+      <c r="T41" s="159"/>
+      <c r="U41" s="159"/>
+      <c r="V41" s="159"/>
+      <c r="W41" s="159"/>
+      <c r="X41" s="159"/>
+      <c r="Y41" s="159"/>
+      <c r="Z41" s="159"/>
+      <c r="AA41" s="159"/>
+      <c r="AB41" s="159"/>
+      <c r="AC41" s="159"/>
     </row>
     <row r="42" spans="2:29">
       <c r="B42" s="84"/>
@@ -5903,32 +5999,32 @@
       </c>
       <c r="L43" s="68"/>
       <c r="M43" s="68"/>
-      <c r="N43" s="148" t="s">
+      <c r="N43" s="157" t="s">
         <v>127</v>
       </c>
-      <c r="O43" s="151"/>
-      <c r="P43" s="151"/>
-      <c r="Q43" s="145" t="s">
-        <v>121</v>
-      </c>
-      <c r="R43" s="145" t="s">
-        <v>122</v>
-      </c>
-      <c r="S43" s="145" t="s">
-        <v>122</v>
-      </c>
-      <c r="T43" s="145" t="s">
+      <c r="O43" s="164"/>
+      <c r="P43" s="164"/>
+      <c r="Q43" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="R43" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="S43" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="T43" s="157" t="s">
         <v>110</v>
       </c>
-      <c r="U43" s="145"/>
-      <c r="V43" s="145"/>
-      <c r="W43" s="145"/>
-      <c r="X43" s="145"/>
-      <c r="Y43" s="145"/>
-      <c r="Z43" s="145"/>
-      <c r="AA43" s="145"/>
-      <c r="AB43" s="145"/>
-      <c r="AC43" s="145"/>
+      <c r="U43" s="157"/>
+      <c r="V43" s="157"/>
+      <c r="W43" s="157"/>
+      <c r="X43" s="157"/>
+      <c r="Y43" s="157"/>
+      <c r="Z43" s="157"/>
+      <c r="AA43" s="157"/>
+      <c r="AB43" s="157"/>
+      <c r="AC43" s="157"/>
     </row>
     <row r="44" spans="2:29">
       <c r="B44" s="84"/>
@@ -5945,22 +6041,22 @@
       <c r="K44" s="68"/>
       <c r="L44" s="68"/>
       <c r="M44" s="68"/>
-      <c r="N44" s="160"/>
-      <c r="O44" s="152"/>
-      <c r="P44" s="152"/>
-      <c r="Q44" s="146"/>
-      <c r="R44" s="146"/>
-      <c r="S44" s="146"/>
-      <c r="T44" s="146"/>
-      <c r="U44" s="146"/>
-      <c r="V44" s="146"/>
-      <c r="W44" s="146"/>
-      <c r="X44" s="146"/>
-      <c r="Y44" s="146"/>
-      <c r="Z44" s="146"/>
-      <c r="AA44" s="146"/>
-      <c r="AB44" s="146"/>
-      <c r="AC44" s="146"/>
+      <c r="N44" s="158"/>
+      <c r="O44" s="165"/>
+      <c r="P44" s="165"/>
+      <c r="Q44" s="158"/>
+      <c r="R44" s="158"/>
+      <c r="S44" s="158"/>
+      <c r="T44" s="158"/>
+      <c r="U44" s="158"/>
+      <c r="V44" s="158"/>
+      <c r="W44" s="158"/>
+      <c r="X44" s="158"/>
+      <c r="Y44" s="158"/>
+      <c r="Z44" s="158"/>
+      <c r="AA44" s="158"/>
+      <c r="AB44" s="158"/>
+      <c r="AC44" s="158"/>
     </row>
     <row r="45" spans="2:29">
       <c r="B45" s="84"/>
@@ -5977,22 +6073,22 @@
       <c r="K45" s="68"/>
       <c r="L45" s="68"/>
       <c r="M45" s="68"/>
-      <c r="N45" s="160"/>
-      <c r="O45" s="152"/>
-      <c r="P45" s="152"/>
-      <c r="Q45" s="146"/>
-      <c r="R45" s="146"/>
-      <c r="S45" s="146"/>
-      <c r="T45" s="146"/>
-      <c r="U45" s="146"/>
-      <c r="V45" s="146"/>
-      <c r="W45" s="146"/>
-      <c r="X45" s="146"/>
-      <c r="Y45" s="146"/>
-      <c r="Z45" s="146"/>
-      <c r="AA45" s="146"/>
-      <c r="AB45" s="146"/>
-      <c r="AC45" s="146"/>
+      <c r="N45" s="158"/>
+      <c r="O45" s="165"/>
+      <c r="P45" s="165"/>
+      <c r="Q45" s="158"/>
+      <c r="R45" s="158"/>
+      <c r="S45" s="158"/>
+      <c r="T45" s="158"/>
+      <c r="U45" s="158"/>
+      <c r="V45" s="158"/>
+      <c r="W45" s="158"/>
+      <c r="X45" s="158"/>
+      <c r="Y45" s="158"/>
+      <c r="Z45" s="158"/>
+      <c r="AA45" s="158"/>
+      <c r="AB45" s="158"/>
+      <c r="AC45" s="158"/>
     </row>
     <row r="46" spans="2:29">
       <c r="B46" s="68" t="s">
@@ -6023,22 +6119,22 @@
       </c>
       <c r="L46" s="68"/>
       <c r="M46" s="68"/>
-      <c r="N46" s="160"/>
-      <c r="O46" s="152"/>
-      <c r="P46" s="152"/>
-      <c r="Q46" s="146"/>
-      <c r="R46" s="146"/>
-      <c r="S46" s="146"/>
-      <c r="T46" s="146"/>
-      <c r="U46" s="146"/>
-      <c r="V46" s="146"/>
-      <c r="W46" s="146"/>
-      <c r="X46" s="146"/>
-      <c r="Y46" s="146"/>
-      <c r="Z46" s="146"/>
-      <c r="AA46" s="146"/>
-      <c r="AB46" s="146"/>
-      <c r="AC46" s="146"/>
+      <c r="N46" s="158"/>
+      <c r="O46" s="165"/>
+      <c r="P46" s="165"/>
+      <c r="Q46" s="158"/>
+      <c r="R46" s="158"/>
+      <c r="S46" s="158"/>
+      <c r="T46" s="158"/>
+      <c r="U46" s="158"/>
+      <c r="V46" s="158"/>
+      <c r="W46" s="158"/>
+      <c r="X46" s="158"/>
+      <c r="Y46" s="158"/>
+      <c r="Z46" s="158"/>
+      <c r="AA46" s="158"/>
+      <c r="AB46" s="158"/>
+      <c r="AC46" s="158"/>
     </row>
     <row r="47" spans="2:29">
       <c r="B47" s="68" t="s">
@@ -6069,22 +6165,22 @@
       </c>
       <c r="L47" s="68"/>
       <c r="M47" s="68"/>
-      <c r="N47" s="160"/>
-      <c r="O47" s="152"/>
-      <c r="P47" s="152"/>
-      <c r="Q47" s="146"/>
-      <c r="R47" s="146"/>
-      <c r="S47" s="146"/>
-      <c r="T47" s="146"/>
-      <c r="U47" s="146"/>
-      <c r="V47" s="146"/>
-      <c r="W47" s="146"/>
-      <c r="X47" s="146"/>
-      <c r="Y47" s="146"/>
-      <c r="Z47" s="146"/>
-      <c r="AA47" s="146"/>
-      <c r="AB47" s="146"/>
-      <c r="AC47" s="146"/>
+      <c r="N47" s="158"/>
+      <c r="O47" s="165"/>
+      <c r="P47" s="165"/>
+      <c r="Q47" s="158"/>
+      <c r="R47" s="158"/>
+      <c r="S47" s="158"/>
+      <c r="T47" s="158"/>
+      <c r="U47" s="158"/>
+      <c r="V47" s="158"/>
+      <c r="W47" s="158"/>
+      <c r="X47" s="158"/>
+      <c r="Y47" s="158"/>
+      <c r="Z47" s="158"/>
+      <c r="AA47" s="158"/>
+      <c r="AB47" s="158"/>
+      <c r="AC47" s="158"/>
     </row>
     <row r="48" spans="2:29">
       <c r="B48" s="84"/>
@@ -6107,22 +6203,22 @@
       </c>
       <c r="L48" s="68"/>
       <c r="M48" s="68"/>
-      <c r="N48" s="160"/>
-      <c r="O48" s="152"/>
-      <c r="P48" s="152"/>
-      <c r="Q48" s="146"/>
-      <c r="R48" s="146"/>
-      <c r="S48" s="146"/>
-      <c r="T48" s="146"/>
-      <c r="U48" s="146"/>
-      <c r="V48" s="146"/>
-      <c r="W48" s="146"/>
-      <c r="X48" s="146"/>
-      <c r="Y48" s="146"/>
-      <c r="Z48" s="146"/>
-      <c r="AA48" s="146"/>
-      <c r="AB48" s="146"/>
-      <c r="AC48" s="146"/>
+      <c r="N48" s="158"/>
+      <c r="O48" s="165"/>
+      <c r="P48" s="165"/>
+      <c r="Q48" s="158"/>
+      <c r="R48" s="158"/>
+      <c r="S48" s="158"/>
+      <c r="T48" s="158"/>
+      <c r="U48" s="158"/>
+      <c r="V48" s="158"/>
+      <c r="W48" s="158"/>
+      <c r="X48" s="158"/>
+      <c r="Y48" s="158"/>
+      <c r="Z48" s="158"/>
+      <c r="AA48" s="158"/>
+      <c r="AB48" s="158"/>
+      <c r="AC48" s="158"/>
     </row>
     <row r="49" spans="2:29">
       <c r="B49" s="68" t="s">
@@ -6153,22 +6249,22 @@
       </c>
       <c r="L49" s="68"/>
       <c r="M49" s="68"/>
-      <c r="N49" s="160"/>
-      <c r="O49" s="152"/>
-      <c r="P49" s="152"/>
-      <c r="Q49" s="146"/>
-      <c r="R49" s="146"/>
-      <c r="S49" s="146"/>
-      <c r="T49" s="146"/>
-      <c r="U49" s="146"/>
-      <c r="V49" s="146"/>
-      <c r="W49" s="146"/>
-      <c r="X49" s="146"/>
-      <c r="Y49" s="146"/>
-      <c r="Z49" s="146"/>
-      <c r="AA49" s="146"/>
-      <c r="AB49" s="146"/>
-      <c r="AC49" s="146"/>
+      <c r="N49" s="158"/>
+      <c r="O49" s="165"/>
+      <c r="P49" s="165"/>
+      <c r="Q49" s="158"/>
+      <c r="R49" s="158"/>
+      <c r="S49" s="158"/>
+      <c r="T49" s="158"/>
+      <c r="U49" s="158"/>
+      <c r="V49" s="158"/>
+      <c r="W49" s="158"/>
+      <c r="X49" s="158"/>
+      <c r="Y49" s="158"/>
+      <c r="Z49" s="158"/>
+      <c r="AA49" s="158"/>
+      <c r="AB49" s="158"/>
+      <c r="AC49" s="158"/>
     </row>
     <row r="50" spans="2:29">
       <c r="B50" s="68" t="s">
@@ -6199,22 +6295,22 @@
       </c>
       <c r="L50" s="68"/>
       <c r="M50" s="68"/>
-      <c r="N50" s="160"/>
-      <c r="O50" s="152"/>
-      <c r="P50" s="152"/>
-      <c r="Q50" s="146"/>
-      <c r="R50" s="146"/>
-      <c r="S50" s="146"/>
-      <c r="T50" s="146"/>
-      <c r="U50" s="146"/>
-      <c r="V50" s="146"/>
-      <c r="W50" s="146"/>
-      <c r="X50" s="146"/>
-      <c r="Y50" s="146"/>
-      <c r="Z50" s="146"/>
-      <c r="AA50" s="146"/>
-      <c r="AB50" s="146"/>
-      <c r="AC50" s="146"/>
+      <c r="N50" s="158"/>
+      <c r="O50" s="165"/>
+      <c r="P50" s="165"/>
+      <c r="Q50" s="158"/>
+      <c r="R50" s="158"/>
+      <c r="S50" s="158"/>
+      <c r="T50" s="158"/>
+      <c r="U50" s="158"/>
+      <c r="V50" s="158"/>
+      <c r="W50" s="158"/>
+      <c r="X50" s="158"/>
+      <c r="Y50" s="158"/>
+      <c r="Z50" s="158"/>
+      <c r="AA50" s="158"/>
+      <c r="AB50" s="158"/>
+      <c r="AC50" s="158"/>
     </row>
     <row r="51" spans="2:29">
       <c r="B51" s="68" t="s">
@@ -6245,22 +6341,22 @@
       </c>
       <c r="L51" s="68"/>
       <c r="M51" s="68"/>
-      <c r="N51" s="160"/>
-      <c r="O51" s="152"/>
-      <c r="P51" s="152"/>
-      <c r="Q51" s="146"/>
-      <c r="R51" s="146"/>
-      <c r="S51" s="146"/>
-      <c r="T51" s="146"/>
-      <c r="U51" s="146"/>
-      <c r="V51" s="146"/>
-      <c r="W51" s="146"/>
-      <c r="X51" s="146"/>
-      <c r="Y51" s="146"/>
-      <c r="Z51" s="146"/>
-      <c r="AA51" s="146"/>
-      <c r="AB51" s="146"/>
-      <c r="AC51" s="146"/>
+      <c r="N51" s="158"/>
+      <c r="O51" s="165"/>
+      <c r="P51" s="165"/>
+      <c r="Q51" s="158"/>
+      <c r="R51" s="158"/>
+      <c r="S51" s="158"/>
+      <c r="T51" s="158"/>
+      <c r="U51" s="158"/>
+      <c r="V51" s="158"/>
+      <c r="W51" s="158"/>
+      <c r="X51" s="158"/>
+      <c r="Y51" s="158"/>
+      <c r="Z51" s="158"/>
+      <c r="AA51" s="158"/>
+      <c r="AB51" s="158"/>
+      <c r="AC51" s="158"/>
     </row>
     <row r="52" spans="2:29">
       <c r="B52" s="68" t="s">
@@ -6291,22 +6387,22 @@
       </c>
       <c r="L52" s="68"/>
       <c r="M52" s="68"/>
-      <c r="N52" s="160"/>
-      <c r="O52" s="152"/>
-      <c r="P52" s="152"/>
-      <c r="Q52" s="146"/>
-      <c r="R52" s="146"/>
-      <c r="S52" s="146"/>
-      <c r="T52" s="146"/>
-      <c r="U52" s="146"/>
-      <c r="V52" s="146"/>
-      <c r="W52" s="146"/>
-      <c r="X52" s="146"/>
-      <c r="Y52" s="146"/>
-      <c r="Z52" s="146"/>
-      <c r="AA52" s="146"/>
-      <c r="AB52" s="146"/>
-      <c r="AC52" s="146"/>
+      <c r="N52" s="158"/>
+      <c r="O52" s="165"/>
+      <c r="P52" s="165"/>
+      <c r="Q52" s="158"/>
+      <c r="R52" s="158"/>
+      <c r="S52" s="158"/>
+      <c r="T52" s="158"/>
+      <c r="U52" s="158"/>
+      <c r="V52" s="158"/>
+      <c r="W52" s="158"/>
+      <c r="X52" s="158"/>
+      <c r="Y52" s="158"/>
+      <c r="Z52" s="158"/>
+      <c r="AA52" s="158"/>
+      <c r="AB52" s="158"/>
+      <c r="AC52" s="158"/>
     </row>
     <row r="53" spans="2:29">
       <c r="B53" s="68" t="s">
@@ -6337,22 +6433,22 @@
       </c>
       <c r="L53" s="68"/>
       <c r="M53" s="68"/>
-      <c r="N53" s="161"/>
-      <c r="O53" s="153"/>
-      <c r="P53" s="153"/>
-      <c r="Q53" s="147"/>
-      <c r="R53" s="147"/>
-      <c r="S53" s="147"/>
-      <c r="T53" s="147"/>
-      <c r="U53" s="147"/>
-      <c r="V53" s="147"/>
-      <c r="W53" s="147"/>
-      <c r="X53" s="147"/>
-      <c r="Y53" s="147"/>
-      <c r="Z53" s="147"/>
-      <c r="AA53" s="147"/>
-      <c r="AB53" s="147"/>
-      <c r="AC53" s="147"/>
+      <c r="N53" s="159"/>
+      <c r="O53" s="166"/>
+      <c r="P53" s="166"/>
+      <c r="Q53" s="159"/>
+      <c r="R53" s="159"/>
+      <c r="S53" s="159"/>
+      <c r="T53" s="159"/>
+      <c r="U53" s="159"/>
+      <c r="V53" s="159"/>
+      <c r="W53" s="159"/>
+      <c r="X53" s="159"/>
+      <c r="Y53" s="159"/>
+      <c r="Z53" s="159"/>
+      <c r="AA53" s="159"/>
+      <c r="AB53" s="159"/>
+      <c r="AC53" s="159"/>
     </row>
     <row r="54" spans="2:29">
       <c r="B54" s="68" t="s">
@@ -6383,32 +6479,32 @@
       </c>
       <c r="L54" s="68"/>
       <c r="M54" s="68"/>
-      <c r="N54" s="148" t="s">
+      <c r="N54" s="157" t="s">
         <v>130</v>
       </c>
-      <c r="O54" s="151"/>
-      <c r="P54" s="151"/>
-      <c r="Q54" s="145" t="s">
-        <v>121</v>
-      </c>
-      <c r="R54" s="145" t="s">
-        <v>122</v>
-      </c>
-      <c r="S54" s="145" t="s">
-        <v>122</v>
-      </c>
-      <c r="T54" s="145" t="s">
+      <c r="O54" s="164"/>
+      <c r="P54" s="164"/>
+      <c r="Q54" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="R54" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="S54" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="T54" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="U54" s="162"/>
-      <c r="V54" s="162"/>
-      <c r="W54" s="162"/>
-      <c r="X54" s="162"/>
-      <c r="Y54" s="162"/>
-      <c r="Z54" s="162"/>
-      <c r="AA54" s="162"/>
-      <c r="AB54" s="162"/>
-      <c r="AC54" s="162"/>
+      <c r="U54" s="154"/>
+      <c r="V54" s="154"/>
+      <c r="W54" s="154"/>
+      <c r="X54" s="154"/>
+      <c r="Y54" s="154"/>
+      <c r="Z54" s="154"/>
+      <c r="AA54" s="154"/>
+      <c r="AB54" s="154"/>
+      <c r="AC54" s="154"/>
     </row>
     <row r="55" spans="2:29">
       <c r="B55" s="68" t="s">
@@ -6439,22 +6535,22 @@
       </c>
       <c r="L55" s="68"/>
       <c r="M55" s="68"/>
-      <c r="N55" s="160"/>
-      <c r="O55" s="152"/>
-      <c r="P55" s="152"/>
-      <c r="Q55" s="146"/>
-      <c r="R55" s="146"/>
-      <c r="S55" s="146"/>
-      <c r="T55" s="146"/>
-      <c r="U55" s="163"/>
-      <c r="V55" s="163"/>
-      <c r="W55" s="163"/>
-      <c r="X55" s="163"/>
-      <c r="Y55" s="163"/>
-      <c r="Z55" s="163"/>
-      <c r="AA55" s="163"/>
-      <c r="AB55" s="163"/>
-      <c r="AC55" s="163"/>
+      <c r="N55" s="158"/>
+      <c r="O55" s="165"/>
+      <c r="P55" s="165"/>
+      <c r="Q55" s="158"/>
+      <c r="R55" s="158"/>
+      <c r="S55" s="158"/>
+      <c r="T55" s="158"/>
+      <c r="U55" s="155"/>
+      <c r="V55" s="155"/>
+      <c r="W55" s="155"/>
+      <c r="X55" s="155"/>
+      <c r="Y55" s="155"/>
+      <c r="Z55" s="155"/>
+      <c r="AA55" s="155"/>
+      <c r="AB55" s="155"/>
+      <c r="AC55" s="155"/>
     </row>
     <row r="56" spans="2:29">
       <c r="B56" s="68" t="s">
@@ -6485,22 +6581,22 @@
       </c>
       <c r="L56" s="68"/>
       <c r="M56" s="68"/>
-      <c r="N56" s="160"/>
-      <c r="O56" s="152"/>
-      <c r="P56" s="152"/>
-      <c r="Q56" s="146"/>
-      <c r="R56" s="146"/>
-      <c r="S56" s="146"/>
-      <c r="T56" s="146"/>
-      <c r="U56" s="163"/>
-      <c r="V56" s="163"/>
-      <c r="W56" s="163"/>
-      <c r="X56" s="163"/>
-      <c r="Y56" s="163"/>
-      <c r="Z56" s="163"/>
-      <c r="AA56" s="163"/>
-      <c r="AB56" s="163"/>
-      <c r="AC56" s="163"/>
+      <c r="N56" s="158"/>
+      <c r="O56" s="165"/>
+      <c r="P56" s="165"/>
+      <c r="Q56" s="158"/>
+      <c r="R56" s="158"/>
+      <c r="S56" s="158"/>
+      <c r="T56" s="158"/>
+      <c r="U56" s="155"/>
+      <c r="V56" s="155"/>
+      <c r="W56" s="155"/>
+      <c r="X56" s="155"/>
+      <c r="Y56" s="155"/>
+      <c r="Z56" s="155"/>
+      <c r="AA56" s="155"/>
+      <c r="AB56" s="155"/>
+      <c r="AC56" s="155"/>
     </row>
     <row r="57" spans="2:29">
       <c r="B57" s="84"/>
@@ -6523,22 +6619,22 @@
       </c>
       <c r="L57" s="68"/>
       <c r="M57" s="68"/>
-      <c r="N57" s="160"/>
-      <c r="O57" s="152"/>
-      <c r="P57" s="152"/>
-      <c r="Q57" s="146"/>
-      <c r="R57" s="146"/>
-      <c r="S57" s="146"/>
-      <c r="T57" s="146"/>
-      <c r="U57" s="163"/>
-      <c r="V57" s="163"/>
-      <c r="W57" s="163"/>
-      <c r="X57" s="163"/>
-      <c r="Y57" s="163"/>
-      <c r="Z57" s="163"/>
-      <c r="AA57" s="163"/>
-      <c r="AB57" s="163"/>
-      <c r="AC57" s="163"/>
+      <c r="N57" s="158"/>
+      <c r="O57" s="165"/>
+      <c r="P57" s="165"/>
+      <c r="Q57" s="158"/>
+      <c r="R57" s="158"/>
+      <c r="S57" s="158"/>
+      <c r="T57" s="158"/>
+      <c r="U57" s="155"/>
+      <c r="V57" s="155"/>
+      <c r="W57" s="155"/>
+      <c r="X57" s="155"/>
+      <c r="Y57" s="155"/>
+      <c r="Z57" s="155"/>
+      <c r="AA57" s="155"/>
+      <c r="AB57" s="155"/>
+      <c r="AC57" s="155"/>
     </row>
     <row r="58" spans="2:29">
       <c r="B58" s="68" t="s">
@@ -6569,22 +6665,22 @@
       </c>
       <c r="L58" s="68"/>
       <c r="M58" s="68"/>
-      <c r="N58" s="160"/>
-      <c r="O58" s="152"/>
-      <c r="P58" s="152"/>
-      <c r="Q58" s="146"/>
-      <c r="R58" s="146"/>
-      <c r="S58" s="146"/>
-      <c r="T58" s="146"/>
-      <c r="U58" s="163"/>
-      <c r="V58" s="163"/>
-      <c r="W58" s="163"/>
-      <c r="X58" s="163"/>
-      <c r="Y58" s="163"/>
-      <c r="Z58" s="163"/>
-      <c r="AA58" s="163"/>
-      <c r="AB58" s="163"/>
-      <c r="AC58" s="163"/>
+      <c r="N58" s="158"/>
+      <c r="O58" s="165"/>
+      <c r="P58" s="165"/>
+      <c r="Q58" s="158"/>
+      <c r="R58" s="158"/>
+      <c r="S58" s="158"/>
+      <c r="T58" s="158"/>
+      <c r="U58" s="155"/>
+      <c r="V58" s="155"/>
+      <c r="W58" s="155"/>
+      <c r="X58" s="155"/>
+      <c r="Y58" s="155"/>
+      <c r="Z58" s="155"/>
+      <c r="AA58" s="155"/>
+      <c r="AB58" s="155"/>
+      <c r="AC58" s="155"/>
     </row>
     <row r="59" spans="2:29">
       <c r="B59" s="84"/>
@@ -6607,22 +6703,22 @@
       </c>
       <c r="L59" s="68"/>
       <c r="M59" s="68"/>
-      <c r="N59" s="160"/>
-      <c r="O59" s="152"/>
-      <c r="P59" s="152"/>
-      <c r="Q59" s="146"/>
-      <c r="R59" s="146"/>
-      <c r="S59" s="146"/>
-      <c r="T59" s="146"/>
-      <c r="U59" s="163"/>
-      <c r="V59" s="163"/>
-      <c r="W59" s="163"/>
-      <c r="X59" s="163"/>
-      <c r="Y59" s="163"/>
-      <c r="Z59" s="163"/>
-      <c r="AA59" s="163"/>
-      <c r="AB59" s="163"/>
-      <c r="AC59" s="163"/>
+      <c r="N59" s="158"/>
+      <c r="O59" s="165"/>
+      <c r="P59" s="165"/>
+      <c r="Q59" s="158"/>
+      <c r="R59" s="158"/>
+      <c r="S59" s="158"/>
+      <c r="T59" s="158"/>
+      <c r="U59" s="155"/>
+      <c r="V59" s="155"/>
+      <c r="W59" s="155"/>
+      <c r="X59" s="155"/>
+      <c r="Y59" s="155"/>
+      <c r="Z59" s="155"/>
+      <c r="AA59" s="155"/>
+      <c r="AB59" s="155"/>
+      <c r="AC59" s="155"/>
     </row>
     <row r="60" spans="2:29">
       <c r="B60" s="68" t="s">
@@ -6653,22 +6749,22 @@
       </c>
       <c r="L60" s="68"/>
       <c r="M60" s="68"/>
-      <c r="N60" s="160"/>
-      <c r="O60" s="152"/>
-      <c r="P60" s="152"/>
-      <c r="Q60" s="146"/>
-      <c r="R60" s="146"/>
-      <c r="S60" s="146"/>
-      <c r="T60" s="146"/>
-      <c r="U60" s="163"/>
-      <c r="V60" s="163"/>
-      <c r="W60" s="163"/>
-      <c r="X60" s="163"/>
-      <c r="Y60" s="163"/>
-      <c r="Z60" s="163"/>
-      <c r="AA60" s="163"/>
-      <c r="AB60" s="163"/>
-      <c r="AC60" s="163"/>
+      <c r="N60" s="158"/>
+      <c r="O60" s="165"/>
+      <c r="P60" s="165"/>
+      <c r="Q60" s="158"/>
+      <c r="R60" s="158"/>
+      <c r="S60" s="158"/>
+      <c r="T60" s="158"/>
+      <c r="U60" s="155"/>
+      <c r="V60" s="155"/>
+      <c r="W60" s="155"/>
+      <c r="X60" s="155"/>
+      <c r="Y60" s="155"/>
+      <c r="Z60" s="155"/>
+      <c r="AA60" s="155"/>
+      <c r="AB60" s="155"/>
+      <c r="AC60" s="155"/>
     </row>
     <row r="61" spans="2:29">
       <c r="B61" s="68" t="s">
@@ -6699,22 +6795,22 @@
       </c>
       <c r="L61" s="68"/>
       <c r="M61" s="68"/>
-      <c r="N61" s="161"/>
-      <c r="O61" s="153"/>
-      <c r="P61" s="153"/>
-      <c r="Q61" s="147"/>
-      <c r="R61" s="147"/>
-      <c r="S61" s="147"/>
-      <c r="T61" s="147"/>
-      <c r="U61" s="164"/>
-      <c r="V61" s="164"/>
-      <c r="W61" s="164"/>
-      <c r="X61" s="164"/>
-      <c r="Y61" s="164"/>
-      <c r="Z61" s="164"/>
-      <c r="AA61" s="164"/>
-      <c r="AB61" s="164"/>
-      <c r="AC61" s="164"/>
+      <c r="N61" s="159"/>
+      <c r="O61" s="166"/>
+      <c r="P61" s="166"/>
+      <c r="Q61" s="159"/>
+      <c r="R61" s="159"/>
+      <c r="S61" s="159"/>
+      <c r="T61" s="159"/>
+      <c r="U61" s="156"/>
+      <c r="V61" s="156"/>
+      <c r="W61" s="156"/>
+      <c r="X61" s="156"/>
+      <c r="Y61" s="156"/>
+      <c r="Z61" s="156"/>
+      <c r="AA61" s="156"/>
+      <c r="AB61" s="156"/>
+      <c r="AC61" s="156"/>
     </row>
     <row r="62" spans="2:29">
       <c r="B62" s="84"/>
@@ -6730,7 +6826,7 @@
       <c r="L62" s="84"/>
       <c r="M62" s="84"/>
       <c r="N62" s="68" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O62" s="91"/>
       <c r="P62" s="91"/>
@@ -6744,16 +6840,16 @@
         <v>122</v>
       </c>
       <c r="T62" s="68" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="U62" s="68" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="V62" s="68" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="W62" s="68" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="X62" s="68" t="s">
         <v>135</v>
@@ -6780,7 +6876,7 @@
       <c r="L63" s="84"/>
       <c r="M63" s="84"/>
       <c r="N63" s="68" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O63" s="91"/>
       <c r="P63" s="91"/>
@@ -6794,16 +6890,16 @@
         <v>122</v>
       </c>
       <c r="T63" s="68" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="U63" s="68" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="V63" s="68" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="W63" s="68" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="X63" s="68" t="s">
         <v>135</v>
@@ -6830,7 +6926,7 @@
       <c r="L64" s="84"/>
       <c r="M64" s="84"/>
       <c r="N64" s="68" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O64" s="68"/>
       <c r="P64" s="68"/>
@@ -6844,16 +6940,16 @@
         <v>122</v>
       </c>
       <c r="T64" s="71" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="U64" s="71" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V64" s="83" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="W64" s="68" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="X64" s="68" t="s">
         <v>136</v>
@@ -7652,25 +7748,24 @@
       <c r="W97" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="AA54:AA61"/>
-    <mergeCell ref="AB54:AB61"/>
-    <mergeCell ref="AC54:AC61"/>
-    <mergeCell ref="Y43:Y53"/>
-    <mergeCell ref="Z43:Z53"/>
-    <mergeCell ref="AA43:AA53"/>
-    <mergeCell ref="AB43:AB53"/>
-    <mergeCell ref="AC43:AC53"/>
-    <mergeCell ref="Z54:Z61"/>
-    <mergeCell ref="Y54:Y61"/>
-    <mergeCell ref="U43:U53"/>
-    <mergeCell ref="V43:V53"/>
-    <mergeCell ref="W43:W53"/>
-    <mergeCell ref="X43:X53"/>
-    <mergeCell ref="U54:U61"/>
-    <mergeCell ref="V54:V61"/>
-    <mergeCell ref="W54:W61"/>
-    <mergeCell ref="X54:X61"/>
+  <mergeCells count="51">
+    <mergeCell ref="AC39:AC41"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="V39:V41"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="T39:T41"/>
+    <mergeCell ref="S39:S41"/>
+    <mergeCell ref="W39:W41"/>
+    <mergeCell ref="X39:X41"/>
+    <mergeCell ref="Y39:Y41"/>
+    <mergeCell ref="Z39:Z41"/>
+    <mergeCell ref="AA39:AA41"/>
+    <mergeCell ref="AB39:AB41"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q54:Q61"/>
@@ -7687,16 +7782,24 @@
     <mergeCell ref="P54:P61"/>
     <mergeCell ref="O54:O61"/>
     <mergeCell ref="N54:N61"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="P39:P41"/>
-    <mergeCell ref="O39:O41"/>
-    <mergeCell ref="R39:R41"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="U39:U41"/>
-    <mergeCell ref="V39:V41"/>
-    <mergeCell ref="Q39:Q41"/>
-    <mergeCell ref="T39:T41"/>
-    <mergeCell ref="S39:S41"/>
+    <mergeCell ref="U43:U53"/>
+    <mergeCell ref="V43:V53"/>
+    <mergeCell ref="W43:W53"/>
+    <mergeCell ref="X43:X53"/>
+    <mergeCell ref="U54:U61"/>
+    <mergeCell ref="V54:V61"/>
+    <mergeCell ref="W54:W61"/>
+    <mergeCell ref="X54:X61"/>
+    <mergeCell ref="AA54:AA61"/>
+    <mergeCell ref="AB54:AB61"/>
+    <mergeCell ref="AC54:AC61"/>
+    <mergeCell ref="Y43:Y53"/>
+    <mergeCell ref="Z43:Z53"/>
+    <mergeCell ref="AA43:AA53"/>
+    <mergeCell ref="AB43:AB53"/>
+    <mergeCell ref="AC43:AC53"/>
+    <mergeCell ref="Z54:Z61"/>
+    <mergeCell ref="Y54:Y61"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7709,8 +7812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7719,6 +7822,7 @@
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7729,8 +7833,8 @@
   </sheetPr>
   <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="K45" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="N48" sqref="N48:N57"/>
@@ -7779,39 +7883,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="158" t="s">
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="158"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="154" t="s">
+      <c r="O2" s="162"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
-      <c r="V2" s="155"/>
-      <c r="W2" s="155"/>
-      <c r="X2" s="155"/>
-      <c r="Y2" s="155"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="155"/>
-      <c r="AB2" s="155"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="168"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -9683,7 +9787,7 @@
       </c>
       <c r="D38" s="69"/>
       <c r="E38" s="69"/>
-      <c r="F38" s="96" t="s">
+      <c r="F38" s="95" t="s">
         <v>108</v>
       </c>
       <c r="G38" s="71"/>
@@ -9699,24 +9803,24 @@
         <v>2</v>
       </c>
       <c r="M38" s="68"/>
-      <c r="N38" s="97"/>
-      <c r="O38" s="98"/>
-      <c r="P38" s="98"/>
-      <c r="Q38" s="96" t="s">
-        <v>121</v>
-      </c>
-      <c r="R38" s="96" t="s">
-        <v>122</v>
-      </c>
-      <c r="S38" s="96" t="s">
-        <v>122</v>
-      </c>
-      <c r="T38" s="96" t="s">
+      <c r="N38" s="96"/>
+      <c r="O38" s="97"/>
+      <c r="P38" s="97"/>
+      <c r="Q38" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="R38" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="S38" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="T38" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="U38" s="99"/>
-      <c r="V38" s="99"/>
-      <c r="W38" s="99"/>
+      <c r="U38" s="98"/>
+      <c r="V38" s="98"/>
+      <c r="W38" s="98"/>
       <c r="X38" s="68" t="s">
         <v>134</v>
       </c>
@@ -9726,8 +9830,8 @@
       <c r="Z38" s="68">
         <v>2</v>
       </c>
-      <c r="AA38" s="99"/>
-      <c r="AB38" s="99"/>
+      <c r="AA38" s="98"/>
+      <c r="AB38" s="98"/>
       <c r="AC38" s="68"/>
     </row>
     <row r="39" spans="1:33" ht="12.75" customHeight="1">
@@ -9739,7 +9843,7 @@
       </c>
       <c r="D39" s="72"/>
       <c r="E39" s="72"/>
-      <c r="F39" s="100" t="s">
+      <c r="F39" s="99" t="s">
         <v>109</v>
       </c>
       <c r="G39" s="73"/>
@@ -9755,19 +9859,19 @@
         <v>2</v>
       </c>
       <c r="M39" s="68"/>
-      <c r="N39" s="97"/>
-      <c r="O39" s="98"/>
-      <c r="P39" s="98"/>
-      <c r="Q39" s="96" t="s">
-        <v>121</v>
-      </c>
-      <c r="R39" s="96" t="s">
-        <v>122</v>
-      </c>
-      <c r="S39" s="96" t="s">
-        <v>122</v>
-      </c>
-      <c r="T39" s="100" t="s">
+      <c r="N39" s="96"/>
+      <c r="O39" s="97"/>
+      <c r="P39" s="97"/>
+      <c r="Q39" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="R39" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="S39" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="T39" s="99" t="s">
         <v>109</v>
       </c>
       <c r="U39" s="68"/>
@@ -9812,24 +9916,24 @@
         <v>2</v>
       </c>
       <c r="M40" s="68"/>
-      <c r="N40" s="101"/>
-      <c r="O40" s="102"/>
-      <c r="P40" s="102"/>
-      <c r="Q40" s="103" t="s">
-        <v>121</v>
-      </c>
-      <c r="R40" s="103" t="s">
-        <v>122</v>
-      </c>
-      <c r="S40" s="103" t="s">
+      <c r="N40" s="100"/>
+      <c r="O40" s="101"/>
+      <c r="P40" s="101"/>
+      <c r="Q40" s="102" t="s">
+        <v>121</v>
+      </c>
+      <c r="R40" s="102" t="s">
+        <v>122</v>
+      </c>
+      <c r="S40" s="102" t="s">
         <v>122</v>
       </c>
       <c r="T40" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="U40" s="104"/>
-      <c r="V40" s="104"/>
-      <c r="W40" s="104"/>
+      <c r="U40" s="103"/>
+      <c r="V40" s="103"/>
+      <c r="W40" s="103"/>
       <c r="X40" s="68" t="s">
         <v>134</v>
       </c>
@@ -9905,22 +10009,22 @@
       <c r="C42" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
       <c r="F42" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="104" t="s">
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="103" t="s">
         <v>135</v>
       </c>
       <c r="K42" s="72">
         <v>15</v>
       </c>
-      <c r="L42" s="104"/>
-      <c r="M42" s="105"/>
+      <c r="L42" s="103"/>
+      <c r="M42" s="104"/>
       <c r="N42" s="91"/>
       <c r="O42" s="91"/>
       <c r="P42" s="91"/>
@@ -9930,19 +10034,19 @@
       <c r="T42" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="U42" s="105"/>
-      <c r="V42" s="105"/>
-      <c r="W42" s="105"/>
-      <c r="X42" s="104" t="s">
+      <c r="U42" s="104"/>
+      <c r="V42" s="104"/>
+      <c r="W42" s="104"/>
+      <c r="X42" s="103" t="s">
         <v>135</v>
       </c>
       <c r="Y42" s="72">
         <v>15</v>
       </c>
-      <c r="Z42" s="104"/>
-      <c r="AA42" s="107"/>
-      <c r="AB42" s="107"/>
-      <c r="AC42" s="107"/>
+      <c r="Z42" s="103"/>
+      <c r="AA42" s="106"/>
+      <c r="AB42" s="106"/>
+      <c r="AC42" s="106"/>
     </row>
     <row r="43" spans="1:33">
       <c r="B43" s="68" t="s">
@@ -9951,14 +10055,14 @@
       <c r="C43" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
       <c r="F43" s="68" t="s">
-        <v>149</v>
-      </c>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
+        <v>146</v>
+      </c>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
       <c r="J43" s="68" t="s">
         <v>135</v>
       </c>
@@ -9966,7 +10070,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="68"/>
-      <c r="M43" s="105"/>
+      <c r="M43" s="104"/>
       <c r="N43" s="91"/>
       <c r="O43" s="91"/>
       <c r="P43" s="91"/>
@@ -9974,11 +10078,11 @@
       <c r="R43" s="91"/>
       <c r="S43" s="91"/>
       <c r="T43" s="68" t="s">
-        <v>149</v>
-      </c>
-      <c r="U43" s="105"/>
-      <c r="V43" s="105"/>
-      <c r="W43" s="105"/>
+        <v>146</v>
+      </c>
+      <c r="U43" s="104"/>
+      <c r="V43" s="104"/>
+      <c r="W43" s="104"/>
       <c r="X43" s="68" t="s">
         <v>135</v>
       </c>
@@ -9986,9 +10090,9 @@
         <v>1</v>
       </c>
       <c r="Z43" s="68"/>
-      <c r="AA43" s="107"/>
-      <c r="AB43" s="107"/>
-      <c r="AC43" s="107"/>
+      <c r="AA43" s="106"/>
+      <c r="AB43" s="106"/>
+      <c r="AC43" s="106"/>
     </row>
     <row r="44" spans="1:33" ht="72">
       <c r="B44" s="68" t="s">
@@ -9997,14 +10101,14 @@
       <c r="C44" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
       <c r="F44" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
+        <v>147</v>
+      </c>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="104"/>
       <c r="J44" s="68" t="s">
         <v>135</v>
       </c>
@@ -10012,9 +10116,9 @@
         <v>1</v>
       </c>
       <c r="L44" s="68"/>
-      <c r="M44" s="105"/>
+      <c r="M44" s="104"/>
       <c r="N44" s="68" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O44" s="91"/>
       <c r="P44" s="91"/>
@@ -10022,11 +10126,11 @@
       <c r="R44" s="91"/>
       <c r="S44" s="91"/>
       <c r="T44" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="U44" s="105"/>
-      <c r="V44" s="105"/>
-      <c r="W44" s="105"/>
+        <v>147</v>
+      </c>
+      <c r="U44" s="104"/>
+      <c r="V44" s="104"/>
+      <c r="W44" s="104"/>
       <c r="X44" s="68" t="s">
         <v>135</v>
       </c>
@@ -10034,9 +10138,9 @@
         <v>1</v>
       </c>
       <c r="Z44" s="68"/>
-      <c r="AA44" s="107"/>
-      <c r="AB44" s="107"/>
-      <c r="AC44" s="107"/>
+      <c r="AA44" s="106"/>
+      <c r="AB44" s="106"/>
+      <c r="AC44" s="106"/>
     </row>
     <row r="45" spans="1:33">
       <c r="B45" s="68" t="s">
@@ -10045,20 +10149,20 @@
       <c r="C45" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
       <c r="F45" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
+        <v>151</v>
+      </c>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
       <c r="J45" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="K45" s="107"/>
-      <c r="L45" s="107"/>
-      <c r="M45" s="105"/>
+      <c r="K45" s="106"/>
+      <c r="L45" s="106"/>
+      <c r="M45" s="104"/>
       <c r="N45" s="91"/>
       <c r="O45" s="91"/>
       <c r="P45" s="91"/>
@@ -10066,35 +10170,35 @@
       <c r="R45" s="91"/>
       <c r="S45" s="91"/>
       <c r="T45" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="U45" s="105"/>
-      <c r="V45" s="105"/>
-      <c r="W45" s="105"/>
+        <v>151</v>
+      </c>
+      <c r="U45" s="104"/>
+      <c r="V45" s="104"/>
+      <c r="W45" s="104"/>
       <c r="X45" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="Y45" s="107"/>
-      <c r="Z45" s="107"/>
-      <c r="AA45" s="107"/>
-      <c r="AB45" s="107"/>
-      <c r="AC45" s="107"/>
+      <c r="Y45" s="106"/>
+      <c r="Z45" s="106"/>
+      <c r="AA45" s="106"/>
+      <c r="AB45" s="106"/>
+      <c r="AC45" s="106"/>
     </row>
     <row r="46" spans="1:33">
-      <c r="B46" s="165"/>
-      <c r="C46" s="165"/>
-      <c r="D46" s="166"/>
-      <c r="E46" s="166"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="165"/>
-      <c r="H46" s="165"/>
-      <c r="I46" s="165"/>
-      <c r="J46" s="168"/>
-      <c r="K46" s="168"/>
-      <c r="L46" s="168"/>
-      <c r="M46" s="165"/>
-      <c r="N46" s="172" t="s">
-        <v>156</v>
+      <c r="B46" s="108"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="108"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="108"/>
+      <c r="N46" s="115" t="s">
+        <v>153</v>
       </c>
       <c r="O46" s="91"/>
       <c r="P46" s="91"/>
@@ -10102,29 +10206,29 @@
       <c r="R46" s="91"/>
       <c r="S46" s="91"/>
       <c r="T46" s="68" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="U46" s="59"/>
       <c r="V46" s="59"/>
       <c r="W46" s="59"/>
     </row>
     <row r="47" spans="1:33" ht="96">
-      <c r="B47" s="169"/>
-      <c r="C47" s="169"/>
-      <c r="D47" s="169"/>
-      <c r="E47" s="169"/>
-      <c r="F47" s="170" t="s">
+      <c r="B47" s="112"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="G47" s="169"/>
-      <c r="H47" s="169"/>
-      <c r="I47" s="169"/>
-      <c r="J47" s="171"/>
-      <c r="K47" s="171"/>
-      <c r="L47" s="171"/>
-      <c r="M47" s="169"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="114"/>
+      <c r="L47" s="114"/>
+      <c r="M47" s="112"/>
       <c r="N47" s="75" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O47" s="91"/>
       <c r="P47" s="91"/>
@@ -10132,7 +10236,7 @@
       <c r="R47" s="91"/>
       <c r="S47" s="91"/>
       <c r="T47" s="68" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="U47" s="59"/>
       <c r="V47" s="59"/>
@@ -10151,8 +10255,8 @@
       <c r="K48" s="62"/>
       <c r="L48" s="62"/>
       <c r="M48" s="59"/>
-      <c r="N48" s="173" t="s">
-        <v>161</v>
+      <c r="N48" s="116" t="s">
+        <v>158</v>
       </c>
       <c r="O48" s="63"/>
       <c r="P48" s="63"/>
@@ -10160,7 +10264,7 @@
       <c r="R48" s="63"/>
       <c r="S48" s="63"/>
       <c r="T48" s="71" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="U48" s="59"/>
       <c r="V48" s="59"/>
@@ -10179,8 +10283,8 @@
       <c r="K49" s="62"/>
       <c r="L49" s="62"/>
       <c r="M49" s="59"/>
-      <c r="N49" s="173" t="s">
-        <v>172</v>
+      <c r="N49" s="116" t="s">
+        <v>169</v>
       </c>
       <c r="O49" s="63"/>
       <c r="P49" s="63"/>
@@ -10188,7 +10292,7 @@
       <c r="R49" s="63"/>
       <c r="S49" s="63"/>
       <c r="T49" s="71" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="U49" s="59"/>
       <c r="V49" s="59"/>
@@ -10207,8 +10311,8 @@
       <c r="K50" s="62"/>
       <c r="L50" s="62"/>
       <c r="M50" s="59"/>
-      <c r="N50" s="173" t="s">
-        <v>172</v>
+      <c r="N50" s="116" t="s">
+        <v>169</v>
       </c>
       <c r="O50" s="63"/>
       <c r="P50" s="63"/>
@@ -10216,7 +10320,7 @@
       <c r="R50" s="63"/>
       <c r="S50" s="63"/>
       <c r="T50" s="71" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="U50" s="59"/>
       <c r="V50" s="59"/>
@@ -10235,8 +10339,8 @@
       <c r="K51" s="62"/>
       <c r="L51" s="62"/>
       <c r="M51" s="59"/>
-      <c r="N51" s="173" t="s">
-        <v>172</v>
+      <c r="N51" s="116" t="s">
+        <v>169</v>
       </c>
       <c r="O51" s="63"/>
       <c r="P51" s="63"/>
@@ -10244,7 +10348,7 @@
       <c r="R51" s="63"/>
       <c r="S51" s="63"/>
       <c r="T51" s="71" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="U51" s="59"/>
       <c r="V51" s="59"/>
@@ -10263,8 +10367,8 @@
       <c r="K52" s="62"/>
       <c r="L52" s="62"/>
       <c r="M52" s="59"/>
-      <c r="N52" s="173" t="s">
-        <v>172</v>
+      <c r="N52" s="116" t="s">
+        <v>169</v>
       </c>
       <c r="O52" s="63"/>
       <c r="P52" s="63"/>
@@ -10272,7 +10376,7 @@
       <c r="R52" s="63"/>
       <c r="S52" s="63"/>
       <c r="T52" s="71" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="U52" s="59"/>
       <c r="V52" s="59"/>
@@ -10291,8 +10395,8 @@
       <c r="K53" s="62"/>
       <c r="L53" s="62"/>
       <c r="M53" s="59"/>
-      <c r="N53" s="173" t="s">
-        <v>172</v>
+      <c r="N53" s="116" t="s">
+        <v>169</v>
       </c>
       <c r="O53" s="63"/>
       <c r="P53" s="63"/>
@@ -10300,7 +10404,7 @@
       <c r="R53" s="63"/>
       <c r="S53" s="63"/>
       <c r="T53" s="71" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="U53" s="59"/>
       <c r="V53" s="59"/>
@@ -10319,8 +10423,8 @@
       <c r="K54" s="62"/>
       <c r="L54" s="62"/>
       <c r="M54" s="59"/>
-      <c r="N54" s="173" t="s">
-        <v>172</v>
+      <c r="N54" s="116" t="s">
+        <v>169</v>
       </c>
       <c r="O54" s="63"/>
       <c r="P54" s="63"/>
@@ -10328,7 +10432,7 @@
       <c r="R54" s="63"/>
       <c r="S54" s="63"/>
       <c r="T54" s="71" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="U54" s="59"/>
       <c r="V54" s="59"/>
@@ -10347,8 +10451,8 @@
       <c r="K55" s="62"/>
       <c r="L55" s="62"/>
       <c r="M55" s="59"/>
-      <c r="N55" s="173" t="s">
-        <v>172</v>
+      <c r="N55" s="116" t="s">
+        <v>169</v>
       </c>
       <c r="O55" s="63"/>
       <c r="P55" s="63"/>
@@ -10356,7 +10460,7 @@
       <c r="R55" s="63"/>
       <c r="S55" s="63"/>
       <c r="T55" s="71" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="U55" s="59"/>
       <c r="V55" s="59"/>
@@ -10375,8 +10479,8 @@
       <c r="K56" s="62"/>
       <c r="L56" s="62"/>
       <c r="M56" s="59"/>
-      <c r="N56" s="173" t="s">
-        <v>172</v>
+      <c r="N56" s="116" t="s">
+        <v>169</v>
       </c>
       <c r="O56" s="63"/>
       <c r="P56" s="63"/>
@@ -10384,7 +10488,7 @@
       <c r="R56" s="63"/>
       <c r="S56" s="63"/>
       <c r="T56" s="71" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U56" s="59"/>
       <c r="V56" s="59"/>
@@ -10403,8 +10507,8 @@
       <c r="K57" s="62"/>
       <c r="L57" s="62"/>
       <c r="M57" s="59"/>
-      <c r="N57" s="173" t="s">
-        <v>172</v>
+      <c r="N57" s="116" t="s">
+        <v>169</v>
       </c>
       <c r="O57" s="63"/>
       <c r="P57" s="63"/>
@@ -10412,7 +10516,7 @@
       <c r="R57" s="63"/>
       <c r="S57" s="63"/>
       <c r="T57" s="71" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="U57" s="59"/>
       <c r="V57" s="59"/>
@@ -10738,15 +10842,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -10795,25 +10890,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10828,15 +10924,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -10849,4 +10945,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_FIXA_P1.xlsx
+++ b/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_FIXA_P1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="807" activeTab="4"/>
+    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="807" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -143,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="161">
   <si>
     <t>Schema</t>
   </si>
@@ -1133,46 +1134,6 @@
 END IF;</t>
   </si>
   <si>
-    <t>IF DATA
-ELSIF IND_FIXO_VARIAVEL = 'F' ELSIF IND_AUTORIZACAO = 2 and VALOR_FIXO &gt; 0 and IND_TIPO_SALARIO in ('H','M') Então IND_APTO_PAGAMENTO = 2</t>
-  </si>
-  <si>
-    <t>SYSDATE</t>
-  </si>
-  <si>
-    <t>DT_GERACAO</t>
-  </si>
-  <si>
-    <t>DT_LIBERACAO</t>
-  </si>
-  <si>
-    <t>DT_PROCESSAMENTO</t>
-  </si>
-  <si>
-    <t>NUM_SEQ_SOLICITACAO</t>
-  </si>
-  <si>
-    <t>NUM_SEQ_ALOCACAO</t>
-  </si>
-  <si>
-    <t>MES_ANO_ATUACAO</t>
-  </si>
-  <si>
-    <t>NUM_SEQ_FALTA</t>
-  </si>
-  <si>
-    <t>NUM_SEQ_TURMA</t>
-  </si>
-  <si>
-    <t>COD_TURMA_EXTENSAO</t>
-  </si>
-  <si>
-    <t>QTD_HORAS_TEORICO</t>
-  </si>
-  <si>
-    <t>Preencher com nulo</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Arquiteto/Designer Responsável: </t>
     </r>
@@ -1200,6 +1161,14 @@
       </rPr>
       <t xml:space="preserve"> Interface Custo de Pessoal</t>
     </r>
+  </si>
+  <si>
+    <t>IF DATA
+ELSIF IND_FIXO_VARIAVEL = 'F' 
+ELSIF IND_AUTORIZACAO = 2 
+ELSIF VALOR_FIXO &gt; 0 
+ELSIF IND_TIPO_SALARIO in ('H','M') 
+THEN IND_APTO_PAGAMENTO = 2</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2049,29 +2018,74 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2082,107 +2096,89 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2193,47 +2189,23 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2402,7 +2374,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2425,14 +2397,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2475,7 +2447,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2498,14 +2470,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2561,7 +2533,13 @@
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="1">
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+              <a:alpha val="87000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:miter lim="800000"/>
           <a:headEnd/>
           <a:tailEnd type="none" w="med" len="med"/>
@@ -2580,18 +2558,18 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18433" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2605,8 +2583,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="361950" y="161925"/>
-          <a:ext cx="6810375" cy="609600"/>
+          <a:off x="361950" y="323850"/>
+          <a:ext cx="8448675" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2939,10 +2917,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" customHeight="1">
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="123"/>
+      <c r="D2" s="112"/>
     </row>
     <row r="3" spans="2:10" ht="15">
       <c r="C3" s="17" t="s">
@@ -2959,7 +2937,7 @@
     </row>
     <row r="5" spans="2:10">
       <c r="C5" s="17" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -2980,28 +2958,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="9" spans="2:10">
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="129"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="121"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="130"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="132"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="124"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="44" t="s">
@@ -3010,17 +2988,17 @@
       <c r="C11" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="133" t="s">
+      <c r="D11" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133" t="s">
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="134"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="126"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="30" t="s">
@@ -3029,92 +3007,84 @@
       <c r="C12" s="29">
         <v>41236</v>
       </c>
-      <c r="D12" s="135" t="s">
+      <c r="D12" s="127" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="136"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="139"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="131"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="122"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="122"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="122"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="122"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="119"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="134"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="119"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3125,6 +3095,14 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3155,7 +3133,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="18">
       <c r="C2" s="17" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D2" s="24">
         <f>Identificação!D2</f>
@@ -3184,17 +3162,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="51" t="s">
@@ -3203,93 +3181,93 @@
       <c r="C7" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="142" t="s">
+      <c r="D7" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="83" t="s">
         <v>112</v>
       </c>
       <c r="C8" s="52"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="83" t="s">
         <v>118</v>
       </c>
       <c r="C9" s="52"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="83" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="52"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="83" t="s">
         <v>114</v>
       </c>
       <c r="C11" s="52"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="83" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="52"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="83" t="s">
         <v>115</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="149"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
     </row>
     <row r="14" spans="2:10" ht="13.5" thickBot="1">
       <c r="B14" s="5"/>
@@ -3303,17 +3281,17 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="143" t="s">
+      <c r="B15" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
     </row>
     <row r="16" spans="2:10" ht="23.25" customHeight="1">
       <c r="B16" s="47" t="s">
@@ -3325,44 +3303,44 @@
       <c r="D16" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="150" t="s">
+      <c r="E16" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="152"/>
-      <c r="G16" s="150" t="s">
+      <c r="F16" s="146"/>
+      <c r="G16" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="152"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="146"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="146" t="s">
+      <c r="E17" s="138" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="147"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="1"/>
       <c r="C18" s="9"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" thickBot="1">
       <c r="B19" s="2"/>
@@ -3376,11 +3354,11 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B20" s="143" t="s">
+      <c r="B20" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="46" t="s">
@@ -3404,7 +3382,7 @@
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="81" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="13"/>
@@ -3421,17 +3399,17 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B25" s="142" t="s">
+      <c r="B25" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="142"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="135"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="51" t="s">
@@ -3443,52 +3421,61 @@
       <c r="D26" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="145" t="s">
+      <c r="E26" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145" t="s">
+      <c r="F26" s="137"/>
+      <c r="G26" s="137" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="145"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="12"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="141"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="12"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="141"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="141"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D7:J7"/>
@@ -3505,15 +3492,6 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3527,7 +3505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3601,39 +3579,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="162" t="s">
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="162"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="167" t="s">
+      <c r="O2" s="161"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="168"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="158"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -5813,32 +5791,32 @@
         <v>2</v>
       </c>
       <c r="M39" s="68"/>
-      <c r="N39" s="157" t="s">
+      <c r="N39" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="O39" s="164"/>
-      <c r="P39" s="164"/>
-      <c r="Q39" s="157" t="s">
-        <v>121</v>
-      </c>
-      <c r="R39" s="157" t="s">
+      <c r="O39" s="154"/>
+      <c r="P39" s="154"/>
+      <c r="Q39" s="149" t="s">
+        <v>121</v>
+      </c>
+      <c r="R39" s="149" t="s">
         <v>122</v>
       </c>
-      <c r="S39" s="157" t="s">
+      <c r="S39" s="149" t="s">
         <v>122</v>
       </c>
-      <c r="T39" s="157" t="s">
+      <c r="T39" s="149" t="s">
         <v>109</v>
       </c>
-      <c r="U39" s="157"/>
-      <c r="V39" s="157"/>
-      <c r="W39" s="157"/>
-      <c r="X39" s="157"/>
-      <c r="Y39" s="157"/>
-      <c r="Z39" s="157"/>
-      <c r="AA39" s="157"/>
-      <c r="AB39" s="157"/>
-      <c r="AC39" s="157"/>
+      <c r="U39" s="149"/>
+      <c r="V39" s="149"/>
+      <c r="W39" s="149"/>
+      <c r="X39" s="149"/>
+      <c r="Y39" s="149"/>
+      <c r="Z39" s="149"/>
+      <c r="AA39" s="149"/>
+      <c r="AB39" s="149"/>
+      <c r="AC39" s="149"/>
     </row>
     <row r="40" spans="2:29">
       <c r="B40" s="68" t="s">
@@ -5867,22 +5845,22 @@
       <c r="K40" s="68"/>
       <c r="L40" s="68"/>
       <c r="M40" s="68"/>
-      <c r="N40" s="169"/>
-      <c r="O40" s="165"/>
-      <c r="P40" s="165"/>
-      <c r="Q40" s="158"/>
-      <c r="R40" s="158"/>
-      <c r="S40" s="158"/>
-      <c r="T40" s="158"/>
-      <c r="U40" s="158"/>
-      <c r="V40" s="158"/>
-      <c r="W40" s="158"/>
-      <c r="X40" s="158"/>
-      <c r="Y40" s="158"/>
-      <c r="Z40" s="158"/>
-      <c r="AA40" s="158"/>
-      <c r="AB40" s="158"/>
-      <c r="AC40" s="158"/>
+      <c r="N40" s="152"/>
+      <c r="O40" s="155"/>
+      <c r="P40" s="155"/>
+      <c r="Q40" s="150"/>
+      <c r="R40" s="150"/>
+      <c r="S40" s="150"/>
+      <c r="T40" s="150"/>
+      <c r="U40" s="150"/>
+      <c r="V40" s="150"/>
+      <c r="W40" s="150"/>
+      <c r="X40" s="150"/>
+      <c r="Y40" s="150"/>
+      <c r="Z40" s="150"/>
+      <c r="AA40" s="150"/>
+      <c r="AB40" s="150"/>
+      <c r="AC40" s="150"/>
     </row>
     <row r="41" spans="2:29" ht="33.75" customHeight="1">
       <c r="B41" s="68" t="s">
@@ -5911,22 +5889,22 @@
       <c r="K41" s="68"/>
       <c r="L41" s="68"/>
       <c r="M41" s="68"/>
-      <c r="N41" s="170"/>
-      <c r="O41" s="166"/>
-      <c r="P41" s="166"/>
-      <c r="Q41" s="159"/>
-      <c r="R41" s="159"/>
-      <c r="S41" s="159"/>
-      <c r="T41" s="159"/>
-      <c r="U41" s="159"/>
-      <c r="V41" s="159"/>
-      <c r="W41" s="159"/>
-      <c r="X41" s="159"/>
-      <c r="Y41" s="159"/>
-      <c r="Z41" s="159"/>
-      <c r="AA41" s="159"/>
-      <c r="AB41" s="159"/>
-      <c r="AC41" s="159"/>
+      <c r="N41" s="153"/>
+      <c r="O41" s="156"/>
+      <c r="P41" s="156"/>
+      <c r="Q41" s="151"/>
+      <c r="R41" s="151"/>
+      <c r="S41" s="151"/>
+      <c r="T41" s="151"/>
+      <c r="U41" s="151"/>
+      <c r="V41" s="151"/>
+      <c r="W41" s="151"/>
+      <c r="X41" s="151"/>
+      <c r="Y41" s="151"/>
+      <c r="Z41" s="151"/>
+      <c r="AA41" s="151"/>
+      <c r="AB41" s="151"/>
+      <c r="AC41" s="151"/>
     </row>
     <row r="42" spans="2:29">
       <c r="B42" s="84"/>
@@ -5999,32 +5977,32 @@
       </c>
       <c r="L43" s="68"/>
       <c r="M43" s="68"/>
-      <c r="N43" s="157" t="s">
+      <c r="N43" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="O43" s="164"/>
-      <c r="P43" s="164"/>
-      <c r="Q43" s="157" t="s">
-        <v>121</v>
-      </c>
-      <c r="R43" s="157" t="s">
+      <c r="O43" s="154"/>
+      <c r="P43" s="154"/>
+      <c r="Q43" s="149" t="s">
+        <v>121</v>
+      </c>
+      <c r="R43" s="149" t="s">
         <v>122</v>
       </c>
-      <c r="S43" s="157" t="s">
+      <c r="S43" s="149" t="s">
         <v>122</v>
       </c>
-      <c r="T43" s="157" t="s">
+      <c r="T43" s="149" t="s">
         <v>110</v>
       </c>
-      <c r="U43" s="157"/>
-      <c r="V43" s="157"/>
-      <c r="W43" s="157"/>
-      <c r="X43" s="157"/>
-      <c r="Y43" s="157"/>
-      <c r="Z43" s="157"/>
-      <c r="AA43" s="157"/>
-      <c r="AB43" s="157"/>
-      <c r="AC43" s="157"/>
+      <c r="U43" s="149"/>
+      <c r="V43" s="149"/>
+      <c r="W43" s="149"/>
+      <c r="X43" s="149"/>
+      <c r="Y43" s="149"/>
+      <c r="Z43" s="149"/>
+      <c r="AA43" s="149"/>
+      <c r="AB43" s="149"/>
+      <c r="AC43" s="149"/>
     </row>
     <row r="44" spans="2:29">
       <c r="B44" s="84"/>
@@ -6041,22 +6019,22 @@
       <c r="K44" s="68"/>
       <c r="L44" s="68"/>
       <c r="M44" s="68"/>
-      <c r="N44" s="158"/>
-      <c r="O44" s="165"/>
-      <c r="P44" s="165"/>
-      <c r="Q44" s="158"/>
-      <c r="R44" s="158"/>
-      <c r="S44" s="158"/>
-      <c r="T44" s="158"/>
-      <c r="U44" s="158"/>
-      <c r="V44" s="158"/>
-      <c r="W44" s="158"/>
-      <c r="X44" s="158"/>
-      <c r="Y44" s="158"/>
-      <c r="Z44" s="158"/>
-      <c r="AA44" s="158"/>
-      <c r="AB44" s="158"/>
-      <c r="AC44" s="158"/>
+      <c r="N44" s="150"/>
+      <c r="O44" s="155"/>
+      <c r="P44" s="155"/>
+      <c r="Q44" s="150"/>
+      <c r="R44" s="150"/>
+      <c r="S44" s="150"/>
+      <c r="T44" s="150"/>
+      <c r="U44" s="150"/>
+      <c r="V44" s="150"/>
+      <c r="W44" s="150"/>
+      <c r="X44" s="150"/>
+      <c r="Y44" s="150"/>
+      <c r="Z44" s="150"/>
+      <c r="AA44" s="150"/>
+      <c r="AB44" s="150"/>
+      <c r="AC44" s="150"/>
     </row>
     <row r="45" spans="2:29">
       <c r="B45" s="84"/>
@@ -6073,22 +6051,22 @@
       <c r="K45" s="68"/>
       <c r="L45" s="68"/>
       <c r="M45" s="68"/>
-      <c r="N45" s="158"/>
-      <c r="O45" s="165"/>
-      <c r="P45" s="165"/>
-      <c r="Q45" s="158"/>
-      <c r="R45" s="158"/>
-      <c r="S45" s="158"/>
-      <c r="T45" s="158"/>
-      <c r="U45" s="158"/>
-      <c r="V45" s="158"/>
-      <c r="W45" s="158"/>
-      <c r="X45" s="158"/>
-      <c r="Y45" s="158"/>
-      <c r="Z45" s="158"/>
-      <c r="AA45" s="158"/>
-      <c r="AB45" s="158"/>
-      <c r="AC45" s="158"/>
+      <c r="N45" s="150"/>
+      <c r="O45" s="155"/>
+      <c r="P45" s="155"/>
+      <c r="Q45" s="150"/>
+      <c r="R45" s="150"/>
+      <c r="S45" s="150"/>
+      <c r="T45" s="150"/>
+      <c r="U45" s="150"/>
+      <c r="V45" s="150"/>
+      <c r="W45" s="150"/>
+      <c r="X45" s="150"/>
+      <c r="Y45" s="150"/>
+      <c r="Z45" s="150"/>
+      <c r="AA45" s="150"/>
+      <c r="AB45" s="150"/>
+      <c r="AC45" s="150"/>
     </row>
     <row r="46" spans="2:29">
       <c r="B46" s="68" t="s">
@@ -6119,22 +6097,22 @@
       </c>
       <c r="L46" s="68"/>
       <c r="M46" s="68"/>
-      <c r="N46" s="158"/>
-      <c r="O46" s="165"/>
-      <c r="P46" s="165"/>
-      <c r="Q46" s="158"/>
-      <c r="R46" s="158"/>
-      <c r="S46" s="158"/>
-      <c r="T46" s="158"/>
-      <c r="U46" s="158"/>
-      <c r="V46" s="158"/>
-      <c r="W46" s="158"/>
-      <c r="X46" s="158"/>
-      <c r="Y46" s="158"/>
-      <c r="Z46" s="158"/>
-      <c r="AA46" s="158"/>
-      <c r="AB46" s="158"/>
-      <c r="AC46" s="158"/>
+      <c r="N46" s="150"/>
+      <c r="O46" s="155"/>
+      <c r="P46" s="155"/>
+      <c r="Q46" s="150"/>
+      <c r="R46" s="150"/>
+      <c r="S46" s="150"/>
+      <c r="T46" s="150"/>
+      <c r="U46" s="150"/>
+      <c r="V46" s="150"/>
+      <c r="W46" s="150"/>
+      <c r="X46" s="150"/>
+      <c r="Y46" s="150"/>
+      <c r="Z46" s="150"/>
+      <c r="AA46" s="150"/>
+      <c r="AB46" s="150"/>
+      <c r="AC46" s="150"/>
     </row>
     <row r="47" spans="2:29">
       <c r="B47" s="68" t="s">
@@ -6165,22 +6143,22 @@
       </c>
       <c r="L47" s="68"/>
       <c r="M47" s="68"/>
-      <c r="N47" s="158"/>
-      <c r="O47" s="165"/>
-      <c r="P47" s="165"/>
-      <c r="Q47" s="158"/>
-      <c r="R47" s="158"/>
-      <c r="S47" s="158"/>
-      <c r="T47" s="158"/>
-      <c r="U47" s="158"/>
-      <c r="V47" s="158"/>
-      <c r="W47" s="158"/>
-      <c r="X47" s="158"/>
-      <c r="Y47" s="158"/>
-      <c r="Z47" s="158"/>
-      <c r="AA47" s="158"/>
-      <c r="AB47" s="158"/>
-      <c r="AC47" s="158"/>
+      <c r="N47" s="150"/>
+      <c r="O47" s="155"/>
+      <c r="P47" s="155"/>
+      <c r="Q47" s="150"/>
+      <c r="R47" s="150"/>
+      <c r="S47" s="150"/>
+      <c r="T47" s="150"/>
+      <c r="U47" s="150"/>
+      <c r="V47" s="150"/>
+      <c r="W47" s="150"/>
+      <c r="X47" s="150"/>
+      <c r="Y47" s="150"/>
+      <c r="Z47" s="150"/>
+      <c r="AA47" s="150"/>
+      <c r="AB47" s="150"/>
+      <c r="AC47" s="150"/>
     </row>
     <row r="48" spans="2:29">
       <c r="B48" s="84"/>
@@ -6203,22 +6181,22 @@
       </c>
       <c r="L48" s="68"/>
       <c r="M48" s="68"/>
-      <c r="N48" s="158"/>
-      <c r="O48" s="165"/>
-      <c r="P48" s="165"/>
-      <c r="Q48" s="158"/>
-      <c r="R48" s="158"/>
-      <c r="S48" s="158"/>
-      <c r="T48" s="158"/>
-      <c r="U48" s="158"/>
-      <c r="V48" s="158"/>
-      <c r="W48" s="158"/>
-      <c r="X48" s="158"/>
-      <c r="Y48" s="158"/>
-      <c r="Z48" s="158"/>
-      <c r="AA48" s="158"/>
-      <c r="AB48" s="158"/>
-      <c r="AC48" s="158"/>
+      <c r="N48" s="150"/>
+      <c r="O48" s="155"/>
+      <c r="P48" s="155"/>
+      <c r="Q48" s="150"/>
+      <c r="R48" s="150"/>
+      <c r="S48" s="150"/>
+      <c r="T48" s="150"/>
+      <c r="U48" s="150"/>
+      <c r="V48" s="150"/>
+      <c r="W48" s="150"/>
+      <c r="X48" s="150"/>
+      <c r="Y48" s="150"/>
+      <c r="Z48" s="150"/>
+      <c r="AA48" s="150"/>
+      <c r="AB48" s="150"/>
+      <c r="AC48" s="150"/>
     </row>
     <row r="49" spans="2:29">
       <c r="B49" s="68" t="s">
@@ -6249,22 +6227,22 @@
       </c>
       <c r="L49" s="68"/>
       <c r="M49" s="68"/>
-      <c r="N49" s="158"/>
-      <c r="O49" s="165"/>
-      <c r="P49" s="165"/>
-      <c r="Q49" s="158"/>
-      <c r="R49" s="158"/>
-      <c r="S49" s="158"/>
-      <c r="T49" s="158"/>
-      <c r="U49" s="158"/>
-      <c r="V49" s="158"/>
-      <c r="W49" s="158"/>
-      <c r="X49" s="158"/>
-      <c r="Y49" s="158"/>
-      <c r="Z49" s="158"/>
-      <c r="AA49" s="158"/>
-      <c r="AB49" s="158"/>
-      <c r="AC49" s="158"/>
+      <c r="N49" s="150"/>
+      <c r="O49" s="155"/>
+      <c r="P49" s="155"/>
+      <c r="Q49" s="150"/>
+      <c r="R49" s="150"/>
+      <c r="S49" s="150"/>
+      <c r="T49" s="150"/>
+      <c r="U49" s="150"/>
+      <c r="V49" s="150"/>
+      <c r="W49" s="150"/>
+      <c r="X49" s="150"/>
+      <c r="Y49" s="150"/>
+      <c r="Z49" s="150"/>
+      <c r="AA49" s="150"/>
+      <c r="AB49" s="150"/>
+      <c r="AC49" s="150"/>
     </row>
     <row r="50" spans="2:29">
       <c r="B50" s="68" t="s">
@@ -6295,22 +6273,22 @@
       </c>
       <c r="L50" s="68"/>
       <c r="M50" s="68"/>
-      <c r="N50" s="158"/>
-      <c r="O50" s="165"/>
-      <c r="P50" s="165"/>
-      <c r="Q50" s="158"/>
-      <c r="R50" s="158"/>
-      <c r="S50" s="158"/>
-      <c r="T50" s="158"/>
-      <c r="U50" s="158"/>
-      <c r="V50" s="158"/>
-      <c r="W50" s="158"/>
-      <c r="X50" s="158"/>
-      <c r="Y50" s="158"/>
-      <c r="Z50" s="158"/>
-      <c r="AA50" s="158"/>
-      <c r="AB50" s="158"/>
-      <c r="AC50" s="158"/>
+      <c r="N50" s="150"/>
+      <c r="O50" s="155"/>
+      <c r="P50" s="155"/>
+      <c r="Q50" s="150"/>
+      <c r="R50" s="150"/>
+      <c r="S50" s="150"/>
+      <c r="T50" s="150"/>
+      <c r="U50" s="150"/>
+      <c r="V50" s="150"/>
+      <c r="W50" s="150"/>
+      <c r="X50" s="150"/>
+      <c r="Y50" s="150"/>
+      <c r="Z50" s="150"/>
+      <c r="AA50" s="150"/>
+      <c r="AB50" s="150"/>
+      <c r="AC50" s="150"/>
     </row>
     <row r="51" spans="2:29">
       <c r="B51" s="68" t="s">
@@ -6341,22 +6319,22 @@
       </c>
       <c r="L51" s="68"/>
       <c r="M51" s="68"/>
-      <c r="N51" s="158"/>
-      <c r="O51" s="165"/>
-      <c r="P51" s="165"/>
-      <c r="Q51" s="158"/>
-      <c r="R51" s="158"/>
-      <c r="S51" s="158"/>
-      <c r="T51" s="158"/>
-      <c r="U51" s="158"/>
-      <c r="V51" s="158"/>
-      <c r="W51" s="158"/>
-      <c r="X51" s="158"/>
-      <c r="Y51" s="158"/>
-      <c r="Z51" s="158"/>
-      <c r="AA51" s="158"/>
-      <c r="AB51" s="158"/>
-      <c r="AC51" s="158"/>
+      <c r="N51" s="150"/>
+      <c r="O51" s="155"/>
+      <c r="P51" s="155"/>
+      <c r="Q51" s="150"/>
+      <c r="R51" s="150"/>
+      <c r="S51" s="150"/>
+      <c r="T51" s="150"/>
+      <c r="U51" s="150"/>
+      <c r="V51" s="150"/>
+      <c r="W51" s="150"/>
+      <c r="X51" s="150"/>
+      <c r="Y51" s="150"/>
+      <c r="Z51" s="150"/>
+      <c r="AA51" s="150"/>
+      <c r="AB51" s="150"/>
+      <c r="AC51" s="150"/>
     </row>
     <row r="52" spans="2:29">
       <c r="B52" s="68" t="s">
@@ -6387,22 +6365,22 @@
       </c>
       <c r="L52" s="68"/>
       <c r="M52" s="68"/>
-      <c r="N52" s="158"/>
-      <c r="O52" s="165"/>
-      <c r="P52" s="165"/>
-      <c r="Q52" s="158"/>
-      <c r="R52" s="158"/>
-      <c r="S52" s="158"/>
-      <c r="T52" s="158"/>
-      <c r="U52" s="158"/>
-      <c r="V52" s="158"/>
-      <c r="W52" s="158"/>
-      <c r="X52" s="158"/>
-      <c r="Y52" s="158"/>
-      <c r="Z52" s="158"/>
-      <c r="AA52" s="158"/>
-      <c r="AB52" s="158"/>
-      <c r="AC52" s="158"/>
+      <c r="N52" s="150"/>
+      <c r="O52" s="155"/>
+      <c r="P52" s="155"/>
+      <c r="Q52" s="150"/>
+      <c r="R52" s="150"/>
+      <c r="S52" s="150"/>
+      <c r="T52" s="150"/>
+      <c r="U52" s="150"/>
+      <c r="V52" s="150"/>
+      <c r="W52" s="150"/>
+      <c r="X52" s="150"/>
+      <c r="Y52" s="150"/>
+      <c r="Z52" s="150"/>
+      <c r="AA52" s="150"/>
+      <c r="AB52" s="150"/>
+      <c r="AC52" s="150"/>
     </row>
     <row r="53" spans="2:29">
       <c r="B53" s="68" t="s">
@@ -6433,22 +6411,22 @@
       </c>
       <c r="L53" s="68"/>
       <c r="M53" s="68"/>
-      <c r="N53" s="159"/>
-      <c r="O53" s="166"/>
-      <c r="P53" s="166"/>
-      <c r="Q53" s="159"/>
-      <c r="R53" s="159"/>
-      <c r="S53" s="159"/>
-      <c r="T53" s="159"/>
-      <c r="U53" s="159"/>
-      <c r="V53" s="159"/>
-      <c r="W53" s="159"/>
-      <c r="X53" s="159"/>
-      <c r="Y53" s="159"/>
-      <c r="Z53" s="159"/>
-      <c r="AA53" s="159"/>
-      <c r="AB53" s="159"/>
-      <c r="AC53" s="159"/>
+      <c r="N53" s="151"/>
+      <c r="O53" s="156"/>
+      <c r="P53" s="156"/>
+      <c r="Q53" s="151"/>
+      <c r="R53" s="151"/>
+      <c r="S53" s="151"/>
+      <c r="T53" s="151"/>
+      <c r="U53" s="151"/>
+      <c r="V53" s="151"/>
+      <c r="W53" s="151"/>
+      <c r="X53" s="151"/>
+      <c r="Y53" s="151"/>
+      <c r="Z53" s="151"/>
+      <c r="AA53" s="151"/>
+      <c r="AB53" s="151"/>
+      <c r="AC53" s="151"/>
     </row>
     <row r="54" spans="2:29">
       <c r="B54" s="68" t="s">
@@ -6479,32 +6457,32 @@
       </c>
       <c r="L54" s="68"/>
       <c r="M54" s="68"/>
-      <c r="N54" s="157" t="s">
+      <c r="N54" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="O54" s="164"/>
-      <c r="P54" s="164"/>
-      <c r="Q54" s="157" t="s">
-        <v>121</v>
-      </c>
-      <c r="R54" s="157" t="s">
+      <c r="O54" s="154"/>
+      <c r="P54" s="154"/>
+      <c r="Q54" s="149" t="s">
+        <v>121</v>
+      </c>
+      <c r="R54" s="149" t="s">
         <v>122</v>
       </c>
-      <c r="S54" s="157" t="s">
+      <c r="S54" s="149" t="s">
         <v>122</v>
       </c>
-      <c r="T54" s="157" t="s">
+      <c r="T54" s="149" t="s">
         <v>111</v>
       </c>
-      <c r="U54" s="154"/>
-      <c r="V54" s="154"/>
-      <c r="W54" s="154"/>
-      <c r="X54" s="154"/>
-      <c r="Y54" s="154"/>
-      <c r="Z54" s="154"/>
-      <c r="AA54" s="154"/>
-      <c r="AB54" s="154"/>
-      <c r="AC54" s="154"/>
+      <c r="U54" s="163"/>
+      <c r="V54" s="163"/>
+      <c r="W54" s="163"/>
+      <c r="X54" s="163"/>
+      <c r="Y54" s="163"/>
+      <c r="Z54" s="163"/>
+      <c r="AA54" s="163"/>
+      <c r="AB54" s="163"/>
+      <c r="AC54" s="163"/>
     </row>
     <row r="55" spans="2:29">
       <c r="B55" s="68" t="s">
@@ -6535,22 +6513,22 @@
       </c>
       <c r="L55" s="68"/>
       <c r="M55" s="68"/>
-      <c r="N55" s="158"/>
-      <c r="O55" s="165"/>
-      <c r="P55" s="165"/>
-      <c r="Q55" s="158"/>
-      <c r="R55" s="158"/>
-      <c r="S55" s="158"/>
-      <c r="T55" s="158"/>
-      <c r="U55" s="155"/>
-      <c r="V55" s="155"/>
-      <c r="W55" s="155"/>
-      <c r="X55" s="155"/>
-      <c r="Y55" s="155"/>
-      <c r="Z55" s="155"/>
-      <c r="AA55" s="155"/>
-      <c r="AB55" s="155"/>
-      <c r="AC55" s="155"/>
+      <c r="N55" s="150"/>
+      <c r="O55" s="155"/>
+      <c r="P55" s="155"/>
+      <c r="Q55" s="150"/>
+      <c r="R55" s="150"/>
+      <c r="S55" s="150"/>
+      <c r="T55" s="150"/>
+      <c r="U55" s="164"/>
+      <c r="V55" s="164"/>
+      <c r="W55" s="164"/>
+      <c r="X55" s="164"/>
+      <c r="Y55" s="164"/>
+      <c r="Z55" s="164"/>
+      <c r="AA55" s="164"/>
+      <c r="AB55" s="164"/>
+      <c r="AC55" s="164"/>
     </row>
     <row r="56" spans="2:29">
       <c r="B56" s="68" t="s">
@@ -6581,22 +6559,22 @@
       </c>
       <c r="L56" s="68"/>
       <c r="M56" s="68"/>
-      <c r="N56" s="158"/>
-      <c r="O56" s="165"/>
-      <c r="P56" s="165"/>
-      <c r="Q56" s="158"/>
-      <c r="R56" s="158"/>
-      <c r="S56" s="158"/>
-      <c r="T56" s="158"/>
-      <c r="U56" s="155"/>
-      <c r="V56" s="155"/>
-      <c r="W56" s="155"/>
-      <c r="X56" s="155"/>
-      <c r="Y56" s="155"/>
-      <c r="Z56" s="155"/>
-      <c r="AA56" s="155"/>
-      <c r="AB56" s="155"/>
-      <c r="AC56" s="155"/>
+      <c r="N56" s="150"/>
+      <c r="O56" s="155"/>
+      <c r="P56" s="155"/>
+      <c r="Q56" s="150"/>
+      <c r="R56" s="150"/>
+      <c r="S56" s="150"/>
+      <c r="T56" s="150"/>
+      <c r="U56" s="164"/>
+      <c r="V56" s="164"/>
+      <c r="W56" s="164"/>
+      <c r="X56" s="164"/>
+      <c r="Y56" s="164"/>
+      <c r="Z56" s="164"/>
+      <c r="AA56" s="164"/>
+      <c r="AB56" s="164"/>
+      <c r="AC56" s="164"/>
     </row>
     <row r="57" spans="2:29">
       <c r="B57" s="84"/>
@@ -6619,22 +6597,22 @@
       </c>
       <c r="L57" s="68"/>
       <c r="M57" s="68"/>
-      <c r="N57" s="158"/>
-      <c r="O57" s="165"/>
-      <c r="P57" s="165"/>
-      <c r="Q57" s="158"/>
-      <c r="R57" s="158"/>
-      <c r="S57" s="158"/>
-      <c r="T57" s="158"/>
-      <c r="U57" s="155"/>
-      <c r="V57" s="155"/>
-      <c r="W57" s="155"/>
-      <c r="X57" s="155"/>
-      <c r="Y57" s="155"/>
-      <c r="Z57" s="155"/>
-      <c r="AA57" s="155"/>
-      <c r="AB57" s="155"/>
-      <c r="AC57" s="155"/>
+      <c r="N57" s="150"/>
+      <c r="O57" s="155"/>
+      <c r="P57" s="155"/>
+      <c r="Q57" s="150"/>
+      <c r="R57" s="150"/>
+      <c r="S57" s="150"/>
+      <c r="T57" s="150"/>
+      <c r="U57" s="164"/>
+      <c r="V57" s="164"/>
+      <c r="W57" s="164"/>
+      <c r="X57" s="164"/>
+      <c r="Y57" s="164"/>
+      <c r="Z57" s="164"/>
+      <c r="AA57" s="164"/>
+      <c r="AB57" s="164"/>
+      <c r="AC57" s="164"/>
     </row>
     <row r="58" spans="2:29">
       <c r="B58" s="68" t="s">
@@ -6665,22 +6643,22 @@
       </c>
       <c r="L58" s="68"/>
       <c r="M58" s="68"/>
-      <c r="N58" s="158"/>
-      <c r="O58" s="165"/>
-      <c r="P58" s="165"/>
-      <c r="Q58" s="158"/>
-      <c r="R58" s="158"/>
-      <c r="S58" s="158"/>
-      <c r="T58" s="158"/>
-      <c r="U58" s="155"/>
-      <c r="V58" s="155"/>
-      <c r="W58" s="155"/>
-      <c r="X58" s="155"/>
-      <c r="Y58" s="155"/>
-      <c r="Z58" s="155"/>
-      <c r="AA58" s="155"/>
-      <c r="AB58" s="155"/>
-      <c r="AC58" s="155"/>
+      <c r="N58" s="150"/>
+      <c r="O58" s="155"/>
+      <c r="P58" s="155"/>
+      <c r="Q58" s="150"/>
+      <c r="R58" s="150"/>
+      <c r="S58" s="150"/>
+      <c r="T58" s="150"/>
+      <c r="U58" s="164"/>
+      <c r="V58" s="164"/>
+      <c r="W58" s="164"/>
+      <c r="X58" s="164"/>
+      <c r="Y58" s="164"/>
+      <c r="Z58" s="164"/>
+      <c r="AA58" s="164"/>
+      <c r="AB58" s="164"/>
+      <c r="AC58" s="164"/>
     </row>
     <row r="59" spans="2:29">
       <c r="B59" s="84"/>
@@ -6703,22 +6681,22 @@
       </c>
       <c r="L59" s="68"/>
       <c r="M59" s="68"/>
-      <c r="N59" s="158"/>
-      <c r="O59" s="165"/>
-      <c r="P59" s="165"/>
-      <c r="Q59" s="158"/>
-      <c r="R59" s="158"/>
-      <c r="S59" s="158"/>
-      <c r="T59" s="158"/>
-      <c r="U59" s="155"/>
-      <c r="V59" s="155"/>
-      <c r="W59" s="155"/>
-      <c r="X59" s="155"/>
-      <c r="Y59" s="155"/>
-      <c r="Z59" s="155"/>
-      <c r="AA59" s="155"/>
-      <c r="AB59" s="155"/>
-      <c r="AC59" s="155"/>
+      <c r="N59" s="150"/>
+      <c r="O59" s="155"/>
+      <c r="P59" s="155"/>
+      <c r="Q59" s="150"/>
+      <c r="R59" s="150"/>
+      <c r="S59" s="150"/>
+      <c r="T59" s="150"/>
+      <c r="U59" s="164"/>
+      <c r="V59" s="164"/>
+      <c r="W59" s="164"/>
+      <c r="X59" s="164"/>
+      <c r="Y59" s="164"/>
+      <c r="Z59" s="164"/>
+      <c r="AA59" s="164"/>
+      <c r="AB59" s="164"/>
+      <c r="AC59" s="164"/>
     </row>
     <row r="60" spans="2:29">
       <c r="B60" s="68" t="s">
@@ -6749,22 +6727,22 @@
       </c>
       <c r="L60" s="68"/>
       <c r="M60" s="68"/>
-      <c r="N60" s="158"/>
-      <c r="O60" s="165"/>
-      <c r="P60" s="165"/>
-      <c r="Q60" s="158"/>
-      <c r="R60" s="158"/>
-      <c r="S60" s="158"/>
-      <c r="T60" s="158"/>
-      <c r="U60" s="155"/>
-      <c r="V60" s="155"/>
-      <c r="W60" s="155"/>
-      <c r="X60" s="155"/>
-      <c r="Y60" s="155"/>
-      <c r="Z60" s="155"/>
-      <c r="AA60" s="155"/>
-      <c r="AB60" s="155"/>
-      <c r="AC60" s="155"/>
+      <c r="N60" s="150"/>
+      <c r="O60" s="155"/>
+      <c r="P60" s="155"/>
+      <c r="Q60" s="150"/>
+      <c r="R60" s="150"/>
+      <c r="S60" s="150"/>
+      <c r="T60" s="150"/>
+      <c r="U60" s="164"/>
+      <c r="V60" s="164"/>
+      <c r="W60" s="164"/>
+      <c r="X60" s="164"/>
+      <c r="Y60" s="164"/>
+      <c r="Z60" s="164"/>
+      <c r="AA60" s="164"/>
+      <c r="AB60" s="164"/>
+      <c r="AC60" s="164"/>
     </row>
     <row r="61" spans="2:29">
       <c r="B61" s="68" t="s">
@@ -6795,22 +6773,22 @@
       </c>
       <c r="L61" s="68"/>
       <c r="M61" s="68"/>
-      <c r="N61" s="159"/>
-      <c r="O61" s="166"/>
-      <c r="P61" s="166"/>
-      <c r="Q61" s="159"/>
-      <c r="R61" s="159"/>
-      <c r="S61" s="159"/>
-      <c r="T61" s="159"/>
-      <c r="U61" s="156"/>
-      <c r="V61" s="156"/>
-      <c r="W61" s="156"/>
-      <c r="X61" s="156"/>
-      <c r="Y61" s="156"/>
-      <c r="Z61" s="156"/>
-      <c r="AA61" s="156"/>
-      <c r="AB61" s="156"/>
-      <c r="AC61" s="156"/>
+      <c r="N61" s="151"/>
+      <c r="O61" s="156"/>
+      <c r="P61" s="156"/>
+      <c r="Q61" s="151"/>
+      <c r="R61" s="151"/>
+      <c r="S61" s="151"/>
+      <c r="T61" s="151"/>
+      <c r="U61" s="165"/>
+      <c r="V61" s="165"/>
+      <c r="W61" s="165"/>
+      <c r="X61" s="165"/>
+      <c r="Y61" s="165"/>
+      <c r="Z61" s="165"/>
+      <c r="AA61" s="165"/>
+      <c r="AB61" s="165"/>
+      <c r="AC61" s="165"/>
     </row>
     <row r="62" spans="2:29">
       <c r="B62" s="84"/>
@@ -7749,23 +7727,24 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="AC39:AC41"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="P39:P41"/>
-    <mergeCell ref="O39:O41"/>
-    <mergeCell ref="R39:R41"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="U39:U41"/>
-    <mergeCell ref="V39:V41"/>
-    <mergeCell ref="Q39:Q41"/>
-    <mergeCell ref="T39:T41"/>
-    <mergeCell ref="S39:S41"/>
-    <mergeCell ref="W39:W41"/>
-    <mergeCell ref="X39:X41"/>
-    <mergeCell ref="Y39:Y41"/>
-    <mergeCell ref="Z39:Z41"/>
-    <mergeCell ref="AA39:AA41"/>
-    <mergeCell ref="AB39:AB41"/>
+    <mergeCell ref="AA54:AA61"/>
+    <mergeCell ref="AB54:AB61"/>
+    <mergeCell ref="AC54:AC61"/>
+    <mergeCell ref="Y43:Y53"/>
+    <mergeCell ref="Z43:Z53"/>
+    <mergeCell ref="AA43:AA53"/>
+    <mergeCell ref="AB43:AB53"/>
+    <mergeCell ref="AC43:AC53"/>
+    <mergeCell ref="Z54:Z61"/>
+    <mergeCell ref="Y54:Y61"/>
+    <mergeCell ref="U43:U53"/>
+    <mergeCell ref="V43:V53"/>
+    <mergeCell ref="W43:W53"/>
+    <mergeCell ref="X43:X53"/>
+    <mergeCell ref="U54:U61"/>
+    <mergeCell ref="V54:V61"/>
+    <mergeCell ref="W54:W61"/>
+    <mergeCell ref="X54:X61"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q54:Q61"/>
@@ -7782,24 +7761,23 @@
     <mergeCell ref="P54:P61"/>
     <mergeCell ref="O54:O61"/>
     <mergeCell ref="N54:N61"/>
-    <mergeCell ref="U43:U53"/>
-    <mergeCell ref="V43:V53"/>
-    <mergeCell ref="W43:W53"/>
-    <mergeCell ref="X43:X53"/>
-    <mergeCell ref="U54:U61"/>
-    <mergeCell ref="V54:V61"/>
-    <mergeCell ref="W54:W61"/>
-    <mergeCell ref="X54:X61"/>
-    <mergeCell ref="AA54:AA61"/>
-    <mergeCell ref="AB54:AB61"/>
-    <mergeCell ref="AC54:AC61"/>
-    <mergeCell ref="Y43:Y53"/>
-    <mergeCell ref="Z43:Z53"/>
-    <mergeCell ref="AA43:AA53"/>
-    <mergeCell ref="AB43:AB53"/>
-    <mergeCell ref="AC43:AC53"/>
-    <mergeCell ref="Z54:Z61"/>
-    <mergeCell ref="Y54:Y61"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="V39:V41"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="T39:T41"/>
+    <mergeCell ref="S39:S41"/>
+    <mergeCell ref="W39:W41"/>
+    <mergeCell ref="X39:X41"/>
+    <mergeCell ref="Y39:Y41"/>
+    <mergeCell ref="Z39:Z41"/>
+    <mergeCell ref="AA39:AA41"/>
+    <mergeCell ref="AB39:AB41"/>
+    <mergeCell ref="AC39:AC41"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="R39:R41"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7812,9 +7790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -7831,20 +7807,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG59"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D24" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N48" sqref="N48:N57"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="53" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="53" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="28.85546875" style="53" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" style="2" hidden="1" customWidth="1"/>
@@ -7857,8 +7833,7 @@
     <col min="15" max="15" width="18.85546875" style="54" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="24.7109375" style="54" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="54" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" style="54" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.28515625" style="54" customWidth="1"/>
+    <col min="18" max="19" width="23.42578125" style="54" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="28.85546875" style="54" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22.140625" style="2" customWidth="1"/>
     <col min="22" max="22" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -7883,39 +7858,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="162" t="s">
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="162"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="167" t="s">
+      <c r="O2" s="161"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="168"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="158"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -8012,7 +7987,7 @@
         <v>121</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="E4" s="67"/>
       <c r="F4" s="68" t="s">
@@ -8036,10 +8011,10 @@
         <v>121</v>
       </c>
       <c r="R4" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S4" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T4" s="68" t="s">
         <v>75</v>
@@ -8065,7 +8040,9 @@
       <c r="C5" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="67"/>
+      <c r="D5" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E5" s="67"/>
       <c r="F5" s="68" t="s">
         <v>76</v>
@@ -8088,10 +8065,10 @@
         <v>121</v>
       </c>
       <c r="R5" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S5" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T5" s="68" t="s">
         <v>76</v>
@@ -8117,7 +8094,9 @@
       <c r="C6" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="67"/>
+      <c r="D6" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E6" s="67"/>
       <c r="F6" s="68" t="s">
         <v>77</v>
@@ -8140,10 +8119,10 @@
         <v>121</v>
       </c>
       <c r="R6" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S6" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T6" s="68" t="s">
         <v>77</v>
@@ -8169,7 +8148,9 @@
       <c r="C7" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="67"/>
+      <c r="D7" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E7" s="67"/>
       <c r="F7" s="68" t="s">
         <v>78</v>
@@ -8190,10 +8171,10 @@
         <v>121</v>
       </c>
       <c r="R7" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S7" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T7" s="68" t="s">
         <v>78</v>
@@ -8217,7 +8198,9 @@
       <c r="C8" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="67"/>
+      <c r="D8" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E8" s="67"/>
       <c r="F8" s="68" t="s">
         <v>79</v>
@@ -8238,10 +8221,10 @@
         <v>121</v>
       </c>
       <c r="R8" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S8" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T8" s="68" t="s">
         <v>79</v>
@@ -8265,7 +8248,9 @@
       <c r="C9" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="67"/>
+      <c r="D9" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E9" s="67"/>
       <c r="F9" s="68" t="s">
         <v>80</v>
@@ -8288,10 +8273,10 @@
         <v>121</v>
       </c>
       <c r="R9" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S9" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T9" s="68" t="s">
         <v>80</v>
@@ -8317,7 +8302,9 @@
       <c r="C10" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="72"/>
+      <c r="D10" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E10" s="72"/>
       <c r="F10" s="68" t="s">
         <v>81</v>
@@ -8340,10 +8327,10 @@
         <v>121</v>
       </c>
       <c r="R10" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S10" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T10" s="68" t="s">
         <v>81</v>
@@ -8369,7 +8356,9 @@
       <c r="C11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="67"/>
+      <c r="D11" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E11" s="67"/>
       <c r="F11" s="68" t="s">
         <v>82</v>
@@ -8392,10 +8381,10 @@
         <v>121</v>
       </c>
       <c r="R11" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S11" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T11" s="68" t="s">
         <v>82</v>
@@ -8421,7 +8410,9 @@
       <c r="C12" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="71"/>
+      <c r="D12" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E12" s="68"/>
       <c r="F12" s="68" t="s">
         <v>83</v>
@@ -8444,10 +8435,10 @@
         <v>121</v>
       </c>
       <c r="R12" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S12" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T12" s="68" t="s">
         <v>83</v>
@@ -8473,7 +8464,9 @@
       <c r="C13" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="67"/>
+      <c r="D13" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E13" s="67"/>
       <c r="F13" s="68" t="s">
         <v>84</v>
@@ -8498,10 +8491,10 @@
         <v>121</v>
       </c>
       <c r="R13" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S13" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T13" s="68" t="s">
         <v>84</v>
@@ -8529,7 +8522,9 @@
       <c r="C14" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="71"/>
+      <c r="D14" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E14" s="68"/>
       <c r="F14" s="68" t="s">
         <v>85</v>
@@ -8554,10 +8549,10 @@
         <v>121</v>
       </c>
       <c r="R14" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S14" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T14" s="68" t="s">
         <v>85</v>
@@ -8585,7 +8580,9 @@
       <c r="C15" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="71"/>
+      <c r="D15" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E15" s="68"/>
       <c r="F15" s="68" t="s">
         <v>86</v>
@@ -8610,10 +8607,10 @@
         <v>121</v>
       </c>
       <c r="R15" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S15" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T15" s="68" t="s">
         <v>86</v>
@@ -8641,7 +8638,9 @@
       <c r="C16" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="68"/>
+      <c r="D16" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E16" s="68"/>
       <c r="F16" s="68" t="s">
         <v>87</v>
@@ -8664,10 +8663,10 @@
         <v>121</v>
       </c>
       <c r="R16" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S16" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T16" s="68" t="s">
         <v>87</v>
@@ -8693,7 +8692,9 @@
       <c r="C17" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="68"/>
+      <c r="D17" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E17" s="68"/>
       <c r="F17" s="68" t="s">
         <v>88</v>
@@ -8716,10 +8717,10 @@
         <v>121</v>
       </c>
       <c r="R17" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S17" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T17" s="68" t="s">
         <v>88</v>
@@ -8745,7 +8746,9 @@
       <c r="C18" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="68"/>
+      <c r="D18" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E18" s="68"/>
       <c r="F18" s="68" t="s">
         <v>89</v>
@@ -8768,10 +8771,10 @@
         <v>121</v>
       </c>
       <c r="R18" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S18" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T18" s="68" t="s">
         <v>89</v>
@@ -8797,7 +8800,9 @@
       <c r="C19" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="68"/>
+      <c r="D19" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E19" s="68"/>
       <c r="F19" s="68" t="s">
         <v>90</v>
@@ -8818,10 +8823,10 @@
         <v>121</v>
       </c>
       <c r="R19" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S19" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T19" s="68" t="s">
         <v>90</v>
@@ -8845,7 +8850,9 @@
       <c r="C20" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="68"/>
+      <c r="D20" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E20" s="68"/>
       <c r="F20" s="68" t="s">
         <v>91</v>
@@ -8868,10 +8875,10 @@
         <v>121</v>
       </c>
       <c r="R20" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S20" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T20" s="68" t="s">
         <v>91</v>
@@ -8897,7 +8904,9 @@
       <c r="C21" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="68"/>
+      <c r="D21" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E21" s="68"/>
       <c r="F21" s="68" t="s">
         <v>92</v>
@@ -8920,10 +8929,10 @@
         <v>121</v>
       </c>
       <c r="R21" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S21" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T21" s="68" t="s">
         <v>92</v>
@@ -8949,7 +8958,9 @@
       <c r="C22" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="68"/>
+      <c r="D22" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E22" s="68"/>
       <c r="F22" s="68" t="s">
         <v>93</v>
@@ -8972,10 +8983,10 @@
         <v>121</v>
       </c>
       <c r="R22" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S22" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T22" s="68" t="s">
         <v>93</v>
@@ -9001,7 +9012,9 @@
       <c r="C23" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="68"/>
+      <c r="D23" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E23" s="68"/>
       <c r="F23" s="68" t="s">
         <v>94</v>
@@ -9024,10 +9037,10 @@
         <v>121</v>
       </c>
       <c r="R23" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S23" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T23" s="68" t="s">
         <v>94</v>
@@ -9053,7 +9066,9 @@
       <c r="C24" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="72"/>
+      <c r="D24" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E24" s="72"/>
       <c r="F24" s="68" t="s">
         <v>95</v>
@@ -9076,10 +9091,10 @@
         <v>121</v>
       </c>
       <c r="R24" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S24" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T24" s="68" t="s">
         <v>95</v>
@@ -9105,7 +9120,9 @@
       <c r="C25" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="68"/>
+      <c r="D25" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E25" s="68"/>
       <c r="F25" s="68" t="s">
         <v>96</v>
@@ -9128,10 +9145,10 @@
         <v>121</v>
       </c>
       <c r="R25" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S25" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T25" s="68" t="s">
         <v>96</v>
@@ -9157,7 +9174,9 @@
       <c r="C26" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="68"/>
+      <c r="D26" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E26" s="68"/>
       <c r="F26" s="68" t="s">
         <v>97</v>
@@ -9180,10 +9199,10 @@
         <v>121</v>
       </c>
       <c r="R26" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S26" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T26" s="68" t="s">
         <v>97</v>
@@ -9209,7 +9228,9 @@
       <c r="C27" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="68"/>
+      <c r="D27" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E27" s="68"/>
       <c r="F27" s="68" t="s">
         <v>98</v>
@@ -9232,10 +9253,10 @@
         <v>121</v>
       </c>
       <c r="R27" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S27" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T27" s="68" t="s">
         <v>98</v>
@@ -9261,7 +9282,9 @@
       <c r="C28" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="67"/>
+      <c r="D28" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E28" s="67"/>
       <c r="F28" s="68" t="s">
         <v>99</v>
@@ -9284,10 +9307,10 @@
         <v>121</v>
       </c>
       <c r="R28" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S28" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T28" s="68" t="s">
         <v>99</v>
@@ -9313,7 +9336,9 @@
       <c r="C29" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="67"/>
+      <c r="D29" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E29" s="67"/>
       <c r="F29" s="68" t="s">
         <v>100</v>
@@ -9336,10 +9361,10 @@
         <v>121</v>
       </c>
       <c r="R29" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S29" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T29" s="68" t="s">
         <v>100</v>
@@ -9365,7 +9390,9 @@
       <c r="C30" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="67"/>
+      <c r="D30" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E30" s="67"/>
       <c r="F30" s="68" t="s">
         <v>101</v>
@@ -9388,10 +9415,10 @@
         <v>121</v>
       </c>
       <c r="R30" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S30" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T30" s="68" t="s">
         <v>101</v>
@@ -9417,7 +9444,9 @@
       <c r="C31" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="67"/>
+      <c r="D31" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E31" s="67"/>
       <c r="F31" s="68" t="s">
         <v>102</v>
@@ -9442,10 +9471,10 @@
         <v>121</v>
       </c>
       <c r="R31" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S31" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T31" s="68" t="s">
         <v>102</v>
@@ -9473,7 +9502,9 @@
       <c r="C32" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="67"/>
+      <c r="D32" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E32" s="67"/>
       <c r="F32" s="68" t="s">
         <v>103</v>
@@ -9496,10 +9527,10 @@
         <v>121</v>
       </c>
       <c r="R32" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S32" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T32" s="68" t="s">
         <v>103</v>
@@ -9525,7 +9556,9 @@
       <c r="C33" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="68"/>
+      <c r="D33" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E33" s="68"/>
       <c r="F33" s="68" t="s">
         <v>104</v>
@@ -9548,10 +9581,10 @@
         <v>121</v>
       </c>
       <c r="R33" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S33" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T33" s="68" t="s">
         <v>104</v>
@@ -9577,7 +9610,9 @@
       <c r="C34" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="68"/>
+      <c r="D34" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E34" s="68"/>
       <c r="F34" s="68" t="s">
         <v>105</v>
@@ -9600,10 +9635,10 @@
         <v>121</v>
       </c>
       <c r="R34" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S34" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T34" s="68" t="s">
         <v>105</v>
@@ -9629,7 +9664,9 @@
       <c r="C35" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="68"/>
+      <c r="D35" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E35" s="68"/>
       <c r="F35" s="68" t="s">
         <v>106</v>
@@ -9652,10 +9689,10 @@
         <v>121</v>
       </c>
       <c r="R35" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S35" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T35" s="68" t="s">
         <v>106</v>
@@ -9681,7 +9718,9 @@
       <c r="C36" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D36" s="68"/>
+      <c r="D36" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E36" s="68"/>
       <c r="F36" s="68" t="s">
         <v>117</v>
@@ -9704,10 +9743,10 @@
         <v>121</v>
       </c>
       <c r="R36" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S36" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T36" s="68" t="s">
         <v>117</v>
@@ -9733,7 +9772,9 @@
       <c r="C37" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="71"/>
+      <c r="D37" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E37" s="69"/>
       <c r="F37" s="68" t="s">
         <v>107</v>
@@ -9756,10 +9797,10 @@
         <v>121</v>
       </c>
       <c r="R37" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S37" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T37" s="68" t="s">
         <v>107</v>
@@ -9785,7 +9826,9 @@
       <c r="C38" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="69"/>
+      <c r="D38" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E38" s="69"/>
       <c r="F38" s="95" t="s">
         <v>108</v>
@@ -9809,11 +9852,11 @@
       <c r="Q38" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="R38" s="95" t="s">
-        <v>122</v>
-      </c>
-      <c r="S38" s="95" t="s">
-        <v>122</v>
+      <c r="R38" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="S38" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="T38" s="95" t="s">
         <v>108</v>
@@ -9841,7 +9884,9 @@
       <c r="C39" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="72"/>
+      <c r="D39" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E39" s="72"/>
       <c r="F39" s="99" t="s">
         <v>109</v>
@@ -9865,11 +9910,11 @@
       <c r="Q39" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="R39" s="95" t="s">
-        <v>122</v>
-      </c>
-      <c r="S39" s="95" t="s">
-        <v>122</v>
+      <c r="R39" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="S39" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="T39" s="99" t="s">
         <v>109</v>
@@ -9898,7 +9943,9 @@
       <c r="C40" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="69"/>
+      <c r="D40" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E40" s="69"/>
       <c r="F40" s="72" t="s">
         <v>119</v>
@@ -9922,11 +9969,11 @@
       <c r="Q40" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="R40" s="102" t="s">
-        <v>122</v>
-      </c>
-      <c r="S40" s="102" t="s">
-        <v>122</v>
+      <c r="R40" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="S40" s="66" t="s">
+        <v>158</v>
       </c>
       <c r="T40" s="72" t="s">
         <v>119</v>
@@ -9956,7 +10003,9 @@
       <c r="C41" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D41" s="68"/>
+      <c r="D41" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E41" s="68"/>
       <c r="F41" s="72" t="s">
         <v>110</v>
@@ -9979,10 +10028,10 @@
         <v>121</v>
       </c>
       <c r="R41" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S41" s="66" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="T41" s="72" t="s">
         <v>110</v>
@@ -10009,7 +10058,9 @@
       <c r="C42" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="105"/>
+      <c r="D42" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E42" s="105"/>
       <c r="F42" s="72" t="s">
         <v>111</v>
@@ -10028,9 +10079,15 @@
       <c r="N42" s="91"/>
       <c r="O42" s="91"/>
       <c r="P42" s="91"/>
-      <c r="Q42" s="91"/>
-      <c r="R42" s="91"/>
-      <c r="S42" s="91"/>
+      <c r="Q42" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="R42" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="S42" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="T42" s="72" t="s">
         <v>111</v>
       </c>
@@ -10055,7 +10112,9 @@
       <c r="C43" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="105"/>
+      <c r="D43" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="E43" s="105"/>
       <c r="F43" s="68" t="s">
         <v>146</v>
@@ -10074,9 +10133,15 @@
       <c r="N43" s="91"/>
       <c r="O43" s="91"/>
       <c r="P43" s="91"/>
-      <c r="Q43" s="91"/>
-      <c r="R43" s="91"/>
-      <c r="S43" s="91"/>
+      <c r="Q43" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="R43" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="S43" s="66" t="s">
+        <v>158</v>
+      </c>
       <c r="T43" s="68" t="s">
         <v>146</v>
       </c>
@@ -10095,46 +10160,54 @@
       <c r="AC43" s="106"/>
     </row>
     <row r="44" spans="1:33" ht="72">
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="68" t="s">
+      <c r="C44" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="166" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="168"/>
+      <c r="F44" s="72" t="s">
         <v>147</v>
       </c>
       <c r="G44" s="104"/>
       <c r="H44" s="104"/>
       <c r="I44" s="104"/>
-      <c r="J44" s="68" t="s">
+      <c r="J44" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="K44" s="68">
+      <c r="K44" s="72">
         <v>1</v>
       </c>
       <c r="L44" s="68"/>
       <c r="M44" s="104"/>
       <c r="N44" s="68" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O44" s="91"/>
       <c r="P44" s="91"/>
-      <c r="Q44" s="91"/>
-      <c r="R44" s="91"/>
-      <c r="S44" s="91"/>
-      <c r="T44" s="68" t="s">
+      <c r="Q44" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="R44" s="166" t="s">
+        <v>158</v>
+      </c>
+      <c r="S44" s="166" t="s">
+        <v>158</v>
+      </c>
+      <c r="T44" s="72" t="s">
         <v>147</v>
       </c>
       <c r="U44" s="104"/>
       <c r="V44" s="104"/>
       <c r="W44" s="104"/>
-      <c r="X44" s="68" t="s">
+      <c r="X44" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="Y44" s="68">
+      <c r="Y44" s="72">
         <v>1</v>
       </c>
       <c r="Z44" s="68"/>
@@ -10143,21 +10216,23 @@
       <c r="AC44" s="106"/>
     </row>
     <row r="45" spans="1:33">
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="71" t="s">
+      <c r="C45" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="166" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" s="168"/>
+      <c r="F45" s="73" t="s">
         <v>151</v>
       </c>
       <c r="G45" s="104"/>
       <c r="H45" s="104"/>
       <c r="I45" s="104"/>
-      <c r="J45" s="68" t="s">
+      <c r="J45" s="72" t="s">
         <v>136</v>
       </c>
       <c r="K45" s="106"/>
@@ -10166,81 +10241,129 @@
       <c r="N45" s="91"/>
       <c r="O45" s="91"/>
       <c r="P45" s="91"/>
-      <c r="Q45" s="91"/>
-      <c r="R45" s="91"/>
-      <c r="S45" s="91"/>
+      <c r="Q45" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="R45" s="166" t="s">
+        <v>158</v>
+      </c>
+      <c r="S45" s="166" t="s">
+        <v>158</v>
+      </c>
       <c r="T45" s="71" t="s">
         <v>151</v>
       </c>
       <c r="U45" s="104"/>
       <c r="V45" s="104"/>
       <c r="W45" s="104"/>
-      <c r="X45" s="68" t="s">
+      <c r="X45" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="Y45" s="106"/>
+      <c r="Y45" s="171"/>
       <c r="Z45" s="106"/>
       <c r="AA45" s="106"/>
       <c r="AB45" s="106"/>
       <c r="AC45" s="106"/>
     </row>
     <row r="46" spans="1:33">
-      <c r="B46" s="108"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="109"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="110"/>
+      <c r="B46" s="167"/>
+      <c r="C46" s="167"/>
+      <c r="D46" s="167"/>
+      <c r="E46" s="167"/>
+      <c r="F46" s="169"/>
       <c r="G46" s="108"/>
       <c r="H46" s="108"/>
       <c r="I46" s="108"/>
-      <c r="J46" s="111"/>
-      <c r="K46" s="111"/>
-      <c r="L46" s="111"/>
+      <c r="J46" s="170"/>
+      <c r="K46" s="109"/>
+      <c r="L46" s="109"/>
       <c r="M46" s="108"/>
-      <c r="N46" s="115" t="s">
+      <c r="N46" s="102" t="s">
         <v>153</v>
       </c>
       <c r="O46" s="91"/>
       <c r="P46" s="91"/>
-      <c r="Q46" s="91"/>
-      <c r="R46" s="91"/>
-      <c r="S46" s="91"/>
+      <c r="Q46" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="R46" s="166" t="s">
+        <v>158</v>
+      </c>
+      <c r="S46" s="166" t="s">
+        <v>158</v>
+      </c>
       <c r="T46" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="U46" s="59"/>
-      <c r="V46" s="59"/>
-      <c r="W46" s="59"/>
+      <c r="U46" s="104"/>
+      <c r="V46" s="104"/>
+      <c r="W46" s="104"/>
+      <c r="X46" s="171" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y46" s="171">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="106"/>
+      <c r="AA46" s="106"/>
+      <c r="AB46" s="106"/>
+      <c r="AC46" s="106"/>
     </row>
     <row r="47" spans="1:33" ht="96">
-      <c r="B47" s="112"/>
-      <c r="C47" s="112"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="113" t="s">
+      <c r="B47" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="166" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" s="110"/>
+      <c r="F47" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="G47" s="112"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="112"/>
-      <c r="J47" s="114"/>
-      <c r="K47" s="114"/>
-      <c r="L47" s="114"/>
-      <c r="M47" s="112"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="K47" s="68">
+        <v>1</v>
+      </c>
+      <c r="L47" s="111"/>
+      <c r="M47" s="110"/>
       <c r="N47" s="75" t="s">
         <v>156</v>
       </c>
       <c r="O47" s="91"/>
       <c r="P47" s="91"/>
-      <c r="Q47" s="91"/>
-      <c r="R47" s="91"/>
-      <c r="S47" s="91"/>
-      <c r="T47" s="68" t="s">
+      <c r="Q47" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="R47" s="166" t="s">
+        <v>158</v>
+      </c>
+      <c r="S47" s="166" t="s">
+        <v>158</v>
+      </c>
+      <c r="T47" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="U47" s="59"/>
-      <c r="V47" s="59"/>
-      <c r="W47" s="59"/>
+      <c r="U47" s="104"/>
+      <c r="V47" s="104"/>
+      <c r="W47" s="104"/>
+      <c r="X47" s="171" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y47" s="171">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="106"/>
+      <c r="AA47" s="106"/>
+      <c r="AB47" s="106"/>
+      <c r="AC47" s="106"/>
     </row>
     <row r="48" spans="1:33">
       <c r="B48" s="59"/>
@@ -10255,17 +10378,13 @@
       <c r="K48" s="62"/>
       <c r="L48" s="62"/>
       <c r="M48" s="59"/>
-      <c r="N48" s="116" t="s">
-        <v>158</v>
-      </c>
+      <c r="N48" s="63"/>
       <c r="O48" s="63"/>
       <c r="P48" s="63"/>
       <c r="Q48" s="63"/>
       <c r="R48" s="63"/>
       <c r="S48" s="63"/>
-      <c r="T48" s="71" t="s">
-        <v>159</v>
-      </c>
+      <c r="T48" s="63"/>
       <c r="U48" s="59"/>
       <c r="V48" s="59"/>
       <c r="W48" s="59"/>
@@ -10275,7 +10394,7 @@
       <c r="C49" s="59"/>
       <c r="D49" s="60"/>
       <c r="E49" s="60"/>
-      <c r="F49" s="61"/>
+      <c r="F49" s="60"/>
       <c r="G49" s="59"/>
       <c r="H49" s="59"/>
       <c r="I49" s="59"/>
@@ -10283,292 +10402,16 @@
       <c r="K49" s="62"/>
       <c r="L49" s="62"/>
       <c r="M49" s="59"/>
-      <c r="N49" s="116" t="s">
-        <v>169</v>
-      </c>
+      <c r="N49" s="63"/>
       <c r="O49" s="63"/>
       <c r="P49" s="63"/>
       <c r="Q49" s="63"/>
       <c r="R49" s="63"/>
       <c r="S49" s="63"/>
-      <c r="T49" s="71" t="s">
-        <v>160</v>
-      </c>
+      <c r="T49" s="63"/>
       <c r="U49" s="59"/>
       <c r="V49" s="59"/>
       <c r="W49" s="59"/>
-    </row>
-    <row r="50" spans="2:23">
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="O50" s="63"/>
-      <c r="P50" s="63"/>
-      <c r="Q50" s="63"/>
-      <c r="R50" s="63"/>
-      <c r="S50" s="63"/>
-      <c r="T50" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="U50" s="59"/>
-      <c r="V50" s="59"/>
-      <c r="W50" s="59"/>
-    </row>
-    <row r="51" spans="2:23">
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="O51" s="63"/>
-      <c r="P51" s="63"/>
-      <c r="Q51" s="63"/>
-      <c r="R51" s="63"/>
-      <c r="S51" s="63"/>
-      <c r="T51" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="U51" s="59"/>
-      <c r="V51" s="59"/>
-      <c r="W51" s="59"/>
-    </row>
-    <row r="52" spans="2:23">
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="O52" s="63"/>
-      <c r="P52" s="63"/>
-      <c r="Q52" s="63"/>
-      <c r="R52" s="63"/>
-      <c r="S52" s="63"/>
-      <c r="T52" s="71" t="s">
-        <v>163</v>
-      </c>
-      <c r="U52" s="59"/>
-      <c r="V52" s="59"/>
-      <c r="W52" s="59"/>
-    </row>
-    <row r="53" spans="2:23">
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="59"/>
-      <c r="N53" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="O53" s="63"/>
-      <c r="P53" s="63"/>
-      <c r="Q53" s="63"/>
-      <c r="R53" s="63"/>
-      <c r="S53" s="63"/>
-      <c r="T53" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="U53" s="59"/>
-      <c r="V53" s="59"/>
-      <c r="W53" s="59"/>
-    </row>
-    <row r="54" spans="2:23">
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="62"/>
-      <c r="M54" s="59"/>
-      <c r="N54" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="O54" s="63"/>
-      <c r="P54" s="63"/>
-      <c r="Q54" s="63"/>
-      <c r="R54" s="63"/>
-      <c r="S54" s="63"/>
-      <c r="T54" s="71" t="s">
-        <v>165</v>
-      </c>
-      <c r="U54" s="59"/>
-      <c r="V54" s="59"/>
-      <c r="W54" s="59"/>
-    </row>
-    <row r="55" spans="2:23">
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="59"/>
-      <c r="N55" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="O55" s="63"/>
-      <c r="P55" s="63"/>
-      <c r="Q55" s="63"/>
-      <c r="R55" s="63"/>
-      <c r="S55" s="63"/>
-      <c r="T55" s="71" t="s">
-        <v>166</v>
-      </c>
-      <c r="U55" s="59"/>
-      <c r="V55" s="59"/>
-      <c r="W55" s="59"/>
-    </row>
-    <row r="56" spans="2:23">
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="O56" s="63"/>
-      <c r="P56" s="63"/>
-      <c r="Q56" s="63"/>
-      <c r="R56" s="63"/>
-      <c r="S56" s="63"/>
-      <c r="T56" s="71" t="s">
-        <v>167</v>
-      </c>
-      <c r="U56" s="59"/>
-      <c r="V56" s="59"/>
-      <c r="W56" s="59"/>
-    </row>
-    <row r="57" spans="2:23">
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="62"/>
-      <c r="M57" s="59"/>
-      <c r="N57" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="O57" s="63"/>
-      <c r="P57" s="63"/>
-      <c r="Q57" s="63"/>
-      <c r="R57" s="63"/>
-      <c r="S57" s="63"/>
-      <c r="T57" s="71" t="s">
-        <v>168</v>
-      </c>
-      <c r="U57" s="59"/>
-      <c r="V57" s="59"/>
-      <c r="W57" s="59"/>
-    </row>
-    <row r="58" spans="2:23">
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="62"/>
-      <c r="K58" s="62"/>
-      <c r="L58" s="62"/>
-      <c r="M58" s="59"/>
-      <c r="N58" s="63"/>
-      <c r="O58" s="63"/>
-      <c r="P58" s="63"/>
-      <c r="Q58" s="63"/>
-      <c r="R58" s="63"/>
-      <c r="S58" s="63"/>
-      <c r="T58" s="63"/>
-      <c r="U58" s="59"/>
-      <c r="V58" s="59"/>
-      <c r="W58" s="59"/>
-    </row>
-    <row r="59" spans="2:23">
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="62"/>
-      <c r="K59" s="62"/>
-      <c r="L59" s="62"/>
-      <c r="M59" s="59"/>
-      <c r="N59" s="63"/>
-      <c r="O59" s="63"/>
-      <c r="P59" s="63"/>
-      <c r="Q59" s="63"/>
-      <c r="R59" s="63"/>
-      <c r="S59" s="63"/>
-      <c r="T59" s="63"/>
-      <c r="U59" s="59"/>
-      <c r="V59" s="59"/>
-      <c r="W59" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10842,6 +10685,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -10890,26 +10742,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10924,15 +10775,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -10945,12 +10796,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_FIXA_P1.xlsx
+++ b/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_FIXA_P1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="807" activeTab="5"/>
+    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -144,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="162">
   <si>
     <t>Schema</t>
   </si>
@@ -1169,6 +1168,9 @@
 ELSIF VALOR_FIXO &gt; 0 
 ELSIF IND_TIPO_SALARIO in ('H','M') 
 THEN IND_APTO_PAGAMENTO = 2</t>
+  </si>
+  <si>
+    <t>REMUNERACAO_DOCENTE</t>
   </si>
 </sst>
 </file>
@@ -2027,6 +2029,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2188,24 +2208,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2917,10 +2919,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" customHeight="1">
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="112"/>
+      <c r="D2" s="118"/>
     </row>
     <row r="3" spans="2:10" ht="15">
       <c r="C3" s="17" t="s">
@@ -2958,28 +2960,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="9" spans="2:10">
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="121"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="127"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="122"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="130"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="44" t="s">
@@ -2988,17 +2990,17 @@
       <c r="C11" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125" t="s">
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="126"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="132"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="30" t="s">
@@ -3007,81 +3009,81 @@
       <c r="C12" s="29">
         <v>41236</v>
       </c>
-      <c r="D12" s="127" t="s">
+      <c r="D12" s="133" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="128"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="131"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="137"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="118"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="124"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="124"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="118"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="124"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="118"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="124"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="134"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="140"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="134"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3118,9 +3120,7 @@
   </sheetPr>
   <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3162,17 +3162,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="51" t="s">
@@ -3181,93 +3181,93 @@
       <c r="C7" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="135" t="s">
+      <c r="D7" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="83" t="s">
         <v>112</v>
       </c>
       <c r="C8" s="52"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="142"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="83" t="s">
         <v>118</v>
       </c>
       <c r="C9" s="52"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="136"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="83" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="52"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="136"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="83" t="s">
         <v>114</v>
       </c>
       <c r="C11" s="52"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="136"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="142"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="83" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="52"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="136"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="142"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="83" t="s">
         <v>115</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
     </row>
     <row r="14" spans="2:10" ht="13.5" thickBot="1">
       <c r="B14" s="5"/>
@@ -3281,17 +3281,17 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="142" t="s">
+      <c r="B15" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="149"/>
     </row>
     <row r="16" spans="2:10" ht="23.25" customHeight="1">
       <c r="B16" s="47" t="s">
@@ -3303,44 +3303,44 @@
       <c r="D16" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="144" t="s">
+      <c r="E16" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="146"/>
-      <c r="G16" s="144" t="s">
+      <c r="F16" s="152"/>
+      <c r="G16" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="146"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="152"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="138" t="s">
+      <c r="E17" s="144" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="139"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="1"/>
       <c r="C18" s="9"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" thickBot="1">
       <c r="B19" s="2"/>
@@ -3354,11 +3354,11 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B20" s="142" t="s">
+      <c r="B20" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="149"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="46" t="s">
@@ -3382,7 +3382,7 @@
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="81" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="13"/>
@@ -3399,17 +3399,17 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B25" s="135" t="s">
+      <c r="B25" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="135"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="135"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="141"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="51" t="s">
@@ -3421,49 +3421,49 @@
       <c r="D26" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="137" t="s">
+      <c r="E26" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137" t="s">
+      <c r="F26" s="143"/>
+      <c r="G26" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="12"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="148"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="12"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="148"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -3505,7 +3505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="O16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF30" sqref="AF30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3532,10 +3534,10 @@
   <dimension ref="B1:AF97"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D34" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
@@ -3579,39 +3581,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="161" t="s">
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="157" t="s">
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="158"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="164"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
+      <c r="Y2" s="164"/>
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="164"/>
+      <c r="AB2" s="164"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -5791,32 +5793,32 @@
         <v>2</v>
       </c>
       <c r="M39" s="68"/>
-      <c r="N39" s="149" t="s">
+      <c r="N39" s="155" t="s">
         <v>126</v>
       </c>
-      <c r="O39" s="154"/>
-      <c r="P39" s="154"/>
-      <c r="Q39" s="149" t="s">
-        <v>121</v>
-      </c>
-      <c r="R39" s="149" t="s">
+      <c r="O39" s="160"/>
+      <c r="P39" s="160"/>
+      <c r="Q39" s="155" t="s">
+        <v>121</v>
+      </c>
+      <c r="R39" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="S39" s="149" t="s">
+      <c r="S39" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="T39" s="149" t="s">
+      <c r="T39" s="155" t="s">
         <v>109</v>
       </c>
-      <c r="U39" s="149"/>
-      <c r="V39" s="149"/>
-      <c r="W39" s="149"/>
-      <c r="X39" s="149"/>
-      <c r="Y39" s="149"/>
-      <c r="Z39" s="149"/>
-      <c r="AA39" s="149"/>
-      <c r="AB39" s="149"/>
-      <c r="AC39" s="149"/>
+      <c r="U39" s="155"/>
+      <c r="V39" s="155"/>
+      <c r="W39" s="155"/>
+      <c r="X39" s="155"/>
+      <c r="Y39" s="155"/>
+      <c r="Z39" s="155"/>
+      <c r="AA39" s="155"/>
+      <c r="AB39" s="155"/>
+      <c r="AC39" s="155"/>
     </row>
     <row r="40" spans="2:29">
       <c r="B40" s="68" t="s">
@@ -5845,22 +5847,22 @@
       <c r="K40" s="68"/>
       <c r="L40" s="68"/>
       <c r="M40" s="68"/>
-      <c r="N40" s="152"/>
-      <c r="O40" s="155"/>
-      <c r="P40" s="155"/>
-      <c r="Q40" s="150"/>
-      <c r="R40" s="150"/>
-      <c r="S40" s="150"/>
-      <c r="T40" s="150"/>
-      <c r="U40" s="150"/>
-      <c r="V40" s="150"/>
-      <c r="W40" s="150"/>
-      <c r="X40" s="150"/>
-      <c r="Y40" s="150"/>
-      <c r="Z40" s="150"/>
-      <c r="AA40" s="150"/>
-      <c r="AB40" s="150"/>
-      <c r="AC40" s="150"/>
+      <c r="N40" s="158"/>
+      <c r="O40" s="161"/>
+      <c r="P40" s="161"/>
+      <c r="Q40" s="156"/>
+      <c r="R40" s="156"/>
+      <c r="S40" s="156"/>
+      <c r="T40" s="156"/>
+      <c r="U40" s="156"/>
+      <c r="V40" s="156"/>
+      <c r="W40" s="156"/>
+      <c r="X40" s="156"/>
+      <c r="Y40" s="156"/>
+      <c r="Z40" s="156"/>
+      <c r="AA40" s="156"/>
+      <c r="AB40" s="156"/>
+      <c r="AC40" s="156"/>
     </row>
     <row r="41" spans="2:29" ht="33.75" customHeight="1">
       <c r="B41" s="68" t="s">
@@ -5889,22 +5891,22 @@
       <c r="K41" s="68"/>
       <c r="L41" s="68"/>
       <c r="M41" s="68"/>
-      <c r="N41" s="153"/>
-      <c r="O41" s="156"/>
-      <c r="P41" s="156"/>
-      <c r="Q41" s="151"/>
-      <c r="R41" s="151"/>
-      <c r="S41" s="151"/>
-      <c r="T41" s="151"/>
-      <c r="U41" s="151"/>
-      <c r="V41" s="151"/>
-      <c r="W41" s="151"/>
-      <c r="X41" s="151"/>
-      <c r="Y41" s="151"/>
-      <c r="Z41" s="151"/>
-      <c r="AA41" s="151"/>
-      <c r="AB41" s="151"/>
-      <c r="AC41" s="151"/>
+      <c r="N41" s="159"/>
+      <c r="O41" s="162"/>
+      <c r="P41" s="162"/>
+      <c r="Q41" s="157"/>
+      <c r="R41" s="157"/>
+      <c r="S41" s="157"/>
+      <c r="T41" s="157"/>
+      <c r="U41" s="157"/>
+      <c r="V41" s="157"/>
+      <c r="W41" s="157"/>
+      <c r="X41" s="157"/>
+      <c r="Y41" s="157"/>
+      <c r="Z41" s="157"/>
+      <c r="AA41" s="157"/>
+      <c r="AB41" s="157"/>
+      <c r="AC41" s="157"/>
     </row>
     <row r="42" spans="2:29">
       <c r="B42" s="84"/>
@@ -5977,32 +5979,32 @@
       </c>
       <c r="L43" s="68"/>
       <c r="M43" s="68"/>
-      <c r="N43" s="149" t="s">
+      <c r="N43" s="155" t="s">
         <v>127</v>
       </c>
-      <c r="O43" s="154"/>
-      <c r="P43" s="154"/>
-      <c r="Q43" s="149" t="s">
-        <v>121</v>
-      </c>
-      <c r="R43" s="149" t="s">
+      <c r="O43" s="160"/>
+      <c r="P43" s="160"/>
+      <c r="Q43" s="155" t="s">
+        <v>121</v>
+      </c>
+      <c r="R43" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="S43" s="149" t="s">
+      <c r="S43" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="T43" s="149" t="s">
+      <c r="T43" s="155" t="s">
         <v>110</v>
       </c>
-      <c r="U43" s="149"/>
-      <c r="V43" s="149"/>
-      <c r="W43" s="149"/>
-      <c r="X43" s="149"/>
-      <c r="Y43" s="149"/>
-      <c r="Z43" s="149"/>
-      <c r="AA43" s="149"/>
-      <c r="AB43" s="149"/>
-      <c r="AC43" s="149"/>
+      <c r="U43" s="155"/>
+      <c r="V43" s="155"/>
+      <c r="W43" s="155"/>
+      <c r="X43" s="155"/>
+      <c r="Y43" s="155"/>
+      <c r="Z43" s="155"/>
+      <c r="AA43" s="155"/>
+      <c r="AB43" s="155"/>
+      <c r="AC43" s="155"/>
     </row>
     <row r="44" spans="2:29">
       <c r="B44" s="84"/>
@@ -6019,22 +6021,22 @@
       <c r="K44" s="68"/>
       <c r="L44" s="68"/>
       <c r="M44" s="68"/>
-      <c r="N44" s="150"/>
-      <c r="O44" s="155"/>
-      <c r="P44" s="155"/>
-      <c r="Q44" s="150"/>
-      <c r="R44" s="150"/>
-      <c r="S44" s="150"/>
-      <c r="T44" s="150"/>
-      <c r="U44" s="150"/>
-      <c r="V44" s="150"/>
-      <c r="W44" s="150"/>
-      <c r="X44" s="150"/>
-      <c r="Y44" s="150"/>
-      <c r="Z44" s="150"/>
-      <c r="AA44" s="150"/>
-      <c r="AB44" s="150"/>
-      <c r="AC44" s="150"/>
+      <c r="N44" s="156"/>
+      <c r="O44" s="161"/>
+      <c r="P44" s="161"/>
+      <c r="Q44" s="156"/>
+      <c r="R44" s="156"/>
+      <c r="S44" s="156"/>
+      <c r="T44" s="156"/>
+      <c r="U44" s="156"/>
+      <c r="V44" s="156"/>
+      <c r="W44" s="156"/>
+      <c r="X44" s="156"/>
+      <c r="Y44" s="156"/>
+      <c r="Z44" s="156"/>
+      <c r="AA44" s="156"/>
+      <c r="AB44" s="156"/>
+      <c r="AC44" s="156"/>
     </row>
     <row r="45" spans="2:29">
       <c r="B45" s="84"/>
@@ -6051,22 +6053,22 @@
       <c r="K45" s="68"/>
       <c r="L45" s="68"/>
       <c r="M45" s="68"/>
-      <c r="N45" s="150"/>
-      <c r="O45" s="155"/>
-      <c r="P45" s="155"/>
-      <c r="Q45" s="150"/>
-      <c r="R45" s="150"/>
-      <c r="S45" s="150"/>
-      <c r="T45" s="150"/>
-      <c r="U45" s="150"/>
-      <c r="V45" s="150"/>
-      <c r="W45" s="150"/>
-      <c r="X45" s="150"/>
-      <c r="Y45" s="150"/>
-      <c r="Z45" s="150"/>
-      <c r="AA45" s="150"/>
-      <c r="AB45" s="150"/>
-      <c r="AC45" s="150"/>
+      <c r="N45" s="156"/>
+      <c r="O45" s="161"/>
+      <c r="P45" s="161"/>
+      <c r="Q45" s="156"/>
+      <c r="R45" s="156"/>
+      <c r="S45" s="156"/>
+      <c r="T45" s="156"/>
+      <c r="U45" s="156"/>
+      <c r="V45" s="156"/>
+      <c r="W45" s="156"/>
+      <c r="X45" s="156"/>
+      <c r="Y45" s="156"/>
+      <c r="Z45" s="156"/>
+      <c r="AA45" s="156"/>
+      <c r="AB45" s="156"/>
+      <c r="AC45" s="156"/>
     </row>
     <row r="46" spans="2:29">
       <c r="B46" s="68" t="s">
@@ -6097,22 +6099,22 @@
       </c>
       <c r="L46" s="68"/>
       <c r="M46" s="68"/>
-      <c r="N46" s="150"/>
-      <c r="O46" s="155"/>
-      <c r="P46" s="155"/>
-      <c r="Q46" s="150"/>
-      <c r="R46" s="150"/>
-      <c r="S46" s="150"/>
-      <c r="T46" s="150"/>
-      <c r="U46" s="150"/>
-      <c r="V46" s="150"/>
-      <c r="W46" s="150"/>
-      <c r="X46" s="150"/>
-      <c r="Y46" s="150"/>
-      <c r="Z46" s="150"/>
-      <c r="AA46" s="150"/>
-      <c r="AB46" s="150"/>
-      <c r="AC46" s="150"/>
+      <c r="N46" s="156"/>
+      <c r="O46" s="161"/>
+      <c r="P46" s="161"/>
+      <c r="Q46" s="156"/>
+      <c r="R46" s="156"/>
+      <c r="S46" s="156"/>
+      <c r="T46" s="156"/>
+      <c r="U46" s="156"/>
+      <c r="V46" s="156"/>
+      <c r="W46" s="156"/>
+      <c r="X46" s="156"/>
+      <c r="Y46" s="156"/>
+      <c r="Z46" s="156"/>
+      <c r="AA46" s="156"/>
+      <c r="AB46" s="156"/>
+      <c r="AC46" s="156"/>
     </row>
     <row r="47" spans="2:29">
       <c r="B47" s="68" t="s">
@@ -6143,22 +6145,22 @@
       </c>
       <c r="L47" s="68"/>
       <c r="M47" s="68"/>
-      <c r="N47" s="150"/>
-      <c r="O47" s="155"/>
-      <c r="P47" s="155"/>
-      <c r="Q47" s="150"/>
-      <c r="R47" s="150"/>
-      <c r="S47" s="150"/>
-      <c r="T47" s="150"/>
-      <c r="U47" s="150"/>
-      <c r="V47" s="150"/>
-      <c r="W47" s="150"/>
-      <c r="X47" s="150"/>
-      <c r="Y47" s="150"/>
-      <c r="Z47" s="150"/>
-      <c r="AA47" s="150"/>
-      <c r="AB47" s="150"/>
-      <c r="AC47" s="150"/>
+      <c r="N47" s="156"/>
+      <c r="O47" s="161"/>
+      <c r="P47" s="161"/>
+      <c r="Q47" s="156"/>
+      <c r="R47" s="156"/>
+      <c r="S47" s="156"/>
+      <c r="T47" s="156"/>
+      <c r="U47" s="156"/>
+      <c r="V47" s="156"/>
+      <c r="W47" s="156"/>
+      <c r="X47" s="156"/>
+      <c r="Y47" s="156"/>
+      <c r="Z47" s="156"/>
+      <c r="AA47" s="156"/>
+      <c r="AB47" s="156"/>
+      <c r="AC47" s="156"/>
     </row>
     <row r="48" spans="2:29">
       <c r="B48" s="84"/>
@@ -6181,22 +6183,22 @@
       </c>
       <c r="L48" s="68"/>
       <c r="M48" s="68"/>
-      <c r="N48" s="150"/>
-      <c r="O48" s="155"/>
-      <c r="P48" s="155"/>
-      <c r="Q48" s="150"/>
-      <c r="R48" s="150"/>
-      <c r="S48" s="150"/>
-      <c r="T48" s="150"/>
-      <c r="U48" s="150"/>
-      <c r="V48" s="150"/>
-      <c r="W48" s="150"/>
-      <c r="X48" s="150"/>
-      <c r="Y48" s="150"/>
-      <c r="Z48" s="150"/>
-      <c r="AA48" s="150"/>
-      <c r="AB48" s="150"/>
-      <c r="AC48" s="150"/>
+      <c r="N48" s="156"/>
+      <c r="O48" s="161"/>
+      <c r="P48" s="161"/>
+      <c r="Q48" s="156"/>
+      <c r="R48" s="156"/>
+      <c r="S48" s="156"/>
+      <c r="T48" s="156"/>
+      <c r="U48" s="156"/>
+      <c r="V48" s="156"/>
+      <c r="W48" s="156"/>
+      <c r="X48" s="156"/>
+      <c r="Y48" s="156"/>
+      <c r="Z48" s="156"/>
+      <c r="AA48" s="156"/>
+      <c r="AB48" s="156"/>
+      <c r="AC48" s="156"/>
     </row>
     <row r="49" spans="2:29">
       <c r="B49" s="68" t="s">
@@ -6227,22 +6229,22 @@
       </c>
       <c r="L49" s="68"/>
       <c r="M49" s="68"/>
-      <c r="N49" s="150"/>
-      <c r="O49" s="155"/>
-      <c r="P49" s="155"/>
-      <c r="Q49" s="150"/>
-      <c r="R49" s="150"/>
-      <c r="S49" s="150"/>
-      <c r="T49" s="150"/>
-      <c r="U49" s="150"/>
-      <c r="V49" s="150"/>
-      <c r="W49" s="150"/>
-      <c r="X49" s="150"/>
-      <c r="Y49" s="150"/>
-      <c r="Z49" s="150"/>
-      <c r="AA49" s="150"/>
-      <c r="AB49" s="150"/>
-      <c r="AC49" s="150"/>
+      <c r="N49" s="156"/>
+      <c r="O49" s="161"/>
+      <c r="P49" s="161"/>
+      <c r="Q49" s="156"/>
+      <c r="R49" s="156"/>
+      <c r="S49" s="156"/>
+      <c r="T49" s="156"/>
+      <c r="U49" s="156"/>
+      <c r="V49" s="156"/>
+      <c r="W49" s="156"/>
+      <c r="X49" s="156"/>
+      <c r="Y49" s="156"/>
+      <c r="Z49" s="156"/>
+      <c r="AA49" s="156"/>
+      <c r="AB49" s="156"/>
+      <c r="AC49" s="156"/>
     </row>
     <row r="50" spans="2:29">
       <c r="B50" s="68" t="s">
@@ -6273,22 +6275,22 @@
       </c>
       <c r="L50" s="68"/>
       <c r="M50" s="68"/>
-      <c r="N50" s="150"/>
-      <c r="O50" s="155"/>
-      <c r="P50" s="155"/>
-      <c r="Q50" s="150"/>
-      <c r="R50" s="150"/>
-      <c r="S50" s="150"/>
-      <c r="T50" s="150"/>
-      <c r="U50" s="150"/>
-      <c r="V50" s="150"/>
-      <c r="W50" s="150"/>
-      <c r="X50" s="150"/>
-      <c r="Y50" s="150"/>
-      <c r="Z50" s="150"/>
-      <c r="AA50" s="150"/>
-      <c r="AB50" s="150"/>
-      <c r="AC50" s="150"/>
+      <c r="N50" s="156"/>
+      <c r="O50" s="161"/>
+      <c r="P50" s="161"/>
+      <c r="Q50" s="156"/>
+      <c r="R50" s="156"/>
+      <c r="S50" s="156"/>
+      <c r="T50" s="156"/>
+      <c r="U50" s="156"/>
+      <c r="V50" s="156"/>
+      <c r="W50" s="156"/>
+      <c r="X50" s="156"/>
+      <c r="Y50" s="156"/>
+      <c r="Z50" s="156"/>
+      <c r="AA50" s="156"/>
+      <c r="AB50" s="156"/>
+      <c r="AC50" s="156"/>
     </row>
     <row r="51" spans="2:29">
       <c r="B51" s="68" t="s">
@@ -6319,22 +6321,22 @@
       </c>
       <c r="L51" s="68"/>
       <c r="M51" s="68"/>
-      <c r="N51" s="150"/>
-      <c r="O51" s="155"/>
-      <c r="P51" s="155"/>
-      <c r="Q51" s="150"/>
-      <c r="R51" s="150"/>
-      <c r="S51" s="150"/>
-      <c r="T51" s="150"/>
-      <c r="U51" s="150"/>
-      <c r="V51" s="150"/>
-      <c r="W51" s="150"/>
-      <c r="X51" s="150"/>
-      <c r="Y51" s="150"/>
-      <c r="Z51" s="150"/>
-      <c r="AA51" s="150"/>
-      <c r="AB51" s="150"/>
-      <c r="AC51" s="150"/>
+      <c r="N51" s="156"/>
+      <c r="O51" s="161"/>
+      <c r="P51" s="161"/>
+      <c r="Q51" s="156"/>
+      <c r="R51" s="156"/>
+      <c r="S51" s="156"/>
+      <c r="T51" s="156"/>
+      <c r="U51" s="156"/>
+      <c r="V51" s="156"/>
+      <c r="W51" s="156"/>
+      <c r="X51" s="156"/>
+      <c r="Y51" s="156"/>
+      <c r="Z51" s="156"/>
+      <c r="AA51" s="156"/>
+      <c r="AB51" s="156"/>
+      <c r="AC51" s="156"/>
     </row>
     <row r="52" spans="2:29">
       <c r="B52" s="68" t="s">
@@ -6365,22 +6367,22 @@
       </c>
       <c r="L52" s="68"/>
       <c r="M52" s="68"/>
-      <c r="N52" s="150"/>
-      <c r="O52" s="155"/>
-      <c r="P52" s="155"/>
-      <c r="Q52" s="150"/>
-      <c r="R52" s="150"/>
-      <c r="S52" s="150"/>
-      <c r="T52" s="150"/>
-      <c r="U52" s="150"/>
-      <c r="V52" s="150"/>
-      <c r="W52" s="150"/>
-      <c r="X52" s="150"/>
-      <c r="Y52" s="150"/>
-      <c r="Z52" s="150"/>
-      <c r="AA52" s="150"/>
-      <c r="AB52" s="150"/>
-      <c r="AC52" s="150"/>
+      <c r="N52" s="156"/>
+      <c r="O52" s="161"/>
+      <c r="P52" s="161"/>
+      <c r="Q52" s="156"/>
+      <c r="R52" s="156"/>
+      <c r="S52" s="156"/>
+      <c r="T52" s="156"/>
+      <c r="U52" s="156"/>
+      <c r="V52" s="156"/>
+      <c r="W52" s="156"/>
+      <c r="X52" s="156"/>
+      <c r="Y52" s="156"/>
+      <c r="Z52" s="156"/>
+      <c r="AA52" s="156"/>
+      <c r="AB52" s="156"/>
+      <c r="AC52" s="156"/>
     </row>
     <row r="53" spans="2:29">
       <c r="B53" s="68" t="s">
@@ -6411,22 +6413,22 @@
       </c>
       <c r="L53" s="68"/>
       <c r="M53" s="68"/>
-      <c r="N53" s="151"/>
-      <c r="O53" s="156"/>
-      <c r="P53" s="156"/>
-      <c r="Q53" s="151"/>
-      <c r="R53" s="151"/>
-      <c r="S53" s="151"/>
-      <c r="T53" s="151"/>
-      <c r="U53" s="151"/>
-      <c r="V53" s="151"/>
-      <c r="W53" s="151"/>
-      <c r="X53" s="151"/>
-      <c r="Y53" s="151"/>
-      <c r="Z53" s="151"/>
-      <c r="AA53" s="151"/>
-      <c r="AB53" s="151"/>
-      <c r="AC53" s="151"/>
+      <c r="N53" s="157"/>
+      <c r="O53" s="162"/>
+      <c r="P53" s="162"/>
+      <c r="Q53" s="157"/>
+      <c r="R53" s="157"/>
+      <c r="S53" s="157"/>
+      <c r="T53" s="157"/>
+      <c r="U53" s="157"/>
+      <c r="V53" s="157"/>
+      <c r="W53" s="157"/>
+      <c r="X53" s="157"/>
+      <c r="Y53" s="157"/>
+      <c r="Z53" s="157"/>
+      <c r="AA53" s="157"/>
+      <c r="AB53" s="157"/>
+      <c r="AC53" s="157"/>
     </row>
     <row r="54" spans="2:29">
       <c r="B54" s="68" t="s">
@@ -6457,32 +6459,32 @@
       </c>
       <c r="L54" s="68"/>
       <c r="M54" s="68"/>
-      <c r="N54" s="149" t="s">
+      <c r="N54" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="O54" s="154"/>
-      <c r="P54" s="154"/>
-      <c r="Q54" s="149" t="s">
-        <v>121</v>
-      </c>
-      <c r="R54" s="149" t="s">
+      <c r="O54" s="160"/>
+      <c r="P54" s="160"/>
+      <c r="Q54" s="155" t="s">
+        <v>121</v>
+      </c>
+      <c r="R54" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="S54" s="149" t="s">
+      <c r="S54" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="T54" s="149" t="s">
+      <c r="T54" s="155" t="s">
         <v>111</v>
       </c>
-      <c r="U54" s="163"/>
-      <c r="V54" s="163"/>
-      <c r="W54" s="163"/>
-      <c r="X54" s="163"/>
-      <c r="Y54" s="163"/>
-      <c r="Z54" s="163"/>
-      <c r="AA54" s="163"/>
-      <c r="AB54" s="163"/>
-      <c r="AC54" s="163"/>
+      <c r="U54" s="169"/>
+      <c r="V54" s="169"/>
+      <c r="W54" s="169"/>
+      <c r="X54" s="169"/>
+      <c r="Y54" s="169"/>
+      <c r="Z54" s="169"/>
+      <c r="AA54" s="169"/>
+      <c r="AB54" s="169"/>
+      <c r="AC54" s="169"/>
     </row>
     <row r="55" spans="2:29">
       <c r="B55" s="68" t="s">
@@ -6513,22 +6515,22 @@
       </c>
       <c r="L55" s="68"/>
       <c r="M55" s="68"/>
-      <c r="N55" s="150"/>
-      <c r="O55" s="155"/>
-      <c r="P55" s="155"/>
-      <c r="Q55" s="150"/>
-      <c r="R55" s="150"/>
-      <c r="S55" s="150"/>
-      <c r="T55" s="150"/>
-      <c r="U55" s="164"/>
-      <c r="V55" s="164"/>
-      <c r="W55" s="164"/>
-      <c r="X55" s="164"/>
-      <c r="Y55" s="164"/>
-      <c r="Z55" s="164"/>
-      <c r="AA55" s="164"/>
-      <c r="AB55" s="164"/>
-      <c r="AC55" s="164"/>
+      <c r="N55" s="156"/>
+      <c r="O55" s="161"/>
+      <c r="P55" s="161"/>
+      <c r="Q55" s="156"/>
+      <c r="R55" s="156"/>
+      <c r="S55" s="156"/>
+      <c r="T55" s="156"/>
+      <c r="U55" s="170"/>
+      <c r="V55" s="170"/>
+      <c r="W55" s="170"/>
+      <c r="X55" s="170"/>
+      <c r="Y55" s="170"/>
+      <c r="Z55" s="170"/>
+      <c r="AA55" s="170"/>
+      <c r="AB55" s="170"/>
+      <c r="AC55" s="170"/>
     </row>
     <row r="56" spans="2:29">
       <c r="B56" s="68" t="s">
@@ -6559,22 +6561,22 @@
       </c>
       <c r="L56" s="68"/>
       <c r="M56" s="68"/>
-      <c r="N56" s="150"/>
-      <c r="O56" s="155"/>
-      <c r="P56" s="155"/>
-      <c r="Q56" s="150"/>
-      <c r="R56" s="150"/>
-      <c r="S56" s="150"/>
-      <c r="T56" s="150"/>
-      <c r="U56" s="164"/>
-      <c r="V56" s="164"/>
-      <c r="W56" s="164"/>
-      <c r="X56" s="164"/>
-      <c r="Y56" s="164"/>
-      <c r="Z56" s="164"/>
-      <c r="AA56" s="164"/>
-      <c r="AB56" s="164"/>
-      <c r="AC56" s="164"/>
+      <c r="N56" s="156"/>
+      <c r="O56" s="161"/>
+      <c r="P56" s="161"/>
+      <c r="Q56" s="156"/>
+      <c r="R56" s="156"/>
+      <c r="S56" s="156"/>
+      <c r="T56" s="156"/>
+      <c r="U56" s="170"/>
+      <c r="V56" s="170"/>
+      <c r="W56" s="170"/>
+      <c r="X56" s="170"/>
+      <c r="Y56" s="170"/>
+      <c r="Z56" s="170"/>
+      <c r="AA56" s="170"/>
+      <c r="AB56" s="170"/>
+      <c r="AC56" s="170"/>
     </row>
     <row r="57" spans="2:29">
       <c r="B57" s="84"/>
@@ -6597,22 +6599,22 @@
       </c>
       <c r="L57" s="68"/>
       <c r="M57" s="68"/>
-      <c r="N57" s="150"/>
-      <c r="O57" s="155"/>
-      <c r="P57" s="155"/>
-      <c r="Q57" s="150"/>
-      <c r="R57" s="150"/>
-      <c r="S57" s="150"/>
-      <c r="T57" s="150"/>
-      <c r="U57" s="164"/>
-      <c r="V57" s="164"/>
-      <c r="W57" s="164"/>
-      <c r="X57" s="164"/>
-      <c r="Y57" s="164"/>
-      <c r="Z57" s="164"/>
-      <c r="AA57" s="164"/>
-      <c r="AB57" s="164"/>
-      <c r="AC57" s="164"/>
+      <c r="N57" s="156"/>
+      <c r="O57" s="161"/>
+      <c r="P57" s="161"/>
+      <c r="Q57" s="156"/>
+      <c r="R57" s="156"/>
+      <c r="S57" s="156"/>
+      <c r="T57" s="156"/>
+      <c r="U57" s="170"/>
+      <c r="V57" s="170"/>
+      <c r="W57" s="170"/>
+      <c r="X57" s="170"/>
+      <c r="Y57" s="170"/>
+      <c r="Z57" s="170"/>
+      <c r="AA57" s="170"/>
+      <c r="AB57" s="170"/>
+      <c r="AC57" s="170"/>
     </row>
     <row r="58" spans="2:29">
       <c r="B58" s="68" t="s">
@@ -6643,22 +6645,22 @@
       </c>
       <c r="L58" s="68"/>
       <c r="M58" s="68"/>
-      <c r="N58" s="150"/>
-      <c r="O58" s="155"/>
-      <c r="P58" s="155"/>
-      <c r="Q58" s="150"/>
-      <c r="R58" s="150"/>
-      <c r="S58" s="150"/>
-      <c r="T58" s="150"/>
-      <c r="U58" s="164"/>
-      <c r="V58" s="164"/>
-      <c r="W58" s="164"/>
-      <c r="X58" s="164"/>
-      <c r="Y58" s="164"/>
-      <c r="Z58" s="164"/>
-      <c r="AA58" s="164"/>
-      <c r="AB58" s="164"/>
-      <c r="AC58" s="164"/>
+      <c r="N58" s="156"/>
+      <c r="O58" s="161"/>
+      <c r="P58" s="161"/>
+      <c r="Q58" s="156"/>
+      <c r="R58" s="156"/>
+      <c r="S58" s="156"/>
+      <c r="T58" s="156"/>
+      <c r="U58" s="170"/>
+      <c r="V58" s="170"/>
+      <c r="W58" s="170"/>
+      <c r="X58" s="170"/>
+      <c r="Y58" s="170"/>
+      <c r="Z58" s="170"/>
+      <c r="AA58" s="170"/>
+      <c r="AB58" s="170"/>
+      <c r="AC58" s="170"/>
     </row>
     <row r="59" spans="2:29">
       <c r="B59" s="84"/>
@@ -6681,22 +6683,22 @@
       </c>
       <c r="L59" s="68"/>
       <c r="M59" s="68"/>
-      <c r="N59" s="150"/>
-      <c r="O59" s="155"/>
-      <c r="P59" s="155"/>
-      <c r="Q59" s="150"/>
-      <c r="R59" s="150"/>
-      <c r="S59" s="150"/>
-      <c r="T59" s="150"/>
-      <c r="U59" s="164"/>
-      <c r="V59" s="164"/>
-      <c r="W59" s="164"/>
-      <c r="X59" s="164"/>
-      <c r="Y59" s="164"/>
-      <c r="Z59" s="164"/>
-      <c r="AA59" s="164"/>
-      <c r="AB59" s="164"/>
-      <c r="AC59" s="164"/>
+      <c r="N59" s="156"/>
+      <c r="O59" s="161"/>
+      <c r="P59" s="161"/>
+      <c r="Q59" s="156"/>
+      <c r="R59" s="156"/>
+      <c r="S59" s="156"/>
+      <c r="T59" s="156"/>
+      <c r="U59" s="170"/>
+      <c r="V59" s="170"/>
+      <c r="W59" s="170"/>
+      <c r="X59" s="170"/>
+      <c r="Y59" s="170"/>
+      <c r="Z59" s="170"/>
+      <c r="AA59" s="170"/>
+      <c r="AB59" s="170"/>
+      <c r="AC59" s="170"/>
     </row>
     <row r="60" spans="2:29">
       <c r="B60" s="68" t="s">
@@ -6727,22 +6729,22 @@
       </c>
       <c r="L60" s="68"/>
       <c r="M60" s="68"/>
-      <c r="N60" s="150"/>
-      <c r="O60" s="155"/>
-      <c r="P60" s="155"/>
-      <c r="Q60" s="150"/>
-      <c r="R60" s="150"/>
-      <c r="S60" s="150"/>
-      <c r="T60" s="150"/>
-      <c r="U60" s="164"/>
-      <c r="V60" s="164"/>
-      <c r="W60" s="164"/>
-      <c r="X60" s="164"/>
-      <c r="Y60" s="164"/>
-      <c r="Z60" s="164"/>
-      <c r="AA60" s="164"/>
-      <c r="AB60" s="164"/>
-      <c r="AC60" s="164"/>
+      <c r="N60" s="156"/>
+      <c r="O60" s="161"/>
+      <c r="P60" s="161"/>
+      <c r="Q60" s="156"/>
+      <c r="R60" s="156"/>
+      <c r="S60" s="156"/>
+      <c r="T60" s="156"/>
+      <c r="U60" s="170"/>
+      <c r="V60" s="170"/>
+      <c r="W60" s="170"/>
+      <c r="X60" s="170"/>
+      <c r="Y60" s="170"/>
+      <c r="Z60" s="170"/>
+      <c r="AA60" s="170"/>
+      <c r="AB60" s="170"/>
+      <c r="AC60" s="170"/>
     </row>
     <row r="61" spans="2:29">
       <c r="B61" s="68" t="s">
@@ -6773,22 +6775,22 @@
       </c>
       <c r="L61" s="68"/>
       <c r="M61" s="68"/>
-      <c r="N61" s="151"/>
-      <c r="O61" s="156"/>
-      <c r="P61" s="156"/>
-      <c r="Q61" s="151"/>
-      <c r="R61" s="151"/>
-      <c r="S61" s="151"/>
-      <c r="T61" s="151"/>
-      <c r="U61" s="165"/>
-      <c r="V61" s="165"/>
-      <c r="W61" s="165"/>
-      <c r="X61" s="165"/>
-      <c r="Y61" s="165"/>
-      <c r="Z61" s="165"/>
-      <c r="AA61" s="165"/>
-      <c r="AB61" s="165"/>
-      <c r="AC61" s="165"/>
+      <c r="N61" s="157"/>
+      <c r="O61" s="162"/>
+      <c r="P61" s="162"/>
+      <c r="Q61" s="157"/>
+      <c r="R61" s="157"/>
+      <c r="S61" s="157"/>
+      <c r="T61" s="157"/>
+      <c r="U61" s="171"/>
+      <c r="V61" s="171"/>
+      <c r="W61" s="171"/>
+      <c r="X61" s="171"/>
+      <c r="Y61" s="171"/>
+      <c r="Z61" s="171"/>
+      <c r="AA61" s="171"/>
+      <c r="AB61" s="171"/>
+      <c r="AC61" s="171"/>
     </row>
     <row r="62" spans="2:29">
       <c r="B62" s="84"/>
@@ -6932,6 +6934,11 @@
       <c r="X64" s="68" t="s">
         <v>136</v>
       </c>
+      <c r="Y64" s="106"/>
+      <c r="Z64" s="106"/>
+      <c r="AA64" s="106"/>
+      <c r="AB64" s="106"/>
+      <c r="AC64" s="106"/>
     </row>
     <row r="65" spans="2:23">
       <c r="B65" s="59"/>
@@ -7809,8 +7816,8 @@
   </sheetPr>
   <dimension ref="A1:AG49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D24" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D42" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -7858,39 +7865,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="161" t="s">
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="157" t="s">
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="158"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="164"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
+      <c r="Y2" s="164"/>
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="164"/>
+      <c r="AB2" s="164"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -10166,10 +10173,10 @@
       <c r="C44" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="166" t="s">
-        <v>158</v>
-      </c>
-      <c r="E44" s="168"/>
+      <c r="D44" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="114"/>
       <c r="F44" s="72" t="s">
         <v>147</v>
       </c>
@@ -10192,10 +10199,10 @@
       <c r="Q44" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="R44" s="166" t="s">
-        <v>158</v>
-      </c>
-      <c r="S44" s="166" t="s">
+      <c r="R44" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="S44" s="112" t="s">
         <v>158</v>
       </c>
       <c r="T44" s="72" t="s">
@@ -10222,10 +10229,10 @@
       <c r="C45" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="166" t="s">
-        <v>158</v>
-      </c>
-      <c r="E45" s="168"/>
+      <c r="D45" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" s="114"/>
       <c r="F45" s="73" t="s">
         <v>151</v>
       </c>
@@ -10244,10 +10251,10 @@
       <c r="Q45" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="R45" s="166" t="s">
-        <v>158</v>
-      </c>
-      <c r="S45" s="166" t="s">
+      <c r="R45" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="S45" s="112" t="s">
         <v>158</v>
       </c>
       <c r="T45" s="71" t="s">
@@ -10259,22 +10266,22 @@
       <c r="X45" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="Y45" s="171"/>
+      <c r="Y45" s="117"/>
       <c r="Z45" s="106"/>
       <c r="AA45" s="106"/>
       <c r="AB45" s="106"/>
       <c r="AC45" s="106"/>
     </row>
     <row r="46" spans="1:33">
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="169"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="115"/>
       <c r="G46" s="108"/>
       <c r="H46" s="108"/>
       <c r="I46" s="108"/>
-      <c r="J46" s="170"/>
+      <c r="J46" s="116"/>
       <c r="K46" s="109"/>
       <c r="L46" s="109"/>
       <c r="M46" s="108"/>
@@ -10286,10 +10293,10 @@
       <c r="Q46" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="R46" s="166" t="s">
-        <v>158</v>
-      </c>
-      <c r="S46" s="166" t="s">
+      <c r="R46" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="S46" s="112" t="s">
         <v>158</v>
       </c>
       <c r="T46" s="68" t="s">
@@ -10298,10 +10305,10 @@
       <c r="U46" s="104"/>
       <c r="V46" s="104"/>
       <c r="W46" s="104"/>
-      <c r="X46" s="171" t="s">
+      <c r="X46" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="Y46" s="171">
+      <c r="Y46" s="117">
         <v>1</v>
       </c>
       <c r="Z46" s="106"/>
@@ -10316,7 +10323,7 @@
       <c r="C47" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="D47" s="166" t="s">
+      <c r="D47" s="112" t="s">
         <v>158</v>
       </c>
       <c r="E47" s="110"/>
@@ -10342,10 +10349,10 @@
       <c r="Q47" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="R47" s="166" t="s">
-        <v>158</v>
-      </c>
-      <c r="S47" s="166" t="s">
+      <c r="R47" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="S47" s="112" t="s">
         <v>158</v>
       </c>
       <c r="T47" s="72" t="s">
@@ -10354,10 +10361,10 @@
       <c r="U47" s="104"/>
       <c r="V47" s="104"/>
       <c r="W47" s="104"/>
-      <c r="X47" s="171" t="s">
+      <c r="X47" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="Y47" s="171">
+      <c r="Y47" s="117">
         <v>1</v>
       </c>
       <c r="Z47" s="106"/>

--- a/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_FIXA_P1.xlsx
+++ b/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_FIXA_P1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="807" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Mapeamento P2" sheetId="18" r:id="rId6"/>
     <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1176,8 +1176,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2047,6 +2047,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2059,15 +2077,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2107,20 +2116,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2137,12 +2146,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2155,7 +2158,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2167,47 +2176,38 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2231,7 +2231,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2261,7 +2261,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2328,7 +2328,7 @@
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2376,7 +2376,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2399,14 +2399,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2449,7 +2449,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2472,14 +2472,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2692,6 +2692,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2726,6 +2727,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2901,15 +2903,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="16" customWidth="1"/>
@@ -2918,13 +2922,13 @@
     <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" customHeight="1">
-      <c r="C2" s="118" t="s">
+    <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="124" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="118"/>
-    </row>
-    <row r="3" spans="2:10" ht="15">
+      <c r="D2" s="124"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="17" t="s">
         <v>142</v>
       </c>
@@ -2932,22 +2936,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C4" s="17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C5" s="17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1">
+    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
@@ -2958,135 +2962,143 @@
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
     </row>
-    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
-    <row r="9" spans="2:10">
-      <c r="B9" s="125" t="s">
+    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="127"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="128"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="130"/>
-    </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1">
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="130"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="131"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="133"/>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="44" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="131" t="s">
+      <c r="D11" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131" t="s">
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="132"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="135"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="30" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="29">
         <v>41236</v>
       </c>
-      <c r="D12" s="133" t="s">
+      <c r="D12" s="136" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="134"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="137"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="E12" s="137"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="140"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="124"/>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="123"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="124"/>
-    </row>
-    <row r="15" spans="2:10">
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="124"/>
-    </row>
-    <row r="16" spans="2:10">
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="123"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="124"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="123"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="140"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="120"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="140"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3097,14 +3109,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3114,15 +3118,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="16" customWidth="1"/>
@@ -3131,7 +3135,7 @@
     <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18">
+    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="17" t="s">
         <v>159</v>
       </c>
@@ -3140,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15">
+    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="17" t="s">
         <v>144</v>
       </c>
@@ -3149,7 +3153,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13.5" thickBot="1">
+    <row r="4" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -3160,116 +3164,116 @@
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
     </row>
-    <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
-    <row r="6" spans="2:10">
-      <c r="B6" s="141" t="s">
+    <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="51" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="141" t="s">
+      <c r="D7" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="83" t="s">
         <v>112</v>
       </c>
       <c r="C8" s="52"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142"/>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="83" t="s">
         <v>118</v>
       </c>
       <c r="C9" s="52"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="83" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="52"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="83" t="s">
         <v>114</v>
       </c>
       <c r="C11" s="52"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="142"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="83" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="52"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="142"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="141"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="83" t="s">
         <v>115</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-    </row>
-    <row r="14" spans="2:10" ht="13.5" thickBot="1">
+      <c r="D13" s="149"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
+    </row>
+    <row r="14" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -3280,20 +3284,20 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="148" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="149"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="149"/>
-    </row>
-    <row r="16" spans="2:10" ht="23.25" customHeight="1">
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
+    </row>
+    <row r="16" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="47" t="s">
         <v>61</v>
       </c>
@@ -3303,18 +3307,18 @@
       <c r="D16" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="150" t="s">
+      <c r="E16" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="152"/>
-      <c r="G16" s="150" t="s">
+      <c r="F16" s="153"/>
+      <c r="G16" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="152"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="153"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>161</v>
       </c>
@@ -3322,27 +3326,27 @@
       <c r="D17" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="144" t="s">
+      <c r="E17" s="147" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="145"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="F17" s="148"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="9"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
-    </row>
-    <row r="19" spans="2:10" ht="13.5" thickBot="1">
+      <c r="E18" s="147"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
+    </row>
+    <row r="19" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3353,14 +3357,14 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B20" s="148" t="s">
+    <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="149"/>
-      <c r="D20" s="149"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="C20" s="145"/>
+      <c r="D20" s="145"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="46" t="s">
         <v>62</v>
       </c>
@@ -3371,7 +3375,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="25.5">
+    <row r="22" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="81" t="s">
         <v>137</v>
       </c>
@@ -3380,14 +3384,14 @@
       </c>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="81" t="s">
         <v>161</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3398,20 +3402,20 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B25" s="141" t="s">
+    <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="141"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="C25" s="143"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="143"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="51" t="s">
         <v>67</v>
       </c>
@@ -3421,61 +3425,52 @@
       <c r="D26" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="143" t="s">
+      <c r="E26" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143" t="s">
+      <c r="F26" s="146"/>
+      <c r="G26" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="12"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="142"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="142"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D7:J7"/>
@@ -3492,6 +3487,15 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3502,19 +3506,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="O16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AF30" sqref="AF30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3527,20 +3531,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AF97"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="I25" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -3573,52 +3577,52 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
       <c r="D1" s="79"/>
       <c r="Q1" s="55"/>
       <c r="R1" s="55"/>
       <c r="S1" s="55"/>
       <c r="T1" s="55"/>
     </row>
-    <row r="2" spans="2:29">
-      <c r="B2" s="165" t="s">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B2" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="167" t="s">
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="167"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="163" t="s">
+      <c r="O2" s="163"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="164"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="169"/>
+      <c r="AB2" s="169"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="23.25">
+    <row r="3" spans="2:29" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -3702,7 +3706,7 @@
       </c>
       <c r="AC3" s="41"/>
     </row>
-    <row r="4" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="4" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B4" s="68" t="s">
         <v>120</v>
       </c>
@@ -3762,7 +3766,7 @@
       <c r="AB4" s="68"/>
       <c r="AC4" s="68"/>
     </row>
-    <row r="5" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="5" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B5" s="68" t="s">
         <v>120</v>
       </c>
@@ -3822,7 +3826,7 @@
       <c r="AB5" s="68"/>
       <c r="AC5" s="68"/>
     </row>
-    <row r="6" spans="2:29" s="10" customFormat="1" ht="12">
+    <row r="6" spans="2:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="68" t="s">
         <v>120</v>
       </c>
@@ -3882,7 +3886,7 @@
       <c r="AB6" s="68"/>
       <c r="AC6" s="68"/>
     </row>
-    <row r="7" spans="2:29" s="15" customFormat="1" ht="12">
+    <row r="7" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B7" s="68" t="s">
         <v>120</v>
       </c>
@@ -3938,7 +3942,7 @@
       <c r="AB7" s="68"/>
       <c r="AC7" s="68"/>
     </row>
-    <row r="8" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="8" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B8" s="68" t="s">
         <v>120</v>
       </c>
@@ -3994,7 +3998,7 @@
       <c r="AB8" s="68"/>
       <c r="AC8" s="68"/>
     </row>
-    <row r="9" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="9" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B9" s="68" t="s">
         <v>120</v>
       </c>
@@ -4054,7 +4058,7 @@
       <c r="AB9" s="70"/>
       <c r="AC9" s="70"/>
     </row>
-    <row r="10" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="10" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B10" s="68" t="s">
         <v>120</v>
       </c>
@@ -4114,7 +4118,7 @@
       <c r="AB10" s="70"/>
       <c r="AC10" s="70"/>
     </row>
-    <row r="11" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="11" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B11" s="68" t="s">
         <v>120</v>
       </c>
@@ -4174,7 +4178,7 @@
       <c r="AB11" s="70"/>
       <c r="AC11" s="70"/>
     </row>
-    <row r="12" spans="2:29" s="10" customFormat="1" ht="12">
+    <row r="12" spans="2:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="84"/>
       <c r="C12" s="84"/>
       <c r="D12" s="85"/>
@@ -4224,7 +4228,7 @@
       <c r="AB12" s="70"/>
       <c r="AC12" s="70"/>
     </row>
-    <row r="13" spans="2:29" s="15" customFormat="1" ht="12">
+    <row r="13" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="68" t="s">
         <v>120</v>
       </c>
@@ -4288,7 +4292,7 @@
       <c r="AB13" s="70"/>
       <c r="AC13" s="70"/>
     </row>
-    <row r="14" spans="2:29" s="15" customFormat="1" ht="12">
+    <row r="14" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B14" s="84"/>
       <c r="C14" s="84"/>
       <c r="D14" s="85"/>
@@ -4342,7 +4346,7 @@
       <c r="AB14" s="70"/>
       <c r="AC14" s="70"/>
     </row>
-    <row r="15" spans="2:29" s="15" customFormat="1" ht="12">
+    <row r="15" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="84"/>
       <c r="C15" s="84"/>
       <c r="D15" s="85"/>
@@ -4384,7 +4388,7 @@
       <c r="AB15" s="70"/>
       <c r="AC15" s="70"/>
     </row>
-    <row r="16" spans="2:29" s="3" customFormat="1">
+    <row r="16" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="68" t="s">
         <v>120</v>
       </c>
@@ -4444,7 +4448,7 @@
       <c r="AB16" s="68"/>
       <c r="AC16" s="68"/>
     </row>
-    <row r="17" spans="2:29" s="3" customFormat="1">
+    <row r="17" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="68" t="s">
         <v>120</v>
       </c>
@@ -4504,7 +4508,7 @@
       <c r="AB17" s="68"/>
       <c r="AC17" s="68"/>
     </row>
-    <row r="18" spans="2:29" s="3" customFormat="1">
+    <row r="18" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="68" t="s">
         <v>120</v>
       </c>
@@ -4564,7 +4568,7 @@
       <c r="AB18" s="68"/>
       <c r="AC18" s="68"/>
     </row>
-    <row r="19" spans="2:29" s="3" customFormat="1">
+    <row r="19" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="68" t="s">
         <v>120</v>
       </c>
@@ -4624,7 +4628,7 @@
       <c r="AB19" s="68"/>
       <c r="AC19" s="68"/>
     </row>
-    <row r="20" spans="2:29">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B20" s="68" t="s">
         <v>120</v>
       </c>
@@ -4684,7 +4688,7 @@
       <c r="AB20" s="68"/>
       <c r="AC20" s="68"/>
     </row>
-    <row r="21" spans="2:29">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B21" s="68" t="s">
         <v>120</v>
       </c>
@@ -4744,7 +4748,7 @@
       <c r="AB21" s="68"/>
       <c r="AC21" s="68"/>
     </row>
-    <row r="22" spans="2:29">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B22" s="68" t="s">
         <v>120</v>
       </c>
@@ -4804,7 +4808,7 @@
       <c r="AB22" s="68"/>
       <c r="AC22" s="68"/>
     </row>
-    <row r="23" spans="2:29">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B23" s="68" t="s">
         <v>120</v>
       </c>
@@ -4864,7 +4868,7 @@
       <c r="AB23" s="68"/>
       <c r="AC23" s="68"/>
     </row>
-    <row r="24" spans="2:29">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B24" s="68" t="s">
         <v>120</v>
       </c>
@@ -4924,7 +4928,7 @@
       <c r="AB24" s="68"/>
       <c r="AC24" s="68"/>
     </row>
-    <row r="25" spans="2:29">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B25" s="68" t="s">
         <v>120</v>
       </c>
@@ -4984,7 +4988,7 @@
       <c r="AB25" s="68"/>
       <c r="AC25" s="68"/>
     </row>
-    <row r="26" spans="2:29">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B26" s="68" t="s">
         <v>120</v>
       </c>
@@ -5044,7 +5048,7 @@
       <c r="AB26" s="68"/>
       <c r="AC26" s="68"/>
     </row>
-    <row r="27" spans="2:29">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B27" s="68" t="s">
         <v>120</v>
       </c>
@@ -5104,7 +5108,7 @@
       <c r="AB27" s="68"/>
       <c r="AC27" s="68"/>
     </row>
-    <row r="28" spans="2:29">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B28" s="68" t="s">
         <v>120</v>
       </c>
@@ -5164,7 +5168,7 @@
       <c r="AB28" s="68"/>
       <c r="AC28" s="68"/>
     </row>
-    <row r="29" spans="2:29">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B29" s="68" t="s">
         <v>120</v>
       </c>
@@ -5224,7 +5228,7 @@
       <c r="AB29" s="68"/>
       <c r="AC29" s="68"/>
     </row>
-    <row r="30" spans="2:29">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B30" s="68" t="s">
         <v>120</v>
       </c>
@@ -5284,7 +5288,7 @@
       <c r="AB30" s="68"/>
       <c r="AC30" s="68"/>
     </row>
-    <row r="31" spans="2:29">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B31" s="68" t="s">
         <v>120</v>
       </c>
@@ -5348,7 +5352,7 @@
       <c r="AB31" s="68"/>
       <c r="AC31" s="68"/>
     </row>
-    <row r="32" spans="2:29">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B32" s="68" t="s">
         <v>120</v>
       </c>
@@ -5408,7 +5412,7 @@
       <c r="AB32" s="68"/>
       <c r="AC32" s="68"/>
     </row>
-    <row r="33" spans="2:29">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B33" s="68" t="s">
         <v>120</v>
       </c>
@@ -5468,7 +5472,7 @@
       <c r="AB33" s="68"/>
       <c r="AC33" s="68"/>
     </row>
-    <row r="34" spans="2:29">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B34" s="68" t="s">
         <v>120</v>
       </c>
@@ -5528,7 +5532,7 @@
       <c r="AB34" s="68"/>
       <c r="AC34" s="68"/>
     </row>
-    <row r="35" spans="2:29">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B35" s="68" t="s">
         <v>120</v>
       </c>
@@ -5588,7 +5592,7 @@
       <c r="AB35" s="68"/>
       <c r="AC35" s="68"/>
     </row>
-    <row r="36" spans="2:29">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B36" s="68" t="s">
         <v>120</v>
       </c>
@@ -5648,7 +5652,7 @@
       <c r="AB36" s="68"/>
       <c r="AC36" s="68"/>
     </row>
-    <row r="37" spans="2:29">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="87"/>
       <c r="C37" s="87"/>
       <c r="D37" s="85"/>
@@ -5698,7 +5702,7 @@
       <c r="AB37" s="68"/>
       <c r="AC37" s="68"/>
     </row>
-    <row r="38" spans="2:29" ht="24">
+    <row r="38" spans="2:29" ht="24" x14ac:dyDescent="0.2">
       <c r="B38" s="68" t="s">
         <v>120</v>
       </c>
@@ -5762,7 +5766,7 @@
       <c r="AB38" s="94"/>
       <c r="AC38" s="68"/>
     </row>
-    <row r="39" spans="2:29">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B39" s="68" t="s">
         <v>120</v>
       </c>
@@ -5793,34 +5797,34 @@
         <v>2</v>
       </c>
       <c r="M39" s="68"/>
-      <c r="N39" s="155" t="s">
+      <c r="N39" s="158" t="s">
         <v>126</v>
       </c>
-      <c r="O39" s="160"/>
-      <c r="P39" s="160"/>
-      <c r="Q39" s="155" t="s">
-        <v>121</v>
-      </c>
-      <c r="R39" s="155" t="s">
+      <c r="O39" s="165"/>
+      <c r="P39" s="165"/>
+      <c r="Q39" s="158" t="s">
+        <v>121</v>
+      </c>
+      <c r="R39" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="S39" s="155" t="s">
+      <c r="S39" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="T39" s="155" t="s">
+      <c r="T39" s="158" t="s">
         <v>109</v>
       </c>
-      <c r="U39" s="155"/>
-      <c r="V39" s="155"/>
-      <c r="W39" s="155"/>
-      <c r="X39" s="155"/>
-      <c r="Y39" s="155"/>
-      <c r="Z39" s="155"/>
-      <c r="AA39" s="155"/>
-      <c r="AB39" s="155"/>
-      <c r="AC39" s="155"/>
-    </row>
-    <row r="40" spans="2:29">
+      <c r="U39" s="158"/>
+      <c r="V39" s="158"/>
+      <c r="W39" s="158"/>
+      <c r="X39" s="158"/>
+      <c r="Y39" s="158"/>
+      <c r="Z39" s="158"/>
+      <c r="AA39" s="158"/>
+      <c r="AB39" s="158"/>
+      <c r="AC39" s="158"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B40" s="68" t="s">
         <v>120</v>
       </c>
@@ -5847,24 +5851,24 @@
       <c r="K40" s="68"/>
       <c r="L40" s="68"/>
       <c r="M40" s="68"/>
-      <c r="N40" s="158"/>
-      <c r="O40" s="161"/>
-      <c r="P40" s="161"/>
-      <c r="Q40" s="156"/>
-      <c r="R40" s="156"/>
-      <c r="S40" s="156"/>
-      <c r="T40" s="156"/>
-      <c r="U40" s="156"/>
-      <c r="V40" s="156"/>
-      <c r="W40" s="156"/>
-      <c r="X40" s="156"/>
-      <c r="Y40" s="156"/>
-      <c r="Z40" s="156"/>
-      <c r="AA40" s="156"/>
-      <c r="AB40" s="156"/>
-      <c r="AC40" s="156"/>
-    </row>
-    <row r="41" spans="2:29" ht="33.75" customHeight="1">
+      <c r="N40" s="170"/>
+      <c r="O40" s="166"/>
+      <c r="P40" s="166"/>
+      <c r="Q40" s="159"/>
+      <c r="R40" s="159"/>
+      <c r="S40" s="159"/>
+      <c r="T40" s="159"/>
+      <c r="U40" s="159"/>
+      <c r="V40" s="159"/>
+      <c r="W40" s="159"/>
+      <c r="X40" s="159"/>
+      <c r="Y40" s="159"/>
+      <c r="Z40" s="159"/>
+      <c r="AA40" s="159"/>
+      <c r="AB40" s="159"/>
+      <c r="AC40" s="159"/>
+    </row>
+    <row r="41" spans="2:29" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="68" t="s">
         <v>120</v>
       </c>
@@ -5891,24 +5895,24 @@
       <c r="K41" s="68"/>
       <c r="L41" s="68"/>
       <c r="M41" s="68"/>
-      <c r="N41" s="159"/>
-      <c r="O41" s="162"/>
-      <c r="P41" s="162"/>
-      <c r="Q41" s="157"/>
-      <c r="R41" s="157"/>
-      <c r="S41" s="157"/>
-      <c r="T41" s="157"/>
-      <c r="U41" s="157"/>
-      <c r="V41" s="157"/>
-      <c r="W41" s="157"/>
-      <c r="X41" s="157"/>
-      <c r="Y41" s="157"/>
-      <c r="Z41" s="157"/>
-      <c r="AA41" s="157"/>
-      <c r="AB41" s="157"/>
-      <c r="AC41" s="157"/>
-    </row>
-    <row r="42" spans="2:29">
+      <c r="N41" s="171"/>
+      <c r="O41" s="167"/>
+      <c r="P41" s="167"/>
+      <c r="Q41" s="160"/>
+      <c r="R41" s="160"/>
+      <c r="S41" s="160"/>
+      <c r="T41" s="160"/>
+      <c r="U41" s="160"/>
+      <c r="V41" s="160"/>
+      <c r="W41" s="160"/>
+      <c r="X41" s="160"/>
+      <c r="Y41" s="160"/>
+      <c r="Z41" s="160"/>
+      <c r="AA41" s="160"/>
+      <c r="AB41" s="160"/>
+      <c r="AC41" s="160"/>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B42" s="84"/>
       <c r="C42" s="84"/>
       <c r="D42" s="89"/>
@@ -5950,7 +5954,7 @@
       <c r="AB42" s="68"/>
       <c r="AC42" s="68"/>
     </row>
-    <row r="43" spans="2:29">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B43" s="68" t="s">
         <v>120</v>
       </c>
@@ -5979,34 +5983,34 @@
       </c>
       <c r="L43" s="68"/>
       <c r="M43" s="68"/>
-      <c r="N43" s="155" t="s">
+      <c r="N43" s="158" t="s">
         <v>127</v>
       </c>
-      <c r="O43" s="160"/>
-      <c r="P43" s="160"/>
-      <c r="Q43" s="155" t="s">
-        <v>121</v>
-      </c>
-      <c r="R43" s="155" t="s">
+      <c r="O43" s="165"/>
+      <c r="P43" s="165"/>
+      <c r="Q43" s="158" t="s">
+        <v>121</v>
+      </c>
+      <c r="R43" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="S43" s="155" t="s">
+      <c r="S43" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="T43" s="155" t="s">
+      <c r="T43" s="158" t="s">
         <v>110</v>
       </c>
-      <c r="U43" s="155"/>
-      <c r="V43" s="155"/>
-      <c r="W43" s="155"/>
-      <c r="X43" s="155"/>
-      <c r="Y43" s="155"/>
-      <c r="Z43" s="155"/>
-      <c r="AA43" s="155"/>
-      <c r="AB43" s="155"/>
-      <c r="AC43" s="155"/>
-    </row>
-    <row r="44" spans="2:29">
+      <c r="U43" s="158"/>
+      <c r="V43" s="158"/>
+      <c r="W43" s="158"/>
+      <c r="X43" s="158"/>
+      <c r="Y43" s="158"/>
+      <c r="Z43" s="158"/>
+      <c r="AA43" s="158"/>
+      <c r="AB43" s="158"/>
+      <c r="AC43" s="158"/>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B44" s="84"/>
       <c r="C44" s="84"/>
       <c r="D44" s="84"/>
@@ -6021,24 +6025,24 @@
       <c r="K44" s="68"/>
       <c r="L44" s="68"/>
       <c r="M44" s="68"/>
-      <c r="N44" s="156"/>
-      <c r="O44" s="161"/>
-      <c r="P44" s="161"/>
-      <c r="Q44" s="156"/>
-      <c r="R44" s="156"/>
-      <c r="S44" s="156"/>
-      <c r="T44" s="156"/>
-      <c r="U44" s="156"/>
-      <c r="V44" s="156"/>
-      <c r="W44" s="156"/>
-      <c r="X44" s="156"/>
-      <c r="Y44" s="156"/>
-      <c r="Z44" s="156"/>
-      <c r="AA44" s="156"/>
-      <c r="AB44" s="156"/>
-      <c r="AC44" s="156"/>
-    </row>
-    <row r="45" spans="2:29">
+      <c r="N44" s="159"/>
+      <c r="O44" s="166"/>
+      <c r="P44" s="166"/>
+      <c r="Q44" s="159"/>
+      <c r="R44" s="159"/>
+      <c r="S44" s="159"/>
+      <c r="T44" s="159"/>
+      <c r="U44" s="159"/>
+      <c r="V44" s="159"/>
+      <c r="W44" s="159"/>
+      <c r="X44" s="159"/>
+      <c r="Y44" s="159"/>
+      <c r="Z44" s="159"/>
+      <c r="AA44" s="159"/>
+      <c r="AB44" s="159"/>
+      <c r="AC44" s="159"/>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B45" s="84"/>
       <c r="C45" s="84"/>
       <c r="D45" s="84"/>
@@ -6053,24 +6057,24 @@
       <c r="K45" s="68"/>
       <c r="L45" s="68"/>
       <c r="M45" s="68"/>
-      <c r="N45" s="156"/>
-      <c r="O45" s="161"/>
-      <c r="P45" s="161"/>
-      <c r="Q45" s="156"/>
-      <c r="R45" s="156"/>
-      <c r="S45" s="156"/>
-      <c r="T45" s="156"/>
-      <c r="U45" s="156"/>
-      <c r="V45" s="156"/>
-      <c r="W45" s="156"/>
-      <c r="X45" s="156"/>
-      <c r="Y45" s="156"/>
-      <c r="Z45" s="156"/>
-      <c r="AA45" s="156"/>
-      <c r="AB45" s="156"/>
-      <c r="AC45" s="156"/>
-    </row>
-    <row r="46" spans="2:29">
+      <c r="N45" s="159"/>
+      <c r="O45" s="166"/>
+      <c r="P45" s="166"/>
+      <c r="Q45" s="159"/>
+      <c r="R45" s="159"/>
+      <c r="S45" s="159"/>
+      <c r="T45" s="159"/>
+      <c r="U45" s="159"/>
+      <c r="V45" s="159"/>
+      <c r="W45" s="159"/>
+      <c r="X45" s="159"/>
+      <c r="Y45" s="159"/>
+      <c r="Z45" s="159"/>
+      <c r="AA45" s="159"/>
+      <c r="AB45" s="159"/>
+      <c r="AC45" s="159"/>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B46" s="68" t="s">
         <v>120</v>
       </c>
@@ -6099,24 +6103,24 @@
       </c>
       <c r="L46" s="68"/>
       <c r="M46" s="68"/>
-      <c r="N46" s="156"/>
-      <c r="O46" s="161"/>
-      <c r="P46" s="161"/>
-      <c r="Q46" s="156"/>
-      <c r="R46" s="156"/>
-      <c r="S46" s="156"/>
-      <c r="T46" s="156"/>
-      <c r="U46" s="156"/>
-      <c r="V46" s="156"/>
-      <c r="W46" s="156"/>
-      <c r="X46" s="156"/>
-      <c r="Y46" s="156"/>
-      <c r="Z46" s="156"/>
-      <c r="AA46" s="156"/>
-      <c r="AB46" s="156"/>
-      <c r="AC46" s="156"/>
-    </row>
-    <row r="47" spans="2:29">
+      <c r="N46" s="159"/>
+      <c r="O46" s="166"/>
+      <c r="P46" s="166"/>
+      <c r="Q46" s="159"/>
+      <c r="R46" s="159"/>
+      <c r="S46" s="159"/>
+      <c r="T46" s="159"/>
+      <c r="U46" s="159"/>
+      <c r="V46" s="159"/>
+      <c r="W46" s="159"/>
+      <c r="X46" s="159"/>
+      <c r="Y46" s="159"/>
+      <c r="Z46" s="159"/>
+      <c r="AA46" s="159"/>
+      <c r="AB46" s="159"/>
+      <c r="AC46" s="159"/>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B47" s="68" t="s">
         <v>120</v>
       </c>
@@ -6145,24 +6149,24 @@
       </c>
       <c r="L47" s="68"/>
       <c r="M47" s="68"/>
-      <c r="N47" s="156"/>
-      <c r="O47" s="161"/>
-      <c r="P47" s="161"/>
-      <c r="Q47" s="156"/>
-      <c r="R47" s="156"/>
-      <c r="S47" s="156"/>
-      <c r="T47" s="156"/>
-      <c r="U47" s="156"/>
-      <c r="V47" s="156"/>
-      <c r="W47" s="156"/>
-      <c r="X47" s="156"/>
-      <c r="Y47" s="156"/>
-      <c r="Z47" s="156"/>
-      <c r="AA47" s="156"/>
-      <c r="AB47" s="156"/>
-      <c r="AC47" s="156"/>
-    </row>
-    <row r="48" spans="2:29">
+      <c r="N47" s="159"/>
+      <c r="O47" s="166"/>
+      <c r="P47" s="166"/>
+      <c r="Q47" s="159"/>
+      <c r="R47" s="159"/>
+      <c r="S47" s="159"/>
+      <c r="T47" s="159"/>
+      <c r="U47" s="159"/>
+      <c r="V47" s="159"/>
+      <c r="W47" s="159"/>
+      <c r="X47" s="159"/>
+      <c r="Y47" s="159"/>
+      <c r="Z47" s="159"/>
+      <c r="AA47" s="159"/>
+      <c r="AB47" s="159"/>
+      <c r="AC47" s="159"/>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B48" s="84"/>
       <c r="C48" s="84"/>
       <c r="D48" s="84"/>
@@ -6183,24 +6187,24 @@
       </c>
       <c r="L48" s="68"/>
       <c r="M48" s="68"/>
-      <c r="N48" s="156"/>
-      <c r="O48" s="161"/>
-      <c r="P48" s="161"/>
-      <c r="Q48" s="156"/>
-      <c r="R48" s="156"/>
-      <c r="S48" s="156"/>
-      <c r="T48" s="156"/>
-      <c r="U48" s="156"/>
-      <c r="V48" s="156"/>
-      <c r="W48" s="156"/>
-      <c r="X48" s="156"/>
-      <c r="Y48" s="156"/>
-      <c r="Z48" s="156"/>
-      <c r="AA48" s="156"/>
-      <c r="AB48" s="156"/>
-      <c r="AC48" s="156"/>
-    </row>
-    <row r="49" spans="2:29">
+      <c r="N48" s="159"/>
+      <c r="O48" s="166"/>
+      <c r="P48" s="166"/>
+      <c r="Q48" s="159"/>
+      <c r="R48" s="159"/>
+      <c r="S48" s="159"/>
+      <c r="T48" s="159"/>
+      <c r="U48" s="159"/>
+      <c r="V48" s="159"/>
+      <c r="W48" s="159"/>
+      <c r="X48" s="159"/>
+      <c r="Y48" s="159"/>
+      <c r="Z48" s="159"/>
+      <c r="AA48" s="159"/>
+      <c r="AB48" s="159"/>
+      <c r="AC48" s="159"/>
+    </row>
+    <row r="49" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B49" s="68" t="s">
         <v>120</v>
       </c>
@@ -6229,24 +6233,24 @@
       </c>
       <c r="L49" s="68"/>
       <c r="M49" s="68"/>
-      <c r="N49" s="156"/>
-      <c r="O49" s="161"/>
-      <c r="P49" s="161"/>
-      <c r="Q49" s="156"/>
-      <c r="R49" s="156"/>
-      <c r="S49" s="156"/>
-      <c r="T49" s="156"/>
-      <c r="U49" s="156"/>
-      <c r="V49" s="156"/>
-      <c r="W49" s="156"/>
-      <c r="X49" s="156"/>
-      <c r="Y49" s="156"/>
-      <c r="Z49" s="156"/>
-      <c r="AA49" s="156"/>
-      <c r="AB49" s="156"/>
-      <c r="AC49" s="156"/>
-    </row>
-    <row r="50" spans="2:29">
+      <c r="N49" s="159"/>
+      <c r="O49" s="166"/>
+      <c r="P49" s="166"/>
+      <c r="Q49" s="159"/>
+      <c r="R49" s="159"/>
+      <c r="S49" s="159"/>
+      <c r="T49" s="159"/>
+      <c r="U49" s="159"/>
+      <c r="V49" s="159"/>
+      <c r="W49" s="159"/>
+      <c r="X49" s="159"/>
+      <c r="Y49" s="159"/>
+      <c r="Z49" s="159"/>
+      <c r="AA49" s="159"/>
+      <c r="AB49" s="159"/>
+      <c r="AC49" s="159"/>
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B50" s="68" t="s">
         <v>120</v>
       </c>
@@ -6275,24 +6279,24 @@
       </c>
       <c r="L50" s="68"/>
       <c r="M50" s="68"/>
-      <c r="N50" s="156"/>
-      <c r="O50" s="161"/>
-      <c r="P50" s="161"/>
-      <c r="Q50" s="156"/>
-      <c r="R50" s="156"/>
-      <c r="S50" s="156"/>
-      <c r="T50" s="156"/>
-      <c r="U50" s="156"/>
-      <c r="V50" s="156"/>
-      <c r="W50" s="156"/>
-      <c r="X50" s="156"/>
-      <c r="Y50" s="156"/>
-      <c r="Z50" s="156"/>
-      <c r="AA50" s="156"/>
-      <c r="AB50" s="156"/>
-      <c r="AC50" s="156"/>
-    </row>
-    <row r="51" spans="2:29">
+      <c r="N50" s="159"/>
+      <c r="O50" s="166"/>
+      <c r="P50" s="166"/>
+      <c r="Q50" s="159"/>
+      <c r="R50" s="159"/>
+      <c r="S50" s="159"/>
+      <c r="T50" s="159"/>
+      <c r="U50" s="159"/>
+      <c r="V50" s="159"/>
+      <c r="W50" s="159"/>
+      <c r="X50" s="159"/>
+      <c r="Y50" s="159"/>
+      <c r="Z50" s="159"/>
+      <c r="AA50" s="159"/>
+      <c r="AB50" s="159"/>
+      <c r="AC50" s="159"/>
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B51" s="68" t="s">
         <v>120</v>
       </c>
@@ -6321,24 +6325,24 @@
       </c>
       <c r="L51" s="68"/>
       <c r="M51" s="68"/>
-      <c r="N51" s="156"/>
-      <c r="O51" s="161"/>
-      <c r="P51" s="161"/>
-      <c r="Q51" s="156"/>
-      <c r="R51" s="156"/>
-      <c r="S51" s="156"/>
-      <c r="T51" s="156"/>
-      <c r="U51" s="156"/>
-      <c r="V51" s="156"/>
-      <c r="W51" s="156"/>
-      <c r="X51" s="156"/>
-      <c r="Y51" s="156"/>
-      <c r="Z51" s="156"/>
-      <c r="AA51" s="156"/>
-      <c r="AB51" s="156"/>
-      <c r="AC51" s="156"/>
-    </row>
-    <row r="52" spans="2:29">
+      <c r="N51" s="159"/>
+      <c r="O51" s="166"/>
+      <c r="P51" s="166"/>
+      <c r="Q51" s="159"/>
+      <c r="R51" s="159"/>
+      <c r="S51" s="159"/>
+      <c r="T51" s="159"/>
+      <c r="U51" s="159"/>
+      <c r="V51" s="159"/>
+      <c r="W51" s="159"/>
+      <c r="X51" s="159"/>
+      <c r="Y51" s="159"/>
+      <c r="Z51" s="159"/>
+      <c r="AA51" s="159"/>
+      <c r="AB51" s="159"/>
+      <c r="AC51" s="159"/>
+    </row>
+    <row r="52" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B52" s="68" t="s">
         <v>120</v>
       </c>
@@ -6367,24 +6371,24 @@
       </c>
       <c r="L52" s="68"/>
       <c r="M52" s="68"/>
-      <c r="N52" s="156"/>
-      <c r="O52" s="161"/>
-      <c r="P52" s="161"/>
-      <c r="Q52" s="156"/>
-      <c r="R52" s="156"/>
-      <c r="S52" s="156"/>
-      <c r="T52" s="156"/>
-      <c r="U52" s="156"/>
-      <c r="V52" s="156"/>
-      <c r="W52" s="156"/>
-      <c r="X52" s="156"/>
-      <c r="Y52" s="156"/>
-      <c r="Z52" s="156"/>
-      <c r="AA52" s="156"/>
-      <c r="AB52" s="156"/>
-      <c r="AC52" s="156"/>
-    </row>
-    <row r="53" spans="2:29">
+      <c r="N52" s="159"/>
+      <c r="O52" s="166"/>
+      <c r="P52" s="166"/>
+      <c r="Q52" s="159"/>
+      <c r="R52" s="159"/>
+      <c r="S52" s="159"/>
+      <c r="T52" s="159"/>
+      <c r="U52" s="159"/>
+      <c r="V52" s="159"/>
+      <c r="W52" s="159"/>
+      <c r="X52" s="159"/>
+      <c r="Y52" s="159"/>
+      <c r="Z52" s="159"/>
+      <c r="AA52" s="159"/>
+      <c r="AB52" s="159"/>
+      <c r="AC52" s="159"/>
+    </row>
+    <row r="53" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B53" s="68" t="s">
         <v>120</v>
       </c>
@@ -6413,24 +6417,24 @@
       </c>
       <c r="L53" s="68"/>
       <c r="M53" s="68"/>
-      <c r="N53" s="157"/>
-      <c r="O53" s="162"/>
-      <c r="P53" s="162"/>
-      <c r="Q53" s="157"/>
-      <c r="R53" s="157"/>
-      <c r="S53" s="157"/>
-      <c r="T53" s="157"/>
-      <c r="U53" s="157"/>
-      <c r="V53" s="157"/>
-      <c r="W53" s="157"/>
-      <c r="X53" s="157"/>
-      <c r="Y53" s="157"/>
-      <c r="Z53" s="157"/>
-      <c r="AA53" s="157"/>
-      <c r="AB53" s="157"/>
-      <c r="AC53" s="157"/>
-    </row>
-    <row r="54" spans="2:29">
+      <c r="N53" s="160"/>
+      <c r="O53" s="167"/>
+      <c r="P53" s="167"/>
+      <c r="Q53" s="160"/>
+      <c r="R53" s="160"/>
+      <c r="S53" s="160"/>
+      <c r="T53" s="160"/>
+      <c r="U53" s="160"/>
+      <c r="V53" s="160"/>
+      <c r="W53" s="160"/>
+      <c r="X53" s="160"/>
+      <c r="Y53" s="160"/>
+      <c r="Z53" s="160"/>
+      <c r="AA53" s="160"/>
+      <c r="AB53" s="160"/>
+      <c r="AC53" s="160"/>
+    </row>
+    <row r="54" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B54" s="68" t="s">
         <v>120</v>
       </c>
@@ -6459,34 +6463,34 @@
       </c>
       <c r="L54" s="68"/>
       <c r="M54" s="68"/>
-      <c r="N54" s="155" t="s">
+      <c r="N54" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="O54" s="160"/>
-      <c r="P54" s="160"/>
-      <c r="Q54" s="155" t="s">
-        <v>121</v>
-      </c>
-      <c r="R54" s="155" t="s">
+      <c r="O54" s="165"/>
+      <c r="P54" s="165"/>
+      <c r="Q54" s="158" t="s">
+        <v>121</v>
+      </c>
+      <c r="R54" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="S54" s="155" t="s">
+      <c r="S54" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="T54" s="155" t="s">
+      <c r="T54" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="U54" s="169"/>
-      <c r="V54" s="169"/>
-      <c r="W54" s="169"/>
-      <c r="X54" s="169"/>
-      <c r="Y54" s="169"/>
-      <c r="Z54" s="169"/>
-      <c r="AA54" s="169"/>
-      <c r="AB54" s="169"/>
-      <c r="AC54" s="169"/>
-    </row>
-    <row r="55" spans="2:29">
+      <c r="U54" s="155"/>
+      <c r="V54" s="155"/>
+      <c r="W54" s="155"/>
+      <c r="X54" s="155"/>
+      <c r="Y54" s="155"/>
+      <c r="Z54" s="155"/>
+      <c r="AA54" s="155"/>
+      <c r="AB54" s="155"/>
+      <c r="AC54" s="155"/>
+    </row>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B55" s="68" t="s">
         <v>120</v>
       </c>
@@ -6515,24 +6519,24 @@
       </c>
       <c r="L55" s="68"/>
       <c r="M55" s="68"/>
-      <c r="N55" s="156"/>
-      <c r="O55" s="161"/>
-      <c r="P55" s="161"/>
-      <c r="Q55" s="156"/>
-      <c r="R55" s="156"/>
-      <c r="S55" s="156"/>
-      <c r="T55" s="156"/>
-      <c r="U55" s="170"/>
-      <c r="V55" s="170"/>
-      <c r="W55" s="170"/>
-      <c r="X55" s="170"/>
-      <c r="Y55" s="170"/>
-      <c r="Z55" s="170"/>
-      <c r="AA55" s="170"/>
-      <c r="AB55" s="170"/>
-      <c r="AC55" s="170"/>
-    </row>
-    <row r="56" spans="2:29">
+      <c r="N55" s="159"/>
+      <c r="O55" s="166"/>
+      <c r="P55" s="166"/>
+      <c r="Q55" s="159"/>
+      <c r="R55" s="159"/>
+      <c r="S55" s="159"/>
+      <c r="T55" s="159"/>
+      <c r="U55" s="156"/>
+      <c r="V55" s="156"/>
+      <c r="W55" s="156"/>
+      <c r="X55" s="156"/>
+      <c r="Y55" s="156"/>
+      <c r="Z55" s="156"/>
+      <c r="AA55" s="156"/>
+      <c r="AB55" s="156"/>
+      <c r="AC55" s="156"/>
+    </row>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B56" s="68" t="s">
         <v>120</v>
       </c>
@@ -6561,24 +6565,24 @@
       </c>
       <c r="L56" s="68"/>
       <c r="M56" s="68"/>
-      <c r="N56" s="156"/>
-      <c r="O56" s="161"/>
-      <c r="P56" s="161"/>
-      <c r="Q56" s="156"/>
-      <c r="R56" s="156"/>
-      <c r="S56" s="156"/>
-      <c r="T56" s="156"/>
-      <c r="U56" s="170"/>
-      <c r="V56" s="170"/>
-      <c r="W56" s="170"/>
-      <c r="X56" s="170"/>
-      <c r="Y56" s="170"/>
-      <c r="Z56" s="170"/>
-      <c r="AA56" s="170"/>
-      <c r="AB56" s="170"/>
-      <c r="AC56" s="170"/>
-    </row>
-    <row r="57" spans="2:29">
+      <c r="N56" s="159"/>
+      <c r="O56" s="166"/>
+      <c r="P56" s="166"/>
+      <c r="Q56" s="159"/>
+      <c r="R56" s="159"/>
+      <c r="S56" s="159"/>
+      <c r="T56" s="159"/>
+      <c r="U56" s="156"/>
+      <c r="V56" s="156"/>
+      <c r="W56" s="156"/>
+      <c r="X56" s="156"/>
+      <c r="Y56" s="156"/>
+      <c r="Z56" s="156"/>
+      <c r="AA56" s="156"/>
+      <c r="AB56" s="156"/>
+      <c r="AC56" s="156"/>
+    </row>
+    <row r="57" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B57" s="84"/>
       <c r="C57" s="84"/>
       <c r="D57" s="84"/>
@@ -6599,24 +6603,24 @@
       </c>
       <c r="L57" s="68"/>
       <c r="M57" s="68"/>
-      <c r="N57" s="156"/>
-      <c r="O57" s="161"/>
-      <c r="P57" s="161"/>
-      <c r="Q57" s="156"/>
-      <c r="R57" s="156"/>
-      <c r="S57" s="156"/>
-      <c r="T57" s="156"/>
-      <c r="U57" s="170"/>
-      <c r="V57" s="170"/>
-      <c r="W57" s="170"/>
-      <c r="X57" s="170"/>
-      <c r="Y57" s="170"/>
-      <c r="Z57" s="170"/>
-      <c r="AA57" s="170"/>
-      <c r="AB57" s="170"/>
-      <c r="AC57" s="170"/>
-    </row>
-    <row r="58" spans="2:29">
+      <c r="N57" s="159"/>
+      <c r="O57" s="166"/>
+      <c r="P57" s="166"/>
+      <c r="Q57" s="159"/>
+      <c r="R57" s="159"/>
+      <c r="S57" s="159"/>
+      <c r="T57" s="159"/>
+      <c r="U57" s="156"/>
+      <c r="V57" s="156"/>
+      <c r="W57" s="156"/>
+      <c r="X57" s="156"/>
+      <c r="Y57" s="156"/>
+      <c r="Z57" s="156"/>
+      <c r="AA57" s="156"/>
+      <c r="AB57" s="156"/>
+      <c r="AC57" s="156"/>
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B58" s="68" t="s">
         <v>120</v>
       </c>
@@ -6645,24 +6649,24 @@
       </c>
       <c r="L58" s="68"/>
       <c r="M58" s="68"/>
-      <c r="N58" s="156"/>
-      <c r="O58" s="161"/>
-      <c r="P58" s="161"/>
-      <c r="Q58" s="156"/>
-      <c r="R58" s="156"/>
-      <c r="S58" s="156"/>
-      <c r="T58" s="156"/>
-      <c r="U58" s="170"/>
-      <c r="V58" s="170"/>
-      <c r="W58" s="170"/>
-      <c r="X58" s="170"/>
-      <c r="Y58" s="170"/>
-      <c r="Z58" s="170"/>
-      <c r="AA58" s="170"/>
-      <c r="AB58" s="170"/>
-      <c r="AC58" s="170"/>
-    </row>
-    <row r="59" spans="2:29">
+      <c r="N58" s="159"/>
+      <c r="O58" s="166"/>
+      <c r="P58" s="166"/>
+      <c r="Q58" s="159"/>
+      <c r="R58" s="159"/>
+      <c r="S58" s="159"/>
+      <c r="T58" s="159"/>
+      <c r="U58" s="156"/>
+      <c r="V58" s="156"/>
+      <c r="W58" s="156"/>
+      <c r="X58" s="156"/>
+      <c r="Y58" s="156"/>
+      <c r="Z58" s="156"/>
+      <c r="AA58" s="156"/>
+      <c r="AB58" s="156"/>
+      <c r="AC58" s="156"/>
+    </row>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B59" s="84"/>
       <c r="C59" s="84"/>
       <c r="D59" s="84"/>
@@ -6683,24 +6687,24 @@
       </c>
       <c r="L59" s="68"/>
       <c r="M59" s="68"/>
-      <c r="N59" s="156"/>
-      <c r="O59" s="161"/>
-      <c r="P59" s="161"/>
-      <c r="Q59" s="156"/>
-      <c r="R59" s="156"/>
-      <c r="S59" s="156"/>
-      <c r="T59" s="156"/>
-      <c r="U59" s="170"/>
-      <c r="V59" s="170"/>
-      <c r="W59" s="170"/>
-      <c r="X59" s="170"/>
-      <c r="Y59" s="170"/>
-      <c r="Z59" s="170"/>
-      <c r="AA59" s="170"/>
-      <c r="AB59" s="170"/>
-      <c r="AC59" s="170"/>
-    </row>
-    <row r="60" spans="2:29">
+      <c r="N59" s="159"/>
+      <c r="O59" s="166"/>
+      <c r="P59" s="166"/>
+      <c r="Q59" s="159"/>
+      <c r="R59" s="159"/>
+      <c r="S59" s="159"/>
+      <c r="T59" s="159"/>
+      <c r="U59" s="156"/>
+      <c r="V59" s="156"/>
+      <c r="W59" s="156"/>
+      <c r="X59" s="156"/>
+      <c r="Y59" s="156"/>
+      <c r="Z59" s="156"/>
+      <c r="AA59" s="156"/>
+      <c r="AB59" s="156"/>
+      <c r="AC59" s="156"/>
+    </row>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B60" s="68" t="s">
         <v>120</v>
       </c>
@@ -6729,24 +6733,24 @@
       </c>
       <c r="L60" s="68"/>
       <c r="M60" s="68"/>
-      <c r="N60" s="156"/>
-      <c r="O60" s="161"/>
-      <c r="P60" s="161"/>
-      <c r="Q60" s="156"/>
-      <c r="R60" s="156"/>
-      <c r="S60" s="156"/>
-      <c r="T60" s="156"/>
-      <c r="U60" s="170"/>
-      <c r="V60" s="170"/>
-      <c r="W60" s="170"/>
-      <c r="X60" s="170"/>
-      <c r="Y60" s="170"/>
-      <c r="Z60" s="170"/>
-      <c r="AA60" s="170"/>
-      <c r="AB60" s="170"/>
-      <c r="AC60" s="170"/>
-    </row>
-    <row r="61" spans="2:29">
+      <c r="N60" s="159"/>
+      <c r="O60" s="166"/>
+      <c r="P60" s="166"/>
+      <c r="Q60" s="159"/>
+      <c r="R60" s="159"/>
+      <c r="S60" s="159"/>
+      <c r="T60" s="159"/>
+      <c r="U60" s="156"/>
+      <c r="V60" s="156"/>
+      <c r="W60" s="156"/>
+      <c r="X60" s="156"/>
+      <c r="Y60" s="156"/>
+      <c r="Z60" s="156"/>
+      <c r="AA60" s="156"/>
+      <c r="AB60" s="156"/>
+      <c r="AC60" s="156"/>
+    </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B61" s="68" t="s">
         <v>120</v>
       </c>
@@ -6775,24 +6779,24 @@
       </c>
       <c r="L61" s="68"/>
       <c r="M61" s="68"/>
-      <c r="N61" s="157"/>
-      <c r="O61" s="162"/>
-      <c r="P61" s="162"/>
-      <c r="Q61" s="157"/>
-      <c r="R61" s="157"/>
-      <c r="S61" s="157"/>
-      <c r="T61" s="157"/>
-      <c r="U61" s="171"/>
-      <c r="V61" s="171"/>
-      <c r="W61" s="171"/>
-      <c r="X61" s="171"/>
-      <c r="Y61" s="171"/>
-      <c r="Z61" s="171"/>
-      <c r="AA61" s="171"/>
-      <c r="AB61" s="171"/>
-      <c r="AC61" s="171"/>
-    </row>
-    <row r="62" spans="2:29">
+      <c r="N61" s="160"/>
+      <c r="O61" s="167"/>
+      <c r="P61" s="167"/>
+      <c r="Q61" s="160"/>
+      <c r="R61" s="160"/>
+      <c r="S61" s="160"/>
+      <c r="T61" s="160"/>
+      <c r="U61" s="157"/>
+      <c r="V61" s="157"/>
+      <c r="W61" s="157"/>
+      <c r="X61" s="157"/>
+      <c r="Y61" s="157"/>
+      <c r="Z61" s="157"/>
+      <c r="AA61" s="157"/>
+      <c r="AB61" s="157"/>
+      <c r="AC61" s="157"/>
+    </row>
+    <row r="62" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B62" s="84"/>
       <c r="C62" s="84"/>
       <c r="D62" s="84"/>
@@ -6842,7 +6846,7 @@
       <c r="AB62" s="68"/>
       <c r="AC62" s="68"/>
     </row>
-    <row r="63" spans="2:29">
+    <row r="63" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B63" s="84"/>
       <c r="C63" s="84"/>
       <c r="D63" s="84"/>
@@ -6892,7 +6896,7 @@
       <c r="AB63" s="68"/>
       <c r="AC63" s="68"/>
     </row>
-    <row r="64" spans="2:29">
+    <row r="64" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B64" s="84"/>
       <c r="C64" s="84"/>
       <c r="D64" s="84"/>
@@ -6940,7 +6944,7 @@
       <c r="AB64" s="106"/>
       <c r="AC64" s="106"/>
     </row>
-    <row r="65" spans="2:23">
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
       <c r="D65" s="60"/>
@@ -6964,7 +6968,7 @@
       <c r="V65" s="59"/>
       <c r="W65" s="59"/>
     </row>
-    <row r="66" spans="2:23">
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B66" s="59"/>
       <c r="C66" s="59"/>
       <c r="D66" s="60"/>
@@ -6988,7 +6992,7 @@
       <c r="V66" s="59"/>
       <c r="W66" s="59"/>
     </row>
-    <row r="67" spans="2:23">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B67" s="59"/>
       <c r="C67" s="59"/>
       <c r="D67" s="60"/>
@@ -7012,7 +7016,7 @@
       <c r="V67" s="59"/>
       <c r="W67" s="59"/>
     </row>
-    <row r="68" spans="2:23">
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
       <c r="D68" s="60"/>
@@ -7036,7 +7040,7 @@
       <c r="V68" s="59"/>
       <c r="W68" s="59"/>
     </row>
-    <row r="69" spans="2:23">
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
       <c r="D69" s="60"/>
@@ -7060,7 +7064,7 @@
       <c r="V69" s="59"/>
       <c r="W69" s="59"/>
     </row>
-    <row r="70" spans="2:23">
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
       <c r="D70" s="60"/>
@@ -7084,7 +7088,7 @@
       <c r="V70" s="59"/>
       <c r="W70" s="59"/>
     </row>
-    <row r="71" spans="2:23">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
       <c r="D71" s="60"/>
@@ -7108,7 +7112,7 @@
       <c r="V71" s="59"/>
       <c r="W71" s="59"/>
     </row>
-    <row r="72" spans="2:23">
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
       <c r="D72" s="60"/>
@@ -7132,7 +7136,7 @@
       <c r="V72" s="59"/>
       <c r="W72" s="59"/>
     </row>
-    <row r="73" spans="2:23">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
       <c r="D73" s="60"/>
@@ -7156,7 +7160,7 @@
       <c r="V73" s="59"/>
       <c r="W73" s="59"/>
     </row>
-    <row r="74" spans="2:23">
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
       <c r="D74" s="60"/>
@@ -7180,7 +7184,7 @@
       <c r="V74" s="59"/>
       <c r="W74" s="59"/>
     </row>
-    <row r="75" spans="2:23">
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
       <c r="D75" s="60"/>
@@ -7204,7 +7208,7 @@
       <c r="V75" s="59"/>
       <c r="W75" s="59"/>
     </row>
-    <row r="76" spans="2:23">
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B76" s="59"/>
       <c r="C76" s="59"/>
       <c r="D76" s="60"/>
@@ -7228,7 +7232,7 @@
       <c r="V76" s="59"/>
       <c r="W76" s="59"/>
     </row>
-    <row r="77" spans="2:23">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
       <c r="D77" s="60"/>
@@ -7252,7 +7256,7 @@
       <c r="V77" s="59"/>
       <c r="W77" s="59"/>
     </row>
-    <row r="78" spans="2:23">
+    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
       <c r="D78" s="60"/>
@@ -7276,7 +7280,7 @@
       <c r="V78" s="59"/>
       <c r="W78" s="59"/>
     </row>
-    <row r="79" spans="2:23">
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
       <c r="D79" s="60"/>
@@ -7300,7 +7304,7 @@
       <c r="V79" s="59"/>
       <c r="W79" s="59"/>
     </row>
-    <row r="80" spans="2:23">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
       <c r="D80" s="60"/>
@@ -7324,7 +7328,7 @@
       <c r="V80" s="59"/>
       <c r="W80" s="59"/>
     </row>
-    <row r="81" spans="2:23">
+    <row r="81" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
       <c r="D81" s="60"/>
@@ -7348,7 +7352,7 @@
       <c r="V81" s="59"/>
       <c r="W81" s="59"/>
     </row>
-    <row r="82" spans="2:23">
+    <row r="82" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B82" s="59"/>
       <c r="C82" s="59"/>
       <c r="D82" s="60"/>
@@ -7372,7 +7376,7 @@
       <c r="V82" s="59"/>
       <c r="W82" s="59"/>
     </row>
-    <row r="83" spans="2:23">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B83" s="59"/>
       <c r="C83" s="59"/>
       <c r="D83" s="60"/>
@@ -7396,7 +7400,7 @@
       <c r="V83" s="59"/>
       <c r="W83" s="59"/>
     </row>
-    <row r="84" spans="2:23">
+    <row r="84" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B84" s="59"/>
       <c r="C84" s="59"/>
       <c r="D84" s="60"/>
@@ -7420,7 +7424,7 @@
       <c r="V84" s="59"/>
       <c r="W84" s="59"/>
     </row>
-    <row r="85" spans="2:23">
+    <row r="85" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
       <c r="D85" s="60"/>
@@ -7444,7 +7448,7 @@
       <c r="V85" s="59"/>
       <c r="W85" s="59"/>
     </row>
-    <row r="86" spans="2:23">
+    <row r="86" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B86" s="59"/>
       <c r="C86" s="59"/>
       <c r="D86" s="60"/>
@@ -7468,7 +7472,7 @@
       <c r="V86" s="59"/>
       <c r="W86" s="59"/>
     </row>
-    <row r="87" spans="2:23">
+    <row r="87" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B87" s="59"/>
       <c r="C87" s="59"/>
       <c r="D87" s="60"/>
@@ -7492,7 +7496,7 @@
       <c r="V87" s="59"/>
       <c r="W87" s="59"/>
     </row>
-    <row r="88" spans="2:23">
+    <row r="88" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B88" s="59"/>
       <c r="C88" s="59"/>
       <c r="D88" s="60"/>
@@ -7516,7 +7520,7 @@
       <c r="V88" s="59"/>
       <c r="W88" s="59"/>
     </row>
-    <row r="89" spans="2:23">
+    <row r="89" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B89" s="59"/>
       <c r="C89" s="59"/>
       <c r="D89" s="60"/>
@@ -7540,7 +7544,7 @@
       <c r="V89" s="59"/>
       <c r="W89" s="59"/>
     </row>
-    <row r="90" spans="2:23">
+    <row r="90" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B90" s="59"/>
       <c r="C90" s="59"/>
       <c r="D90" s="60"/>
@@ -7564,7 +7568,7 @@
       <c r="V90" s="59"/>
       <c r="W90" s="59"/>
     </row>
-    <row r="91" spans="2:23">
+    <row r="91" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B91" s="59"/>
       <c r="C91" s="59"/>
       <c r="D91" s="60"/>
@@ -7588,7 +7592,7 @@
       <c r="V91" s="59"/>
       <c r="W91" s="59"/>
     </row>
-    <row r="92" spans="2:23">
+    <row r="92" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B92" s="59"/>
       <c r="C92" s="59"/>
       <c r="D92" s="60"/>
@@ -7612,7 +7616,7 @@
       <c r="V92" s="59"/>
       <c r="W92" s="59"/>
     </row>
-    <row r="93" spans="2:23">
+    <row r="93" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B93" s="59"/>
       <c r="C93" s="59"/>
       <c r="D93" s="60"/>
@@ -7636,7 +7640,7 @@
       <c r="V93" s="59"/>
       <c r="W93" s="59"/>
     </row>
-    <row r="94" spans="2:23">
+    <row r="94" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B94" s="59"/>
       <c r="C94" s="59"/>
       <c r="D94" s="60"/>
@@ -7660,7 +7664,7 @@
       <c r="V94" s="59"/>
       <c r="W94" s="59"/>
     </row>
-    <row r="95" spans="2:23">
+    <row r="95" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B95" s="59"/>
       <c r="C95" s="59"/>
       <c r="D95" s="60"/>
@@ -7684,7 +7688,7 @@
       <c r="V95" s="59"/>
       <c r="W95" s="59"/>
     </row>
-    <row r="96" spans="2:23">
+    <row r="96" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B96" s="59"/>
       <c r="C96" s="59"/>
       <c r="D96" s="60"/>
@@ -7708,7 +7712,7 @@
       <c r="V96" s="59"/>
       <c r="W96" s="59"/>
     </row>
-    <row r="97" spans="2:23">
+    <row r="97" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B97" s="59"/>
       <c r="C97" s="59"/>
       <c r="D97" s="60"/>
@@ -7734,24 +7738,23 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="AA54:AA61"/>
-    <mergeCell ref="AB54:AB61"/>
-    <mergeCell ref="AC54:AC61"/>
-    <mergeCell ref="Y43:Y53"/>
-    <mergeCell ref="Z43:Z53"/>
-    <mergeCell ref="AA43:AA53"/>
-    <mergeCell ref="AB43:AB53"/>
-    <mergeCell ref="AC43:AC53"/>
-    <mergeCell ref="Z54:Z61"/>
-    <mergeCell ref="Y54:Y61"/>
-    <mergeCell ref="U43:U53"/>
-    <mergeCell ref="V43:V53"/>
-    <mergeCell ref="W43:W53"/>
-    <mergeCell ref="X43:X53"/>
-    <mergeCell ref="U54:U61"/>
-    <mergeCell ref="V54:V61"/>
-    <mergeCell ref="W54:W61"/>
-    <mergeCell ref="X54:X61"/>
+    <mergeCell ref="AC39:AC41"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="V39:V41"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="T39:T41"/>
+    <mergeCell ref="S39:S41"/>
+    <mergeCell ref="W39:W41"/>
+    <mergeCell ref="X39:X41"/>
+    <mergeCell ref="Y39:Y41"/>
+    <mergeCell ref="Z39:Z41"/>
+    <mergeCell ref="AA39:AA41"/>
+    <mergeCell ref="AB39:AB41"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q54:Q61"/>
@@ -7768,23 +7771,24 @@
     <mergeCell ref="P54:P61"/>
     <mergeCell ref="O54:O61"/>
     <mergeCell ref="N54:N61"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="U39:U41"/>
-    <mergeCell ref="V39:V41"/>
-    <mergeCell ref="Q39:Q41"/>
-    <mergeCell ref="T39:T41"/>
-    <mergeCell ref="S39:S41"/>
-    <mergeCell ref="W39:W41"/>
-    <mergeCell ref="X39:X41"/>
-    <mergeCell ref="Y39:Y41"/>
-    <mergeCell ref="Z39:Z41"/>
-    <mergeCell ref="AA39:AA41"/>
-    <mergeCell ref="AB39:AB41"/>
-    <mergeCell ref="AC39:AC41"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="P39:P41"/>
-    <mergeCell ref="O39:O41"/>
-    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="U43:U53"/>
+    <mergeCell ref="V43:V53"/>
+    <mergeCell ref="W43:W53"/>
+    <mergeCell ref="X43:X53"/>
+    <mergeCell ref="U54:U61"/>
+    <mergeCell ref="V54:V61"/>
+    <mergeCell ref="W54:W61"/>
+    <mergeCell ref="X54:X61"/>
+    <mergeCell ref="AA54:AA61"/>
+    <mergeCell ref="AB54:AB61"/>
+    <mergeCell ref="AC54:AC61"/>
+    <mergeCell ref="Y43:Y53"/>
+    <mergeCell ref="Z43:Z53"/>
+    <mergeCell ref="AA43:AA53"/>
+    <mergeCell ref="AB43:AB53"/>
+    <mergeCell ref="AC43:AC53"/>
+    <mergeCell ref="Z54:Z61"/>
+    <mergeCell ref="Y54:Y61"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7794,12 +7798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="2.7109375" customWidth="1"/>
   </cols>
@@ -7810,7 +7814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7823,7 +7827,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -7857,52 +7861,52 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
       <c r="D1" s="79"/>
       <c r="Q1" s="55"/>
       <c r="R1" s="55"/>
       <c r="S1" s="55"/>
       <c r="T1" s="55"/>
     </row>
-    <row r="2" spans="2:29">
-      <c r="B2" s="165" t="s">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B2" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="167" t="s">
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="167"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="163" t="s">
+      <c r="O2" s="163"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="164"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="169"/>
+      <c r="AB2" s="169"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="23.25">
+    <row r="3" spans="2:29" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -7986,7 +7990,7 @@
       </c>
       <c r="AC3" s="41"/>
     </row>
-    <row r="4" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="4" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B4" s="68" t="s">
         <v>120</v>
       </c>
@@ -8040,7 +8044,7 @@
       <c r="AB4" s="68"/>
       <c r="AC4" s="68"/>
     </row>
-    <row r="5" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="5" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B5" s="68" t="s">
         <v>120</v>
       </c>
@@ -8094,7 +8098,7 @@
       <c r="AB5" s="68"/>
       <c r="AC5" s="68"/>
     </row>
-    <row r="6" spans="2:29" s="10" customFormat="1" ht="12">
+    <row r="6" spans="2:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="68" t="s">
         <v>120</v>
       </c>
@@ -8148,7 +8152,7 @@
       <c r="AB6" s="68"/>
       <c r="AC6" s="68"/>
     </row>
-    <row r="7" spans="2:29" s="15" customFormat="1" ht="12">
+    <row r="7" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B7" s="68" t="s">
         <v>120</v>
       </c>
@@ -8198,7 +8202,7 @@
       <c r="AB7" s="68"/>
       <c r="AC7" s="68"/>
     </row>
-    <row r="8" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="8" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B8" s="68" t="s">
         <v>120</v>
       </c>
@@ -8248,7 +8252,7 @@
       <c r="AB8" s="68"/>
       <c r="AC8" s="68"/>
     </row>
-    <row r="9" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="9" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B9" s="68" t="s">
         <v>120</v>
       </c>
@@ -8302,7 +8306,7 @@
       <c r="AB9" s="70"/>
       <c r="AC9" s="70"/>
     </row>
-    <row r="10" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="10" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B10" s="68" t="s">
         <v>120</v>
       </c>
@@ -8356,7 +8360,7 @@
       <c r="AB10" s="70"/>
       <c r="AC10" s="70"/>
     </row>
-    <row r="11" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="11" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B11" s="68" t="s">
         <v>120</v>
       </c>
@@ -8410,7 +8414,7 @@
       <c r="AB11" s="70"/>
       <c r="AC11" s="70"/>
     </row>
-    <row r="12" spans="2:29" s="10" customFormat="1" ht="12">
+    <row r="12" spans="2:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="68" t="s">
         <v>120</v>
       </c>
@@ -8464,7 +8468,7 @@
       <c r="AB12" s="70"/>
       <c r="AC12" s="70"/>
     </row>
-    <row r="13" spans="2:29" s="15" customFormat="1" ht="12">
+    <row r="13" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="68" t="s">
         <v>120</v>
       </c>
@@ -8522,7 +8526,7 @@
       <c r="AB13" s="70"/>
       <c r="AC13" s="70"/>
     </row>
-    <row r="14" spans="2:29" s="15" customFormat="1" ht="12">
+    <row r="14" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B14" s="68" t="s">
         <v>120</v>
       </c>
@@ -8580,7 +8584,7 @@
       <c r="AB14" s="70"/>
       <c r="AC14" s="70"/>
     </row>
-    <row r="15" spans="2:29" s="15" customFormat="1" ht="12">
+    <row r="15" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="68" t="s">
         <v>120</v>
       </c>
@@ -8638,7 +8642,7 @@
       <c r="AB15" s="70"/>
       <c r="AC15" s="70"/>
     </row>
-    <row r="16" spans="2:29" s="3" customFormat="1">
+    <row r="16" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="68" t="s">
         <v>120</v>
       </c>
@@ -8692,7 +8696,7 @@
       <c r="AB16" s="68"/>
       <c r="AC16" s="68"/>
     </row>
-    <row r="17" spans="2:29" s="3" customFormat="1">
+    <row r="17" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="68" t="s">
         <v>120</v>
       </c>
@@ -8746,7 +8750,7 @@
       <c r="AB17" s="68"/>
       <c r="AC17" s="68"/>
     </row>
-    <row r="18" spans="2:29" s="3" customFormat="1">
+    <row r="18" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="68" t="s">
         <v>120</v>
       </c>
@@ -8800,7 +8804,7 @@
       <c r="AB18" s="68"/>
       <c r="AC18" s="68"/>
     </row>
-    <row r="19" spans="2:29" s="3" customFormat="1">
+    <row r="19" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="68" t="s">
         <v>120</v>
       </c>
@@ -8850,7 +8854,7 @@
       <c r="AB19" s="68"/>
       <c r="AC19" s="68"/>
     </row>
-    <row r="20" spans="2:29">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B20" s="68" t="s">
         <v>120</v>
       </c>
@@ -8904,7 +8908,7 @@
       <c r="AB20" s="68"/>
       <c r="AC20" s="68"/>
     </row>
-    <row r="21" spans="2:29">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B21" s="68" t="s">
         <v>120</v>
       </c>
@@ -8958,7 +8962,7 @@
       <c r="AB21" s="68"/>
       <c r="AC21" s="68"/>
     </row>
-    <row r="22" spans="2:29">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B22" s="68" t="s">
         <v>120</v>
       </c>
@@ -9012,7 +9016,7 @@
       <c r="AB22" s="68"/>
       <c r="AC22" s="68"/>
     </row>
-    <row r="23" spans="2:29">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B23" s="68" t="s">
         <v>120</v>
       </c>
@@ -9066,7 +9070,7 @@
       <c r="AB23" s="68"/>
       <c r="AC23" s="68"/>
     </row>
-    <row r="24" spans="2:29">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B24" s="68" t="s">
         <v>120</v>
       </c>
@@ -9120,7 +9124,7 @@
       <c r="AB24" s="68"/>
       <c r="AC24" s="68"/>
     </row>
-    <row r="25" spans="2:29">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B25" s="68" t="s">
         <v>120</v>
       </c>
@@ -9174,7 +9178,7 @@
       <c r="AB25" s="68"/>
       <c r="AC25" s="68"/>
     </row>
-    <row r="26" spans="2:29">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B26" s="68" t="s">
         <v>120</v>
       </c>
@@ -9228,7 +9232,7 @@
       <c r="AB26" s="68"/>
       <c r="AC26" s="68"/>
     </row>
-    <row r="27" spans="2:29">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B27" s="68" t="s">
         <v>120</v>
       </c>
@@ -9282,7 +9286,7 @@
       <c r="AB27" s="68"/>
       <c r="AC27" s="68"/>
     </row>
-    <row r="28" spans="2:29">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B28" s="68" t="s">
         <v>120</v>
       </c>
@@ -9336,7 +9340,7 @@
       <c r="AB28" s="68"/>
       <c r="AC28" s="68"/>
     </row>
-    <row r="29" spans="2:29">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B29" s="68" t="s">
         <v>120</v>
       </c>
@@ -9390,7 +9394,7 @@
       <c r="AB29" s="68"/>
       <c r="AC29" s="68"/>
     </row>
-    <row r="30" spans="2:29">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B30" s="68" t="s">
         <v>120</v>
       </c>
@@ -9444,7 +9448,7 @@
       <c r="AB30" s="68"/>
       <c r="AC30" s="68"/>
     </row>
-    <row r="31" spans="2:29">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B31" s="68" t="s">
         <v>120</v>
       </c>
@@ -9502,7 +9506,7 @@
       <c r="AB31" s="68"/>
       <c r="AC31" s="68"/>
     </row>
-    <row r="32" spans="2:29">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B32" s="68" t="s">
         <v>120</v>
       </c>
@@ -9556,7 +9560,7 @@
       <c r="AB32" s="68"/>
       <c r="AC32" s="68"/>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B33" s="68" t="s">
         <v>120</v>
       </c>
@@ -9610,7 +9614,7 @@
       <c r="AB33" s="68"/>
       <c r="AC33" s="68"/>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B34" s="68" t="s">
         <v>120</v>
       </c>
@@ -9664,7 +9668,7 @@
       <c r="AB34" s="68"/>
       <c r="AC34" s="68"/>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B35" s="68" t="s">
         <v>120</v>
       </c>
@@ -9718,7 +9722,7 @@
       <c r="AB35" s="68"/>
       <c r="AC35" s="68"/>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B36" s="68" t="s">
         <v>120</v>
       </c>
@@ -9772,7 +9776,7 @@
       <c r="AB36" s="68"/>
       <c r="AC36" s="68"/>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B37" s="68" t="s">
         <v>120</v>
       </c>
@@ -9826,7 +9830,7 @@
       <c r="AB37" s="68"/>
       <c r="AC37" s="68"/>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B38" s="68" t="s">
         <v>120</v>
       </c>
@@ -9884,7 +9888,7 @@
       <c r="AB38" s="98"/>
       <c r="AC38" s="68"/>
     </row>
-    <row r="39" spans="1:33" ht="12.75" customHeight="1">
+    <row r="39" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="68" t="s">
         <v>120</v>
       </c>
@@ -9942,7 +9946,7 @@
       <c r="AB39" s="68"/>
       <c r="AC39" s="68"/>
     </row>
-    <row r="40" spans="1:33" s="3" customFormat="1" ht="12.75" customHeight="1">
+    <row r="40" spans="1:33" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="68" t="s">
         <v>120</v>
@@ -10002,7 +10006,7 @@
       <c r="AC40" s="68"/>
       <c r="AG40" s="2"/>
     </row>
-    <row r="41" spans="1:33" s="3" customFormat="1">
+    <row r="41" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="68" t="s">
         <v>120</v>
@@ -10058,7 +10062,7 @@
       <c r="AC41" s="68"/>
       <c r="AG41" s="2"/>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B42" s="68" t="s">
         <v>120</v>
       </c>
@@ -10112,7 +10116,7 @@
       <c r="AB42" s="106"/>
       <c r="AC42" s="106"/>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B43" s="68" t="s">
         <v>120</v>
       </c>
@@ -10166,7 +10170,7 @@
       <c r="AB43" s="106"/>
       <c r="AC43" s="106"/>
     </row>
-    <row r="44" spans="1:33" ht="72">
+    <row r="44" spans="1:33" ht="72" x14ac:dyDescent="0.2">
       <c r="B44" s="72" t="s">
         <v>120</v>
       </c>
@@ -10222,7 +10226,7 @@
       <c r="AB44" s="106"/>
       <c r="AC44" s="106"/>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B45" s="72" t="s">
         <v>120</v>
       </c>
@@ -10272,7 +10276,7 @@
       <c r="AB45" s="106"/>
       <c r="AC45" s="106"/>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B46" s="113"/>
       <c r="C46" s="113"/>
       <c r="D46" s="113"/>
@@ -10316,7 +10320,7 @@
       <c r="AB46" s="106"/>
       <c r="AC46" s="106"/>
     </row>
-    <row r="47" spans="1:33" ht="96">
+    <row r="47" spans="1:33" ht="96" x14ac:dyDescent="0.2">
       <c r="B47" s="72" t="s">
         <v>120</v>
       </c>
@@ -10372,7 +10376,7 @@
       <c r="AB47" s="106"/>
       <c r="AC47" s="106"/>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B48" s="59"/>
       <c r="C48" s="59"/>
       <c r="D48" s="60"/>
@@ -10396,7 +10400,7 @@
       <c r="V48" s="59"/>
       <c r="W48" s="59"/>
     </row>
-    <row r="49" spans="2:23">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B49" s="59"/>
       <c r="C49" s="59"/>
       <c r="D49" s="60"/>
@@ -10434,7 +10438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10442,7 +10446,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="16" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="16" customWidth="1"/>
@@ -10450,7 +10454,7 @@
     <col min="4" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="23"/>
@@ -10470,7 +10474,7 @@
       <c r="X1" s="18"/>
       <c r="Y1" s="18"/>
     </row>
-    <row r="2" spans="2:25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="22"/>
@@ -10490,7 +10494,7 @@
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
     </row>
-    <row r="3" spans="2:25" ht="18">
+    <row r="3" spans="2:25" ht="18" x14ac:dyDescent="0.25">
       <c r="C3" s="20" t="s">
         <v>50</v>
       </c>
@@ -10515,7 +10519,7 @@
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
     </row>
-    <row r="4" spans="2:25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="E4" s="18"/>
@@ -10537,7 +10541,7 @@
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
     </row>
-    <row r="6" spans="2:25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
         <v>51</v>
       </c>
@@ -10545,7 +10549,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="25.5">
+    <row r="7" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
         <v>48</v>
       </c>
@@ -10553,7 +10557,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="25.5">
+    <row r="8" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
         <v>46</v>
       </c>
@@ -10561,7 +10565,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="25.5">
+    <row r="9" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="32" t="s">
         <v>44</v>
       </c>
@@ -10569,7 +10573,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="25.5">
+    <row r="10" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="32" t="s">
         <v>42</v>
       </c>
@@ -10577,7 +10581,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="25.5">
+    <row r="11" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>40</v>
       </c>
@@ -10585,7 +10589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="25.5">
+    <row r="12" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B12" s="32" t="s">
         <v>38</v>
       </c>
@@ -10593,7 +10597,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="25.5">
+    <row r="13" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="32" t="s">
         <v>36</v>
       </c>
@@ -10601,7 +10605,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="25.5">
+    <row r="14" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B14" s="32" t="s">
         <v>34</v>
       </c>
@@ -10609,7 +10613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="25.5">
+    <row r="15" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="32" t="s">
         <v>32</v>
       </c>
@@ -10617,7 +10621,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="25.5">
+    <row r="16" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
         <v>30</v>
       </c>
@@ -10625,7 +10629,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="25.5">
+    <row r="17" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B17" s="32" t="s">
         <v>28</v>
       </c>
@@ -10633,7 +10637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="25.5">
+    <row r="18" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B18" s="32" t="s">
         <v>26</v>
       </c>
@@ -10641,7 +10645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="25.5">
+    <row r="19" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
         <v>24</v>
       </c>
@@ -10649,7 +10653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="25.5">
+    <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B20" s="32" t="s">
         <v>22</v>
       </c>
@@ -10657,7 +10661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="25.5">
+    <row r="21" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B21" s="32" t="s">
         <v>20</v>
       </c>
@@ -10665,7 +10669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="25.5">
+    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="32" t="s">
         <v>18</v>
       </c>
@@ -10673,7 +10677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="25.5">
+    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B23" s="35" t="s">
         <v>16</v>
       </c>
@@ -10692,15 +10696,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -10749,25 +10744,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10782,15 +10778,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -10803,4 +10799,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>